--- a/真的taptap demo/Assets/Excel/database.xlsx
+++ b/真的taptap demo/Assets/Excel/database.xlsx
@@ -59,6 +59,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
@@ -66,15 +73,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="45">
     <fill>
       <patternFill patternType="none">
         <fgColor/>
@@ -89,60 +89,516 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9F5D6"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9F5D6"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9F5D6"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBFBC"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBFBC"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBFBC"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5F6F2"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5F6F2"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5F6F2"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECE2FE"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECE2FE"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAF1D1"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAF1D1"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAF1D1"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFED4A4"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFED4A4"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFED4A4"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1EAFF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1EAFF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFF258"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFF258"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDDDEF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDDDEF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD9F3FD"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9F3FD"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5F6F2"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5F6F2"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBFBC"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBFBC"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECE2FE"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECE2FE"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD355"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD355"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD355"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD9F5D6"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF258"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9F3FD"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9F5D6"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9F3FD"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9F3FD"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9F5D6"/>
+        <fgColor rgb="FFFDDDEF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFED4A4"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5F6F2"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAD82F7"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAD82F7"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF76964"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF76964"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDDDEF"/>
         <bgColor/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="49">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -238,7 +694,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="49">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -246,37 +702,145 @@
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="5" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="6" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="7" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="8" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="9" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="10" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="11" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="12" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="13" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="14" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="15" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="16" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="17" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="18" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="19" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="20" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="6" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="24" fillId="21" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="25" fillId="22" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="26" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="27" fillId="23" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="28" fillId="24" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="29" fillId="25" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="30" fillId="26" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="31" fillId="27" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="32" fillId="28" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="33" fillId="29" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="34" fillId="30" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="35" fillId="31" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="36" fillId="32" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="7" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="37" fillId="33" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="38" fillId="34" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="39" fillId="35" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="8" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="40" fillId="36" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="9" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="41" fillId="37" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="10" fontId="4" numFmtId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="42" fillId="38" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="43" fillId="39" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="44" fillId="40" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="45" fillId="41" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="46" fillId="42" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="47" fillId="43" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="48" fillId="44" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,33 +1171,43 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="15" t="str">
         <v>DialogueId</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="26" t="str">
         <v>Text</v>
       </c>
-      <c r="C1" s="3" t="str">
+      <c r="C1" s="26" t="str">
         <v>Comment</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="24" t="str">
         <v>编号，触发时候调用</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="25" t="str">
         <v>整段对话。一行speaker，一行text。speaker不要冒号，speaker相当于一个ID来控制显示哪张立绘特殊speaker
 Null ：（表示没有立绘）Narrator:（表示全屏显示旁白）Options（表示触发选项，后面跟选项编号，用 “|”分隔）</v>
       </c>
-      <c r="C2" s="3" t="str">
-        <v>备注。可以写触发地点，代码不读取，只是为了方便排查</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="404" r="3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="str">
+      <c r="C2" s="25" t="str">
+        <v>备注。可以写触发地点，代码不读取，只是为了方便排查
+编号排查：
+1xx-开场剧情及冥府主殿相关
+2xx-炼狱（塔尔塔洛斯
+3xx-原野（极乐之野
+4xx-河流（喀戎之河
+5xx-花园（水仙花园
+6xx-泉水（亡灵饮水地
+7xx-侧殿（冥府侧殿
+8xx-混沌（遗忘之地
+9xx-结局相关</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="425" r="3">
+      <c r="A3" s="22">
+        <v>100</v>
+      </c>
+      <c r="B3" s="23" t="str">
         <v>Narrator
 沉湎……
 Narrator
@@ -661,16 +1235,16 @@
 Null 
 眼前的苍蝇怪物和这座城堡都令你分外熟悉。这分明是你独立开发的个人游戏中设计出的场景和角色。你掉进了自己制作的游戏里！</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="23" t="str">
         <v>开场剧情
 Null 处配的是哥特宫殿那张图</v>
       </c>
     </row>
     <row customHeight="true" ht="350" r="4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="str">
+      <c r="A4" s="22">
+        <v>110</v>
+      </c>
+      <c r="B4" s="23" t="str">
         <v>别西卜
 你好，戴着白色厨师帽的女孩。我想你就是来应聘地狱主厨的候选人了。
 主角7
@@ -694,41 +1268,49 @@
 别西卜
 你还有哪些想知道的？
 Options 
-1|2|3</v>
-      </c>
-      <c r="C4" s="3" t="str">
+11|12|10</v>
+      </c>
+      <c r="C4" s="23" t="str">
         <v>冥府主殿</v>
       </c>
     </row>
-    <row customHeight="true" ht="62" r="5">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="str">
+    <row customHeight="true" ht="108" r="5">
+      <c r="A5" s="22">
+        <v>111</v>
+      </c>
+      <c r="B5" s="23" t="str">
         <v>别西卜
-万魔殿的每个地点都在等待着你的探索。与每个地点的人物对话，获得新的线索。利用地点中的食材，发挥想象力，创造出属于你的菜肴吧。</v>
-      </c>
-      <c r="C5" s="3" t="str">
+万魔殿的每个地点都在等待着你的探索。与每个地点的人物对话，获得新的线索。利用地点中的食材，发挥想象力，创造出属于你的菜肴吧。
+别西卜
+你还有哪些想知道的？
+Options
+11|12|10</v>
+      </c>
+      <c r="C5" s="23" t="str">
         <v>冥府主殿</v>
       </c>
     </row>
-    <row customHeight="true" ht="68" r="6">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="str">
+    <row customHeight="true" ht="115" r="6">
+      <c r="A6" s="22">
+        <v>112</v>
+      </c>
+      <c r="B6" s="23" t="str">
         <v>别西卜
-每道菜有一份标准主食和一份标准辅食。每道菜最多可加入一份主料、三份辅料。万魔殿中存在着丰富的原料，尽情探索，发掘出食材组合的奥秘。带着你的食材回到主殿的厨房，调节烹饪的火力和时间，做出属于你的大餐。</v>
-      </c>
-      <c r="C6" s="3" t="str">
+每道菜有一份标准主食和一份标准辅食。每道菜最多可加入一份主料、三份辅料。万魔殿中存在着丰富的原料，尽情探索，发掘出食材组合的奥秘。带着你的食材回到主殿的厨房，调节烹饪的火力和时间，做出属于你的大餐。
+别西卜
+你还有哪些想知道的？
+Options
+11|12|10</v>
+      </c>
+      <c r="C6" s="23" t="str">
         <v>冥府主殿</v>
       </c>
     </row>
     <row customHeight="true" ht="106" r="7">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="str">
+      <c r="A7" s="22">
+        <v>113</v>
+      </c>
+      <c r="B7" s="23" t="str">
         <v>别西卜
 第一道菜是无花果香煎龙肝。
 主角6
@@ -736,15 +1318,15 @@
 主角7
 早知道将新手教程做得更清晰一些了……！</v>
       </c>
-      <c r="C7" s="3" t="str">
+      <c r="C7" s="23" t="str">
         <v>冥府主殿</v>
       </c>
     </row>
     <row customHeight="true" ht="171" r="8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="str">
+      <c r="A8" s="12">
+        <v>210</v>
+      </c>
+      <c r="B8" s="13" t="str">
         <v>Null 
 到处都是火焰、火焰、火焰。尖叫和嘶鸣声不绝于耳，裂开的地缝里涌动着岩浆，猛烈的风在罅隙中呼啸而过，将绑缚着罪人的锁链吹断。掉进岩浆并不会死亡，而是经受着高温炙烤的酷刑折磨，永无天日。
 大饼
@@ -754,18 +1336,17 @@
 大饼
 啊……我想你还是少知道的为好。你来找我有什么事情吗？
 Options 
-4|6|8
-</v>
-      </c>
-      <c r="C8" s="3" t="str">
-        <v>排除下面两种情况的默认情况</v>
+211|212|999</v>
+      </c>
+      <c r="C8" s="13" t="str">
+        <v>排除下面7、8两种情况的默认情况</v>
       </c>
     </row>
     <row customHeight="true" ht="176" r="9">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="str">
+      <c r="A9" s="12">
+        <v>220</v>
+      </c>
+      <c r="B9" s="13" t="str">
         <v>Null 
 到处都是火焰、火焰、火焰。尖叫和嘶鸣声不绝于耳，裂开的地缝里涌动着岩浆，猛烈的风在罅隙中呼啸而过，将绑缚着罪人的锁链吹断。
 掉进岩浆并不会死亡，而是经受着高温炙烤的酷刑折磨，永无天日。
@@ -776,17 +1357,17 @@
 大饼
 啊……我想你还是少知道的为好。你来找我有什么事情吗？
 Options 
-4|5|6|8</v>
-      </c>
-      <c r="C9" s="3" t="str">
-        <v>对应菜品轮次</v>
+221|222|223|999</v>
+      </c>
+      <c r="C9" s="13" t="str">
+        <v>对应菜品轮次（第一轮）</v>
       </c>
     </row>
     <row customHeight="true" ht="176" r="10">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="str">
+      <c r="A10" s="12">
+        <v>230</v>
+      </c>
+      <c r="B10" s="13" t="str">
         <v>Null
 到处都是火焰、火焰、火焰。尖叫和嘶鸣声不绝于耳，裂开的地缝里涌动着岩浆，猛烈的风在罅隙中呼啸而过，将绑缚着罪人的锁链吹断。
 Null
@@ -798,68 +1379,142 @@
 大饼
 啊……我想你还是少知道的为好。你来找我有什么事情吗？
 Options 
-4|6|7|8</v>
-      </c>
-      <c r="C10" s="3" t="str">
+231|232|234|999</v>
+      </c>
+      <c r="C10" s="13" t="str">
         <v>塔尔塔洛斯
 在喀戎之河与因诺完成对话后
 来到塔尔塔洛斯触发
-触发了前置条件后</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="93" r="11">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="str">
+触发了前置条件后（第25条）</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="128" r="11">
+      <c r="A11" s="12">
+        <v>211</v>
+      </c>
+      <c r="B11" s="13" t="str">
         <v>大饼
-阿斯摩太是代表着色欲与婚姻破裂的恶魔之王，有三个脑袋，分别是人头、牛头和羊头。她曾经爱上了一个名叫莎拉的凡间女子，因为嫉妒杀害了她的七任丈夫，阻止他们圆房。在天使拉斐尔的帮助下，莎拉的最后一个新婚丈夫托比亚斯用燃烧鱼心和鱼肝的烟驱逐了她。她和她的巨龙刻尔柏已经在塔尔塔洛斯里待了漫长的年月，炼狱的火焰将巨龙的肝脏锤炼地柔韧有力。</v>
-      </c>
-      <c r="C11" s="3" t="str">
+阿斯摩太是代表着色欲与婚姻破裂的恶魔之王，有三个脑袋，分别是人头、牛头和羊头。她曾经爱上了一个名叫莎拉的凡间女子，因为嫉妒杀害了她的七任丈夫，阻止他们圆房。在天使拉斐尔的帮助下，莎拉的最后一个新婚丈夫托比亚斯用燃烧鱼心和鱼肝的烟驱逐了她。她和她的巨龙刻尔柏已经在塔尔塔洛斯里待了漫长的年月，炼狱的火焰将巨龙的肝脏锤炼地柔韧有力。
+大饼
+你来找我有什么事情吗？
+Options 
+211|212|999</v>
+      </c>
+      <c r="C11" s="13" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
-    <row customHeight="true" ht="70" r="12">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="str">
+    <row customHeight="true" ht="102" r="12">
+      <c r="A12" s="12">
+        <v>212</v>
+      </c>
+      <c r="B12" s="13" t="str">
         <v>大饼
-想要获得刻尔柏的龙肝，你需要特殊的工具。去极乐之野找一位名叫三叶虫的看守，她将给予你所需要的帮助。另外，在每个地点多多探索，也许会发现可能用到的东西。</v>
-      </c>
-      <c r="C12" s="3" t="str">
+万魔殿里常年生长着一些可作平替的食材和肉类。当走投无路之际，你可以尝试用这些食材做出低配版的菜品。不过要注意，过多的简陋食材会使别西卜大人发怒。
+大饼
+你来找我有什么事情吗？
+Options 
+211|212|999</v>
+      </c>
+      <c r="C12" s="13" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
-    <row customHeight="true" ht="80" r="13">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="str">
+    <row customHeight="true" ht="134" r="13">
+      <c r="A13" s="12">
+        <v>221</v>
+      </c>
+      <c r="B13" s="13" t="str">
         <v>大饼
-万魔殿里常年生长着一些可作平替的食材和肉类。当走投无路之际，你可以尝试用这些食材做出低配版的菜品。不过要注意，过多的简陋食材会使别西卜大人发怒。</v>
-      </c>
-      <c r="C13" s="3" t="str">
+阿斯摩太是代表着色欲与婚姻破裂的恶魔之王，有三个脑袋，分别是人头、牛头和羊头。她曾经爱上了一个名叫莎拉的凡间女子，因为嫉妒杀害了她的七任丈夫，阻止他们圆房。在天使拉斐尔的帮助下，莎拉的最后一个新婚丈夫托比亚斯用燃烧鱼心和鱼肝的烟驱逐了她。她和她的巨龙刻尔柏已经在塔尔塔洛斯里待了漫长的年月，炼狱的火焰将巨龙的肝脏锤炼地柔韧有力。
+大饼
+你来找我有什么事情吗？
+Options 
+221|222|223|999</v>
+      </c>
+      <c r="C13" s="13" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
-    <row customHeight="true" ht="71" r="14">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="str">
+    <row customHeight="true" ht="111" r="14">
+      <c r="A14" s="12">
+        <v>222</v>
+      </c>
+      <c r="B14" s="13" t="str">
+        <v>大饼
+万魔殿里常年生长着一些可作平替的食材和肉类。当走投无路之际，你可以尝试用这些食材做出低配版的菜品。不过要注意，过多的简陋食材会使别西卜大人发怒。
+大饼
+你来找我有什么事情吗？
+Options 
+221|222|223|999</v>
+      </c>
+      <c r="C14" s="13" t="str">
+        <v>塔尔塔洛斯</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="106" r="15">
+      <c r="A15" s="12">
+        <v>223</v>
+      </c>
+      <c r="B15" s="13" t="str">
+        <v>大饼
+想要获得刻尔柏的龙肝，你需要特殊的工具。去极乐之野找一位名叫三叶虫的看守，她将给予你所需要的帮助。另外，在每个地点多多探索，也许会发现可能用到的东西。
+</v>
+      </c>
+      <c r="C15" s="13" t="str">
+        <v>塔尔塔洛斯</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="141" r="16">
+      <c r="A16" s="12">
+        <v>231</v>
+      </c>
+      <c r="B16" s="13" t="str">
+        <v>大饼
+阿斯摩太是代表着色欲与婚姻破裂的恶魔之王，有三个脑袋，分别是人头、牛头和羊头。她曾经爱上了一个名叫莎拉的凡间女子，因为嫉妒杀害了她的七任丈夫，阻止他们圆房。在天使拉斐尔的帮助下，莎拉的最后一个新婚丈夫托比亚斯用燃烧鱼心和鱼肝的烟驱逐了她。她和她的巨龙刻尔柏已经在塔尔塔洛斯里待了漫长的年月，炼狱的火焰将巨龙的肝脏锤炼地柔韧有力。
+大饼
+你来找我有什么事情吗？
+Options 
+231|232|234|999</v>
+      </c>
+      <c r="C16" s="13" t="str">
+        <v>塔尔塔洛斯</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="108" r="17">
+      <c r="A17" s="12">
+        <v>232</v>
+      </c>
+      <c r="B17" s="13" t="str">
+        <v>大饼
+万魔殿里常年生长着一些可作平替的食材和肉类。当走投无路之际，你可以尝试用这些食材做出低配版的菜品。不过要注意，过多的简陋食材会使别西卜大人发怒。
+大饼
+你来找我有什么事情吗？
+Options 
+231|232|234|999</v>
+      </c>
+      <c r="C17" s="13" t="str">
+        <v>塔尔塔洛斯</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="71" r="18">
+      <c r="A18" s="12">
+        <v>234</v>
+      </c>
+      <c r="B18" s="13" t="str">
         <v>大饼
 我的混沌三叉戟可以帮上你的忙。</v>
       </c>
-      <c r="C14" s="3" t="str">
-        <v>塔尔塔洛斯</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="246" r="15">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="str">
+      <c r="C18" s="13" t="str">
+        <v>塔尔塔洛斯
+玩家需要获得混沌三叉戟道具，这里再问下鼠老师是对话之后获得，还是点击场景内物品？</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="246" r="19">
+      <c r="A19" s="12">
+        <v>299</v>
+      </c>
+      <c r="B19" s="13" t="str">
         <v>阿斯摩太
 我闻到了浓郁的人肉香气……如此新鲜、柔嫩、美味。
 阿斯摩太
@@ -875,15 +1530,15 @@
 阿斯摩太
 我被困于炼狱中已经太久，自然无法违抗别西卜大人的命令。但是如何得到你所需要的食材，并不取决于我，而取决于你作为厨师的手法。</v>
       </c>
-      <c r="C15" s="3" t="str">
+      <c r="C19" s="13" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
-    <row customHeight="true" ht="176" r="16">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="str">
+    <row customHeight="true" ht="176" r="20">
+      <c r="A20" s="29">
+        <v>310</v>
+      </c>
+      <c r="B20" s="30" t="str">
         <v>Null 
 你来到一个藏红花遍布的平原。原野绿意盎然，白色的亡灵们在摇晃的树丛间穿梭。这里多是狄俄索尼斯的信徒：葡萄、美酒、黄金遍布其中，亡灵们跳着欢乐的舞蹈。酒杯碰撞的声音掩盖了从高处传来的吼叫。
 三叶虫
@@ -891,18 +1546,18 @@
 三叶虫
 我想我知道你是谁。
 Options 
-9|11|13</v>
-      </c>
-      <c r="C16" s="3" t="str">
+311|312|999</v>
+      </c>
+      <c r="C20" s="30" t="str">
         <v>极乐之野
 排除下面两种情况的默认情况</v>
       </c>
     </row>
-    <row customHeight="true" ht="176" r="17">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="str">
+    <row customHeight="true" ht="176" r="21">
+      <c r="A21" s="29">
+        <v>320</v>
+      </c>
+      <c r="B21" s="30" t="str">
         <v>Null 
 你来到一个藏红花遍布的平原。原野绿意盎然，白色的亡灵们在摇晃的树丛间穿梭。这里多是狄俄索尼斯的信徒：葡萄、美酒、黄金遍布其中，亡灵们跳着欢乐的舞蹈。酒杯碰撞的声音掩盖了从高处传来的吼叫。
 三叶虫
@@ -910,17 +1565,17 @@
 三叶虫
 我想我知道你是谁。
 Options 
-9|10|11|13</v>
-      </c>
-      <c r="C17" s="3" t="str">
+321|322|323|999</v>
+      </c>
+      <c r="C21" s="30" t="str">
         <v>对应菜品轮次</v>
       </c>
     </row>
-    <row customHeight="true" ht="155" r="18">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="str">
+    <row customHeight="true" ht="155" r="22">
+      <c r="A22" s="29">
+        <v>330</v>
+      </c>
+      <c r="B22" s="30" t="str">
         <v>Null 
 你来到一个藏红花遍布的平原。原野绿意盎然，白色的亡灵们在摇晃的树丛间穿梭。这里多是狄俄索尼斯的信徒：葡萄、美酒、黄金遍布其中，亡灵们跳着欢乐的舞蹈。酒杯碰撞的声音掩盖了从高处传来的吼叫。
 三叶虫
@@ -928,67 +1583,139 @@
 三叶虫
 我想我知道你是谁。
 Options 
-9|11|12|13</v>
-      </c>
-      <c r="C18" s="3" t="str">
+331|332|334|999</v>
+      </c>
+      <c r="C22" s="30" t="str">
         <v>在塔尔塔洛斯与大饼完成对话后
 来到极乐之野
 触发了前置条件后</v>
       </c>
     </row>
-    <row customHeight="true" ht="106" r="19">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="str">
+    <row customHeight="true" ht="150" r="23">
+      <c r="A23" s="29">
+        <v>311</v>
+      </c>
+      <c r="B23" s="30" t="str">
         <v>三叶虫
-摩洛克是一位嗜血好战的恶魔，常以半人半牛的形态出没。在凡间，他有一批忠诚的邪教徒。这群恶名昭彰的人类主要游荡在迦南地区，以献祭儿童为乐。他们建造起一个牛头人身的青铜塑像，这个塑像通常是中空的，有一个燃烧着烈火的腹部熔炉，用于进行活人献祭的恐怖仪式。摩洛克因为伤害儿童之罪被别西卜大人禁闭在了极乐之野高处的囚笼里，与他最忮忌的良善亡灵们为伍。即使对恶魔来说，残害儿童也是头等大罪。</v>
-      </c>
-      <c r="C19" s="3" t="str">
+摩洛克是一位嗜血好战的恶魔，常以半人半牛的形态出没。在凡间，他有一批忠诚的邪教徒。这群恶名昭彰的人类主要游荡在迦南地区，以献祭儿童为乐。他们建造起一个牛头人身的青铜塑像，这个塑像通常是中空的，有一个燃烧着烈火的腹部熔炉，用于进行活人献祭的恐怖仪式。摩洛克因为伤害儿童之罪被别西卜大人禁闭在了极乐之野高处的囚笼里，与他最忮忌的良善亡灵们为伍。即使对恶魔来说，残害儿童也是头等大罪。
+三叶虫
+你还有什么要问的吗？
+Options 
+311|312|999</v>
+      </c>
+      <c r="C23" s="30" t="str">
         <v>极乐之野</v>
       </c>
     </row>
-    <row customHeight="true" ht="106" r="20">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="str">
+    <row customHeight="true" ht="99" r="24">
+      <c r="A24" s="29">
+        <v>312</v>
+      </c>
+      <c r="B24" s="30" t="str">
+        <v>三叶虫
+不要相信你的大脑。相信你的手、足、眼、口、鼻。亲眼所见，亦非真实。
+三叶虫
+你还有什么要问的吗？
+Options 
+311|312|999</v>
+      </c>
+      <c r="C24" s="30" t="str">
+        <v>极乐之野</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="140" r="25">
+      <c r="A25" s="29">
+        <v>321</v>
+      </c>
+      <c r="B25" s="30" t="str">
+        <v>三叶虫
+摩洛克是一位嗜血好战的恶魔，常以半人半牛的形态出没。在凡间，他有一批忠诚的邪教徒。这群恶名昭彰的人类主要游荡在迦南地区，以献祭儿童为乐。他们建造起一个牛头人身的青铜塑像，这个塑像通常是中空的，有一个燃烧着烈火的腹部熔炉，用于进行活人献祭的恐怖仪式。摩洛克因为伤害儿童之罪被别西卜大人禁闭在了极乐之野高处的囚笼里，与他最忮忌的良善亡灵们为伍。即使对恶魔来说，残害儿童也是头等大罪。
+三叶虫
+你还有什么要问的吗？
+Options 
+321|322|323|999</v>
+      </c>
+      <c r="C25" s="30" t="str">
+        <v>极乐之野</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="90" r="26">
+      <c r="A26" s="29">
+        <v>322</v>
+      </c>
+      <c r="B26" s="30" t="str">
+        <v>三叶虫
+不要相信你的大脑。相信你的手、足、眼、口、鼻。亲眼所见，亦非真实。
+三叶虫
+你还有什么要问的吗？
+Options 
+321|322|323|999</v>
+      </c>
+      <c r="C26" s="30" t="str">
+        <v>极乐之野</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="125" r="27">
+      <c r="A27" s="29">
+        <v>323</v>
+      </c>
+      <c r="B27" s="30" t="str">
         <v>三叶虫
 摩洛克虽然被禁锢在方寸之地，但力量依然不可小觑。他仇视别西卜大人，自然也不可能顺从地给出食材，即便对于恶魔来说，皮肉之苦不过是顷刻间便愈合的事。去遗忘之地寻找一个名叫蓝七的混沌亡灵，她将帮助你使摩洛克陷入沉睡。</v>
       </c>
-      <c r="C20" s="3" t="str">
+      <c r="C27" s="30" t="str">
         <v>极乐之野</v>
       </c>
     </row>
-    <row customHeight="true" ht="71" r="21">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="str">
+    <row customHeight="true" ht="136" r="28">
+      <c r="A28" s="29">
+        <v>331</v>
+      </c>
+      <c r="B28" s="30" t="str">
         <v>三叶虫
-不要相信你的大脑。相信你的手、足、眼、口、鼻。亲眼所见，亦非真实。</v>
-      </c>
-      <c r="C21" s="3" t="str">
+摩洛克是一位嗜血好战的恶魔，常以半人半牛的形态出没。在凡间，他有一批忠诚的邪教徒。这群恶名昭彰的人类主要游荡在迦南地区，以献祭儿童为乐。他们建造起一个牛头人身的青铜塑像，这个塑像通常是中空的，有一个燃烧着烈火的腹部熔炉，用于进行活人献祭的恐怖仪式。摩洛克因为伤害儿童之罪被别西卜大人禁闭在了极乐之野高处的囚笼里，与他最忮忌的良善亡灵们为伍。即使对恶魔来说，残害儿童也是头等大罪。
+三叶虫
+你还有什么要问的吗？
+Options 
+331|332|334|999</v>
+      </c>
+      <c r="C28" s="30" t="str">
         <v>极乐之野</v>
       </c>
     </row>
-    <row customHeight="true" ht="71" r="22">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="str">
+    <row customHeight="true" ht="91" r="29">
+      <c r="A29" s="29">
+        <v>332</v>
+      </c>
+      <c r="B29" s="30" t="str">
+        <v>三叶虫
+不要相信你的大脑。相信你的手、足、眼、口、鼻。亲眼所见，亦非真实。
+三叶虫
+你还有什么要问的吗？
+Options 
+331|332|334|999</v>
+      </c>
+      <c r="C29" s="30" t="str">
+        <v>极乐之野</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="64" r="30">
+      <c r="A30" s="29">
+        <v>334</v>
+      </c>
+      <c r="B30" s="30" t="str">
         <v>三叶虫
 这是我的地狱弯刀，几乎可以砍下世界上所有生物的脖颈。</v>
       </c>
-      <c r="C22" s="3" t="str">
+      <c r="C30" s="30" t="str">
         <v>极乐之野</v>
       </c>
     </row>
-    <row customHeight="true" ht="197" r="23">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="str">
+    <row customHeight="true" ht="197" r="31">
+      <c r="A31" s="29">
+        <v>399</v>
+      </c>
+      <c r="B31" s="30" t="str">
         <v>Null 
 摩洛克被关在一处画满蓝色符文的阵法里，无形的光芒笼罩着他。他的牛头发出低沉的吼叫，胸口的熔炉燃烧着腾腾火焰。
 主角1
@@ -1002,15 +1729,15 @@
 Null
 他重新吼叫起来，完全忽视了站在外面的人类。</v>
       </c>
-      <c r="C23" s="3" t="str">
+      <c r="C31" s="30" t="str">
         <v>极乐之野</v>
       </c>
     </row>
-    <row customHeight="true" ht="246" r="24">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="str">
+    <row customHeight="true" ht="246" r="32">
+      <c r="A32" s="27">
+        <v>410</v>
+      </c>
+      <c r="B32" s="28" t="str">
         <v>Null 
 冥府的河流呈现深不可测的黑色。这是隔离人间与冥界的河流，生死在此处交汇成一个巨大的漩涡。漩涡外的水面平静如死亡，你总觉得那河流里的黑来源于浓郁到化不开的尸油。岸边停靠着一个竹筏，无花果树下站着一个戴着兜帽的生物。一切都散发着冰冷、宁静的气息，专属于死亡的诗意笼罩着此地。
 因诺
@@ -1026,18 +1753,18 @@
 因诺
 我想我可以给你提供一些帮助。
 Options 
-14|16|17</v>
-      </c>
-      <c r="C24" s="3" t="str">
+411|412|999</v>
+      </c>
+      <c r="C32" s="28" t="str">
         <v>喀戎之河
 非当前菜品轮次</v>
       </c>
     </row>
-    <row customHeight="true" ht="246" r="25">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="str">
+    <row customHeight="true" ht="246" r="33">
+      <c r="A33" s="27">
+        <v>420</v>
+      </c>
+      <c r="B33" s="28" t="str">
         <v>Null 
 冥府的河流呈现深不可测的黑色。这是隔离人间与冥界的河流，生死在此处交汇成一个巨大的漩涡。漩涡外的水面平静如死亡，你总觉得那河流里的黑来源于浓郁到化不开的尸油。岸边停靠着一个竹筏，无花果树下站着一个戴着兜帽的生物。一切都散发着冰冷、宁静的气息，专属于死亡的诗意笼罩着此地。
 因诺
@@ -1053,54 +1780,96 @@
 因诺
 我想我可以给你提供一些帮助。
 Options 
-14|15|16|17</v>
-      </c>
-      <c r="C25" s="3" t="str">
+421|422|423|999</v>
+      </c>
+      <c r="C33" s="28" t="str">
         <v>喀戎之河
 当前菜品轮次</v>
       </c>
     </row>
-    <row customHeight="true" ht="106" r="26">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="str">
+    <row customHeight="true" ht="132" r="34">
+      <c r="A34" s="27">
+        <v>411</v>
+      </c>
+      <c r="B34" s="28" t="str">
         <v>因诺
-利维坦是原始混沌的化身，是海洋的统治者。他常以鲸鱼的形态现身，古时在人类社会出现时的身躯大如浮岛，因此被凡人认为是力量强大的魔鬼。实际上利维坦作为混沌本身，智商也与真正的鲸鱼别无二致，思维单一且逆来顺受。凡人常认为巨大的身躯象征着巨大的力量，殊不知真正的强大从不体现在表面的事物上。</v>
-      </c>
-      <c r="C26" s="3" t="str">
+利维坦是原始混沌的化身，是海洋的统治者。他常以鲸鱼的形态现身，古时在人类社会出现时的身躯大如浮岛，因此被凡人认为是力量强大的魔鬼。实际上利维坦作为混沌本身，智商也与真正的鲸鱼别无二致，思维单一且逆来顺受。凡人常认为巨大的身躯象征着巨大的力量，殊不知真正的强大从不体现在表面的事物上。
+因诺
+我想我可以给你提供一些帮助。
+Options 
+411|412|999</v>
+      </c>
+      <c r="C34" s="28" t="str">
         <v>喀戎之河</v>
       </c>
     </row>
-    <row customHeight="true" ht="71" r="27">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2" t="str">
+    <row customHeight="true" ht="93" r="35">
+      <c r="A35" s="27">
+        <v>412</v>
+      </c>
+      <c r="B35" s="28" t="str">
         <v>因诺
-与利维坦的简单性格相对照的，是他坚硬无比的皮肤。别西卜大人需要的食材必须特殊的工具才能获得，你需要去塔尔塔洛斯寻找那位地狱守卫，取得她的帮助。</v>
-      </c>
-      <c r="C27" s="3" t="str">
+跟她们不一样，我很喜欢你对我的塑造。你是个善良的人，不该承受这些。
+因诺
+我想我可以给你提供一些帮助。
+Options 
+411|412|999
+</v>
+      </c>
+      <c r="C35" s="28" t="str">
         <v>喀戎之河</v>
       </c>
     </row>
-    <row customHeight="true" ht="71" r="28">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2" t="str">
+    <row customHeight="true" ht="130" r="36">
+      <c r="A36" s="27">
+        <v>421</v>
+      </c>
+      <c r="B36" s="28" t="str">
         <v>因诺
-跟她们不一样，我很喜欢你对我的塑造。你是个善良的人，不该承受这些。</v>
-      </c>
-      <c r="C28" s="3" t="str">
+利维坦是原始混沌的化身，是海洋的统治者。他常以鲸鱼的形态现身，古时在人类社会出现时的身躯大如浮岛，因此被凡人认为是力量强大的魔鬼。实际上利维坦作为混沌本身，智商也与真正的鲸鱼别无二致，思维单一且逆来顺受。凡人常认为巨大的身躯象征着巨大的力量，殊不知真正的强大从不体现在表面的事物上。
+因诺
+我想我可以给你提供一些帮助。
+Options 
+421|422|423|999</v>
+      </c>
+      <c r="C36" s="28" t="str">
         <v>喀戎之河</v>
       </c>
     </row>
-    <row customHeight="true" ht="295" r="29">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2" t="str">
+    <row customHeight="true" ht="94" r="37">
+      <c r="A37" s="27">
+        <v>422</v>
+      </c>
+      <c r="B37" s="28" t="str">
+        <v>因诺
+跟她们不一样，我很喜欢你对我的塑造。你是个善良的人，不该承受这些。
+因诺
+我想我可以给你提供一些帮助。
+Options 
+421|422|423|999</v>
+      </c>
+      <c r="C37" s="28" t="str">
+        <v>喀戎之河</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="87" r="38">
+      <c r="A38" s="27">
+        <v>423</v>
+      </c>
+      <c r="B38" s="28" t="str">
+        <v>因诺
+与利维坦的简单性格相对照的，是他坚硬无比的皮肤。别西卜大人需要的食材必须特殊的工具才能获得，你需要去塔尔塔洛斯寻找那位地狱守卫，取得她的帮助。
+</v>
+      </c>
+      <c r="C38" s="28" t="str">
+        <v>喀戎之河</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="295" r="39">
+      <c r="A39" s="27">
+        <v>499</v>
+      </c>
+      <c r="B39" s="28" t="str">
         <v>Null 
 一只巨大的鲸鱼出现在你面前。它的表面没有眼睛，身体上覆盖着厚厚的青苔。它不安的背鳍轻轻晃动着，黏稠厚重的河水慢慢浮现波纹。
 利维坦
@@ -1122,15 +1891,15 @@
 主角12
 虽然利维坦的个性温和，但毕竟是恶魔，他并没有比别人犯的罪恶更少。</v>
       </c>
-      <c r="C29" s="3" t="str">
+      <c r="C39" s="28" t="str">
         <v>喀戎之河</v>
       </c>
     </row>
-    <row customHeight="true" ht="330" r="30">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="str">
+    <row customHeight="true" ht="330" r="40">
+      <c r="A40" s="9">
+        <v>510</v>
+      </c>
+      <c r="B40" s="32" t="str">
         <v>Null 
 这里生长着大片水仙。这种冥河之花象征着死亡、自恋与重生——纳西索斯化作美丽的金光柔和地包裹着这个地方。湿润暧昧的雾气糅杂着淡淡的金光，像下了一场无边的黄金雨。植物们贪婪地吸纳着水汽。万魔殿的后花园里从不缺乏养料。
 摸摸
@@ -1152,18 +1921,18 @@
 摸摸
 你有什么想问的吗？
 Options 
-18|20|22</v>
-      </c>
-      <c r="C30" s="3" t="str">
+511|512|999</v>
+      </c>
+      <c r="C40" s="32" t="str">
         <v>水仙花园
 排除下面两种情况的默认情况</v>
       </c>
     </row>
-    <row customHeight="true" ht="330" r="31">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" s="8" t="str">
+    <row customHeight="true" ht="330" r="41">
+      <c r="A41" s="9">
+        <v>520</v>
+      </c>
+      <c r="B41" s="10" t="str">
         <v>Null 
 这里生长着大片水仙。这种冥河之花象征着死亡、自恋与重生——纳西索斯化作美丽的金光柔和地包裹着这个地方。湿润暧昧的雾气糅杂着淡淡的金光，像下了一场无边的黄金雨。植物们贪婪地吸纳着水汽。万魔殿的后花园里从不缺乏养料。
 摸摸
@@ -1185,18 +1954,18 @@
 摸摸
 你有什么想问的吗？
 Options 
-18|19|20|22</v>
-      </c>
-      <c r="C31" s="9" t="str">
+521|522|523|999</v>
+      </c>
+      <c r="C41" s="31" t="str">
         <v>水仙花园
 当前菜品轮次</v>
       </c>
     </row>
-    <row customHeight="true" ht="330" r="32">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" s="8" t="str">
+    <row customHeight="true" ht="330" r="42">
+      <c r="A42" s="9">
+        <v>530</v>
+      </c>
+      <c r="B42" s="10" t="str">
         <v>Null 
 这里生长着大片水仙。这种冥河之花象征着死亡、自恋与重生——纳西索斯化作美丽的金光柔和地包裹着这个地方。湿润暧昧的雾气糅杂着淡淡的金光，像下了一场无边的黄金雨。植物们贪婪地吸纳着水汽。万魔殿的后花园里从不缺乏养料。
 摸摸
@@ -1218,67 +1987,139 @@
 摸摸
 你有什么想问的吗？
 Options 
-18|20|21|22</v>
-      </c>
-      <c r="C32" s="6" t="str">
+531|532|534|999</v>
+      </c>
+      <c r="C42" s="11" t="str">
         <v>在冥府侧殿与侍女小葵完成对话后
 来到水仙花园
 触发了前置条件后</v>
       </c>
     </row>
-    <row customHeight="true" ht="106" r="33">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" s="8" t="str">
+    <row customHeight="true" ht="142" r="43">
+      <c r="A43" s="9">
+        <v>511</v>
+      </c>
+      <c r="B43" s="10" t="str">
         <v>摸摸
-远在万魔殿建造之前，巴力曾经是古迦南普遍崇拜的风暴和丰饶之神。他有三个脑袋——猫头、蟾蜍头、人头。没有人知道究竟经历了什么让他来到地狱。有人说他是别西卜大人的兄长，曾经帮助别西卜大人坐上地狱的王座统领群魔，但却在上位后被舍弃。每隔十三年，总会有人看到别西卜大人在深夜出没在混沌之地，巴力会化作猫的形态出现在纺锤状的流星下陪伴着他，那是他们在拜祭死去的亲人。</v>
-      </c>
-      <c r="C33" s="6" t="str">
+远在万魔殿建造之前，巴力曾经是古迦南普遍崇拜的风暴和丰饶之神。他有三个脑袋——猫头、蟾蜍头、人头。没有人知道究竟经历了什么让他来到地狱。有人说他是别西卜大人的兄长，曾经帮助别西卜大人坐上地狱的王座统领群魔，但却在上位后被舍弃。每隔十三年，总会有人看到别西卜大人在深夜出没在混沌之地，巴力会化作猫的形态出现在纺锤状的流星下陪伴着他，那是他们在拜祭死去的亲人。
+摸摸
+你有什么想问的吗？
+Options 
+511|512|999</v>
+      </c>
+      <c r="C43" s="11" t="str">
         <v>水仙花园</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" s="8" t="str">
+    <row customHeight="true" ht="106" r="44">
+      <c r="A44" s="9">
+        <v>512</v>
+      </c>
+      <c r="B44" s="10" t="str">
+        <v>摸摸
+为什么要把我设计成全黑的角色我恨你你知道我有多讨厌黑色吗你根本不懂你才是这个游戏里最大的bug！！！
+摸摸
+你有什么想问的吗？
+Options 
+511|512|999</v>
+      </c>
+      <c r="C44" s="11" t="str">
+        <v>水仙花园</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="134" r="45">
+      <c r="A45" s="9">
+        <v>521</v>
+      </c>
+      <c r="B45" s="10" t="str">
+        <v>摸摸
+远在万魔殿建造之前，巴力曾经是古迦南普遍崇拜的风暴和丰饶之神。他有三个脑袋——猫头、蟾蜍头、人头。没有人知道究竟经历了什么让他来到地狱。有人说他是别西卜大人的兄长，曾经帮助别西卜大人坐上地狱的王座统领群魔，但却在上位后被舍弃。每隔十三年，总会有人看到别西卜大人在深夜出没在混沌之地，巴力会化作猫的形态出现在纺锤状的流星下陪伴着他，那是他们在拜祭死去的亲人。
+摸摸
+你有什么想问的吗？
+Options 
+521|522|523|999</v>
+      </c>
+      <c r="C45" s="11" t="str">
+        <v>水仙花园</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="107" r="46">
+      <c r="A46" s="9">
+        <v>522</v>
+      </c>
+      <c r="B46" s="10" t="str">
+        <v>摸摸
+为什么要把我设计成全黑的角色我恨你你知道我有多讨厌黑色吗你根本不懂你才是这个游戏里最大的bug！！！
+摸摸
+你有什么想问的吗？
+Options 
+521|522|523|999</v>
+      </c>
+      <c r="C46" s="11" t="str">
+        <v>水仙花园</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9">
+        <v>523</v>
+      </c>
+      <c r="B47" s="10" t="str">
         <v>摸摸
 在巴力处获取的食材需要特殊的容器才能储存，你可以在喀戎河畔找到你所需要的物品。</v>
       </c>
-      <c r="C34" s="6" t="str">
+      <c r="C47" s="11" t="str">
         <v>水仙花园</v>
       </c>
     </row>
-    <row customHeight="true" ht="71" r="35">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" s="8" t="str">
+    <row customHeight="true" ht="140" r="48">
+      <c r="A48" s="9">
+        <v>531</v>
+      </c>
+      <c r="B48" s="10" t="str">
         <v>摸摸
-为什么要把我设计成全黑的角色我恨你你知道我有多讨厌黑色吗你根本不懂你才是这个游戏里最大的bug！！！</v>
-      </c>
-      <c r="C35" s="6" t="str">
+远在万魔殿建造之前，巴力曾经是古迦南普遍崇拜的风暴和丰饶之神。他有三个脑袋——猫头、蟾蜍头、人头。没有人知道究竟经历了什么让他来到地狱。有人说他是别西卜大人的兄长，曾经帮助别西卜大人坐上地狱的王座统领群魔，但却在上位后被舍弃。每隔十三年，总会有人看到别西卜大人在深夜出没在混沌之地，巴力会化作猫的形态出现在纺锤状的流星下陪伴着他，那是他们在拜祭死去的亲人。
+摸摸
+你有什么想问的吗？
+Options 
+531|532|534|999</v>
+      </c>
+      <c r="C48" s="11" t="str">
         <v>水仙花园</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" s="8" t="str">
+    <row customHeight="true" ht="101" r="49">
+      <c r="A49" s="9">
+        <v>532</v>
+      </c>
+      <c r="B49" s="10" t="str">
+        <v>摸摸
+为什么要把我设计成全黑的角色我恨你你知道我有多讨厌黑色吗你根本不懂你才是这个游戏里最大的bug！！！
+摸摸
+你有什么想问的吗？
+Options 
+531|532|534|999</v>
+      </c>
+      <c r="C49" s="11" t="str">
+        <v>水仙花园</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9">
+        <v>534</v>
+      </c>
+      <c r="B50" s="10" t="str">
         <v>摸摸
 噢……你指的是这把金十字镐。用这个对付玛门再合适不过。</v>
       </c>
-      <c r="C36" s="6" t="str">
+      <c r="C50" s="11" t="str">
         <v>水仙花园</v>
       </c>
     </row>
-    <row customHeight="true" ht="316" r="37">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" s="8" t="str">
+    <row customHeight="true" ht="316" r="51">
+      <c r="A51" s="9">
+        <v>599</v>
+      </c>
+      <c r="B51" s="10" t="str">
         <v>巴力
 你好，戴着白色厨师帽的女孩。
 主角2
@@ -1298,15 +2139,15 @@
 巴力
 至于他所想取的食材……这些伤口对地狱的恶魔不算什么。动手吧，戴厨师帽的女孩。</v>
       </c>
-      <c r="C37" s="6" t="str">
+      <c r="C51" s="11" t="str">
         <v>水仙花园</v>
       </c>
     </row>
-    <row customHeight="true" ht="246" r="38">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" s="8" t="str">
+    <row customHeight="true" ht="246" r="52">
+      <c r="A52" s="6">
+        <v>610</v>
+      </c>
+      <c r="B52" s="7" t="str">
         <v>Null 
 如牛奶般甘美的泉水在灰暗的密林里流淌。灰尘围绕在亡灵们身边，亡灵们围绕在白杨树身边，他们在蒙昧的光晕里起舞、摇摆、歌唱。只有最纯洁的灵魂死后才能来到此地。乳白色的泉水，甘甜如蜜露的泉水，滋养着低眉的白杨，也滋养着这群人间至真至纯的魂魄。
 牙牙乐
@@ -1322,17 +2163,17 @@
 牙牙乐
 你还有什么想要了解的？白杨树神女牙牙乐欢迎为您服务~
 Options 
-23|25|26</v>
-      </c>
-      <c r="C38" s="6" t="str">
+611|612|999</v>
+      </c>
+      <c r="C52" s="8" t="str">
         <v>亡灵饮水地</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" s="8" t="str">
+    <row r="53">
+      <c r="A53" s="6">
+        <v>620</v>
+      </c>
+      <c r="B53" s="7" t="str">
         <v>Null 
 如牛奶般甘美的泉水在灰暗的密林里流淌。灰尘围绕在亡灵们身边，亡灵们围绕在白杨树身边，他们在蒙昧的光晕里起舞、摇摆、歌唱。只有最纯洁的灵魂死后才能来到此地。乳白色的泉水，甘甜如蜜露的泉水，滋养着低眉的白杨，也滋养着这群人间至真至纯的魂魄。
 牙牙乐
@@ -1348,53 +2189,85 @@
 牙牙乐
 你还有什么想要了解的？白杨树神女牙牙乐欢迎为您服务~
 Options 
-23|24|25|26</v>
-      </c>
-      <c r="C39" s="6" t="str">
+621|622|623|999</v>
+      </c>
+      <c r="C53" s="8" t="str">
         <v>亡灵饮水地</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" s="8" t="str">
+    <row r="54">
+      <c r="A54" s="6">
+        <v>611</v>
+      </c>
+      <c r="B54" s="7" t="str">
+        <v>牙牙乐
+她被认作是怠惰的化身，通过财富、懒惰和发明来诱惑人类。在人间，贝尔芬格被描述为美丽的女子或留着胡子的怪物，或是惊人天人的美丽，或是极为怪异丑陋。人类因发明进步喜悦时将她描绘成最美丽的魔鬼，而厌恶懒惰时又将她描述成前无来者的丑恶。懒惰和发明常常是互相成就，而她真实的面貌则是半面奇诡的怪物，半面美丽的少女形象。人类对她的爱恨纠葛令人惊异，以至于流传出她的祭品是排泄物的传说。
+牙牙乐
+你还有什么想要了解的？白杨树神女牙牙乐欢迎为您服务~
+Options 
+611|612|999</v>
+      </c>
+      <c r="C54" s="8" t="str">
+        <v>亡灵饮水地</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="92" r="55">
+      <c r="A55" s="6">
+        <v>612</v>
+      </c>
+      <c r="B55" s="7" t="str">
+        <v>牙牙乐
+亲爱的，实际上，我们都知道你是谁……
+牙牙乐
+你还有什么想要了解的？白杨树神女牙牙乐欢迎为您服务~
+Options 
+611|612|999</v>
+      </c>
+      <c r="C55" s="8" t="str">
+        <v>亡灵饮水地</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="71" r="56">
+      <c r="A56" s="6">
+        <v>621</v>
+      </c>
+      <c r="B56" s="7" t="str">
         <v>牙牙乐
 她被认作是怠惰的化身，通过财富、懒惰和发明来诱惑人类。在人间，贝尔芬格被描述为美丽的女子或留着胡子的怪物，或是惊人天人的美丽，或是极为怪异丑陋。人类因发明进步喜悦时将她描绘成最美丽的魔鬼，而厌恶懒惰时又将她描述成前无来者的丑恶。懒惰和发明常常是互相成就，而她真实的面貌则是半面奇诡的怪物，半面美丽的少女形象。人类对她的爱恨纠葛令人惊异，以至于流传出她的祭品是排泄物的传说。</v>
       </c>
-      <c r="C40" s="6" t="str">
+      <c r="C56" s="8" t="str">
         <v>亡灵饮水地</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" s="8" t="str">
+    <row customHeight="true" ht="71" r="57">
+      <c r="A57" s="6">
+        <v>622</v>
+      </c>
+      <c r="B57" s="7" t="str">
+        <v>牙牙乐
+亲爱的，实际上，我们都知道你是谁……</v>
+      </c>
+      <c r="C57" s="8" t="str">
+        <v>亡灵饮水地</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="6">
+        <v>623</v>
+      </c>
+      <c r="B58" s="7" t="str">
         <v>牙牙乐
 没有人知道这次的祭品究竟是不是人类的排泄物。以防万一，我想你可以去冥府侧殿的侍女处找到合适的容器来盛装。</v>
       </c>
-      <c r="C41" s="6" t="str">
+      <c r="C58" s="8" t="str">
         <v>亡灵饮水地</v>
       </c>
     </row>
-    <row customHeight="true" ht="71" r="42">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" s="8" t="str">
-        <v>牙牙乐
-亲爱的，实际上，我们都知道你是谁……</v>
-      </c>
-      <c r="C42" s="6" t="str">
-        <v>亡灵饮水地</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" s="8" t="str">
+    <row r="59">
+      <c r="A59" s="6">
+        <v>699</v>
+      </c>
+      <c r="B59" s="7" t="str">
         <v>贝尔芬格
 ……
 主角1
@@ -1412,15 +2285,15 @@
 主角12
 看来我自己去获取祭品就好。</v>
       </c>
-      <c r="C43" s="6" t="str">
+      <c r="C59" s="8" t="str">
         <v>亡灵饮水地</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1">
+    <row r="60">
+      <c r="A60" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="8" t="str">
+      <c r="B60" s="2" t="str">
         <v>Null 
 某位魔王用金子打造了这座殿堂：从天花板、吊灯到桌椅、碗碟甚至侍女的面纱，都散发着黄金令人迷醉的香气。冰冷的金子，美丽的金子，沉重的金子，身处其中，然后下沉、下沉。
 小葵
@@ -1437,15 +2310,15 @@
 27|29|31
 </v>
       </c>
-      <c r="C44" s="6" t="str">
+      <c r="C60" s="3" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1">
+    <row r="61">
+      <c r="A61" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="8" t="str">
+      <c r="B61" s="2" t="str">
         <v>Null 
 某位魔王用金子打造了这座殿堂：从天花板、吊灯到桌椅、碗碟甚至侍女的面纱，都散发着黄金令人迷醉的香气。冰冷的金子，美丽的金子，沉重的金子，身处其中，然后下沉、下沉。
 小葵
@@ -1461,15 +2334,15 @@
 Options 
 27|28|29|31</v>
       </c>
-      <c r="C45" s="6" t="str">
+      <c r="C61" s="3" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1">
+    <row r="62">
+      <c r="A62" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="8" t="str">
+      <c r="B62" s="2" t="str">
         <v>Null 
 某位魔王用金子打造了这座殿堂：从天花板、吊灯到桌椅、碗碟甚至侍女的面纱，都散发着黄金令人迷醉的香气。冰冷的金子，美丽的金子，沉重的金子，身处其中，然后下沉、下沉。
 小葵
@@ -1485,63 +2358,63 @@
 Options 
 27|29|30|31</v>
       </c>
-      <c r="C46" s="6" t="str">
+      <c r="C62" s="3" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1">
+    <row r="63">
+      <c r="A63" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="8" t="str">
+      <c r="B63" s="2" t="str">
         <v>小葵
 即使在天堂时，他的眼睛也总是向下凝视着天堂黄金铺就的地板。他对黄金和财富的狂热追求令他堕入地狱，他指挥其他魔鬼在地狱深处挖掘黄金、宝石来建造这座侧殿，是第一个将天堂的黄金用于建造世俗建筑的魔鬼。凡人用他来隐喻对财富无底线追求的戕害。</v>
       </c>
-      <c r="C47" s="6" t="str">
+      <c r="C63" s="3" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1">
+    <row r="64">
+      <c r="A64" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="8" t="str">
+      <c r="B64" s="2" t="str">
         <v>小葵
 此刻他正在沉睡。即使在睡梦中，玛门也要与黄金同眠。我想你需要去找水仙花园的冥府园丁，借助某个工具才能将他从黄金堆里找出。</v>
       </c>
-      <c r="C48" s="6" t="str">
+      <c r="C64" s="3" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1">
+    <row r="65">
+      <c r="A65" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="5" t="str">
+      <c r="B65" s="3" t="str">
         <v>小葵
 你有没有发现……这个地方开始出现故障了？</v>
       </c>
-      <c r="C49" s="6" t="str">
+      <c r="C65" s="3" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1">
+    <row r="66">
+      <c r="A66" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="5" t="str">
+      <c r="B66" s="3" t="str">
         <v>小葵
 啊！我想你需要的是这个狮鹫夜壶。</v>
       </c>
-      <c r="C50" s="6" t="str">
+      <c r="C66" s="3" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1">
+    <row r="67">
+      <c r="A67" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="5" t="str">
+      <c r="B67" s="3" t="str">
         <v>玛门
 没有一个瞬间，不会成为地狱的进口。没有一个瞬间，不会成为天堂的流水。
 玛门
@@ -1553,15 +2426,15 @@
 主角3
 人设还真是始终如一地不ooc呢……</v>
       </c>
-      <c r="C51" s="6" t="str">
+      <c r="C67" s="3" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1">
+    <row r="68">
+      <c r="A68" s="19">
         <v>50</v>
       </c>
-      <c r="B52" s="7" t="str">
+      <c r="B68" s="20" t="str">
         <v>Null 
 宇宙诞生时遗留的最后一处混沌之地，现在只能看到漫天沙砾。星空呈现精确的纺锤形缓慢流转，带给人冲破混沌的幻想和违逆命运的渴望。此地既不属于当下，也不属于将来。目之所及是历史、真相、幻觉、欺瞒，以及植物丛里闪烁的蓝紫色果实。那是缩序杜若。你闻到缓慢流动的苦杏仁之味。
 蓝七
@@ -1579,15 +2452,15 @@
 Options 
 32|34|36</v>
       </c>
-      <c r="C52" s="6" t="str">
+      <c r="C68" s="21" t="str">
         <v>混沌之地</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1">
+    <row r="69">
+      <c r="A69" s="19">
         <v>51</v>
       </c>
-      <c r="B53" s="7" t="str">
+      <c r="B69" s="20" t="str">
         <v>Null 
 宇宙诞生时遗留的最后一处混沌之地，现在只能看到漫天沙砾。星空呈现精确的纺锤形缓慢流转，带给人冲破混沌的幻想和违逆命运的渴望。此地既不属于当下，也不属于将来。目之所及是历史、真相、幻觉、欺瞒，以及植物丛里闪烁的蓝紫色果实。那是缩序杜若。你闻到缓慢流动的苦杏仁之味。
 蓝七
@@ -1605,15 +2478,15 @@
 Options 
 32|33|34|36</v>
       </c>
-      <c r="C53" s="6" t="str">
+      <c r="C69" s="21" t="str">
         <v>混沌之地</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1">
+    <row r="70">
+      <c r="A70" s="19">
         <v>52</v>
       </c>
-      <c r="B54" s="7" t="str">
+      <c r="B70" s="20" t="str">
         <v>Null 
 宇宙诞生时遗留的最后一处混沌之地，现在只能看到漫天沙砾。星空呈现精确的纺锤形缓慢流转，带给人冲破混沌的幻想和违逆命运的渴望。此地既不属于当下，也不属于将来。目之所及是历史、真相、幻觉、欺瞒，以及植物丛里闪烁的蓝紫色果实。那是缩序杜若。你闻到缓慢流动的苦杏仁之味。
 蓝七
@@ -1631,63 +2504,63 @@
 Options 
 32|34|35|36</v>
       </c>
-      <c r="C54" s="6" t="str">
+      <c r="C70" s="21" t="str">
         <v>混沌之地</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1">
+    <row r="71">
+      <c r="A71" s="19">
         <v>53</v>
       </c>
-      <c r="B55" s="7" t="str">
+      <c r="B71" s="20" t="str">
         <v>蓝七
 直至今日，撒旦依然在凡间享有远超于其他恶魔的名声。人类用她的名讳代指恶魔，将其描述为或阴险邪恶的象征。他们将诱惑夏娃亚当一事怪罪于她，认为她化为蛇进入伊甸园，通过分别善恶的知识引诱人类堕落，从而将罪、病、死带入人间。然而无知真的是一种福佑么？撒旦并不是纯粹恶的化身，正如她所栖身的混沌之地，她本身就代表着无言的混沌与不明。</v>
       </c>
-      <c r="C55" s="6" t="str">
+      <c r="C71" s="21" t="str">
         <v>混沌之地</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1">
+    <row r="72">
+      <c r="A72" s="19">
         <v>54</v>
       </c>
-      <c r="B56" s="7" t="str">
+      <c r="B72" s="20" t="str">
         <v>蓝七
 从撒旦身上获取的食材需要特殊的容器才能储存，你可以在亡灵饮水地找到你所需要的物品。</v>
       </c>
-      <c r="C56" s="6" t="str">
+      <c r="C72" s="21" t="str">
         <v>混沌之地</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1">
+    <row r="73">
+      <c r="A73" s="19">
         <v>55</v>
       </c>
-      <c r="B57" s="7" t="str">
+      <c r="B73" s="20" t="str">
         <v>蓝七
 这里并不是你所想象的那样！唯一的方法是&amp;%￥#@！*%￥……&amp;*？%￥#</v>
       </c>
-      <c r="C57" s="6" t="str">
+      <c r="C73" s="21" t="str">
         <v>混沌之地</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1">
+    <row r="74">
+      <c r="A74" s="19">
         <v>56</v>
       </c>
-      <c r="B58" s="7" t="str">
+      <c r="B74" s="20" t="str">
         <v>蓝七
 啊！我想你需要厄洛斯之香。即使是再强大的恶魔，它也能使其陷入沉睡。</v>
       </c>
-      <c r="C58" s="6" t="str">
+      <c r="C74" s="21" t="str">
         <v>混沌之地</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1">
+    <row r="75">
+      <c r="A75" s="19">
         <v>57</v>
       </c>
-      <c r="B59" s="7" t="str">
+      <c r="B75" s="20" t="str">
         <v>撒旦
 我一直在看着你，女孩。
 撒旦
@@ -1699,15 +2572,15 @@
 撒旦
 既然别西卜想要，我就不为难你了。不必怜惜我，我不会感到疼痛……</v>
       </c>
-      <c r="C59" s="6" t="str">
+      <c r="C75" s="21" t="str">
         <v>混沌之地</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1">
+    <row r="76">
+      <c r="A76" s="16">
         <v>58</v>
       </c>
-      <c r="B60" s="7" t="str">
+      <c r="B76" s="17" t="str">
         <v>Narrator
 你以为你成功了吗？
 你以为游戏通关就可以回到现实吗？
@@ -1737,15 +2610,15 @@
 真高兴你没有那么选。
 亲爱的，我们游戏主界面见。</v>
       </c>
-      <c r="C60" s="6" t="str">
+      <c r="C76" s="18" t="str">
         <v>真结局文本</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1">
+    <row r="77">
+      <c r="A77" s="16">
         <v>59</v>
       </c>
-      <c r="B61" s="7" t="str">
+      <c r="B77" s="17" t="str">
         <v>因诺
 不知道现在告诉你这些会不会太晚了……
 因诺
@@ -1757,834 +2630,834 @@
 Options 
 37|38</v>
       </c>
-      <c r="C61" s="6" t="str">
+      <c r="C77" s="18" t="str">
         <v>第六道菜结束后弹出的对话</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="6"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="4"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="6"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="4"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="6"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="4"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="6"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="4"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="6"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="4"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="6"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="4"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="6"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="4"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="6"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="4"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="6"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="4"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="6"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="4"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="6"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="4"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="6"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="4"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="6"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="4"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="6"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="4"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="6"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="4"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="6"/>
-    </row>
     <row r="78">
-      <c r="A78" s="4"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="6"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="5"/>
     </row>
     <row r="79">
       <c r="A79" s="4"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="6"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="5"/>
     </row>
     <row r="80">
       <c r="A80" s="4"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="6"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="5"/>
     </row>
     <row r="81">
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
-      <c r="C81" s="6"/>
+      <c r="C81" s="5"/>
     </row>
     <row r="82">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
-      <c r="C82" s="6"/>
+      <c r="C82" s="5"/>
     </row>
     <row r="83">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
-      <c r="C83" s="6"/>
+      <c r="C83" s="5"/>
     </row>
     <row r="84">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
-      <c r="C84" s="6"/>
+      <c r="C84" s="5"/>
     </row>
     <row r="85">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
-      <c r="C85" s="6"/>
+      <c r="C85" s="5"/>
     </row>
     <row r="86">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
-      <c r="C86" s="6"/>
+      <c r="C86" s="5"/>
     </row>
     <row r="87">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
-      <c r="C87" s="6"/>
+      <c r="C87" s="5"/>
     </row>
     <row r="88">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
-      <c r="C88" s="6"/>
+      <c r="C88" s="5"/>
     </row>
     <row r="89">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
-      <c r="C89" s="6"/>
+      <c r="C89" s="5"/>
     </row>
     <row r="90">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
-      <c r="C90" s="6"/>
+      <c r="C90" s="5"/>
     </row>
     <row r="91">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
-      <c r="C91" s="6"/>
+      <c r="C91" s="5"/>
     </row>
     <row r="92">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
-      <c r="C92" s="6"/>
+      <c r="C92" s="5"/>
     </row>
     <row r="93">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
-      <c r="C93" s="6"/>
+      <c r="C93" s="5"/>
     </row>
     <row r="94">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
-      <c r="C94" s="6"/>
+      <c r="C94" s="5"/>
     </row>
     <row r="95">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
-      <c r="C95" s="6"/>
+      <c r="C95" s="5"/>
     </row>
     <row r="96">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
-      <c r="C96" s="6"/>
+      <c r="C96" s="5"/>
     </row>
     <row r="97">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
-      <c r="C97" s="6"/>
+      <c r="C97" s="5"/>
     </row>
     <row r="98">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
-      <c r="C98" s="6"/>
+      <c r="C98" s="5"/>
     </row>
     <row r="99">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
-      <c r="C99" s="6"/>
+      <c r="C99" s="5"/>
     </row>
     <row r="100">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
-      <c r="C100" s="6"/>
+      <c r="C100" s="5"/>
     </row>
     <row r="101">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
-      <c r="C101" s="6"/>
+      <c r="C101" s="5"/>
     </row>
     <row r="102">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
-      <c r="C102" s="6"/>
+      <c r="C102" s="5"/>
     </row>
     <row r="103">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
-      <c r="C103" s="6"/>
+      <c r="C103" s="5"/>
     </row>
     <row r="104">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
-      <c r="C104" s="6"/>
+      <c r="C104" s="5"/>
     </row>
     <row r="105">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
-      <c r="C105" s="6"/>
+      <c r="C105" s="5"/>
     </row>
     <row r="106">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
-      <c r="C106" s="6"/>
+      <c r="C106" s="5"/>
     </row>
     <row r="107">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
-      <c r="C107" s="6"/>
+      <c r="C107" s="5"/>
     </row>
     <row r="108">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
-      <c r="C108" s="6"/>
+      <c r="C108" s="5"/>
     </row>
     <row r="109">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
-      <c r="C109" s="6"/>
+      <c r="C109" s="5"/>
     </row>
     <row r="110">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
-      <c r="C110" s="6"/>
+      <c r="C110" s="5"/>
     </row>
     <row r="111">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
-      <c r="C111" s="6"/>
+      <c r="C111" s="5"/>
     </row>
     <row r="112">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
-      <c r="C112" s="6"/>
+      <c r="C112" s="5"/>
     </row>
     <row r="113">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
-      <c r="C113" s="6"/>
+      <c r="C113" s="5"/>
     </row>
     <row r="114">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
-      <c r="C114" s="6"/>
+      <c r="C114" s="5"/>
     </row>
     <row r="115">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
-      <c r="C115" s="6"/>
+      <c r="C115" s="5"/>
     </row>
     <row r="116">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
-      <c r="C116" s="6"/>
+      <c r="C116" s="5"/>
     </row>
     <row r="117">
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
-      <c r="C117" s="6"/>
+      <c r="C117" s="5"/>
     </row>
     <row r="118">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
-      <c r="C118" s="6"/>
+      <c r="C118" s="5"/>
     </row>
     <row r="119">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
-      <c r="C119" s="6"/>
+      <c r="C119" s="5"/>
     </row>
     <row r="120">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
-      <c r="C120" s="6"/>
+      <c r="C120" s="5"/>
     </row>
     <row r="121">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
-      <c r="C121" s="6"/>
+      <c r="C121" s="5"/>
     </row>
     <row r="122">
       <c r="A122" s="4"/>
       <c r="B122" s="5"/>
-      <c r="C122" s="6"/>
+      <c r="C122" s="5"/>
     </row>
     <row r="123">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
-      <c r="C123" s="6"/>
+      <c r="C123" s="5"/>
     </row>
     <row r="124">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
-      <c r="C124" s="6"/>
+      <c r="C124" s="5"/>
     </row>
     <row r="125">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
-      <c r="C125" s="6"/>
+      <c r="C125" s="5"/>
     </row>
     <row r="126">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
-      <c r="C126" s="6"/>
+      <c r="C126" s="5"/>
     </row>
     <row r="127">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
-      <c r="C127" s="6"/>
+      <c r="C127" s="5"/>
     </row>
     <row r="128">
       <c r="A128" s="4"/>
       <c r="B128" s="5"/>
-      <c r="C128" s="6"/>
+      <c r="C128" s="5"/>
     </row>
     <row r="129">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
-      <c r="C129" s="6"/>
+      <c r="C129" s="5"/>
     </row>
     <row r="130">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
-      <c r="C130" s="6"/>
+      <c r="C130" s="5"/>
     </row>
     <row r="131">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
-      <c r="C131" s="6"/>
+      <c r="C131" s="5"/>
     </row>
     <row r="132">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
-      <c r="C132" s="6"/>
+      <c r="C132" s="5"/>
     </row>
     <row r="133">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
-      <c r="C133" s="6"/>
+      <c r="C133" s="5"/>
     </row>
     <row r="134">
       <c r="A134" s="4"/>
       <c r="B134" s="5"/>
-      <c r="C134" s="6"/>
+      <c r="C134" s="5"/>
     </row>
     <row r="135">
       <c r="A135" s="4"/>
       <c r="B135" s="5"/>
-      <c r="C135" s="6"/>
+      <c r="C135" s="5"/>
     </row>
     <row r="136">
       <c r="A136" s="4"/>
       <c r="B136" s="5"/>
-      <c r="C136" s="6"/>
+      <c r="C136" s="5"/>
     </row>
     <row r="137">
       <c r="A137" s="4"/>
       <c r="B137" s="5"/>
-      <c r="C137" s="6"/>
+      <c r="C137" s="5"/>
     </row>
     <row r="138">
       <c r="A138" s="4"/>
       <c r="B138" s="5"/>
-      <c r="C138" s="6"/>
+      <c r="C138" s="5"/>
     </row>
     <row r="139">
       <c r="A139" s="4"/>
       <c r="B139" s="5"/>
-      <c r="C139" s="6"/>
+      <c r="C139" s="5"/>
     </row>
     <row r="140">
       <c r="A140" s="4"/>
       <c r="B140" s="5"/>
-      <c r="C140" s="6"/>
+      <c r="C140" s="5"/>
     </row>
     <row r="141">
       <c r="A141" s="4"/>
       <c r="B141" s="5"/>
-      <c r="C141" s="6"/>
+      <c r="C141" s="5"/>
     </row>
     <row r="142">
       <c r="A142" s="4"/>
       <c r="B142" s="5"/>
-      <c r="C142" s="6"/>
+      <c r="C142" s="5"/>
     </row>
     <row r="143">
       <c r="A143" s="4"/>
       <c r="B143" s="5"/>
-      <c r="C143" s="6"/>
+      <c r="C143" s="5"/>
     </row>
     <row r="144">
       <c r="A144" s="4"/>
       <c r="B144" s="5"/>
-      <c r="C144" s="6"/>
+      <c r="C144" s="5"/>
     </row>
     <row r="145">
       <c r="A145" s="4"/>
       <c r="B145" s="5"/>
-      <c r="C145" s="6"/>
+      <c r="C145" s="5"/>
     </row>
     <row r="146">
       <c r="A146" s="4"/>
       <c r="B146" s="5"/>
-      <c r="C146" s="6"/>
+      <c r="C146" s="5"/>
     </row>
     <row r="147">
       <c r="A147" s="4"/>
       <c r="B147" s="5"/>
-      <c r="C147" s="6"/>
+      <c r="C147" s="5"/>
     </row>
     <row r="148">
       <c r="A148" s="4"/>
       <c r="B148" s="5"/>
-      <c r="C148" s="6"/>
+      <c r="C148" s="5"/>
     </row>
     <row r="149">
       <c r="A149" s="4"/>
       <c r="B149" s="5"/>
-      <c r="C149" s="6"/>
+      <c r="C149" s="5"/>
     </row>
     <row r="150">
       <c r="A150" s="4"/>
       <c r="B150" s="5"/>
-      <c r="C150" s="6"/>
+      <c r="C150" s="5"/>
     </row>
     <row r="151">
       <c r="A151" s="4"/>
       <c r="B151" s="5"/>
-      <c r="C151" s="6"/>
+      <c r="C151" s="5"/>
     </row>
     <row r="152">
       <c r="A152" s="4"/>
       <c r="B152" s="5"/>
-      <c r="C152" s="6"/>
+      <c r="C152" s="5"/>
     </row>
     <row r="153">
       <c r="A153" s="4"/>
       <c r="B153" s="5"/>
-      <c r="C153" s="6"/>
+      <c r="C153" s="5"/>
     </row>
     <row r="154">
       <c r="A154" s="4"/>
       <c r="B154" s="5"/>
-      <c r="C154" s="6"/>
+      <c r="C154" s="5"/>
     </row>
     <row r="155">
       <c r="A155" s="4"/>
       <c r="B155" s="5"/>
-      <c r="C155" s="6"/>
+      <c r="C155" s="5"/>
     </row>
     <row r="156">
       <c r="A156" s="4"/>
       <c r="B156" s="5"/>
-      <c r="C156" s="6"/>
+      <c r="C156" s="5"/>
     </row>
     <row r="157">
       <c r="A157" s="4"/>
       <c r="B157" s="5"/>
-      <c r="C157" s="6"/>
+      <c r="C157" s="5"/>
     </row>
     <row r="158">
       <c r="A158" s="4"/>
       <c r="B158" s="5"/>
-      <c r="C158" s="6"/>
+      <c r="C158" s="5"/>
     </row>
     <row r="159">
       <c r="A159" s="4"/>
       <c r="B159" s="5"/>
-      <c r="C159" s="6"/>
+      <c r="C159" s="5"/>
     </row>
     <row r="160">
       <c r="A160" s="4"/>
       <c r="B160" s="5"/>
-      <c r="C160" s="6"/>
+      <c r="C160" s="5"/>
     </row>
     <row r="161">
       <c r="A161" s="4"/>
       <c r="B161" s="5"/>
-      <c r="C161" s="6"/>
+      <c r="C161" s="5"/>
     </row>
     <row r="162">
       <c r="A162" s="4"/>
       <c r="B162" s="5"/>
-      <c r="C162" s="6"/>
+      <c r="C162" s="5"/>
     </row>
     <row r="163">
       <c r="A163" s="4"/>
       <c r="B163" s="5"/>
-      <c r="C163" s="6"/>
+      <c r="C163" s="5"/>
     </row>
     <row r="164">
       <c r="A164" s="4"/>
       <c r="B164" s="5"/>
-      <c r="C164" s="6"/>
+      <c r="C164" s="5"/>
     </row>
     <row r="165">
       <c r="A165" s="4"/>
       <c r="B165" s="5"/>
-      <c r="C165" s="6"/>
+      <c r="C165" s="5"/>
     </row>
     <row r="166">
       <c r="A166" s="4"/>
       <c r="B166" s="5"/>
-      <c r="C166" s="6"/>
+      <c r="C166" s="5"/>
     </row>
     <row r="167">
       <c r="A167" s="4"/>
       <c r="B167" s="5"/>
-      <c r="C167" s="6"/>
+      <c r="C167" s="5"/>
     </row>
     <row r="168">
       <c r="A168" s="4"/>
       <c r="B168" s="5"/>
-      <c r="C168" s="6"/>
+      <c r="C168" s="5"/>
     </row>
     <row r="169">
       <c r="A169" s="4"/>
       <c r="B169" s="5"/>
-      <c r="C169" s="6"/>
+      <c r="C169" s="5"/>
     </row>
     <row r="170">
       <c r="A170" s="4"/>
       <c r="B170" s="5"/>
-      <c r="C170" s="6"/>
+      <c r="C170" s="5"/>
     </row>
     <row r="171">
       <c r="A171" s="4"/>
       <c r="B171" s="5"/>
-      <c r="C171" s="6"/>
+      <c r="C171" s="5"/>
     </row>
     <row r="172">
       <c r="A172" s="4"/>
       <c r="B172" s="5"/>
-      <c r="C172" s="6"/>
+      <c r="C172" s="5"/>
     </row>
     <row r="173">
       <c r="A173" s="4"/>
       <c r="B173" s="5"/>
-      <c r="C173" s="6"/>
+      <c r="C173" s="5"/>
     </row>
     <row r="174">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
-      <c r="C174" s="6"/>
+      <c r="C174" s="5"/>
     </row>
     <row r="175">
       <c r="A175" s="4"/>
       <c r="B175" s="5"/>
-      <c r="C175" s="6"/>
+      <c r="C175" s="5"/>
     </row>
     <row r="176">
       <c r="A176" s="4"/>
       <c r="B176" s="5"/>
-      <c r="C176" s="6"/>
+      <c r="C176" s="5"/>
     </row>
     <row r="177">
       <c r="A177" s="4"/>
       <c r="B177" s="5"/>
-      <c r="C177" s="6"/>
+      <c r="C177" s="5"/>
     </row>
     <row r="178">
       <c r="A178" s="4"/>
       <c r="B178" s="5"/>
-      <c r="C178" s="6"/>
+      <c r="C178" s="5"/>
     </row>
     <row r="179">
       <c r="A179" s="4"/>
       <c r="B179" s="5"/>
-      <c r="C179" s="6"/>
+      <c r="C179" s="5"/>
     </row>
     <row r="180">
       <c r="A180" s="4"/>
       <c r="B180" s="5"/>
-      <c r="C180" s="6"/>
+      <c r="C180" s="5"/>
     </row>
     <row r="181">
       <c r="A181" s="4"/>
       <c r="B181" s="5"/>
-      <c r="C181" s="6"/>
+      <c r="C181" s="5"/>
     </row>
     <row r="182">
       <c r="A182" s="4"/>
       <c r="B182" s="5"/>
-      <c r="C182" s="6"/>
+      <c r="C182" s="5"/>
     </row>
     <row r="183">
       <c r="A183" s="4"/>
       <c r="B183" s="5"/>
-      <c r="C183" s="6"/>
+      <c r="C183" s="5"/>
     </row>
     <row r="184">
       <c r="A184" s="4"/>
       <c r="B184" s="5"/>
-      <c r="C184" s="6"/>
+      <c r="C184" s="5"/>
     </row>
     <row r="185">
       <c r="A185" s="4"/>
       <c r="B185" s="5"/>
-      <c r="C185" s="6"/>
+      <c r="C185" s="5"/>
     </row>
     <row r="186">
       <c r="A186" s="4"/>
       <c r="B186" s="5"/>
-      <c r="C186" s="6"/>
+      <c r="C186" s="5"/>
     </row>
     <row r="187">
       <c r="A187" s="4"/>
       <c r="B187" s="5"/>
-      <c r="C187" s="6"/>
+      <c r="C187" s="5"/>
     </row>
     <row r="188">
       <c r="A188" s="4"/>
       <c r="B188" s="5"/>
-      <c r="C188" s="6"/>
+      <c r="C188" s="5"/>
     </row>
     <row r="189">
       <c r="A189" s="4"/>
       <c r="B189" s="5"/>
-      <c r="C189" s="6"/>
+      <c r="C189" s="5"/>
     </row>
     <row r="190">
       <c r="A190" s="4"/>
       <c r="B190" s="5"/>
-      <c r="C190" s="6"/>
+      <c r="C190" s="5"/>
     </row>
     <row r="191">
       <c r="A191" s="4"/>
       <c r="B191" s="5"/>
-      <c r="C191" s="6"/>
+      <c r="C191" s="5"/>
     </row>
     <row r="192">
       <c r="A192" s="4"/>
       <c r="B192" s="5"/>
-      <c r="C192" s="6"/>
+      <c r="C192" s="5"/>
     </row>
     <row r="193">
       <c r="A193" s="4"/>
       <c r="B193" s="5"/>
-      <c r="C193" s="6"/>
+      <c r="C193" s="5"/>
     </row>
     <row r="194">
       <c r="A194" s="4"/>
       <c r="B194" s="5"/>
-      <c r="C194" s="6"/>
+      <c r="C194" s="5"/>
     </row>
     <row r="195">
       <c r="A195" s="4"/>
       <c r="B195" s="5"/>
-      <c r="C195" s="6"/>
+      <c r="C195" s="5"/>
     </row>
     <row r="196">
       <c r="A196" s="4"/>
       <c r="B196" s="5"/>
-      <c r="C196" s="6"/>
+      <c r="C196" s="5"/>
     </row>
     <row r="197">
       <c r="A197" s="4"/>
       <c r="B197" s="5"/>
-      <c r="C197" s="6"/>
+      <c r="C197" s="5"/>
     </row>
     <row r="198">
       <c r="A198" s="4"/>
       <c r="B198" s="5"/>
-      <c r="C198" s="6"/>
+      <c r="C198" s="5"/>
     </row>
     <row r="199">
       <c r="A199" s="4"/>
       <c r="B199" s="5"/>
-      <c r="C199" s="6"/>
+      <c r="C199" s="5"/>
     </row>
     <row r="200">
       <c r="A200" s="4"/>
       <c r="B200" s="5"/>
-      <c r="C200" s="6"/>
+      <c r="C200" s="5"/>
     </row>
     <row r="201">
       <c r="A201" s="4"/>
       <c r="B201" s="5"/>
-      <c r="C201" s="6"/>
+      <c r="C201" s="5"/>
     </row>
     <row r="202">
       <c r="A202" s="4"/>
       <c r="B202" s="5"/>
-      <c r="C202" s="6"/>
+      <c r="C202" s="5"/>
     </row>
     <row r="203">
       <c r="A203" s="4"/>
       <c r="B203" s="5"/>
-      <c r="C203" s="6"/>
+      <c r="C203" s="5"/>
     </row>
     <row r="204">
       <c r="A204" s="4"/>
       <c r="B204" s="5"/>
-      <c r="C204" s="6"/>
+      <c r="C204" s="5"/>
     </row>
     <row r="205">
       <c r="A205" s="4"/>
       <c r="B205" s="5"/>
-      <c r="C205" s="6"/>
+      <c r="C205" s="5"/>
     </row>
     <row r="206">
       <c r="A206" s="4"/>
       <c r="B206" s="5"/>
-      <c r="C206" s="6"/>
+      <c r="C206" s="5"/>
     </row>
     <row r="207">
       <c r="A207" s="4"/>
       <c r="B207" s="5"/>
-      <c r="C207" s="6"/>
+      <c r="C207" s="5"/>
     </row>
     <row r="208">
       <c r="A208" s="4"/>
       <c r="B208" s="5"/>
-      <c r="C208" s="6"/>
+      <c r="C208" s="5"/>
     </row>
     <row r="209">
       <c r="A209" s="4"/>
       <c r="B209" s="5"/>
-      <c r="C209" s="6"/>
+      <c r="C209" s="5"/>
     </row>
     <row r="210">
       <c r="A210" s="4"/>
       <c r="B210" s="5"/>
-      <c r="C210" s="6"/>
+      <c r="C210" s="5"/>
     </row>
     <row r="211">
       <c r="A211" s="4"/>
       <c r="B211" s="5"/>
-      <c r="C211" s="6"/>
+      <c r="C211" s="5"/>
     </row>
     <row r="212">
       <c r="A212" s="4"/>
       <c r="B212" s="5"/>
-      <c r="C212" s="6"/>
+      <c r="C212" s="5"/>
     </row>
     <row r="213">
       <c r="A213" s="4"/>
       <c r="B213" s="5"/>
-      <c r="C213" s="6"/>
+      <c r="C213" s="5"/>
     </row>
     <row r="214">
       <c r="A214" s="4"/>
       <c r="B214" s="5"/>
-      <c r="C214" s="6"/>
+      <c r="C214" s="5"/>
     </row>
     <row r="215">
       <c r="A215" s="4"/>
       <c r="B215" s="5"/>
-      <c r="C215" s="6"/>
+      <c r="C215" s="5"/>
     </row>
     <row r="216">
       <c r="A216" s="4"/>
       <c r="B216" s="5"/>
-      <c r="C216" s="6"/>
+      <c r="C216" s="5"/>
     </row>
     <row r="217">
       <c r="A217" s="4"/>
       <c r="B217" s="5"/>
-      <c r="C217" s="6"/>
+      <c r="C217" s="5"/>
     </row>
     <row r="218">
       <c r="A218" s="4"/>
       <c r="B218" s="5"/>
-      <c r="C218" s="6"/>
+      <c r="C218" s="5"/>
     </row>
     <row r="219">
       <c r="A219" s="4"/>
       <c r="B219" s="5"/>
-      <c r="C219" s="6"/>
+      <c r="C219" s="5"/>
     </row>
     <row r="220">
       <c r="A220" s="4"/>
       <c r="B220" s="5"/>
-      <c r="C220" s="6"/>
+      <c r="C220" s="5"/>
     </row>
     <row r="221">
       <c r="A221" s="4"/>
       <c r="B221" s="5"/>
-      <c r="C221" s="6"/>
+      <c r="C221" s="5"/>
     </row>
     <row r="222">
       <c r="A222" s="4"/>
       <c r="B222" s="5"/>
-      <c r="C222" s="6"/>
+      <c r="C222" s="5"/>
     </row>
     <row r="223">
       <c r="A223" s="4"/>
       <c r="B223" s="5"/>
-      <c r="C223" s="6"/>
+      <c r="C223" s="5"/>
     </row>
     <row r="224">
       <c r="A224" s="4"/>
       <c r="B224" s="5"/>
-      <c r="C224" s="6"/>
+      <c r="C224" s="5"/>
     </row>
     <row r="225">
       <c r="A225" s="4"/>
       <c r="B225" s="5"/>
-      <c r="C225" s="6"/>
+      <c r="C225" s="5"/>
     </row>
     <row r="226">
       <c r="A226" s="4"/>
       <c r="B226" s="5"/>
-      <c r="C226" s="6"/>
+      <c r="C226" s="5"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="4"/>
+      <c r="B227" s="5"/>
+      <c r="C227" s="5"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="4"/>
+      <c r="B228" s="5"/>
+      <c r="C228" s="5"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="4"/>
+      <c r="B229" s="5"/>
+      <c r="C229" s="5"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="4"/>
+      <c r="B230" s="5"/>
+      <c r="C230" s="5"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="4"/>
+      <c r="B231" s="5"/>
+      <c r="C231" s="5"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="4"/>
+      <c r="B232" s="5"/>
+      <c r="C232" s="5"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="4"/>
+      <c r="B233" s="5"/>
+      <c r="C233" s="5"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="4"/>
+      <c r="B234" s="5"/>
+      <c r="C234" s="5"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="4"/>
+      <c r="B235" s="5"/>
+      <c r="C235" s="5"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="4"/>
+      <c r="B236" s="5"/>
+      <c r="C236" s="5"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="4"/>
+      <c r="B237" s="5"/>
+      <c r="C237" s="5"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="4"/>
+      <c r="B238" s="5"/>
+      <c r="C238" s="5"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="4"/>
+      <c r="B239" s="5"/>
+      <c r="C239" s="5"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="4"/>
+      <c r="B240" s="5"/>
+      <c r="C240" s="5"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="4"/>
+      <c r="B241" s="5"/>
+      <c r="C241" s="5"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="4"/>
+      <c r="B242" s="5"/>
+      <c r="C242" s="5"/>
     </row>
   </sheetData>
 </worksheet>
@@ -2607,446 +3480,548 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="str">
+      <c r="A1" s="26" t="str">
         <v>OptionId</v>
       </c>
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="26" t="str">
         <v>Text</v>
       </c>
-      <c r="C1" s="12" t="str">
+      <c r="C1" s="26" t="str">
         <v>NextDialogueId</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="str">
+      <c r="A2" s="26" t="str">
         <v>和Dialogue表里面的Opetions对应</v>
       </c>
-      <c r="B2" s="12" t="str">
+      <c r="B2" s="26" t="str">
         <v>选项文字内容</v>
       </c>
-      <c r="C2" s="12" t="str">
+      <c r="C2" s="26" t="str">
         <v>要触发的对话ID
 0表示会话结束</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="str">
+      <c r="A3" s="30">
+        <v>11</v>
+      </c>
+      <c r="B3" s="30" t="str">
         <v>我可以在哪些地方获取食材？</v>
       </c>
-      <c r="C3" s="12">
-        <v>3</v>
+      <c r="C3" s="30">
+        <v>111</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="12">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12" t="str">
+      <c r="A4" s="30">
+        <v>12</v>
+      </c>
+      <c r="B4" s="30" t="str">
         <v>烹饪的流程是怎样的？</v>
       </c>
-      <c r="C4" s="12">
-        <v>4</v>
+      <c r="C4" s="30">
+        <v>112</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12">
-        <v>3</v>
-      </c>
-      <c r="B5" s="12" t="str">
+      <c r="A5" s="30">
+        <v>10</v>
+      </c>
+      <c r="B5" s="30" t="str">
+        <v>没什么要问的了</v>
+      </c>
+      <c r="C5" s="30">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>211</v>
+      </c>
+      <c r="B6" s="40" t="str">
+        <v>阿斯摩太是怎样的恶魔？</v>
+      </c>
+      <c r="C6" s="3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>212</v>
+      </c>
+      <c r="B7" s="40" t="str">
+        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
+      </c>
+      <c r="C7" s="3">
+        <v>212</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="19" r="8">
+      <c r="A8" s="3">
+        <v>221</v>
+      </c>
+      <c r="B8" s="40" t="str">
+        <v>阿斯摩太是怎样的恶魔？</v>
+      </c>
+      <c r="C8" s="3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>222</v>
+      </c>
+      <c r="B9" s="40" t="str">
+        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
+      </c>
+      <c r="C9" s="3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>223</v>
+      </c>
+      <c r="B10" s="40" t="str">
+        <v>你能给我哪些获取食材的建议？</v>
+      </c>
+      <c r="C10" s="3">
+        <v>223</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="46" r="11">
+      <c r="A11" s="3">
+        <v>231</v>
+      </c>
+      <c r="B11" s="40" t="str">
+        <v>阿斯摩太是怎样的恶魔？</v>
+      </c>
+      <c r="C11" s="3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>232</v>
+      </c>
+      <c r="B12" s="40" t="str">
+        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
+      </c>
+      <c r="C12" s="3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>234</v>
+      </c>
+      <c r="B13" s="40" t="str">
+        <v>喀戎河畔的渡河人告诉我你这里有能帮助我获得食材的道具。</v>
+      </c>
+      <c r="C13" s="3">
+        <v>234</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="14">
+      <c r="A14" s="28">
+        <v>311</v>
+      </c>
+      <c r="B14" s="41" t="str">
+        <v>摩洛克是怎样的恶魔？</v>
+      </c>
+      <c r="C14" s="28">
+        <v>311</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="15">
+      <c r="A15" s="28">
+        <v>312</v>
+      </c>
+      <c r="B15" s="41" t="str">
+        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
+      </c>
+      <c r="C15" s="28">
+        <v>312</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="16">
+      <c r="A16" s="28">
+        <v>321</v>
+      </c>
+      <c r="B16" s="41" t="str">
+        <v>摩洛克是怎样的恶魔？</v>
+      </c>
+      <c r="C16" s="28">
+        <v>321</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="17">
+      <c r="A17" s="28">
+        <v>322</v>
+      </c>
+      <c r="B17" s="41" t="str">
+        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
+      </c>
+      <c r="C17" s="28">
+        <v>322</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="18">
+      <c r="A18" s="28">
+        <v>323</v>
+      </c>
+      <c r="B18" s="41" t="str">
+        <v>你能给我哪些获取食材的建议？</v>
+      </c>
+      <c r="C18" s="28">
+        <v>323</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="19">
+      <c r="A19" s="28">
+        <v>331</v>
+      </c>
+      <c r="B19" s="41" t="str">
+        <v>摩洛克是怎样的恶魔？</v>
+      </c>
+      <c r="C19" s="28">
+        <v>331</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="20">
+      <c r="A20" s="28">
+        <v>332</v>
+      </c>
+      <c r="B20" s="41" t="str">
+        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
+      </c>
+      <c r="C20" s="28">
+        <v>332</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="21">
+      <c r="A21" s="48">
+        <v>334</v>
+      </c>
+      <c r="B21" s="41" t="str">
+        <v>塔尔塔洛斯的守卫告诉我你会有帮助我获得食材的道具。</v>
+      </c>
+      <c r="C21" s="48">
+        <v>334</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="22">
+      <c r="A22" s="42">
+        <v>411</v>
+      </c>
+      <c r="B22" s="20" t="str">
+        <v>利维坦是怎样的恶魔</v>
+      </c>
+      <c r="C22" s="42">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="42">
+        <v>412</v>
+      </c>
+      <c r="B23" s="20" t="str">
+        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
+      </c>
+      <c r="C23" s="42">
+        <v>412</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="19" r="24">
+      <c r="A24" s="42">
+        <v>421</v>
+      </c>
+      <c r="B24" s="20" t="str">
+        <v>利维坦是怎样的恶魔</v>
+      </c>
+      <c r="C24" s="42">
+        <v>421</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="39" r="25">
+      <c r="A25" s="42">
+        <v>422</v>
+      </c>
+      <c r="B25" s="20" t="str">
+        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
+      </c>
+      <c r="C25" s="42">
+        <v>422</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="35" r="26">
+      <c r="A26" s="42">
+        <v>423</v>
+      </c>
+      <c r="B26" s="20" t="str">
+        <v>你能给我哪些获取食材的建议？</v>
+      </c>
+      <c r="C26" s="42">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8">
+        <v>511</v>
+      </c>
+      <c r="B27" s="33" t="str">
+        <v>巴力是怎样的恶魔？</v>
+      </c>
+      <c r="C27" s="8">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="34">
+        <v>512</v>
+      </c>
+      <c r="B28" s="33" t="str">
+        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
+      </c>
+      <c r="C28" s="34">
+        <v>512</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="19" r="29">
+      <c r="A29" s="8">
+        <v>521</v>
+      </c>
+      <c r="B29" s="33" t="str">
+        <v>巴力是怎样的恶魔？</v>
+      </c>
+      <c r="C29" s="8">
+        <v>521</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="30" r="30">
+      <c r="A30" s="34">
+        <v>522</v>
+      </c>
+      <c r="B30" s="33" t="str">
+        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
+      </c>
+      <c r="C30" s="34">
+        <v>522</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="34" r="31">
+      <c r="A31" s="34">
+        <v>523</v>
+      </c>
+      <c r="B31" s="33" t="str">
+        <v>你能给我哪些获取食材的建议？</v>
+      </c>
+      <c r="C31" s="34">
+        <v>523</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="19" r="32">
+      <c r="A32" s="8">
+        <v>531</v>
+      </c>
+      <c r="B32" s="33" t="str">
+        <v>巴力是怎样的恶魔？</v>
+      </c>
+      <c r="C32" s="8">
+        <v>531</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="34" r="33">
+      <c r="A33" s="34">
+        <v>532</v>
+      </c>
+      <c r="B33" s="33" t="str">
+        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
+      </c>
+      <c r="C33" s="34">
+        <v>532</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="44" r="34">
+      <c r="A34" s="34">
+        <v>534</v>
+      </c>
+      <c r="B34" s="33" t="str">
+        <v>冥府侧殿的侍女告诉我你这里有能帮助我获得食材的道具。</v>
+      </c>
+      <c r="C34" s="34">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="36">
+        <v>61</v>
+      </c>
+      <c r="B35" s="35" t="str">
+        <v>贝尔芬格是怎样的恶魔？</v>
+      </c>
+      <c r="C35" s="36">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="13">
+        <v>62</v>
+      </c>
+      <c r="B36" s="35" t="str">
+        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
+      </c>
+      <c r="C36" s="36">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="36">
+        <v>63</v>
+      </c>
+      <c r="B37" s="35" t="str">
+        <v>你能给我哪些获取食材的建议？</v>
+      </c>
+      <c r="C37" s="36">
+        <v>39</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="19" r="38">
+      <c r="A38" s="13"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="36"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="32">
+        <v>71</v>
+      </c>
+      <c r="B39" s="43" t="str">
+        <v>玛门是怎样的恶魔？</v>
+      </c>
+      <c r="C39" s="11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="11">
+        <v>72</v>
+      </c>
+      <c r="B40" s="43" t="str">
+        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
+      </c>
+      <c r="C40" s="11">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="32">
+        <v>73</v>
+      </c>
+      <c r="B41" s="43" t="str">
+        <v>你能给我哪些获取食材的建议？</v>
+      </c>
+      <c r="C41" s="11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="11">
+        <v>74</v>
+      </c>
+      <c r="B42" s="43" t="str">
+        <v>亡灵饮水地的神女告诉我你这里有能帮助我获得食材的道具。</v>
+      </c>
+      <c r="C42" s="11">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="19" r="43">
+      <c r="A43" s="32"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="11"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="37">
+        <v>81</v>
+      </c>
+      <c r="B44" s="38" t="str">
+        <v>撒旦是怎样的恶魔？</v>
+      </c>
+      <c r="C44" s="39">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="37">
+        <v>82</v>
+      </c>
+      <c r="B45" s="38" t="str">
+        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
+      </c>
+      <c r="C45" s="39">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="37">
+        <v>83</v>
+      </c>
+      <c r="B46" s="38" t="str">
+        <v>你能给我哪些获取食材的建议？</v>
+      </c>
+      <c r="C46" s="39">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="39">
+        <v>84</v>
+      </c>
+      <c r="B47" s="38" t="str">
+        <v>极乐之野的守卫告诉我你这里有能帮助我获得食材的道具。</v>
+      </c>
+      <c r="C47" s="39">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="39"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="39"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="47">
+        <v>91</v>
+      </c>
+      <c r="B49" s="46" t="str">
+        <v>跟她走</v>
+      </c>
+      <c r="C49" s="46"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="46">
+        <v>92</v>
+      </c>
+      <c r="B50" s="46" t="str">
+        <v>不跟她走</v>
+      </c>
+      <c r="C50" s="46"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="44">
+        <v>999</v>
+      </c>
+      <c r="B52" s="45" t="str">
         <v>结束对话</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C52" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="10">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11" t="str">
-        <v>阿斯摩太是怎样的恶魔？</v>
-      </c>
-      <c r="C6" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="10">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11" t="str">
-        <v>你能给我哪些获取食材的建议？</v>
-      </c>
-      <c r="C7" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="10">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11" t="str">
-        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
-      </c>
-      <c r="C8" s="10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="10">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11" t="str">
-        <v>喀戎河畔的渡河人告诉我你这里有能帮助我获得食材的道具。</v>
-      </c>
-      <c r="C9" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="19" r="10">
-      <c r="A10" s="12">
-        <v>8</v>
-      </c>
-      <c r="B10" s="11" t="str">
-        <v>结束对话</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="12">
-        <v>9</v>
-      </c>
-      <c r="B11" s="11" t="str">
-        <v>摩洛克是怎样的恶魔？</v>
-      </c>
-      <c r="C11" s="10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="11" t="str">
-        <v>你能给我哪些获取食材的建议？</v>
-      </c>
-      <c r="C12" s="10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="12">
-        <v>11</v>
-      </c>
-      <c r="B13" s="11" t="str">
-        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
-      </c>
-      <c r="C13" s="10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="10">
-        <v>12</v>
-      </c>
-      <c r="B14" s="11" t="str">
-        <v>塔尔塔洛斯的守卫告诉我你会有帮助我获得食材的道具。</v>
-      </c>
-      <c r="C14" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="19" r="15">
-      <c r="A15" s="12">
-        <v>13</v>
-      </c>
-      <c r="B15" s="11" t="str">
-        <v>结束对话</v>
-      </c>
-      <c r="C15" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="12">
-        <v>14</v>
-      </c>
-      <c r="B16" s="11" t="str">
-        <v>利维坦是怎样的恶魔？</v>
-      </c>
-      <c r="C16" s="10">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="12">
-        <v>15</v>
-      </c>
-      <c r="B17" s="11" t="str">
-        <v>你能给我哪些获取食材的建议？</v>
-      </c>
-      <c r="C17" s="10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="12">
-        <v>16</v>
-      </c>
-      <c r="B18" s="11" t="str">
-        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
-      </c>
-      <c r="C18" s="10">
-        <v>26</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="19" r="19">
-      <c r="A19" s="10">
-        <v>17</v>
-      </c>
-      <c r="B19" s="11" t="str">
-        <v>结束对话</v>
-      </c>
-      <c r="C19" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="10">
-        <v>18</v>
-      </c>
-      <c r="B20" s="11" t="str">
-        <v>巴力是怎样的恶魔？</v>
-      </c>
-      <c r="C20" s="10">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="12">
-        <v>19</v>
-      </c>
-      <c r="B21" s="11" t="str">
-        <v>你能给我哪些获取食材的建议？</v>
-      </c>
-      <c r="C21" s="10">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="12">
-        <v>20</v>
-      </c>
-      <c r="B22" s="11" t="str">
-        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
-      </c>
-      <c r="C22" s="10">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="12">
-        <v>21</v>
-      </c>
-      <c r="B23" s="11" t="str">
-        <v>冥府侧殿的侍女告诉我你这里有能帮助我获得食材的道具。</v>
-      </c>
-      <c r="C23" s="10">
-        <v>34</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="19" r="24">
-      <c r="A24" s="12">
-        <v>22</v>
-      </c>
-      <c r="B24" s="11" t="str">
-        <v>结束对话</v>
-      </c>
-      <c r="C24" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="10">
-        <v>23</v>
-      </c>
-      <c r="B25" s="11" t="str">
-        <v>贝尔芬格是怎样的恶魔？</v>
-      </c>
-      <c r="C25" s="10">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="10">
-        <v>24</v>
-      </c>
-      <c r="B26" s="11" t="str">
-        <v>你能给我哪些获取食材的建议？</v>
-      </c>
-      <c r="C26" s="10">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="12">
-        <v>25</v>
-      </c>
-      <c r="B27" s="11" t="str">
-        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
-      </c>
-      <c r="C27" s="10">
-        <v>40</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="19" r="28">
-      <c r="A28" s="12">
-        <v>26</v>
-      </c>
-      <c r="B28" s="11" t="str">
-        <v>结束对话</v>
-      </c>
-      <c r="C28" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="12">
-        <v>27</v>
-      </c>
-      <c r="B29" s="11" t="str">
-        <v>玛门是怎样的恶魔？</v>
-      </c>
-      <c r="C29" s="10">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="12">
-        <v>28</v>
-      </c>
-      <c r="B30" s="11" t="str">
-        <v>你能给我哪些获取食材的建议？</v>
-      </c>
-      <c r="C30" s="10">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="10">
-        <v>29</v>
-      </c>
-      <c r="B31" s="11" t="str">
-        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
-      </c>
-      <c r="C31" s="10">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="10">
-        <v>30</v>
-      </c>
-      <c r="B32" s="11" t="str">
-        <v>亡灵饮水地的神女告诉我你这里有能帮助我获得食材的道具。</v>
-      </c>
-      <c r="C32" s="10">
-        <v>48</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="19" r="33">
-      <c r="A33" s="12">
-        <v>31</v>
-      </c>
-      <c r="B33" s="11" t="str">
-        <v>结束对话</v>
-      </c>
-      <c r="C33" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="12">
-        <v>32</v>
-      </c>
-      <c r="B34" s="11" t="str">
-        <v>撒旦是怎样的恶魔？</v>
-      </c>
-      <c r="C34" s="10">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="12">
-        <v>33</v>
-      </c>
-      <c r="B35" s="11" t="str">
-        <v>你能给我哪些获取食材的建议？</v>
-      </c>
-      <c r="C35" s="10">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="12">
-        <v>34</v>
-      </c>
-      <c r="B36" s="11" t="str">
-        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
-      </c>
-      <c r="C36" s="10">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="10">
-        <v>35</v>
-      </c>
-      <c r="B37" s="11" t="str">
-        <v>极乐之野的守卫告诉我你这里有能帮助我获得食材的道具。</v>
-      </c>
-      <c r="C37" s="10">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="10">
-        <v>36</v>
-      </c>
-      <c r="B38" s="11" t="str">
-        <v>结束对话</v>
-      </c>
-      <c r="C38" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="12">
-        <v>37</v>
-      </c>
-      <c r="B39" s="10" t="str">
-        <v>跟她走</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="10">
-        <v>38</v>
-      </c>
-      <c r="B40" s="10" t="str">
-        <v>不跟她走</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="12"/>
     </row>
   </sheetData>
 </worksheet>

--- a/真的taptap demo/Assets/Excel/database.xlsx
+++ b/真的taptap demo/Assets/Excel/database.xlsx
@@ -74,7 +74,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="46">
     <fill>
       <patternFill patternType="none">
         <fgColor/>
@@ -84,6 +84,66 @@
     <fill>
       <patternFill patternType="gray125">
         <fgColor/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9F3FD"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9F3FD"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAF1D1"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAF1D1"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAF1D1"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAF1D1"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDDDEF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDDDEF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECE2FE"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECE2FE"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -107,6 +167,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFED4A4"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFED4A4"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFED4A4"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFED4A4"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF258"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF258"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFBBFBC"/>
         <bgColor/>
       </patternFill>
@@ -120,6 +216,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFBBFBC"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1EAFF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1EAFF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9F5D6"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -143,102 +257,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFECE2FE"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFECE2FE"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAF1D1"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAF1D1"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAF1D1"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFED4A4"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFED4A4"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFED4A4"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE1EAFF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE1EAFF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF258"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF258"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDDDEF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDDDEF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9F3FD"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9F3FD"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD5F6F2"/>
         <bgColor/>
       </patternFill>
@@ -251,7 +269,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFBBFBC"/>
+        <fgColor rgb="FFD9F5D6"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -263,13 +281,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFECE2FE"/>
+        <fgColor rgb="FFFDDDEF"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFECE2FE"/>
+        <fgColor rgb="FFAD82F7"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAD82F7"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -287,13 +311,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAD355"/>
+        <fgColor rgb="FFFED4A4"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9F5D6"/>
+        <fgColor rgb="FFECE2FE"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -305,25 +329,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFED4A4"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD5F6F2"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAD82F7"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAD82F7"/>
+        <fgColor rgb="FFECE2FE"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -341,12 +347,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFDDDEF"/>
+        <fgColor rgb="FFFAD355"/>
         <bgColor/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="51">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -694,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -702,144 +722,150 @@
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="6" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="7" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="8" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="9" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="10" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="11" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="12" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="13" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="14" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="15" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="16" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="17" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="5" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="18" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="24" fillId="19" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="6" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="25" fillId="20" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="26" fillId="21" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="27" fillId="22" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="28" fillId="23" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="29" fillId="24" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="30" fillId="25" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="31" fillId="26" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="32" fillId="27" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="33" fillId="28" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="34" fillId="29" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="35" fillId="30" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="36" fillId="31" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="7" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="37" fillId="32" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="38" fillId="33" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="39" fillId="34" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="40" fillId="35" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="41" fillId="36" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="8" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="9" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="42" fillId="37" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="43" fillId="38" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="10" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="44" fillId="39" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="45" fillId="40" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="46" fillId="41" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="11" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="12" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="47" fillId="42" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="48" fillId="43" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="49" fillId="44" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="13" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="14" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="15" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="16" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="17" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="18" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="19" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="20" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="24" fillId="21" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="25" fillId="22" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="26" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="27" fillId="23" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="28" fillId="24" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="29" fillId="25" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="30" fillId="26" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="31" fillId="27" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="32" fillId="28" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="33" fillId="29" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="34" fillId="30" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="35" fillId="31" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="36" fillId="32" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="37" fillId="33" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="38" fillId="34" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="39" fillId="35" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="40" fillId="36" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="41" fillId="37" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="42" fillId="38" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="43" fillId="39" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="44" fillId="40" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="45" fillId="41" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="46" fillId="42" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="47" fillId="43" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="48" fillId="44" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="50" fillId="45" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1171,13 +1197,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="str">
+      <c r="A1" s="10" t="str">
         <v>DialogueId</v>
       </c>
-      <c r="B1" s="26" t="str">
+      <c r="B1" s="23" t="str">
         <v>Text</v>
       </c>
-      <c r="C1" s="26" t="str">
+      <c r="C1" s="23" t="str">
         <v>Comment</v>
       </c>
     </row>
@@ -1204,10 +1230,10 @@
       </c>
     </row>
     <row customHeight="true" ht="425" r="3">
-      <c r="A3" s="22">
+      <c r="A3" s="29">
         <v>100</v>
       </c>
-      <c r="B3" s="23" t="str">
+      <c r="B3" s="30" t="str">
         <v>Narrator
 沉湎……
 Narrator
@@ -1235,16 +1261,16 @@
 Null 
 眼前的苍蝇怪物和这座城堡都令你分外熟悉。这分明是你独立开发的个人游戏中设计出的场景和角色。你掉进了自己制作的游戏里！</v>
       </c>
-      <c r="C3" s="23" t="str">
+      <c r="C3" s="30" t="str">
         <v>开场剧情
 Null 处配的是哥特宫殿那张图</v>
       </c>
     </row>
     <row customHeight="true" ht="350" r="4">
-      <c r="A4" s="22">
+      <c r="A4" s="29">
         <v>110</v>
       </c>
-      <c r="B4" s="23" t="str">
+      <c r="B4" s="30" t="str">
         <v>别西卜
 你好，戴着白色厨师帽的女孩。我想你就是来应聘地狱主厨的候选人了。
 主角7
@@ -1270,47 +1296,53 @@
 Options 
 11|12|10</v>
       </c>
-      <c r="C4" s="23" t="str">
+      <c r="C4" s="30" t="str">
         <v>冥府主殿</v>
       </c>
     </row>
-    <row customHeight="true" ht="108" r="5">
-      <c r="A5" s="22">
+    <row customHeight="true" ht="120" r="5">
+      <c r="A5" s="29">
         <v>111</v>
       </c>
-      <c r="B5" s="23" t="str">
+      <c r="B5" s="30" t="str">
         <v>别西卜
-万魔殿的每个地点都在等待着你的探索。与每个地点的人物对话，获得新的线索。利用地点中的食材，发挥想象力，创造出属于你的菜肴吧。
+万魔殿的每个地点都在等待着你的探索。
+别西卜
+与每个地点的人物对话，获得新的线索。利用地点中的食材，发挥想象力，创造出属于你的菜肴吧。
 别西卜
 你还有哪些想知道的？
 Options
 11|12|10</v>
       </c>
-      <c r="C5" s="23" t="str">
+      <c r="C5" s="30" t="str">
         <v>冥府主殿</v>
       </c>
     </row>
-    <row customHeight="true" ht="115" r="6">
-      <c r="A6" s="22">
+    <row customHeight="true" ht="163" r="6">
+      <c r="A6" s="29">
         <v>112</v>
       </c>
-      <c r="B6" s="23" t="str">
+      <c r="B6" s="30" t="str">
         <v>别西卜
-每道菜有一份标准主食和一份标准辅食。每道菜最多可加入一份主料、三份辅料。万魔殿中存在着丰富的原料，尽情探索，发掘出食材组合的奥秘。带着你的食材回到主殿的厨房，调节烹饪的火力和时间，做出属于你的大餐。
+每道菜有一份标准主食和一份标准辅食。
+别西卜
+每道菜最多可加入一份主料、三份辅料。万魔殿中存在着丰富的原料，尽情探索，发掘出食材组合的奥秘。
+别西卜
+带着你的食材回到主殿的厨房，调节烹饪的火力和时间，做出属于你的大餐。
 别西卜
 你还有哪些想知道的？
 Options
 11|12|10</v>
       </c>
-      <c r="C6" s="23" t="str">
+      <c r="C6" s="30" t="str">
         <v>冥府主殿</v>
       </c>
     </row>
     <row customHeight="true" ht="106" r="7">
-      <c r="A7" s="22">
+      <c r="A7" s="29">
         <v>113</v>
       </c>
-      <c r="B7" s="23" t="str">
+      <c r="B7" s="30" t="str">
         <v>别西卜
 第一道菜是无花果香煎龙肝。
 主角6
@@ -1318,58 +1350,137 @@
 主角7
 早知道将新手教程做得更清晰一些了……！</v>
       </c>
-      <c r="C7" s="23" t="str">
+      <c r="C7" s="30" t="str">
         <v>冥府主殿</v>
       </c>
     </row>
-    <row customHeight="true" ht="171" r="8">
-      <c r="A8" s="12">
+    <row customHeight="true" ht="106" r="8">
+      <c r="A8" s="29">
+        <v>102</v>
+      </c>
+      <c r="B8" s="30" t="str">
+        <v>别西卜
+第二道菜是藏红花蟾蜍浓汤。
+主角6
+唔，也是一道食材相对容易获得的菜品。
+主角7
+蟾蜍在花园里找找？藏红花什么的，还是在原野上比较多吧。</v>
+      </c>
+      <c r="C8" s="30" t="str">
+        <v>第一道菜评分通过后显示
+对话结束后跳转大地图</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row customHeight="true" ht="106" r="9">
+      <c r="A9" s="29">
+        <v>103</v>
+      </c>
+      <c r="B9" s="30" t="str">
+        <v>别西卜
+第三道菜是香槟鱼子酱酿鱼。
+主角6
+以鱼为主要食材的话，大概只有河流能获得了。
+主角7
+香槟酒什么的或许能在宫殿找到。</v>
+      </c>
+      <c r="C9" s="30" t="str">
+        <v>第二道菜评分通过后显示
+对话结束后跳转大地图</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="106" r="10">
+      <c r="A10" s="29">
+        <v>104</v>
+      </c>
+      <c r="B10" s="30" t="str">
+        <v>别西卜
+第四道菜是炭烤摩洛克牛排。
+主角6
+没记错的话，摩洛克是被关押在极乐之野的一位魔王。
+主角7
+烤牛排的配菜在花园里应该是常见的。</v>
+      </c>
+      <c r="C10" s="30" t="str">
+        <v>第三道菜评分通过后显示
+对话结束后跳转大地图</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="106" r="11">
+      <c r="A11" s="29">
+        <v>105</v>
+      </c>
+      <c r="B11" s="30" t="str">
+        <v>别西卜
+第五道菜是烤贝尔芬格奶酪。
+主角6
+此刻很希望我没有设计出这个恶俗的食材……先去那个亡灵聚集的地方吧。
+主角7
+奶酪的话，或许会和蜂蜜一类的菜品更搭。</v>
+      </c>
+      <c r="C11" s="30" t="str">
+        <v>第四道菜评分通过后显示
+对话结束后跳转大地图</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="106" r="12">
+      <c r="A12" s="29">
+        <v>106</v>
+      </c>
+      <c r="B12" s="30" t="str">
+        <v>别西卜
+第六道菜是撒旦石榴布丁。
+主角6
+设计的时候没想到，现在看来这苍蝇的胃口真大……
+主角7
+唔，石榴似乎是在塔尔塔洛斯。</v>
+      </c>
+      <c r="C12" s="30" t="str">
+        <v>第五道菜评分通过后显示
+对话结束后跳转大地图</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="106" r="13">
+      <c r="A13" s="29">
+        <v>107</v>
+      </c>
+      <c r="B13" s="30" t="str">
+        <v>别西卜
+第七道菜是玛门的眼泪。
+主角6
+这是我最喜欢的恶魔角色之一。
+主角7
+这道菜应该是酒，或许寻找一些香料能够调配出美妙的味道。
+</v>
+      </c>
+      <c r="C13" s="30" t="str">
+        <v>第六道菜评分通过后显示
+对话结束后跳转对话920</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="58" r="14">
+      <c r="A14" s="29">
+        <v>190</v>
+      </c>
+      <c r="B14" s="30" t="str">
+        <v>别西卜
+请确定已经收集好了需要的食材。
+Options
+191|192</v>
+      </c>
+      <c r="C14" s="30" t="str">
+        <v>选项191-跳转烹饪界面</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="212" r="15">
+      <c r="A15" s="14">
         <v>210</v>
       </c>
-      <c r="B8" s="13" t="str">
+      <c r="B15" s="15" t="str">
         <v>Null 
-到处都是火焰、火焰、火焰。尖叫和嘶鸣声不绝于耳，裂开的地缝里涌动着岩浆，猛烈的风在罅隙中呼啸而过，将绑缚着罪人的锁链吹断。掉进岩浆并不会死亡，而是经受着高温炙烤的酷刑折磨，永无天日。
-大饼
-又一个新来的厨师？
-主角10
-我开始好奇前一个厨师的命运了。
-大饼
-啊……我想你还是少知道的为好。你来找我有什么事情吗？
-Options 
-211|212|999</v>
-      </c>
-      <c r="C8" s="13" t="str">
-        <v>排除下面7、8两种情况的默认情况</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="176" r="9">
-      <c r="A9" s="12">
-        <v>220</v>
-      </c>
-      <c r="B9" s="13" t="str">
-        <v>Null 
-到处都是火焰、火焰、火焰。尖叫和嘶鸣声不绝于耳，裂开的地缝里涌动着岩浆，猛烈的风在罅隙中呼啸而过，将绑缚着罪人的锁链吹断。
-掉进岩浆并不会死亡，而是经受着高温炙烤的酷刑折磨，永无天日。
-大饼
-又一个新来的厨师？
-主角10
-我开始好奇前一个厨师的命运了。
-大饼
-啊……我想你还是少知道的为好。你来找我有什么事情吗？
-Options 
-221|222|223|999</v>
-      </c>
-      <c r="C9" s="13" t="str">
-        <v>对应菜品轮次（第一轮）</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="176" r="10">
-      <c r="A10" s="12">
-        <v>230</v>
-      </c>
-      <c r="B10" s="13" t="str">
-        <v>Null
-到处都是火焰、火焰、火焰。尖叫和嘶鸣声不绝于耳，裂开的地缝里涌动着岩浆，猛烈的风在罅隙中呼啸而过，将绑缚着罪人的锁链吹断。
+到处都是火焰、火焰、火焰。
+Null
+尖叫和嘶鸣声不绝于耳，裂开的地缝里涌动着岩浆，猛烈的风在罅隙中呼啸而过，将绑缚着罪人的锁链吹断。
 Null
 掉进岩浆并不会死亡，而是经受着高温炙烤的酷刑折磨，永无天日。
 大饼
@@ -1379,142 +1490,222 @@
 大饼
 啊……我想你还是少知道的为好。你来找我有什么事情吗？
 Options 
+211|212|999</v>
+      </c>
+      <c r="C15" s="15" t="str">
+        <v>塔尔塔洛斯
+出现满足条件：
+对应轮次：2；3；4；5；6；7
+（第三轮次正常会出现这句，但如果同时满足第四轮次+触发过对话423，此处就会改为对话230。下述编号为x10的对话均同理）</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="214" r="16">
+      <c r="A16" s="14">
+        <v>220</v>
+      </c>
+      <c r="B16" s="15" t="str">
+        <v>Null 
+到处都是火焰、火焰、火焰。
+Null
+尖叫和嘶鸣声不绝于耳，裂开的地缝里涌动着岩浆，猛烈的风在罅隙中呼啸而过，将绑缚着罪人的锁链吹断。
+Null
+掉进岩浆并不会死亡，而是经受着高温炙烤的酷刑折磨，永无天日。
+大饼
+又一个新来的厨师？
+主角10
+我开始好奇前一个厨师的命运了。
+大饼
+啊……我想你还是少知道的为好。你来找我有什么事情吗？
+Options 
+221|222|223|999</v>
+      </c>
+      <c r="C16" s="15" t="str">
+        <v>塔尔塔洛斯
+出现满足条件：
+对应轮次：1</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="211" r="17">
+      <c r="A17" s="14">
+        <v>230</v>
+      </c>
+      <c r="B17" s="15" t="str">
+        <v>Null
+到处都是火焰、火焰、火焰。
+Null
+尖叫和嘶鸣声不绝于耳，裂开的地缝里涌动着岩浆，猛烈的风在罅隙中呼啸而过，将绑缚着罪人的锁链吹断。
+Null
+掉进岩浆并不会死亡，而是经受着高温炙烤的酷刑折磨，永无天日。
+大饼
+又一个新来的厨师？
+主角10
+我开始好奇前一个厨师的命运了。
+大饼
+啊……我想你还是少知道的为好。你来找我有什么事情吗？
+Options 
 231|232|234|999</v>
       </c>
-      <c r="C10" s="13" t="str">
+      <c r="C17" s="15" t="str">
         <v>塔尔塔洛斯
-在喀戎之河与因诺完成对话后
-来到塔尔塔洛斯触发
-触发了前置条件后（第25条）</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="128" r="11">
-      <c r="A11" s="12">
+出现满足条件：
+对应轮次：3
+触发过对话：423</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="175" r="18">
+      <c r="A18" s="14">
         <v>211</v>
       </c>
-      <c r="B11" s="13" t="str">
+      <c r="B18" s="15" t="str">
         <v>大饼
-阿斯摩太是代表着色欲与婚姻破裂的恶魔之王，有三个脑袋，分别是人头、牛头和羊头。她曾经爱上了一个名叫莎拉的凡间女子，因为嫉妒杀害了她的七任丈夫，阻止他们圆房。在天使拉斐尔的帮助下，莎拉的最后一个新婚丈夫托比亚斯用燃烧鱼心和鱼肝的烟驱逐了她。她和她的巨龙刻尔柏已经在塔尔塔洛斯里待了漫长的年月，炼狱的火焰将巨龙的肝脏锤炼地柔韧有力。
+阿斯摩太是代表着色欲与婚姻破裂的恶魔之王，有三个脑袋，分别是人头、牛头和羊头。
+大饼
+她曾经爱上了一个名叫莎拉的凡间女子，因为嫉妒杀害了她的七任丈夫，阻止他们圆房。
+大饼
+在天使拉斐尔的帮助下，莎拉的最后一个新婚丈夫托比亚斯用燃烧鱼心和鱼肝的烟驱逐了她。
+大饼
+她和她的巨龙刻尔柏已经在塔尔塔洛斯里待了漫长的年月，炼狱的火焰将巨龙的肝脏锤炼地柔韧有力。
 大饼
 你来找我有什么事情吗？
 Options 
 211|212|999</v>
       </c>
-      <c r="C11" s="13" t="str">
+      <c r="C18" s="15" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
-    <row customHeight="true" ht="102" r="12">
-      <c r="A12" s="12">
+    <row customHeight="true" ht="134" r="19">
+      <c r="A19" s="14">
         <v>212</v>
       </c>
-      <c r="B12" s="13" t="str">
+      <c r="B19" s="15" t="str">
         <v>大饼
-万魔殿里常年生长着一些可作平替的食材和肉类。当走投无路之际，你可以尝试用这些食材做出低配版的菜品。不过要注意，过多的简陋食材会使别西卜大人发怒。
+万魔殿里常年生长着一些可作平替的食材和肉类。当走投无路之际，你可以尝试用这些食材做出低配版的菜品。
+大饼
+不过要注意，过多的简陋食材会使别西卜大人发怒。
 大饼
 你来找我有什么事情吗？
 Options 
 211|212|999</v>
       </c>
-      <c r="C12" s="13" t="str">
+      <c r="C19" s="15" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
-    <row customHeight="true" ht="134" r="13">
-      <c r="A13" s="12">
+    <row customHeight="true" ht="177" r="20">
+      <c r="A20" s="14">
         <v>221</v>
       </c>
-      <c r="B13" s="13" t="str">
+      <c r="B20" s="15" t="str">
         <v>大饼
-阿斯摩太是代表着色欲与婚姻破裂的恶魔之王，有三个脑袋，分别是人头、牛头和羊头。她曾经爱上了一个名叫莎拉的凡间女子，因为嫉妒杀害了她的七任丈夫，阻止他们圆房。在天使拉斐尔的帮助下，莎拉的最后一个新婚丈夫托比亚斯用燃烧鱼心和鱼肝的烟驱逐了她。她和她的巨龙刻尔柏已经在塔尔塔洛斯里待了漫长的年月，炼狱的火焰将巨龙的肝脏锤炼地柔韧有力。
+阿斯摩太是代表着色欲与婚姻破裂的恶魔之王，有三个脑袋，分别是人头、牛头和羊头。
+大饼
+她曾经爱上了一个名叫莎拉的凡间女子，因为嫉妒杀害了她的七任丈夫，阻止他们圆房。
+大饼
+在天使拉斐尔的帮助下，莎拉的最后一个新婚丈夫托比亚斯用燃烧鱼心和鱼肝的烟驱逐了她。
+大饼
+她和她的巨龙刻尔柏已经在塔尔塔洛斯里待了漫长的年月，炼狱的火焰将巨龙的肝脏锤炼地柔韧有力。
 大饼
 你来找我有什么事情吗？
 Options 
 221|222|223|999</v>
       </c>
-      <c r="C13" s="13" t="str">
+      <c r="C20" s="15" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
-    <row customHeight="true" ht="111" r="14">
-      <c r="A14" s="12">
+    <row customHeight="true" ht="137" r="21">
+      <c r="A21" s="14">
         <v>222</v>
       </c>
-      <c r="B14" s="13" t="str">
+      <c r="B21" s="15" t="str">
         <v>大饼
-万魔殿里常年生长着一些可作平替的食材和肉类。当走投无路之际，你可以尝试用这些食材做出低配版的菜品。不过要注意，过多的简陋食材会使别西卜大人发怒。
+万魔殿里常年生长着一些可作平替的食材和肉类。当走投无路之际，你可以尝试用这些食材做出低配版的菜品。
+大饼
+不过要注意，过多的简陋食材会使别西卜大人发怒。
 大饼
 你来找我有什么事情吗？
 Options 
 221|222|223|999</v>
       </c>
-      <c r="C14" s="13" t="str">
+      <c r="C21" s="15" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
-    <row customHeight="true" ht="106" r="15">
-      <c r="A15" s="12">
+    <row customHeight="true" ht="106" r="22">
+      <c r="A22" s="14">
         <v>223</v>
       </c>
-      <c r="B15" s="13" t="str">
+      <c r="B22" s="15" t="str">
         <v>大饼
-想要获得刻尔柏的龙肝，你需要特殊的工具。去极乐之野找一位名叫三叶虫的看守，她将给予你所需要的帮助。另外，在每个地点多多探索，也许会发现可能用到的东西。
-</v>
-      </c>
-      <c r="C15" s="13" t="str">
+想要获得刻尔柏的龙肝，你需要特殊的工具。
+大饼
+去极乐之野找一位名叫三叶虫的看守，她将给予你所需要的帮助。
+大饼
+另外，在每个地点多多探索，也许会发现可能用到的东西。</v>
+      </c>
+      <c r="C22" s="15" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
-    <row customHeight="true" ht="141" r="16">
-      <c r="A16" s="12">
+    <row customHeight="true" ht="186" r="23">
+      <c r="A23" s="14">
         <v>231</v>
       </c>
-      <c r="B16" s="13" t="str">
+      <c r="B23" s="15" t="str">
         <v>大饼
-阿斯摩太是代表着色欲与婚姻破裂的恶魔之王，有三个脑袋，分别是人头、牛头和羊头。她曾经爱上了一个名叫莎拉的凡间女子，因为嫉妒杀害了她的七任丈夫，阻止他们圆房。在天使拉斐尔的帮助下，莎拉的最后一个新婚丈夫托比亚斯用燃烧鱼心和鱼肝的烟驱逐了她。她和她的巨龙刻尔柏已经在塔尔塔洛斯里待了漫长的年月，炼狱的火焰将巨龙的肝脏锤炼地柔韧有力。
+阿斯摩太是代表着色欲与婚姻破裂的恶魔之王，有三个脑袋，分别是人头、牛头和羊头。
+大饼
+她曾经爱上了一个名叫莎拉的凡间女子，因为嫉妒杀害了她的七任丈夫，阻止他们圆房。
+大饼
+在天使拉斐尔的帮助下，莎拉的最后一个新婚丈夫托比亚斯用燃烧鱼心和鱼肝的烟驱逐了她。
+大饼
+她和她的巨龙刻尔柏已经在塔尔塔洛斯里待了漫长的年月，炼狱的火焰将巨龙的肝脏锤炼地柔韧有力。
 大饼
 你来找我有什么事情吗？
 Options 
 231|232|234|999</v>
       </c>
-      <c r="C16" s="13" t="str">
+      <c r="C23" s="15" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
-    <row customHeight="true" ht="108" r="17">
-      <c r="A17" s="12">
+    <row customHeight="true" ht="133" r="24">
+      <c r="A24" s="14">
         <v>232</v>
       </c>
-      <c r="B17" s="13" t="str">
+      <c r="B24" s="15" t="str">
         <v>大饼
-万魔殿里常年生长着一些可作平替的食材和肉类。当走投无路之际，你可以尝试用这些食材做出低配版的菜品。不过要注意，过多的简陋食材会使别西卜大人发怒。
+万魔殿里常年生长着一些可作平替的食材和肉类。当走投无路之际，你可以尝试用这些食材做出低配版的菜品。
+大饼
+不过要注意，过多的简陋食材会使别西卜大人发怒。
 大饼
 你来找我有什么事情吗？
 Options 
 231|232|234|999</v>
       </c>
-      <c r="C17" s="13" t="str">
+      <c r="C24" s="15" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
-    <row customHeight="true" ht="71" r="18">
-      <c r="A18" s="12">
+    <row customHeight="true" ht="71" r="25">
+      <c r="A25" s="14">
         <v>234</v>
       </c>
-      <c r="B18" s="13" t="str">
+      <c r="B25" s="15" t="str">
         <v>大饼
 我的混沌三叉戟可以帮上你的忙。</v>
       </c>
-      <c r="C18" s="13" t="str">
+      <c r="C25" s="15" t="str">
         <v>塔尔塔洛斯
-玩家需要获得混沌三叉戟道具，这里再问下鼠老师是对话之后获得，还是点击场景内物品？</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="246" r="19">
-      <c r="A19" s="12">
-        <v>299</v>
-      </c>
-      <c r="B19" s="13" t="str">
+玩家道具栏中会出现混沌三叉戟道具</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="246" r="26">
+      <c r="A26" s="14">
+        <v>2991</v>
+      </c>
+      <c r="B26" s="15" t="str">
         <v>阿斯摩太
 我闻到了浓郁的人肉香气……如此新鲜、柔嫩、美味。
 阿斯摩太
@@ -1530,17 +1721,37 @@
 阿斯摩太
 我被困于炼狱中已经太久，自然无法违抗别西卜大人的命令。但是如何得到你所需要的食材，并不取决于我，而取决于你作为厨师的手法。</v>
       </c>
-      <c r="C19" s="13" t="str">
-        <v>塔尔塔洛斯</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="176" r="20">
-      <c r="A20" s="29">
+      <c r="C26" s="15" t="str">
+        <v>塔尔塔洛斯
+出现条件：
+对应轮次：1</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="71" r="27">
+      <c r="A27" s="14">
+        <v>2992</v>
+      </c>
+      <c r="B27" s="15" t="str">
+        <v>阿斯摩太
+......</v>
+      </c>
+      <c r="C27" s="15" t="str">
+        <v>塔尔塔洛斯
+出现条件：
+对应轮次：2；3；4；5；6；7</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="187" r="28">
+      <c r="A28" s="1">
         <v>310</v>
       </c>
-      <c r="B20" s="30" t="str">
+      <c r="B28" s="2" t="str">
         <v>Null 
-你来到一个藏红花遍布的平原。原野绿意盎然，白色的亡灵们在摇晃的树丛间穿梭。这里多是狄俄索尼斯的信徒：葡萄、美酒、黄金遍布其中，亡灵们跳着欢乐的舞蹈。酒杯碰撞的声音掩盖了从高处传来的吼叫。
+你来到一个藏红花遍布的平原。
+Null
+原野绿意盎然，白色的亡灵们在摇晃的树丛间穿梭。这里多是狄俄索尼斯的信徒：葡萄、美酒、黄金遍布其中，亡灵们跳着欢乐的舞蹈。
+Null
+酒杯碰撞的声音掩盖了从高处传来的吼叫。
 三叶虫
 这里已经许久没有生面孔踏入。
 三叶虫
@@ -1548,18 +1759,24 @@
 Options 
 311|312|999</v>
       </c>
-      <c r="C20" s="30" t="str">
+      <c r="C28" s="2" t="str">
         <v>极乐之野
-排除下面两种情况的默认情况</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="176" r="21">
-      <c r="A21" s="29">
+出现条件：
+对应轮次：1；2；3；5；6；7
+</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="198" r="29">
+      <c r="A29" s="1">
         <v>320</v>
       </c>
-      <c r="B21" s="30" t="str">
+      <c r="B29" s="2" t="str">
         <v>Null 
-你来到一个藏红花遍布的平原。原野绿意盎然，白色的亡灵们在摇晃的树丛间穿梭。这里多是狄俄索尼斯的信徒：葡萄、美酒、黄金遍布其中，亡灵们跳着欢乐的舞蹈。酒杯碰撞的声音掩盖了从高处传来的吼叫。
+你来到一个藏红花遍布的平原。
+Null
+原野绿意盎然，白色的亡灵们在摇晃的树丛间穿梭。这里多是狄俄索尼斯的信徒：葡萄、美酒、黄金遍布其中，亡灵们跳着欢乐的舞蹈。
+Null
+酒杯碰撞的声音掩盖了从高处传来的吼叫。
 三叶虫
 这里已经许久没有生面孔踏入。
 三叶虫
@@ -1567,17 +1784,24 @@
 Options 
 321|322|323|999</v>
       </c>
-      <c r="C21" s="30" t="str">
-        <v>对应菜品轮次</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="155" r="22">
-      <c r="A22" s="29">
+      <c r="C29" s="2" t="str">
+        <v>极乐之野
+出现条件：
+对应轮次：4
+</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="195" r="30">
+      <c r="A30" s="1">
         <v>330</v>
       </c>
-      <c r="B22" s="30" t="str">
+      <c r="B30" s="2" t="str">
         <v>Null 
-你来到一个藏红花遍布的平原。原野绿意盎然，白色的亡灵们在摇晃的树丛间穿梭。这里多是狄俄索尼斯的信徒：葡萄、美酒、黄金遍布其中，亡灵们跳着欢乐的舞蹈。酒杯碰撞的声音掩盖了从高处传来的吼叫。
+你来到一个藏红花遍布的平原。
+Null
+原野绿意盎然，白色的亡灵们在摇晃的树丛间穿梭。这里多是狄俄索尼斯的信徒：葡萄、美酒、黄金遍布其中，亡灵们跳着欢乐的舞蹈。
+Null
+酒杯碰撞的声音掩盖了从高处传来的吼叫。
 三叶虫
 这里已经许久没有生面孔踏入。
 三叶虫
@@ -1585,33 +1809,40 @@
 Options 
 331|332|334|999</v>
       </c>
-      <c r="C22" s="30" t="str">
-        <v>在塔尔塔洛斯与大饼完成对话后
-来到极乐之野
-触发了前置条件后</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="150" r="23">
-      <c r="A23" s="29">
+      <c r="C30" s="2" t="str">
+        <v>极乐之野
+出现条件：
+对应轮次：1
+触发过对话：223</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="207" r="31">
+      <c r="A31" s="1">
         <v>311</v>
       </c>
-      <c r="B23" s="30" t="str">
+      <c r="B31" s="2" t="str">
         <v>三叶虫
-摩洛克是一位嗜血好战的恶魔，常以半人半牛的形态出没。在凡间，他有一批忠诚的邪教徒。这群恶名昭彰的人类主要游荡在迦南地区，以献祭儿童为乐。他们建造起一个牛头人身的青铜塑像，这个塑像通常是中空的，有一个燃烧着烈火的腹部熔炉，用于进行活人献祭的恐怖仪式。摩洛克因为伤害儿童之罪被别西卜大人禁闭在了极乐之野高处的囚笼里，与他最忮忌的良善亡灵们为伍。即使对恶魔来说，残害儿童也是头等大罪。
+摩洛克是一位嗜血好战的恶魔，常以半人半牛的形态出没。
+三叶虫
+在凡间，他有一批忠诚的邪教徒。这群恶名昭彰的人类主要游荡在迦南地区，以献祭儿童为乐。
+三叶虫
+他们建造起一个牛头人身的青铜塑像，这个塑像通常是中空的，有一个燃烧着烈火的腹部熔炉，用于进行活人献祭的恐怖仪式。
+三叶虫
+摩洛克因为伤害儿童之罪被别西卜大人禁闭在了极乐之野高处的囚笼里，与他最忮忌的良善亡灵们为伍。即使对恶魔来说，残害儿童也是头等大罪。
 三叶虫
 你还有什么要问的吗？
 Options 
 311|312|999</v>
       </c>
-      <c r="C23" s="30" t="str">
+      <c r="C31" s="2" t="str">
         <v>极乐之野</v>
       </c>
     </row>
-    <row customHeight="true" ht="99" r="24">
-      <c r="A24" s="29">
+    <row customHeight="true" ht="99" r="32">
+      <c r="A32" s="1">
         <v>312</v>
       </c>
-      <c r="B24" s="30" t="str">
+      <c r="B32" s="2" t="str">
         <v>三叶虫
 不要相信你的大脑。相信你的手、足、眼、口、鼻。亲眼所见，亦非真实。
 三叶虫
@@ -1619,31 +1850,37 @@
 Options 
 311|312|999</v>
       </c>
-      <c r="C24" s="30" t="str">
+      <c r="C32" s="2" t="str">
         <v>极乐之野</v>
       </c>
     </row>
-    <row customHeight="true" ht="140" r="25">
-      <c r="A25" s="29">
+    <row customHeight="true" ht="217" r="33">
+      <c r="A33" s="1">
         <v>321</v>
       </c>
-      <c r="B25" s="30" t="str">
+      <c r="B33" s="2" t="str">
         <v>三叶虫
-摩洛克是一位嗜血好战的恶魔，常以半人半牛的形态出没。在凡间，他有一批忠诚的邪教徒。这群恶名昭彰的人类主要游荡在迦南地区，以献祭儿童为乐。他们建造起一个牛头人身的青铜塑像，这个塑像通常是中空的，有一个燃烧着烈火的腹部熔炉，用于进行活人献祭的恐怖仪式。摩洛克因为伤害儿童之罪被别西卜大人禁闭在了极乐之野高处的囚笼里，与他最忮忌的良善亡灵们为伍。即使对恶魔来说，残害儿童也是头等大罪。
+摩洛克是一位嗜血好战的恶魔，常以半人半牛的形态出没。
+三叶虫
+在凡间，他有一批忠诚的邪教徒。这群恶名昭彰的人类主要游荡在迦南地区，以献祭儿童为乐。
+三叶虫
+他们建造起一个牛头人身的青铜塑像，这个塑像通常是中空的，有一个燃烧着烈火的腹部熔炉，用于进行活人献祭的恐怖仪式。
+三叶虫
+摩洛克因为伤害儿童之罪被别西卜大人禁闭在了极乐之野高处的囚笼里，与他最忮忌的良善亡灵们为伍。即使对恶魔来说，残害儿童也是头等大罪。
 三叶虫
 你还有什么要问的吗？
 Options 
 321|322|323|999</v>
       </c>
-      <c r="C25" s="30" t="str">
+      <c r="C33" s="2" t="str">
         <v>极乐之野</v>
       </c>
     </row>
-    <row customHeight="true" ht="90" r="26">
-      <c r="A26" s="29">
+    <row customHeight="true" ht="90" r="34">
+      <c r="A34" s="1">
         <v>322</v>
       </c>
-      <c r="B26" s="30" t="str">
+      <c r="B34" s="2" t="str">
         <v>三叶虫
 不要相信你的大脑。相信你的手、足、眼、口、鼻。亲眼所见，亦非真实。
 三叶虫
@@ -1651,43 +1888,53 @@
 Options 
 321|322|323|999</v>
       </c>
-      <c r="C26" s="30" t="str">
+      <c r="C34" s="2" t="str">
         <v>极乐之野</v>
       </c>
     </row>
-    <row customHeight="true" ht="125" r="27">
-      <c r="A27" s="29">
+    <row customHeight="true" ht="114" r="35">
+      <c r="A35" s="1">
         <v>323</v>
       </c>
-      <c r="B27" s="30" t="str">
+      <c r="B35" s="2" t="str">
         <v>三叶虫
-摩洛克虽然被禁锢在方寸之地，但力量依然不可小觑。他仇视别西卜大人，自然也不可能顺从地给出食材，即便对于恶魔来说，皮肉之苦不过是顷刻间便愈合的事。去遗忘之地寻找一个名叫蓝七的混沌亡灵，她将帮助你使摩洛克陷入沉睡。</v>
-      </c>
-      <c r="C27" s="30" t="str">
+摩洛克虽然被禁锢在方寸之地，但力量依然不可小觑。
+三叶虫
+他仇视别西卜大人，自然也不可能顺从地给出食材，即便对于恶魔来说，皮肉之苦不过是顷刻间便愈合的事。
+三叶虫
+去遗忘之地寻找一个名叫蓝七的混沌亡灵，她将帮助你使摩洛克陷入沉睡。</v>
+      </c>
+      <c r="C35" s="2" t="str">
         <v>极乐之野</v>
       </c>
     </row>
-    <row customHeight="true" ht="136" r="28">
-      <c r="A28" s="29">
+    <row customHeight="true" ht="200" r="36">
+      <c r="A36" s="1">
         <v>331</v>
       </c>
-      <c r="B28" s="30" t="str">
+      <c r="B36" s="2" t="str">
         <v>三叶虫
-摩洛克是一位嗜血好战的恶魔，常以半人半牛的形态出没。在凡间，他有一批忠诚的邪教徒。这群恶名昭彰的人类主要游荡在迦南地区，以献祭儿童为乐。他们建造起一个牛头人身的青铜塑像，这个塑像通常是中空的，有一个燃烧着烈火的腹部熔炉，用于进行活人献祭的恐怖仪式。摩洛克因为伤害儿童之罪被别西卜大人禁闭在了极乐之野高处的囚笼里，与他最忮忌的良善亡灵们为伍。即使对恶魔来说，残害儿童也是头等大罪。
+摩洛克是一位嗜血好战的恶魔，常以半人半牛的形态出没。
+三叶虫
+在凡间，他有一批忠诚的邪教徒。这群恶名昭彰的人类主要游荡在迦南地区，以献祭儿童为乐。
+三叶虫
+他们建造起一个牛头人身的青铜塑像，这个塑像通常是中空的，有一个燃烧着烈火的腹部熔炉，用于进行活人献祭的恐怖仪式。
+三叶虫
+摩洛克因为伤害儿童之罪被别西卜大人禁闭在了极乐之野高处的囚笼里，与他最忮忌的良善亡灵们为伍。即使对恶魔来说，残害儿童也是头等大罪。
 三叶虫
 你还有什么要问的吗？
 Options 
 331|332|334|999</v>
       </c>
-      <c r="C28" s="30" t="str">
+      <c r="C36" s="2" t="str">
         <v>极乐之野</v>
       </c>
     </row>
-    <row customHeight="true" ht="91" r="29">
-      <c r="A29" s="29">
+    <row customHeight="true" ht="91" r="37">
+      <c r="A37" s="1">
         <v>332</v>
       </c>
-      <c r="B29" s="30" t="str">
+      <c r="B37" s="2" t="str">
         <v>三叶虫
 不要相信你的大脑。相信你的手、足、眼、口、鼻。亲眼所见，亦非真实。
 三叶虫
@@ -1695,27 +1942,28 @@
 Options 
 331|332|334|999</v>
       </c>
-      <c r="C29" s="30" t="str">
+      <c r="C37" s="2" t="str">
         <v>极乐之野</v>
       </c>
     </row>
-    <row customHeight="true" ht="64" r="30">
-      <c r="A30" s="29">
+    <row customHeight="true" ht="52" r="38">
+      <c r="A38" s="1">
         <v>334</v>
       </c>
-      <c r="B30" s="30" t="str">
+      <c r="B38" s="2" t="str">
         <v>三叶虫
 这是我的地狱弯刀，几乎可以砍下世界上所有生物的脖颈。</v>
       </c>
-      <c r="C30" s="30" t="str">
-        <v>极乐之野</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="197" r="31">
-      <c r="A31" s="29">
-        <v>399</v>
-      </c>
-      <c r="B31" s="30" t="str">
+      <c r="C38" s="2" t="str">
+        <v>极乐之野
+玩家道具栏里会获取道具地狱弯刀</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="197" r="39">
+      <c r="A39" s="1">
+        <v>3991</v>
+      </c>
+      <c r="B39" s="2" t="str">
         <v>Null 
 摩洛克被关在一处画满蓝色符文的阵法里，无形的光芒笼罩着他。他的牛头发出低沉的吼叫，胸口的熔炉燃烧着腾腾火焰。
 主角1
@@ -1729,17 +1977,35 @@
 Null
 他重新吼叫起来，完全忽视了站在外面的人类。</v>
       </c>
-      <c r="C31" s="30" t="str">
-        <v>极乐之野</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="246" r="32">
-      <c r="A32" s="27">
+      <c r="C39" s="2" t="str">
+        <v>极乐之野
+出现轮次：1；2；3；4</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56" r="40">
+      <c r="A40" s="1">
+        <v>3992</v>
+      </c>
+      <c r="B40" s="2" t="str">
+        <v>摩洛克
+......</v>
+      </c>
+      <c r="C40" s="2" t="str">
+        <v>极乐之野
+出现轮次：5；6；7</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="316" r="41">
+      <c r="A41" s="12">
         <v>410</v>
       </c>
-      <c r="B32" s="28" t="str">
+      <c r="B41" s="13" t="str">
         <v>Null 
-冥府的河流呈现深不可测的黑色。这是隔离人间与冥界的河流，生死在此处交汇成一个巨大的漩涡。漩涡外的水面平静如死亡，你总觉得那河流里的黑来源于浓郁到化不开的尸油。岸边停靠着一个竹筏，无花果树下站着一个戴着兜帽的生物。一切都散发着冰冷、宁静的气息，专属于死亡的诗意笼罩着此地。
+冥府的河流呈现深不可测的黑色。
+Null
+这是隔离人间与冥界的河流，生死在此处交汇成一个巨大的漩涡。漩涡外的水面平静如死亡，你总觉得那河流里的黑来源于浓郁到化不开的尸油。
+Null
+岸边停靠着一个竹筏，无花果树下站着一个戴着兜帽的生物。一切都散发着冰冷、宁静的气息，专属于死亡的诗意笼罩着此地。
 因诺
 远道而来的旅人，欢迎来到喀戎之河。
 主角9
@@ -1755,18 +2021,23 @@
 Options 
 411|412|999</v>
       </c>
-      <c r="C32" s="28" t="str">
+      <c r="C41" s="13" t="str">
         <v>喀戎之河
-非当前菜品轮次</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="246" r="33">
-      <c r="A33" s="27">
+出现条件：
+对应轮次：1；2；4；5；6；7</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="326" r="42">
+      <c r="A42" s="12">
         <v>420</v>
       </c>
-      <c r="B33" s="28" t="str">
+      <c r="B42" s="13" t="str">
         <v>Null 
-冥府的河流呈现深不可测的黑色。这是隔离人间与冥界的河流，生死在此处交汇成一个巨大的漩涡。漩涡外的水面平静如死亡，你总觉得那河流里的黑来源于浓郁到化不开的尸油。岸边停靠着一个竹筏，无花果树下站着一个戴着兜帽的生物。一切都散发着冰冷、宁静的气息，专属于死亡的诗意笼罩着此地。
+冥府的河流呈现深不可测的黑色。
+Null
+这是隔离人间与冥界的河流，生死在此处交汇成一个巨大的漩涡。漩涡外的水面平静如死亡，你总觉得那河流里的黑来源于浓郁到化不开的尸油。
+Null
+岸边停靠着一个竹筏，无花果树下站着一个戴着兜帽的生物。一切都散发着冰冷、宁静的气息，专属于死亡的诗意笼罩着此地。
 因诺
 远道而来的旅人，欢迎来到喀戎之河。
 主角9
@@ -1782,32 +2053,39 @@
 Options 
 421|422|423|999</v>
       </c>
-      <c r="C33" s="28" t="str">
+      <c r="C42" s="13" t="str">
         <v>喀戎之河
-当前菜品轮次</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="132" r="34">
-      <c r="A34" s="27">
+出现条件：
+对应轮次：3</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="176" r="43">
+      <c r="A43" s="12">
         <v>411</v>
       </c>
-      <c r="B34" s="28" t="str">
+      <c r="B43" s="13" t="str">
         <v>因诺
-利维坦是原始混沌的化身，是海洋的统治者。他常以鲸鱼的形态现身，古时在人类社会出现时的身躯大如浮岛，因此被凡人认为是力量强大的魔鬼。实际上利维坦作为混沌本身，智商也与真正的鲸鱼别无二致，思维单一且逆来顺受。凡人常认为巨大的身躯象征着巨大的力量，殊不知真正的强大从不体现在表面的事物上。
+利维坦是原始混沌的化身，是海洋的统治者。
+因诺
+他常以鲸鱼的形态现身，古时在人类社会出现时的身躯大如浮岛，因此被凡人认为是力量强大的魔鬼。
+因诺
+实际上利维坦作为混沌本身，智商也与真正的鲸鱼别无二致，思维单一且逆来顺受。
+因诺
+凡人常认为巨大的身躯象征着巨大的力量，殊不知真正的强大从不体现在表面的事物上。
 因诺
 我想我可以给你提供一些帮助。
 Options 
 411|412|999</v>
       </c>
-      <c r="C34" s="28" t="str">
+      <c r="C43" s="13" t="str">
         <v>喀戎之河</v>
       </c>
     </row>
-    <row customHeight="true" ht="93" r="35">
-      <c r="A35" s="27">
+    <row customHeight="true" ht="93" r="44">
+      <c r="A44" s="12">
         <v>412</v>
       </c>
-      <c r="B35" s="28" t="str">
+      <c r="B44" s="13" t="str">
         <v>因诺
 跟她们不一样，我很喜欢你对我的塑造。你是个善良的人，不该承受这些。
 因诺
@@ -1816,31 +2094,37 @@
 411|412|999
 </v>
       </c>
-      <c r="C35" s="28" t="str">
+      <c r="C44" s="13" t="str">
         <v>喀戎之河</v>
       </c>
     </row>
-    <row customHeight="true" ht="130" r="36">
-      <c r="A36" s="27">
+    <row customHeight="true" ht="171" r="45">
+      <c r="A45" s="12">
         <v>421</v>
       </c>
-      <c r="B36" s="28" t="str">
+      <c r="B45" s="13" t="str">
         <v>因诺
-利维坦是原始混沌的化身，是海洋的统治者。他常以鲸鱼的形态现身，古时在人类社会出现时的身躯大如浮岛，因此被凡人认为是力量强大的魔鬼。实际上利维坦作为混沌本身，智商也与真正的鲸鱼别无二致，思维单一且逆来顺受。凡人常认为巨大的身躯象征着巨大的力量，殊不知真正的强大从不体现在表面的事物上。
+利维坦是原始混沌的化身，是海洋的统治者。
+因诺
+他常以鲸鱼的形态现身，古时在人类社会出现时的身躯大如浮岛，因此被凡人认为是力量强大的魔鬼。
+因诺
+实际上利维坦作为混沌本身，智商也与真正的鲸鱼别无二致，思维单一且逆来顺受。
+因诺
+凡人常认为巨大的身躯象征着巨大的力量，殊不知真正的强大从不体现在表面的事物上。
 因诺
 我想我可以给你提供一些帮助。
 Options 
 421|422|423|999</v>
       </c>
-      <c r="C36" s="28" t="str">
+      <c r="C45" s="13" t="str">
         <v>喀戎之河</v>
       </c>
     </row>
-    <row customHeight="true" ht="94" r="37">
-      <c r="A37" s="27">
+    <row customHeight="true" ht="94" r="46">
+      <c r="A46" s="12">
         <v>422</v>
       </c>
-      <c r="B37" s="28" t="str">
+      <c r="B46" s="13" t="str">
         <v>因诺
 跟她们不一样，我很喜欢你对我的塑造。你是个善良的人，不该承受这些。
 因诺
@@ -1848,28 +2132,30 @@
 Options 
 421|422|423|999</v>
       </c>
-      <c r="C37" s="28" t="str">
+      <c r="C46" s="13" t="str">
         <v>喀戎之河</v>
       </c>
     </row>
-    <row customHeight="true" ht="87" r="38">
-      <c r="A38" s="27">
+    <row customHeight="true" ht="87" r="47">
+      <c r="A47" s="12">
         <v>423</v>
       </c>
-      <c r="B38" s="28" t="str">
+      <c r="B47" s="13" t="str">
         <v>因诺
-与利维坦的简单性格相对照的，是他坚硬无比的皮肤。别西卜大人需要的食材必须特殊的工具才能获得，你需要去塔尔塔洛斯寻找那位地狱守卫，取得她的帮助。
+与利维坦的简单性格相对照的，是他坚硬无比的皮肤。
+因诺
+别西卜大人需要的食材必须特殊的工具才能获得，你需要去塔尔塔洛斯寻找那位地狱守卫，取得她的帮助。
 </v>
       </c>
-      <c r="C38" s="28" t="str">
+      <c r="C47" s="13" t="str">
         <v>喀戎之河</v>
       </c>
     </row>
-    <row customHeight="true" ht="295" r="39">
-      <c r="A39" s="27">
-        <v>499</v>
-      </c>
-      <c r="B39" s="28" t="str">
+    <row customHeight="true" ht="295" r="48">
+      <c r="A48" s="12">
+        <v>4991</v>
+      </c>
+      <c r="B48" s="13" t="str">
         <v>Null 
 一只巨大的鲸鱼出现在你面前。它的表面没有眼睛，身体上覆盖着厚厚的青苔。它不安的背鳍轻轻晃动着，黏稠厚重的河水慢慢浮现波纹。
 利维坦
@@ -1891,17 +2177,35 @@
 主角12
 虽然利维坦的个性温和，但毕竟是恶魔，他并没有比别人犯的罪恶更少。</v>
       </c>
-      <c r="C39" s="28" t="str">
-        <v>喀戎之河</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="330" r="40">
-      <c r="A40" s="9">
+      <c r="C48" s="13" t="str">
+        <v>喀戎之河
+出现条件：
+对应轮次：1；2；3</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="85" r="49">
+      <c r="A49" s="12">
+        <v>4992</v>
+      </c>
+      <c r="B49" s="13" t="str">
+        <v>利维坦
+......</v>
+      </c>
+      <c r="C49" s="13" t="str">
+        <v>喀戎之河
+出现条件：
+对应轮次：4；5；6；7</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="349" r="50">
+      <c r="A50" s="32">
         <v>510</v>
       </c>
-      <c r="B40" s="32" t="str">
+      <c r="B50" s="33" t="str">
         <v>Null 
-这里生长着大片水仙。这种冥河之花象征着死亡、自恋与重生——纳西索斯化作美丽的金光柔和地包裹着这个地方。湿润暧昧的雾气糅杂着淡淡的金光，像下了一场无边的黄金雨。植物们贪婪地吸纳着水汽。万魔殿的后花园里从不缺乏养料。
+这里生长着大片水仙。这种冥河之花象征着死亡、自恋与重生——纳西索斯化作美丽的金光柔和地包裹着这个地方。
+Null
+湿润暧昧的雾气糅杂着淡淡的金光，像下了一场无边的黄金雨。植物们贪婪地吸纳着水汽。万魔殿的后花园里从不缺乏养料。
 摸摸
 新来的？
 主角6
@@ -1923,18 +2227,21 @@
 Options 
 511|512|999</v>
       </c>
-      <c r="C40" s="32" t="str">
+      <c r="C50" s="34" t="str">
         <v>水仙花园
-排除下面两种情况的默认情况</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="330" r="41">
-      <c r="A41" s="9">
+出现条件：
+对应轮次：1；3；4；5；6；7</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="369" r="51">
+      <c r="A51" s="32">
         <v>520</v>
       </c>
-      <c r="B41" s="10" t="str">
+      <c r="B51" s="33" t="str">
         <v>Null 
-这里生长着大片水仙。这种冥河之花象征着死亡、自恋与重生——纳西索斯化作美丽的金光柔和地包裹着这个地方。湿润暧昧的雾气糅杂着淡淡的金光，像下了一场无边的黄金雨。植物们贪婪地吸纳着水汽。万魔殿的后花园里从不缺乏养料。
+这里生长着大片水仙。这种冥河之花象征着死亡、自恋与重生——纳西索斯化作美丽的金光柔和地包裹着这个地方。
+Null
+湿润暧昧的雾气糅杂着淡淡的金光，像下了一场无边的黄金雨。植物们贪婪地吸纳着水汽。万魔殿的后花园里从不缺乏养料。
 摸摸
 新来的？
 主角6
@@ -1956,18 +2263,21 @@
 Options 
 521|522|523|999</v>
       </c>
-      <c r="C41" s="31" t="str">
+      <c r="C51" s="34" t="str">
         <v>水仙花园
-当前菜品轮次</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="330" r="42">
-      <c r="A42" s="9">
+出现条件：
+对应轮次：2</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="365" r="52">
+      <c r="A52" s="32">
         <v>530</v>
       </c>
-      <c r="B42" s="10" t="str">
+      <c r="B52" s="33" t="str">
         <v>Null 
-这里生长着大片水仙。这种冥河之花象征着死亡、自恋与重生——纳西索斯化作美丽的金光柔和地包裹着这个地方。湿润暧昧的雾气糅杂着淡淡的金光，像下了一场无边的黄金雨。植物们贪婪地吸纳着水汽。万魔殿的后花园里从不缺乏养料。
+这里生长着大片水仙。这种冥河之花象征着死亡、自恋与重生——纳西索斯化作美丽的金光柔和地包裹着这个地方。
+Null
+湿润暧昧的雾气糅杂着淡淡的金光，像下了一场无边的黄金雨。植物们贪婪地吸纳着水汽。万魔殿的后花园里从不缺乏养料。
 摸摸
 新来的？
 主角6
@@ -1989,33 +2299,40 @@
 Options 
 531|532|534|999</v>
       </c>
-      <c r="C42" s="11" t="str">
-        <v>在冥府侧殿与侍女小葵完成对话后
-来到水仙花园
-触发了前置条件后</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="142" r="43">
-      <c r="A43" s="9">
+      <c r="C52" s="34" t="str">
+        <v>水仙花园
+出现条件：
+对应轮次：7
+触发过对话：823</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="194" r="53">
+      <c r="A53" s="32">
         <v>511</v>
       </c>
-      <c r="B43" s="10" t="str">
+      <c r="B53" s="33" t="str">
         <v>摸摸
-远在万魔殿建造之前，巴力曾经是古迦南普遍崇拜的风暴和丰饶之神。他有三个脑袋——猫头、蟾蜍头、人头。没有人知道究竟经历了什么让他来到地狱。有人说他是别西卜大人的兄长，曾经帮助别西卜大人坐上地狱的王座统领群魔，但却在上位后被舍弃。每隔十三年，总会有人看到别西卜大人在深夜出没在混沌之地，巴力会化作猫的形态出现在纺锤状的流星下陪伴着他，那是他们在拜祭死去的亲人。
+远在万魔殿建造之前，巴力曾经是古迦南普遍崇拜的风暴和丰饶之神。
+摸摸
+他有三个脑袋——猫头、蟾蜍头、人头。没有人知道究竟经历了什么让他来到地狱。
+摸摸
+有人说他是别西卜大人的兄长，曾经帮助别西卜大人坐上地狱的王座统领群魔，但却在上位后被舍弃。
+摸摸
+每隔十三年，总会有人看到别西卜大人在深夜出没在混沌之地，巴力会化作猫的形态出现在纺锤状的流星下陪伴着他，那是他们在拜祭死去的亲人。
 摸摸
 你有什么想问的吗？
 Options 
 511|512|999</v>
       </c>
-      <c r="C43" s="11" t="str">
+      <c r="C53" s="35" t="str">
         <v>水仙花园</v>
       </c>
     </row>
-    <row customHeight="true" ht="106" r="44">
-      <c r="A44" s="9">
+    <row customHeight="true" ht="106" r="54">
+      <c r="A54" s="32">
         <v>512</v>
       </c>
-      <c r="B44" s="10" t="str">
+      <c r="B54" s="33" t="str">
         <v>摸摸
 为什么要把我设计成全黑的角色我恨你你知道我有多讨厌黑色吗你根本不懂你才是这个游戏里最大的bug！！！
 摸摸
@@ -2023,31 +2340,37 @@
 Options 
 511|512|999</v>
       </c>
-      <c r="C44" s="11" t="str">
+      <c r="C54" s="35" t="str">
         <v>水仙花园</v>
       </c>
     </row>
-    <row customHeight="true" ht="134" r="45">
-      <c r="A45" s="9">
+    <row customHeight="true" ht="195" r="55">
+      <c r="A55" s="32">
         <v>521</v>
       </c>
-      <c r="B45" s="10" t="str">
+      <c r="B55" s="33" t="str">
         <v>摸摸
-远在万魔殿建造之前，巴力曾经是古迦南普遍崇拜的风暴和丰饶之神。他有三个脑袋——猫头、蟾蜍头、人头。没有人知道究竟经历了什么让他来到地狱。有人说他是别西卜大人的兄长，曾经帮助别西卜大人坐上地狱的王座统领群魔，但却在上位后被舍弃。每隔十三年，总会有人看到别西卜大人在深夜出没在混沌之地，巴力会化作猫的形态出现在纺锤状的流星下陪伴着他，那是他们在拜祭死去的亲人。
+远在万魔殿建造之前，巴力曾经是古迦南普遍崇拜的风暴和丰饶之神。
+摸摸
+他有三个脑袋——猫头、蟾蜍头、人头。没有人知道究竟经历了什么让他来到地狱。
+摸摸
+有人说他是别西卜大人的兄长，曾经帮助别西卜大人坐上地狱的王座统领群魔，但却在上位后被舍弃。
+摸摸
+每隔十三年，总会有人看到别西卜大人在深夜出没在混沌之地，巴力会化作猫的形态出现在纺锤状的流星下陪伴着他，那是他们在拜祭死去的亲人。
 摸摸
 你有什么想问的吗？
 Options 
 521|522|523|999</v>
       </c>
-      <c r="C45" s="11" t="str">
+      <c r="C55" s="35" t="str">
         <v>水仙花园</v>
       </c>
     </row>
-    <row customHeight="true" ht="107" r="46">
-      <c r="A46" s="9">
+    <row customHeight="true" ht="107" r="56">
+      <c r="A56" s="32">
         <v>522</v>
       </c>
-      <c r="B46" s="10" t="str">
+      <c r="B56" s="33" t="str">
         <v>摸摸
 为什么要把我设计成全黑的角色我恨你你知道我有多讨厌黑色吗你根本不懂你才是这个游戏里最大的bug！！！
 摸摸
@@ -2055,43 +2378,50 @@
 Options 
 521|522|523|999</v>
       </c>
-      <c r="C46" s="11" t="str">
+      <c r="C56" s="35" t="str">
         <v>水仙花园</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="9">
+    <row r="57">
+      <c r="A57" s="32">
         <v>523</v>
       </c>
-      <c r="B47" s="10" t="str">
+      <c r="B57" s="33" t="str">
         <v>摸摸
 在巴力处获取的食材需要特殊的容器才能储存，你可以在喀戎河畔找到你所需要的物品。</v>
       </c>
-      <c r="C47" s="11" t="str">
-        <v>水仙花园</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="140" r="48">
-      <c r="A48" s="9">
+      <c r="C57" s="36" t="str">
+        <v>水仙花园
+然后可以在河流出点击拾取地上的物品</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="198" r="58">
+      <c r="A58" s="32">
         <v>531</v>
       </c>
-      <c r="B48" s="10" t="str">
+      <c r="B58" s="33" t="str">
         <v>摸摸
-远在万魔殿建造之前，巴力曾经是古迦南普遍崇拜的风暴和丰饶之神。他有三个脑袋——猫头、蟾蜍头、人头。没有人知道究竟经历了什么让他来到地狱。有人说他是别西卜大人的兄长，曾经帮助别西卜大人坐上地狱的王座统领群魔，但却在上位后被舍弃。每隔十三年，总会有人看到别西卜大人在深夜出没在混沌之地，巴力会化作猫的形态出现在纺锤状的流星下陪伴着他，那是他们在拜祭死去的亲人。
+远在万魔殿建造之前，巴力曾经是古迦南普遍崇拜的风暴和丰饶之神。
+摸摸
+他有三个脑袋——猫头、蟾蜍头、人头。没有人知道究竟经历了什么让他来到地狱。
+摸摸
+有人说他是别西卜大人的兄长，曾经帮助别西卜大人坐上地狱的王座统领群魔，但却在上位后被舍弃。
+摸摸
+每隔十三年，总会有人看到别西卜大人在深夜出没在混沌之地，巴力会化作猫的形态出现在纺锤状的流星下陪伴着他，那是他们在拜祭死去的亲人。
 摸摸
 你有什么想问的吗？
 Options 
 531|532|534|999</v>
       </c>
-      <c r="C48" s="11" t="str">
+      <c r="C58" s="35" t="str">
         <v>水仙花园</v>
       </c>
     </row>
-    <row customHeight="true" ht="101" r="49">
-      <c r="A49" s="9">
+    <row customHeight="true" ht="101" r="59">
+      <c r="A59" s="32">
         <v>532</v>
       </c>
-      <c r="B49" s="10" t="str">
+      <c r="B59" s="33" t="str">
         <v>摸摸
 为什么要把我设计成全黑的角色我恨你你知道我有多讨厌黑色吗你根本不懂你才是这个游戏里最大的bug！！！
 摸摸
@@ -2099,27 +2429,28 @@
 Options 
 531|532|534|999</v>
       </c>
-      <c r="C49" s="11" t="str">
+      <c r="C59" s="35" t="str">
         <v>水仙花园</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="9">
+    <row r="60">
+      <c r="A60" s="32">
         <v>534</v>
       </c>
-      <c r="B50" s="10" t="str">
+      <c r="B60" s="33" t="str">
         <v>摸摸
 噢……你指的是这把金十字镐。用这个对付玛门再合适不过。</v>
       </c>
-      <c r="C50" s="11" t="str">
-        <v>水仙花园</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="316" r="51">
-      <c r="A51" s="9">
-        <v>599</v>
-      </c>
-      <c r="B51" s="10" t="str">
+      <c r="C60" s="35" t="str">
+        <v>水仙花园
+玩家物品栏增加金十字镐</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="316" r="61">
+      <c r="A61" s="32">
+        <v>5991</v>
+      </c>
+      <c r="B61" s="33" t="str">
         <v>巴力
 你好，戴着白色厨师帽的女孩。
 主角2
@@ -2135,21 +2466,43 @@
 巴力
 我们曾有过非常美好的时光。
 巴力
-况且，他待我不薄。我喜欢这座花园，充满忧郁气息的纳西索斯总是将这里装点得很美。园丁每晚喝醉后都会唱歌，她有一副美妙的嗓子。这里生机勃勃，令我回忆起当年在古迦南，人们向我祈求风调雨顺、年岁丰饶的日子。
+况且，他待我不薄。我喜欢这座花园，充满忧郁气息的纳西索斯总是将这里装点得很美。园丁每晚喝醉后都会唱歌，她有一副美妙的嗓子。
+巴力
+这里生机勃勃，令我回忆起当年在古迦南，人们向我祈求风调雨顺、年岁丰饶的日子。
 巴力
 至于他所想取的食材……这些伤口对地狱的恶魔不算什么。动手吧，戴厨师帽的女孩。</v>
       </c>
-      <c r="C51" s="11" t="str">
-        <v>水仙花园</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="246" r="52">
-      <c r="A52" s="6">
+      <c r="C61" s="35" t="str">
+        <v>水仙花园
+出现条件：
+对应轮次：1；2</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="76" r="62">
+      <c r="A62" s="32">
+        <v>5992</v>
+      </c>
+      <c r="B62" s="33" t="str">
+        <v>巴力
+......</v>
+      </c>
+      <c r="C62" s="34" t="str">
+        <v>水仙花园
+出现条件：
+对应轮次：3；4；5；6；7</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="306" r="63">
+      <c r="A63" s="26">
         <v>610</v>
       </c>
-      <c r="B52" s="7" t="str">
+      <c r="B63" s="27" t="str">
         <v>Null 
-如牛奶般甘美的泉水在灰暗的密林里流淌。灰尘围绕在亡灵们身边，亡灵们围绕在白杨树身边，他们在蒙昧的光晕里起舞、摇摆、歌唱。只有最纯洁的灵魂死后才能来到此地。乳白色的泉水，甘甜如蜜露的泉水，滋养着低眉的白杨，也滋养着这群人间至真至纯的魂魄。
+如牛奶般甘美的泉水在灰暗的密林里流淌。
+Null
+灰尘围绕在亡灵们身边，亡灵们围绕在白杨树身边，他们在蒙昧的光晕里起舞、摇摆、歌唱。
+Null
+只有最纯洁的灵魂死后才能来到此地。乳白色的泉水，甘甜如蜜露的泉水，滋养着低眉的白杨，也滋养着这群人间至真至纯的魂魄。
 牙牙乐
 亡灵饮水地欢迎您的光临~
 主角7
@@ -2161,21 +2514,27 @@
 主角11
 这样看，地狱和天堂比较像两家竞争机构。
 牙牙乐
-你还有什么想要了解的？白杨树神女牙牙乐欢迎为您服务~
+你还有什么想要了解的？白杨树神女牙牙乐为您服务~
 Options 
 611|612|999</v>
       </c>
-      <c r="C52" s="8" t="str">
-        <v>亡灵饮水地</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="6">
+      <c r="C63" s="28" t="str">
+        <v>亡灵饮水地
+出现条件：
+对应轮次：1；2；3；4；6；7</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="306" r="64">
+      <c r="A64" s="26">
         <v>620</v>
       </c>
-      <c r="B53" s="7" t="str">
+      <c r="B64" s="27" t="str">
         <v>Null 
-如牛奶般甘美的泉水在灰暗的密林里流淌。灰尘围绕在亡灵们身边，亡灵们围绕在白杨树身边，他们在蒙昧的光晕里起舞、摇摆、歌唱。只有最纯洁的灵魂死后才能来到此地。乳白色的泉水，甘甜如蜜露的泉水，滋养着低眉的白杨，也滋养着这群人间至真至纯的魂魄。
+如牛奶般甘美的泉水在灰暗的密林里流淌。
+Null
+灰尘围绕在亡灵们身边，亡灵们围绕在白杨树身边，他们在蒙昧的光晕里起舞、摇摆、歌唱。
+Null
+只有最纯洁的灵魂死后才能来到此地。乳白色的泉水，甘甜如蜜露的泉水，滋养着低眉的白杨，也滋养着这群人间至真至纯的魂魄。
 牙牙乐
 亡灵饮水地欢迎您的光临~
 主角7
@@ -2187,87 +2546,115 @@
 主角11
 这样看，地狱和天堂比较像两家竞争机构。
 牙牙乐
-你还有什么想要了解的？白杨树神女牙牙乐欢迎为您服务~
+你还有什么想要了解的？白杨树神女牙牙乐为您服务~
 Options 
 621|622|623|999</v>
       </c>
-      <c r="C53" s="8" t="str">
+      <c r="C64" s="28" t="str">
+        <v>亡灵饮水地
+出现条件：
+对应轮次：5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="26">
+        <v>611</v>
+      </c>
+      <c r="B65" s="27" t="str">
+        <v>牙牙乐
+她被认作是怠惰的化身，通过财富、懒惰和发明来诱惑人类。
+牙牙乐
+在人间，贝尔芬格被描述为美丽的女子或留着胡子的怪物，或是惊人天人的美丽，或是极为怪异丑陋。
+牙牙乐
+人类因发明进步喜悦时将她描绘成最美丽的魔鬼，而厌恶懒惰时又将她描述成前无来者的丑恶。
+牙牙乐
+懒惰和发明常常是互相成就，而她真实的面貌则是半面奇诡的怪物，半面美丽的少女形象。
+牙牙乐
+人类对她的爱恨纠葛令人惊异，以至于流传出她的祭品是排泄物的传说。
+牙牙乐
+你还有什么想要了解的？白杨树神女牙牙乐为您服务~
+Options 
+611|612|999</v>
+      </c>
+      <c r="C65" s="28" t="str">
         <v>亡灵饮水地</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="6">
-        <v>611</v>
-      </c>
-      <c r="B54" s="7" t="str">
-        <v>牙牙乐
-她被认作是怠惰的化身，通过财富、懒惰和发明来诱惑人类。在人间，贝尔芬格被描述为美丽的女子或留着胡子的怪物，或是惊人天人的美丽，或是极为怪异丑陋。人类因发明进步喜悦时将她描绘成最美丽的魔鬼，而厌恶懒惰时又将她描述成前无来者的丑恶。懒惰和发明常常是互相成就，而她真实的面貌则是半面奇诡的怪物，半面美丽的少女形象。人类对她的爱恨纠葛令人惊异，以至于流传出她的祭品是排泄物的传说。
-牙牙乐
-你还有什么想要了解的？白杨树神女牙牙乐欢迎为您服务~
-Options 
-611|612|999</v>
-      </c>
-      <c r="C54" s="8" t="str">
-        <v>亡灵饮水地</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="92" r="55">
-      <c r="A55" s="6">
+    <row customHeight="true" ht="92" r="66">
+      <c r="A66" s="26">
         <v>612</v>
       </c>
-      <c r="B55" s="7" t="str">
+      <c r="B66" s="27" t="str">
         <v>牙牙乐
 亲爱的，实际上，我们都知道你是谁……
 牙牙乐
-你还有什么想要了解的？白杨树神女牙牙乐欢迎为您服务~
+你还有什么想要了解的？白杨树神女牙牙乐为您服务~
 Options 
 611|612|999</v>
       </c>
-      <c r="C55" s="8" t="str">
+      <c r="C66" s="28" t="str">
         <v>亡灵饮水地</v>
       </c>
     </row>
-    <row customHeight="true" ht="71" r="56">
-      <c r="A56" s="6">
+    <row customHeight="true" ht="195" r="67">
+      <c r="A67" s="26">
         <v>621</v>
       </c>
-      <c r="B56" s="7" t="str">
+      <c r="B67" s="27" t="str">
         <v>牙牙乐
-她被认作是怠惰的化身，通过财富、懒惰和发明来诱惑人类。在人间，贝尔芬格被描述为美丽的女子或留着胡子的怪物，或是惊人天人的美丽，或是极为怪异丑陋。人类因发明进步喜悦时将她描绘成最美丽的魔鬼，而厌恶懒惰时又将她描述成前无来者的丑恶。懒惰和发明常常是互相成就，而她真实的面貌则是半面奇诡的怪物，半面美丽的少女形象。人类对她的爱恨纠葛令人惊异，以至于流传出她的祭品是排泄物的传说。</v>
-      </c>
-      <c r="C56" s="8" t="str">
+她被认作是怠惰的化身，通过财富、懒惰和发明来诱惑人类。
+牙牙乐
+在人间，贝尔芬格被描述为美丽的女子或留着胡子的怪物，或是惊人天人的美丽，或是极为怪异丑陋。
+牙牙乐
+人类因发明进步喜悦时将她描绘成最美丽的魔鬼，而厌恶懒惰时又将她描述成前无来者的丑恶。
+牙牙乐
+懒惰和发明常常是互相成就，而她真实的面貌则是半面奇诡的怪物，半面美丽的少女形象。
+牙牙乐
+人类对她的爱恨纠葛令人惊异，以至于流传出她的祭品是排泄物的传说。
+牙牙乐
+你还有什么想要了解的？白杨树神女牙牙乐为您服务~
+Options 
+621|622|623|999</v>
+      </c>
+      <c r="C67" s="28" t="str">
         <v>亡灵饮水地</v>
       </c>
     </row>
-    <row customHeight="true" ht="71" r="57">
-      <c r="A57" s="6">
+    <row customHeight="true" ht="95" r="68">
+      <c r="A68" s="26">
         <v>622</v>
       </c>
-      <c r="B57" s="7" t="str">
+      <c r="B68" s="27" t="str">
         <v>牙牙乐
-亲爱的，实际上，我们都知道你是谁……</v>
-      </c>
-      <c r="C57" s="8" t="str">
+亲爱的，实际上，我们都知道你是谁……
+牙牙乐
+你还有什么想要了解的？白杨树神女牙牙乐为您服务~
+Options 
+621|622|623|999</v>
+      </c>
+      <c r="C68" s="28" t="str">
         <v>亡灵饮水地</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="6">
+    <row customHeight="true" ht="76" r="69">
+      <c r="A69" s="26">
         <v>623</v>
       </c>
-      <c r="B58" s="7" t="str">
+      <c r="B69" s="27" t="str">
         <v>牙牙乐
-没有人知道这次的祭品究竟是不是人类的排泄物。以防万一，我想你可以去冥府侧殿的侍女处找到合适的容器来盛装。</v>
-      </c>
-      <c r="C58" s="8" t="str">
+没有人知道这次的祭品究竟是不是人类的排泄物。
+牙牙乐
+以防万一，我想你可以去冥府侧殿的侍女处找到合适的容器来盛装。</v>
+      </c>
+      <c r="C69" s="28" t="str">
         <v>亡灵饮水地</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="6">
-        <v>699</v>
-      </c>
-      <c r="B59" s="7" t="str">
+    <row r="70">
+      <c r="A70" s="26">
+        <v>6991</v>
+      </c>
+      <c r="B70" s="27" t="str">
         <v>贝尔芬格
 ……
 主角1
@@ -2285,17 +2672,35 @@
 主角12
 看来我自己去获取祭品就好。</v>
       </c>
-      <c r="C59" s="8" t="str">
-        <v>亡灵饮水地</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1">
-        <v>42</v>
-      </c>
-      <c r="B60" s="2" t="str">
+      <c r="C70" s="28" t="str">
+        <v>亡灵饮水地
+出现条件：
+对应轮次：1；2；3；4；5</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="78" r="71">
+      <c r="A71" s="26">
+        <v>6992</v>
+      </c>
+      <c r="B71" s="27" t="str">
+        <v>贝尔芬格
+......</v>
+      </c>
+      <c r="C71" s="28" t="str">
+        <v>亡灵饮水地
+出现条件：
+对应轮次：6；7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="16">
+        <v>710</v>
+      </c>
+      <c r="B72" s="31" t="str">
         <v>Null 
-某位魔王用金子打造了这座殿堂：从天花板、吊灯到桌椅、碗碟甚至侍女的面纱，都散发着黄金令人迷醉的香气。冰冷的金子，美丽的金子，沉重的金子，身处其中，然后下沉、下沉。
+某位魔王用金子打造了这座殿堂：从天花板、吊灯到桌椅、碗碟甚至侍女的面纱，都散发着黄金令人迷醉的香气。
+Null
+冰冷的金子，美丽的金子，沉重的金子，身处其中，然后下沉、下沉。
 小葵
 这里是玛门大人的宫殿。
 小葵
@@ -2307,20 +2712,24 @@
 小葵
 有什么我能帮上你的吗？
 Options 
-27|29|31
+711|712|999
 </v>
       </c>
-      <c r="C60" s="3" t="str">
-        <v>冥府侧殿</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1">
-        <v>43</v>
-      </c>
-      <c r="B61" s="2" t="str">
+      <c r="C72" s="18" t="str">
+        <v>冥府侧殿
+出现条件：
+对应轮次：1；2；3；4；5；6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="16">
+        <v>720</v>
+      </c>
+      <c r="B73" s="31" t="str">
         <v>Null 
-某位魔王用金子打造了这座殿堂：从天花板、吊灯到桌椅、碗碟甚至侍女的面纱，都散发着黄金令人迷醉的香气。冰冷的金子，美丽的金子，沉重的金子，身处其中，然后下沉、下沉。
+某位魔王用金子打造了这座殿堂：从天花板、吊灯到桌椅、碗碟甚至侍女的面纱，都散发着黄金令人迷醉的香气。
+Null
+冰冷的金子，美丽的金子，沉重的金子，身处其中，然后下沉、下沉。
 小葵
 这里是玛门大人的宫殿。
 小葵
@@ -2332,19 +2741,23 @@
 小葵
 有什么我能帮上你的吗？
 Options 
-27|28|29|31</v>
-      </c>
-      <c r="C61" s="3" t="str">
-        <v>冥府侧殿</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1">
-        <v>44</v>
-      </c>
-      <c r="B62" s="2" t="str">
+721|722|723|999</v>
+      </c>
+      <c r="C73" s="18" t="str">
+        <v>冥府侧殿
+出现条件：
+对应轮次：7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="16">
+        <v>730</v>
+      </c>
+      <c r="B74" s="31" t="str">
         <v>Null 
-某位魔王用金子打造了这座殿堂：从天花板、吊灯到桌椅、碗碟甚至侍女的面纱，都散发着黄金令人迷醉的香气。冰冷的金子，美丽的金子，沉重的金子，身处其中，然后下沉、下沉。
+某位魔王用金子打造了这座殿堂：从天花板、吊灯到桌椅、碗碟甚至侍女的面纱，都散发着黄金令人迷醉的香气。
+Null
+冰冷的金子，美丽的金子，沉重的金子，身处其中，然后下沉、下沉。
 小葵
 这里是玛门大人的宫殿。
 小葵
@@ -2356,65 +2769,155 @@
 小葵
 有什么我能帮上你的吗？
 Options 
-27|29|30|31</v>
-      </c>
-      <c r="C62" s="3" t="str">
+731|732|734|999</v>
+      </c>
+      <c r="C74" s="18" t="str">
+        <v>冥府侧殿
+出现条件：
+对应轮次：5
+触发过对话：623</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="16">
+        <v>711</v>
+      </c>
+      <c r="B75" s="31" t="str">
+        <v>小葵
+即使在天堂时，他的眼睛也总是向下凝视着天堂黄金铺就的地板。
+小葵
+他对黄金和财富的狂热追求令他堕入地狱，他指挥其他魔鬼在地狱深处挖掘黄金、宝石来建造这座侧殿，是第一个将天堂的黄金用于建造世俗建筑的魔鬼。
+小葵
+凡人用他来隐喻对财富无底线追求的戕害。
+小葵
+有什么我能帮上你的吗？
+Options 
+711|712|999</v>
+      </c>
+      <c r="C75" s="18" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1">
-        <v>45</v>
-      </c>
-      <c r="B63" s="2" t="str">
+    <row r="76">
+      <c r="A76" s="16">
+        <v>712</v>
+      </c>
+      <c r="B76" s="17" t="str">
         <v>小葵
-即使在天堂时，他的眼睛也总是向下凝视着天堂黄金铺就的地板。他对黄金和财富的狂热追求令他堕入地狱，他指挥其他魔鬼在地狱深处挖掘黄金、宝石来建造这座侧殿，是第一个将天堂的黄金用于建造世俗建筑的魔鬼。凡人用他来隐喻对财富无底线追求的戕害。</v>
-      </c>
-      <c r="C63" s="3" t="str">
+你有没有发现……这个地方开始出现故障了？
+小葵
+有什么我能帮上你的吗？
+Options 
+711|712|999</v>
+      </c>
+      <c r="C76" s="18" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1">
-        <v>46</v>
-      </c>
-      <c r="B64" s="2" t="str">
+    <row customHeight="true" ht="160" r="77">
+      <c r="A77" s="16">
+        <v>721</v>
+      </c>
+      <c r="B77" s="31" t="str">
+        <v>小小葵
+即使在天堂时，他的眼睛也总是向下凝视着天堂黄金铺就的地板。
+小葵
+他对黄金和财富的狂热追求令他堕入地狱，他指挥其他魔鬼在地狱深处挖掘黄金、宝石来建造这座侧殿，是第一个将天堂的黄金用于建造世俗建筑的魔鬼。
+小葵
+凡人用他来隐喻对财富无底线追求的戕害。
+小葵
+有什么我能帮上你的吗？
+Options 
+721|722|723|999</v>
+      </c>
+      <c r="C77" s="18" t="str">
+        <v>冥府侧殿</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="85" r="78">
+      <c r="A78" s="16">
+        <v>722</v>
+      </c>
+      <c r="B78" s="17" t="str">
         <v>小葵
-此刻他正在沉睡。即使在睡梦中，玛门也要与黄金同眠。我想你需要去找水仙花园的冥府园丁，借助某个工具才能将他从黄金堆里找出。</v>
-      </c>
-      <c r="C64" s="3" t="str">
+你有没有发现……这个地方开始出现故障了？
+小葵
+有什么我能帮上你的吗？
+Options 
+721|722|723|999</v>
+      </c>
+      <c r="C78" s="18" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1">
-        <v>47</v>
-      </c>
-      <c r="B65" s="3" t="str">
+    <row r="79">
+      <c r="A79" s="16">
+        <v>723</v>
+      </c>
+      <c r="B79" s="31" t="str">
         <v>小葵
-你有没有发现……这个地方开始出现故障了？</v>
-      </c>
-      <c r="C65" s="3" t="str">
+此刻他正在沉睡。即使在睡梦中，玛门也要与黄金同眠。
+小葵
+我想你需要去找水仙花园的冥府园丁，借助某个工具才能将他从黄金堆里找出。</v>
+      </c>
+      <c r="C79" s="18" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1">
-        <v>48</v>
-      </c>
-      <c r="B66" s="3" t="str">
+    <row customHeight="true" ht="161" r="80">
+      <c r="A80" s="16">
+        <v>731</v>
+      </c>
+      <c r="B80" s="31" t="str">
+        <v>小葵
+即使在天堂时，他的眼睛也总是向下凝视着天堂黄金铺就的地板。
+小葵
+他对黄金和财富的狂热追求令他堕入地狱，他指挥其他魔鬼在地狱深处挖掘黄金、宝石来建造这座侧殿，是第一个将天堂的黄金用于建造世俗建筑的魔鬼。
+小葵
+凡人用他来隐喻对财富无底线追求的戕害。
+小葵
+有什么我能帮上你的吗？
+Options 
+731|732|734|999</v>
+      </c>
+      <c r="C80" s="18" t="str">
+        <v>冥府侧殿</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="95" r="81">
+      <c r="A81" s="16">
+        <v>732</v>
+      </c>
+      <c r="B81" s="17" t="str">
+        <v>小葵
+你有没有发现……这个地方开始出现故障了？
+小葵
+有什么我能帮上你的吗？
+Options 
+731|732|734|999</v>
+      </c>
+      <c r="C81" s="18" t="str">
+        <v>冥府侧殿</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="16">
+        <v>734</v>
+      </c>
+      <c r="B82" s="17" t="str">
         <v>小葵
 啊！我想你需要的是这个狮鹫夜壶。</v>
       </c>
-      <c r="C66" s="3" t="str">
-        <v>冥府侧殿</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1">
-        <v>49</v>
-      </c>
-      <c r="B67" s="3" t="str">
+      <c r="C82" s="18" t="str">
+        <v>冥府侧殿
+玩家道具栏新增狮鹫夜壶</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="16">
+        <v>7991</v>
+      </c>
+      <c r="B83" s="17" t="str">
         <v>玛门
 没有一个瞬间，不会成为地狱的进口。没有一个瞬间，不会成为天堂的流水。
 玛门
@@ -2426,17 +2929,23 @@
 主角3
 人设还真是始终如一地不ooc呢……</v>
       </c>
-      <c r="C67" s="3" t="str">
-        <v>冥府侧殿</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="19">
-        <v>50</v>
-      </c>
-      <c r="B68" s="20" t="str">
+      <c r="C83" s="18" t="str">
+        <v>冥府侧殿
+出现条件：
+对应轮次：1；2；3；4；5；6；7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="19">
+        <v>810</v>
+      </c>
+      <c r="B84" s="20" t="str">
         <v>Null 
-宇宙诞生时遗留的最后一处混沌之地，现在只能看到漫天沙砾。星空呈现精确的纺锤形缓慢流转，带给人冲破混沌的幻想和违逆命运的渴望。此地既不属于当下，也不属于将来。目之所及是历史、真相、幻觉、欺瞒，以及植物丛里闪烁的蓝紫色果实。那是缩序杜若。你闻到缓慢流动的苦杏仁之味。
+宇宙诞生时遗留的最后一处混沌之地，现在只能看到漫天沙砾。
+Null
+星空呈现精确的纺锤形缓慢流转，带给人冲破混沌的幻想和违逆命运的渴望。此地既不属于当下，也不属于将来。
+Null
+目之所及是历史、真相、幻觉、欺瞒，以及植物丛里闪烁的蓝紫色果实。那是缩序杜若。你闻到缓慢流动的苦杏仁之味。
 蓝七
 哇啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊！
 蓝七
@@ -2450,19 +2959,25 @@
 蓝七
 你有什么想知道的吗？我会尽力解答的哦~
 Options 
-32|34|36</v>
-      </c>
-      <c r="C68" s="21" t="str">
-        <v>混沌之地</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="19">
-        <v>51</v>
-      </c>
-      <c r="B69" s="20" t="str">
+811|812|999</v>
+      </c>
+      <c r="C84" s="21" t="str">
+        <v>混沌之地
+出现条件
+对应轮次：1；2；3；4；5；7</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="315" r="85">
+      <c r="A85" s="19">
+        <v>820</v>
+      </c>
+      <c r="B85" s="20" t="str">
         <v>Null 
-宇宙诞生时遗留的最后一处混沌之地，现在只能看到漫天沙砾。星空呈现精确的纺锤形缓慢流转，带给人冲破混沌的幻想和违逆命运的渴望。此地既不属于当下，也不属于将来。目之所及是历史、真相、幻觉、欺瞒，以及植物丛里闪烁的蓝紫色果实。那是缩序杜若。你闻到缓慢流动的苦杏仁之味。
+宇宙诞生时遗留的最后一处混沌之地，现在只能看到漫天沙砾。
+Null
+星空呈现精确的纺锤形缓慢流转，带给人冲破混沌的幻想和违逆命运的渴望。此地既不属于当下，也不属于将来。
+Null
+目之所及是历史、真相、幻觉、欺瞒，以及植物丛里闪烁的蓝紫色果实。那是缩序杜若。你闻到缓慢流动的苦杏仁之味。
 蓝七
 哇啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊！
 蓝七
@@ -2476,19 +2991,25 @@
 蓝七
 你有什么想知道的吗？我会尽力解答的哦~
 Options 
-32|33|34|36</v>
-      </c>
-      <c r="C69" s="21" t="str">
-        <v>混沌之地</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="19">
-        <v>52</v>
-      </c>
-      <c r="B70" s="20" t="str">
+821|822|823|999</v>
+      </c>
+      <c r="C85" s="21" t="str">
+        <v>混沌之地
+出现条件
+对应轮次：6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="19">
+        <v>830</v>
+      </c>
+      <c r="B86" s="20" t="str">
         <v>Null 
-宇宙诞生时遗留的最后一处混沌之地，现在只能看到漫天沙砾。星空呈现精确的纺锤形缓慢流转，带给人冲破混沌的幻想和违逆命运的渴望。此地既不属于当下，也不属于将来。目之所及是历史、真相、幻觉、欺瞒，以及植物丛里闪烁的蓝紫色果实。那是缩序杜若。你闻到缓慢流动的苦杏仁之味。
+宇宙诞生时遗留的最后一处混沌之地，现在只能看到漫天沙砾。
+Null
+星空呈现精确的纺锤形缓慢流转，带给人冲破混沌的幻想和违逆命运的渴望。此地既不属于当下，也不属于将来。
+Null
+目之所及是历史、真相、幻觉、欺瞒，以及植物丛里闪烁的蓝紫色果实。那是缩序杜若。你闻到缓慢流动的苦杏仁之味。
 蓝七
 哇啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊！
 蓝七
@@ -2502,65 +3023,154 @@
 蓝七
 你有什么想知道的吗？我会尽力解答的哦~
 Options 
-32|34|35|36</v>
-      </c>
-      <c r="C70" s="21" t="str">
+831|832|834|999</v>
+      </c>
+      <c r="C86" s="21" t="str">
+        <v>混沌之地
+出现条件
+对应轮次：4
+触发过对话：323</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="19">
+        <v>811</v>
+      </c>
+      <c r="B87" s="20" t="str">
+        <v>蓝七
+直至今日，撒旦依然在凡间享有远超于其他恶魔的名声。人类用她的名讳代指恶魔，将其描述为或阴险邪恶的象征。
+蓝七
+他们将诱惑夏娃亚当一事怪罪于她，认为她化为蛇进入伊甸园，通过分别善恶的知识引诱人类堕落，从而将罪、病、死带入人间。
+蓝七
+然而无知真的是一种福佑么？撒旦并不是纯粹恶的化身，正如她所栖身的混沌之地，她本身就代表着无言的混沌与不明。
+蓝七
+你有什么想知道的吗？我会尽力解答的哦~
+Options 
+811|812|999</v>
+      </c>
+      <c r="C87" s="21" t="str">
         <v>混沌之地</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="19">
-        <v>53</v>
-      </c>
-      <c r="B71" s="20" t="str">
+    <row r="88">
+      <c r="A88" s="19">
+        <v>812</v>
+      </c>
+      <c r="B88" s="20" t="str">
         <v>蓝七
-直至今日，撒旦依然在凡间享有远超于其他恶魔的名声。人类用她的名讳代指恶魔，将其描述为或阴险邪恶的象征。他们将诱惑夏娃亚当一事怪罪于她，认为她化为蛇进入伊甸园，通过分别善恶的知识引诱人类堕落，从而将罪、病、死带入人间。然而无知真的是一种福佑么？撒旦并不是纯粹恶的化身，正如她所栖身的混沌之地，她本身就代表着无言的混沌与不明。</v>
-      </c>
-      <c r="C71" s="21" t="str">
+这里并不是你所想象的那样！唯一的方法是&amp;%￥#@！*%￥……&amp;*？%￥#
+蓝七
+你有什么想知道的吗？我会尽力解答的哦~
+Options 
+811|812|999</v>
+      </c>
+      <c r="C88" s="21" t="str">
         <v>混沌之地</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="19">
-        <v>54</v>
-      </c>
-      <c r="B72" s="20" t="str">
+    <row customHeight="true" ht="186" r="89">
+      <c r="A89" s="19">
+        <v>821</v>
+      </c>
+      <c r="B89" s="20" t="str">
+        <v>蓝七
+直至今日，撒旦依然在凡间享有远超于其他恶魔的名声。人类用她的名讳代指恶魔，将其描述为或阴险邪恶的象征。
+蓝七
+他们将诱惑夏娃亚当一事怪罪于她，认为她化为蛇进入伊甸园，通过分别善恶的知识引诱人类堕落，从而将罪、病、死带入人间。
+蓝七
+然而无知真的是一种福佑么？撒旦并不是纯粹恶的化身，正如她所栖身的混沌之地，她本身就代表着无言的混沌与不明。
+蓝七
+你有什么想知道的吗？我会尽力解答的哦~
+Options 
+821|822|823|999</v>
+      </c>
+      <c r="C89" s="21" t="str">
+        <v>混沌之地</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="96" r="90">
+      <c r="A90" s="19">
+        <v>822</v>
+      </c>
+      <c r="B90" s="20" t="str">
+        <v>蓝七
+这里并不是你所想象的那样！唯一的方法是&amp;%￥#@！*%￥……&amp;*？%￥#
+蓝七
+你有什么想知道的吗？我会尽力解答的哦~
+Options 
+821|822|823|999</v>
+      </c>
+      <c r="C90" s="21" t="str">
+        <v>混沌之地</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="54" r="91">
+      <c r="A91" s="19">
+        <v>823</v>
+      </c>
+      <c r="B91" s="20" t="str">
         <v>蓝七
 从撒旦身上获取的食材需要特殊的容器才能储存，你可以在亡灵饮水地找到你所需要的物品。</v>
       </c>
-      <c r="C72" s="21" t="str">
+      <c r="C91" s="22" t="str">
+        <v>混沌之地
+亡灵饮水地出现乌洛波洛斯之盘可以拾取</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="185" r="92">
+      <c r="A92" s="19">
+        <v>831</v>
+      </c>
+      <c r="B92" s="20" t="str">
+        <v>蓝七
+直至今日，撒旦依然在凡间享有远超于其他恶魔的名声。人类用她的名讳代指恶魔，将其描述为或阴险邪恶的象征。
+蓝七
+他们将诱惑夏娃亚当一事怪罪于她，认为她化为蛇进入伊甸园，通过分别善恶的知识引诱人类堕落，从而将罪、病、死带入人间。
+蓝七
+然而无知真的是一种福佑么？撒旦并不是纯粹恶的化身，正如她所栖身的混沌之地，她本身就代表着无言的混沌与不明。
+蓝七
+你有什么想知道的吗？我会尽力解答的哦~
+Options 
+831|832|834|999</v>
+      </c>
+      <c r="C92" s="21" t="str">
         <v>混沌之地</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="19">
-        <v>55</v>
-      </c>
-      <c r="B73" s="20" t="str">
+    <row customHeight="true" ht="105" r="93">
+      <c r="A93" s="19">
+        <v>832</v>
+      </c>
+      <c r="B93" s="20" t="str">
         <v>蓝七
-这里并不是你所想象的那样！唯一的方法是&amp;%￥#@！*%￥……&amp;*？%￥#</v>
-      </c>
-      <c r="C73" s="21" t="str">
+这里并不是你所想象的那样！唯一的方法是&amp;%￥#@！*%￥……&amp;*？%￥#
+蓝七
+你有什么想知道的吗？我会尽力解答的哦~
+Options 
+831|832|834|999</v>
+      </c>
+      <c r="C93" s="21" t="str">
         <v>混沌之地</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="19">
-        <v>56</v>
-      </c>
-      <c r="B74" s="20" t="str">
+    <row r="94">
+      <c r="A94" s="19">
+        <v>834</v>
+      </c>
+      <c r="B94" s="20" t="str">
         <v>蓝七
 啊！我想你需要厄洛斯之香。即使是再强大的恶魔，它也能使其陷入沉睡。</v>
       </c>
-      <c r="C74" s="21" t="str">
-        <v>混沌之地</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="19">
-        <v>57</v>
-      </c>
-      <c r="B75" s="20" t="str">
+      <c r="C94" s="21" t="str">
+        <v>混沌之地
+玩家道具栏增加厄洛斯之香</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="19">
+        <v>8991</v>
+      </c>
+      <c r="B95" s="20" t="str">
         <v>撒旦
 我一直在看着你，女孩。
 撒旦
@@ -2568,57 +3178,49 @@
 撒旦
 我欣赏你的聪慧、敏锐和勇敢……此前没有一位厨师走到过这里。
 撒旦
-千万年里我总是好奇人类究竟已经进化到了什么样子，但我每次从混沌中眺望，只能看到与当初伊甸园里一致的贪婪、欺骗与恶意。你让我看到了与众不同的特质。
+千万年里我总是好奇人类究竟已经进化到了什么样子。
+撒旦
+但我每次从混沌中眺望，只能看到与当初伊甸园里一致的贪婪、欺骗与恶意。你让我看到了与众不同的特质。
 撒旦
 既然别西卜想要，我就不为难你了。不必怜惜我，我不会感到疼痛……</v>
       </c>
-      <c r="C75" s="21" t="str">
-        <v>混沌之地</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="16">
-        <v>58</v>
-      </c>
-      <c r="B76" s="17" t="str">
+      <c r="C95" s="21" t="str">
+        <v>混沌之地
+出现条件
+对应轮次：1；2；3；4；5；6</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="68" r="96">
+      <c r="A96" s="19">
+        <v>8992</v>
+      </c>
+      <c r="B96" s="20" t="str">
+        <v>撒旦
+......</v>
+      </c>
+      <c r="C96" s="21" t="str">
+        <v>混沌之地
+出现条件
+对应轮次：7</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="81" r="97">
+      <c r="A97" s="5">
+        <v>910</v>
+      </c>
+      <c r="B97" s="3" t="str">
         <v>Narrator
-你以为你成功了吗？
-你以为游戏通关就可以回到现实吗？
-你以为的现实真的是现实吗？你认为的真实真的是真相吗？
-“因为游戏出现了Bug才会把身为制作人的我拉进游戏，而我的存在本身又为这个尚待完善的游戏增加了新的Bug。”你是这样想的，没错吧？
-全知全能的制作人站在更高的维度，自然能够轻轻松松地通关。
-那如果我告诉你，其实从一开始，连你本身也不过只是被赋予个性和相貌的木偶呢？
-Null 
-我们八个人共同创造了你……
-我们赋予你身份、性格、外表和故事。
-但你或许也发现了，我们没有给你设定名字。
-身为制作人的你当然知道这意味着什么……
-你是我们创造出的游戏主角。我们创造出你，紧接着创造出整个游戏世界。
-Null 
-别西卜、阿斯摩太、巴力、利维坦、摩洛克、贝尔芬格、撒旦、玛门……
-正如你将他们设计出来，放进你的游戏里。
-我们也将你设计出来，放进我们的游戏中。
-你进入了自己制作的游戏，与自己创造出的角色对话。
-这是什么样的感觉呢？
-Null 
-为了体验这种感觉，我们设计了这个结局。
-还记得撒旦说的话吗？
-“我一直在看着你，女孩。从你进入万魔殿开始，我就一直透过混沌的星空注视着你。”
-这正是我们想对你说的。
-我们以独特的身份出现在你的世界里，一直陪伴着你。
-我们中的有一个人试图向你伸出援手……但请相信，所谓的逃离也只不过是一场幻觉。
-真高兴你没有那么选。
-亲爱的，我们游戏主界面见。</v>
-      </c>
-      <c r="C76" s="18" t="str">
-        <v>真结局文本</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="16">
-        <v>59</v>
-      </c>
-      <c r="B77" s="17" t="str">
+你做出了连恶魔都难以下咽的食物……
+Narrator
+别西卜非常恼怒，将你投喂给了利维坦</v>
+      </c>
+      <c r="C97" s="4"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="5">
+        <v>920</v>
+      </c>
+      <c r="B98" s="3" t="str">
         <v>因诺
 不知道现在告诉你这些会不会太晚了……
 因诺
@@ -2628,836 +3230,918 @@
 因诺
 无论如何，请相信我一次。让我带你逃离这个地方吧。
 Options 
-37|38</v>
-      </c>
-      <c r="C77" s="18" t="str">
-        <v>第六道菜结束后弹出的对话</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="15"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="5"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="4"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="5"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="4"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="5"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="4"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="4"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="4"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="4"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="4"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="4"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="4"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="4"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="4"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="4"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="4"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="4"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="4"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="4"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="4"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="4"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="4"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="4"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="4"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="4"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
+921|922</v>
+      </c>
+      <c r="C98" s="9" t="str">
+        <v>第六道菜结束后（别西卜发布任务后）弹出的对话
+选项921-进入逃离失败结局部分
+选项922-进入第七轮次的白日地图</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="735" r="99">
+      <c r="A99" s="5">
+        <v>930</v>
+      </c>
+      <c r="B99" s="3" t="str">
+        <v>Narrator
+你以为你成功了吗？
+Narrator
+你以为游戏通关就可以回到现实吗？
+Narrator
+你以为的现实真的是现实吗？你认为的真实真的是真相吗？
+Narrator
+“因为游戏出现了Bug才会把身为制作人的我拉进游戏，而我的存在本身又为这个尚待完善的游戏增加了新的Bug。”
+Narrator
+你是这样想的，没错吧？
+Narrator
+全知全能的制作人站在更高的维度，自然能够轻轻松松地通关。
+Narrator
+那如果我告诉你，其实从一开始，连你本身也不过只是被赋予个性和相貌的木偶呢？
+Null 
+我们八个人共同创造了你……
+Null 
+我们赋予你身份、性格、外表和故事。
+Null 
+但你或许也发现了，我们没有给你设定名字。
+Null 
+身为制作人的你当然知道这意味着什么……
+Null 
+你是我们创造出的游戏主角。我们创造出你，紧接着创造出整个游戏世界。
+Null 
+别西卜、阿斯摩太、巴力、利维坦、摩洛克、贝尔芬格、撒旦、玛门……
+Null 
+正如你将他们设计出来，放进你的游戏里。
+Null 
+我们也将你设计出来，放进我们的游戏中。
+Null 
+你进入了自己制作的游戏，与自己创造出的角色对话。
+Null 
+这是什么样的感觉呢？
+Null 
+为了体验这种感觉，我们设计了这个结局。
+Null 
+还记得撒旦说的话吗？
+Null 
+“我一直在看着你，女孩。从你进入万魔殿开始，我就一直透过混沌的星空注视着你。”
+Null 
+这正是我们想对你说的。
+Null 
+我们以独特的身份出现在你的世界里，一直陪伴着你。
+Null 
+我们中的有一个人试图向你伸出援手……但请相信，所谓的逃离也只不过是一场幻觉。
+Null 
+真高兴你没有那么选。
+Null
+亲爱的，我们游戏主界面见。</v>
+      </c>
+      <c r="C99" s="4" t="str">
+        <v>真结局文本内容
+做完第七道菜并且评分通过后触发
+</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="148" r="100">
+      <c r="A100" s="5">
+        <v>921</v>
+      </c>
+      <c r="B100" s="3" t="str">
+        <v>Narrator
+多么天真可爱、盲目轻信的小女孩……
+Narrator
+我们都有些不忍心了呢。
+Narrator
+你以为的这个世界的bug真的是bug吗？
+Narrator
+亲爱的，你是我们生产出来的，专为这个游戏世界打造的bug。
+Narrator
+在更高的维度，我们始终掌控着你的命运……</v>
+      </c>
+      <c r="C100" s="4"/>
     </row>
     <row r="101">
-      <c r="A101" s="4"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
+      <c r="A101" s="10"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="8"/>
     </row>
     <row r="102">
-      <c r="A102" s="4"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
+      <c r="A102" s="6"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="8"/>
     </row>
     <row r="103">
-      <c r="A103" s="4"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
+      <c r="A103" s="6"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="8"/>
     </row>
     <row r="104">
-      <c r="A104" s="4"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
+      <c r="A104" s="6"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="8"/>
     </row>
     <row r="105">
-      <c r="A105" s="4"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
+      <c r="A105" s="6"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="8"/>
     </row>
     <row r="106">
-      <c r="A106" s="4"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
+      <c r="A106" s="6"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="8"/>
     </row>
     <row r="107">
-      <c r="A107" s="4"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
+      <c r="A107" s="6"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="8"/>
     </row>
     <row r="108">
-      <c r="A108" s="4"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
+      <c r="A108" s="6"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="8"/>
     </row>
     <row r="109">
-      <c r="A109" s="4"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
+      <c r="A109" s="6"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="8"/>
     </row>
     <row r="110">
-      <c r="A110" s="4"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
+      <c r="A110" s="6"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="8"/>
     </row>
     <row r="111">
-      <c r="A111" s="4"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
+      <c r="A111" s="6"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="8"/>
     </row>
     <row r="112">
-      <c r="A112" s="4"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
+      <c r="A112" s="6"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="8"/>
     </row>
     <row r="113">
-      <c r="A113" s="4"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
+      <c r="A113" s="6"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="8"/>
     </row>
     <row r="114">
-      <c r="A114" s="4"/>
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
+      <c r="A114" s="6"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="8"/>
     </row>
     <row r="115">
-      <c r="A115" s="4"/>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
+      <c r="A115" s="6"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="8"/>
     </row>
     <row r="116">
-      <c r="A116" s="4"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
+      <c r="A116" s="6"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="8"/>
     </row>
     <row r="117">
-      <c r="A117" s="4"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
+      <c r="A117" s="6"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="8"/>
     </row>
     <row r="118">
-      <c r="A118" s="4"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
+      <c r="A118" s="6"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="8"/>
     </row>
     <row r="119">
-      <c r="A119" s="4"/>
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
+      <c r="A119" s="6"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="8"/>
     </row>
     <row r="120">
-      <c r="A120" s="4"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
+      <c r="A120" s="6"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="8"/>
     </row>
     <row r="121">
-      <c r="A121" s="4"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
+      <c r="A121" s="6"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="8"/>
     </row>
     <row r="122">
-      <c r="A122" s="4"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
+      <c r="A122" s="6"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="8"/>
     </row>
     <row r="123">
-      <c r="A123" s="4"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
+      <c r="A123" s="6"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="8"/>
     </row>
     <row r="124">
-      <c r="A124" s="4"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
+      <c r="A124" s="6"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="8"/>
     </row>
     <row r="125">
-      <c r="A125" s="4"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
+      <c r="A125" s="6"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="8"/>
     </row>
     <row r="126">
-      <c r="A126" s="4"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
+      <c r="A126" s="6"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="8"/>
     </row>
     <row r="127">
-      <c r="A127" s="4"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
+      <c r="A127" s="6"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="8"/>
     </row>
     <row r="128">
-      <c r="A128" s="4"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
+      <c r="A128" s="6"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="8"/>
     </row>
     <row r="129">
-      <c r="A129" s="4"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
+      <c r="A129" s="6"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="8"/>
     </row>
     <row r="130">
-      <c r="A130" s="4"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
+      <c r="A130" s="6"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="8"/>
     </row>
     <row r="131">
-      <c r="A131" s="4"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
+      <c r="A131" s="6"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="8"/>
     </row>
     <row r="132">
-      <c r="A132" s="4"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
+      <c r="A132" s="6"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="8"/>
     </row>
     <row r="133">
-      <c r="A133" s="4"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="5"/>
+      <c r="A133" s="6"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="8"/>
     </row>
     <row r="134">
-      <c r="A134" s="4"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="5"/>
+      <c r="A134" s="6"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="8"/>
     </row>
     <row r="135">
-      <c r="A135" s="4"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="5"/>
+      <c r="A135" s="6"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="8"/>
     </row>
     <row r="136">
-      <c r="A136" s="4"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
+      <c r="A136" s="6"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="8"/>
     </row>
     <row r="137">
-      <c r="A137" s="4"/>
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
+      <c r="A137" s="6"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="8"/>
     </row>
     <row r="138">
-      <c r="A138" s="4"/>
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
+      <c r="A138" s="6"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="8"/>
     </row>
     <row r="139">
-      <c r="A139" s="4"/>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
+      <c r="A139" s="6"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="8"/>
     </row>
     <row r="140">
-      <c r="A140" s="4"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
+      <c r="A140" s="6"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="8"/>
     </row>
     <row r="141">
-      <c r="A141" s="4"/>
-      <c r="B141" s="5"/>
-      <c r="C141" s="5"/>
+      <c r="A141" s="6"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="8"/>
     </row>
     <row r="142">
-      <c r="A142" s="4"/>
-      <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
+      <c r="A142" s="6"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="8"/>
     </row>
     <row r="143">
-      <c r="A143" s="4"/>
-      <c r="B143" s="5"/>
-      <c r="C143" s="5"/>
+      <c r="A143" s="6"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="8"/>
     </row>
     <row r="144">
-      <c r="A144" s="4"/>
-      <c r="B144" s="5"/>
-      <c r="C144" s="5"/>
+      <c r="A144" s="6"/>
+      <c r="B144" s="7"/>
+      <c r="C144" s="8"/>
     </row>
     <row r="145">
-      <c r="A145" s="4"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
+      <c r="A145" s="6"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="8"/>
     </row>
     <row r="146">
-      <c r="A146" s="4"/>
-      <c r="B146" s="5"/>
-      <c r="C146" s="5"/>
+      <c r="A146" s="6"/>
+      <c r="B146" s="7"/>
+      <c r="C146" s="8"/>
     </row>
     <row r="147">
-      <c r="A147" s="4"/>
-      <c r="B147" s="5"/>
-      <c r="C147" s="5"/>
+      <c r="A147" s="6"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="8"/>
     </row>
     <row r="148">
-      <c r="A148" s="4"/>
-      <c r="B148" s="5"/>
-      <c r="C148" s="5"/>
+      <c r="A148" s="6"/>
+      <c r="B148" s="7"/>
+      <c r="C148" s="8"/>
     </row>
     <row r="149">
-      <c r="A149" s="4"/>
-      <c r="B149" s="5"/>
-      <c r="C149" s="5"/>
+      <c r="A149" s="6"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="8"/>
     </row>
     <row r="150">
-      <c r="A150" s="4"/>
-      <c r="B150" s="5"/>
-      <c r="C150" s="5"/>
+      <c r="A150" s="6"/>
+      <c r="B150" s="7"/>
+      <c r="C150" s="8"/>
     </row>
     <row r="151">
-      <c r="A151" s="4"/>
-      <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
+      <c r="A151" s="6"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="8"/>
     </row>
     <row r="152">
-      <c r="A152" s="4"/>
-      <c r="B152" s="5"/>
-      <c r="C152" s="5"/>
+      <c r="A152" s="6"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="8"/>
     </row>
     <row r="153">
-      <c r="A153" s="4"/>
-      <c r="B153" s="5"/>
-      <c r="C153" s="5"/>
+      <c r="A153" s="6"/>
+      <c r="B153" s="7"/>
+      <c r="C153" s="8"/>
     </row>
     <row r="154">
-      <c r="A154" s="4"/>
-      <c r="B154" s="5"/>
-      <c r="C154" s="5"/>
+      <c r="A154" s="6"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="8"/>
     </row>
     <row r="155">
-      <c r="A155" s="4"/>
-      <c r="B155" s="5"/>
-      <c r="C155" s="5"/>
+      <c r="A155" s="6"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="8"/>
     </row>
     <row r="156">
-      <c r="A156" s="4"/>
-      <c r="B156" s="5"/>
-      <c r="C156" s="5"/>
+      <c r="A156" s="6"/>
+      <c r="B156" s="7"/>
+      <c r="C156" s="8"/>
     </row>
     <row r="157">
-      <c r="A157" s="4"/>
-      <c r="B157" s="5"/>
-      <c r="C157" s="5"/>
+      <c r="A157" s="6"/>
+      <c r="B157" s="7"/>
+      <c r="C157" s="8"/>
     </row>
     <row r="158">
-      <c r="A158" s="4"/>
-      <c r="B158" s="5"/>
-      <c r="C158" s="5"/>
+      <c r="A158" s="6"/>
+      <c r="B158" s="7"/>
+      <c r="C158" s="8"/>
     </row>
     <row r="159">
-      <c r="A159" s="4"/>
-      <c r="B159" s="5"/>
-      <c r="C159" s="5"/>
+      <c r="A159" s="6"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="8"/>
     </row>
     <row r="160">
-      <c r="A160" s="4"/>
-      <c r="B160" s="5"/>
-      <c r="C160" s="5"/>
+      <c r="A160" s="6"/>
+      <c r="B160" s="7"/>
+      <c r="C160" s="8"/>
     </row>
     <row r="161">
-      <c r="A161" s="4"/>
-      <c r="B161" s="5"/>
-      <c r="C161" s="5"/>
+      <c r="A161" s="6"/>
+      <c r="B161" s="7"/>
+      <c r="C161" s="8"/>
     </row>
     <row r="162">
-      <c r="A162" s="4"/>
-      <c r="B162" s="5"/>
-      <c r="C162" s="5"/>
+      <c r="A162" s="6"/>
+      <c r="B162" s="7"/>
+      <c r="C162" s="8"/>
     </row>
     <row r="163">
-      <c r="A163" s="4"/>
-      <c r="B163" s="5"/>
-      <c r="C163" s="5"/>
+      <c r="A163" s="6"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="8"/>
     </row>
     <row r="164">
-      <c r="A164" s="4"/>
-      <c r="B164" s="5"/>
-      <c r="C164" s="5"/>
+      <c r="A164" s="6"/>
+      <c r="B164" s="7"/>
+      <c r="C164" s="8"/>
     </row>
     <row r="165">
-      <c r="A165" s="4"/>
-      <c r="B165" s="5"/>
-      <c r="C165" s="5"/>
+      <c r="A165" s="6"/>
+      <c r="B165" s="7"/>
+      <c r="C165" s="8"/>
     </row>
     <row r="166">
-      <c r="A166" s="4"/>
-      <c r="B166" s="5"/>
-      <c r="C166" s="5"/>
+      <c r="A166" s="6"/>
+      <c r="B166" s="7"/>
+      <c r="C166" s="8"/>
     </row>
     <row r="167">
-      <c r="A167" s="4"/>
-      <c r="B167" s="5"/>
-      <c r="C167" s="5"/>
+      <c r="A167" s="6"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="8"/>
     </row>
     <row r="168">
-      <c r="A168" s="4"/>
-      <c r="B168" s="5"/>
-      <c r="C168" s="5"/>
+      <c r="A168" s="6"/>
+      <c r="B168" s="7"/>
+      <c r="C168" s="8"/>
     </row>
     <row r="169">
-      <c r="A169" s="4"/>
-      <c r="B169" s="5"/>
-      <c r="C169" s="5"/>
+      <c r="A169" s="6"/>
+      <c r="B169" s="7"/>
+      <c r="C169" s="8"/>
     </row>
     <row r="170">
-      <c r="A170" s="4"/>
-      <c r="B170" s="5"/>
-      <c r="C170" s="5"/>
+      <c r="A170" s="6"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="8"/>
     </row>
     <row r="171">
-      <c r="A171" s="4"/>
-      <c r="B171" s="5"/>
-      <c r="C171" s="5"/>
+      <c r="A171" s="6"/>
+      <c r="B171" s="7"/>
+      <c r="C171" s="8"/>
     </row>
     <row r="172">
-      <c r="A172" s="4"/>
-      <c r="B172" s="5"/>
-      <c r="C172" s="5"/>
+      <c r="A172" s="6"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="8"/>
     </row>
     <row r="173">
-      <c r="A173" s="4"/>
-      <c r="B173" s="5"/>
-      <c r="C173" s="5"/>
+      <c r="A173" s="6"/>
+      <c r="B173" s="7"/>
+      <c r="C173" s="8"/>
     </row>
     <row r="174">
-      <c r="A174" s="4"/>
-      <c r="B174" s="5"/>
-      <c r="C174" s="5"/>
+      <c r="A174" s="6"/>
+      <c r="B174" s="7"/>
+      <c r="C174" s="8"/>
     </row>
     <row r="175">
-      <c r="A175" s="4"/>
-      <c r="B175" s="5"/>
-      <c r="C175" s="5"/>
+      <c r="A175" s="6"/>
+      <c r="B175" s="7"/>
+      <c r="C175" s="8"/>
     </row>
     <row r="176">
-      <c r="A176" s="4"/>
-      <c r="B176" s="5"/>
-      <c r="C176" s="5"/>
+      <c r="A176" s="6"/>
+      <c r="B176" s="7"/>
+      <c r="C176" s="8"/>
     </row>
     <row r="177">
-      <c r="A177" s="4"/>
-      <c r="B177" s="5"/>
-      <c r="C177" s="5"/>
+      <c r="A177" s="6"/>
+      <c r="B177" s="7"/>
+      <c r="C177" s="8"/>
     </row>
     <row r="178">
-      <c r="A178" s="4"/>
-      <c r="B178" s="5"/>
-      <c r="C178" s="5"/>
+      <c r="A178" s="6"/>
+      <c r="B178" s="7"/>
+      <c r="C178" s="8"/>
     </row>
     <row r="179">
-      <c r="A179" s="4"/>
-      <c r="B179" s="5"/>
-      <c r="C179" s="5"/>
+      <c r="A179" s="6"/>
+      <c r="B179" s="7"/>
+      <c r="C179" s="8"/>
     </row>
     <row r="180">
-      <c r="A180" s="4"/>
-      <c r="B180" s="5"/>
-      <c r="C180" s="5"/>
+      <c r="A180" s="6"/>
+      <c r="B180" s="7"/>
+      <c r="C180" s="8"/>
     </row>
     <row r="181">
-      <c r="A181" s="4"/>
-      <c r="B181" s="5"/>
-      <c r="C181" s="5"/>
+      <c r="A181" s="6"/>
+      <c r="B181" s="7"/>
+      <c r="C181" s="8"/>
     </row>
     <row r="182">
-      <c r="A182" s="4"/>
-      <c r="B182" s="5"/>
-      <c r="C182" s="5"/>
+      <c r="A182" s="6"/>
+      <c r="B182" s="7"/>
+      <c r="C182" s="8"/>
     </row>
     <row r="183">
-      <c r="A183" s="4"/>
-      <c r="B183" s="5"/>
-      <c r="C183" s="5"/>
+      <c r="A183" s="6"/>
+      <c r="B183" s="7"/>
+      <c r="C183" s="8"/>
     </row>
     <row r="184">
-      <c r="A184" s="4"/>
-      <c r="B184" s="5"/>
-      <c r="C184" s="5"/>
+      <c r="A184" s="6"/>
+      <c r="B184" s="7"/>
+      <c r="C184" s="8"/>
     </row>
     <row r="185">
-      <c r="A185" s="4"/>
-      <c r="B185" s="5"/>
-      <c r="C185" s="5"/>
+      <c r="A185" s="6"/>
+      <c r="B185" s="7"/>
+      <c r="C185" s="8"/>
     </row>
     <row r="186">
-      <c r="A186" s="4"/>
-      <c r="B186" s="5"/>
-      <c r="C186" s="5"/>
+      <c r="A186" s="6"/>
+      <c r="B186" s="7"/>
+      <c r="C186" s="8"/>
     </row>
     <row r="187">
-      <c r="A187" s="4"/>
-      <c r="B187" s="5"/>
-      <c r="C187" s="5"/>
+      <c r="A187" s="6"/>
+      <c r="B187" s="7"/>
+      <c r="C187" s="8"/>
     </row>
     <row r="188">
-      <c r="A188" s="4"/>
-      <c r="B188" s="5"/>
-      <c r="C188" s="5"/>
+      <c r="A188" s="6"/>
+      <c r="B188" s="7"/>
+      <c r="C188" s="8"/>
     </row>
     <row r="189">
-      <c r="A189" s="4"/>
-      <c r="B189" s="5"/>
-      <c r="C189" s="5"/>
+      <c r="A189" s="6"/>
+      <c r="B189" s="7"/>
+      <c r="C189" s="8"/>
     </row>
     <row r="190">
-      <c r="A190" s="4"/>
-      <c r="B190" s="5"/>
-      <c r="C190" s="5"/>
+      <c r="A190" s="6"/>
+      <c r="B190" s="7"/>
+      <c r="C190" s="8"/>
     </row>
     <row r="191">
-      <c r="A191" s="4"/>
-      <c r="B191" s="5"/>
-      <c r="C191" s="5"/>
+      <c r="A191" s="6"/>
+      <c r="B191" s="7"/>
+      <c r="C191" s="8"/>
     </row>
     <row r="192">
-      <c r="A192" s="4"/>
-      <c r="B192" s="5"/>
-      <c r="C192" s="5"/>
+      <c r="A192" s="6"/>
+      <c r="B192" s="7"/>
+      <c r="C192" s="8"/>
     </row>
     <row r="193">
-      <c r="A193" s="4"/>
-      <c r="B193" s="5"/>
-      <c r="C193" s="5"/>
+      <c r="A193" s="6"/>
+      <c r="B193" s="7"/>
+      <c r="C193" s="8"/>
     </row>
     <row r="194">
-      <c r="A194" s="4"/>
-      <c r="B194" s="5"/>
-      <c r="C194" s="5"/>
+      <c r="A194" s="6"/>
+      <c r="B194" s="7"/>
+      <c r="C194" s="8"/>
     </row>
     <row r="195">
-      <c r="A195" s="4"/>
-      <c r="B195" s="5"/>
-      <c r="C195" s="5"/>
+      <c r="A195" s="6"/>
+      <c r="B195" s="7"/>
+      <c r="C195" s="8"/>
     </row>
     <row r="196">
-      <c r="A196" s="4"/>
-      <c r="B196" s="5"/>
-      <c r="C196" s="5"/>
+      <c r="A196" s="6"/>
+      <c r="B196" s="7"/>
+      <c r="C196" s="8"/>
     </row>
     <row r="197">
-      <c r="A197" s="4"/>
-      <c r="B197" s="5"/>
-      <c r="C197" s="5"/>
+      <c r="A197" s="6"/>
+      <c r="B197" s="7"/>
+      <c r="C197" s="8"/>
     </row>
     <row r="198">
-      <c r="A198" s="4"/>
-      <c r="B198" s="5"/>
-      <c r="C198" s="5"/>
+      <c r="A198" s="6"/>
+      <c r="B198" s="7"/>
+      <c r="C198" s="8"/>
     </row>
     <row r="199">
-      <c r="A199" s="4"/>
-      <c r="B199" s="5"/>
-      <c r="C199" s="5"/>
+      <c r="A199" s="6"/>
+      <c r="B199" s="7"/>
+      <c r="C199" s="8"/>
     </row>
     <row r="200">
-      <c r="A200" s="4"/>
-      <c r="B200" s="5"/>
-      <c r="C200" s="5"/>
+      <c r="A200" s="6"/>
+      <c r="B200" s="7"/>
+      <c r="C200" s="8"/>
     </row>
     <row r="201">
-      <c r="A201" s="4"/>
-      <c r="B201" s="5"/>
-      <c r="C201" s="5"/>
+      <c r="A201" s="6"/>
+      <c r="B201" s="7"/>
+      <c r="C201" s="8"/>
     </row>
     <row r="202">
-      <c r="A202" s="4"/>
-      <c r="B202" s="5"/>
-      <c r="C202" s="5"/>
+      <c r="A202" s="6"/>
+      <c r="B202" s="7"/>
+      <c r="C202" s="8"/>
     </row>
     <row r="203">
-      <c r="A203" s="4"/>
-      <c r="B203" s="5"/>
-      <c r="C203" s="5"/>
+      <c r="A203" s="6"/>
+      <c r="B203" s="7"/>
+      <c r="C203" s="8"/>
     </row>
     <row r="204">
-      <c r="A204" s="4"/>
-      <c r="B204" s="5"/>
-      <c r="C204" s="5"/>
+      <c r="A204" s="6"/>
+      <c r="B204" s="7"/>
+      <c r="C204" s="8"/>
     </row>
     <row r="205">
-      <c r="A205" s="4"/>
-      <c r="B205" s="5"/>
-      <c r="C205" s="5"/>
+      <c r="A205" s="6"/>
+      <c r="B205" s="7"/>
+      <c r="C205" s="8"/>
     </row>
     <row r="206">
-      <c r="A206" s="4"/>
-      <c r="B206" s="5"/>
-      <c r="C206" s="5"/>
+      <c r="A206" s="6"/>
+      <c r="B206" s="7"/>
+      <c r="C206" s="8"/>
     </row>
     <row r="207">
-      <c r="A207" s="4"/>
-      <c r="B207" s="5"/>
-      <c r="C207" s="5"/>
+      <c r="A207" s="6"/>
+      <c r="B207" s="7"/>
+      <c r="C207" s="8"/>
     </row>
     <row r="208">
-      <c r="A208" s="4"/>
-      <c r="B208" s="5"/>
-      <c r="C208" s="5"/>
+      <c r="A208" s="6"/>
+      <c r="B208" s="7"/>
+      <c r="C208" s="8"/>
     </row>
     <row r="209">
-      <c r="A209" s="4"/>
-      <c r="B209" s="5"/>
-      <c r="C209" s="5"/>
+      <c r="A209" s="6"/>
+      <c r="B209" s="7"/>
+      <c r="C209" s="8"/>
     </row>
     <row r="210">
-      <c r="A210" s="4"/>
-      <c r="B210" s="5"/>
-      <c r="C210" s="5"/>
+      <c r="A210" s="6"/>
+      <c r="B210" s="7"/>
+      <c r="C210" s="8"/>
     </row>
     <row r="211">
-      <c r="A211" s="4"/>
-      <c r="B211" s="5"/>
-      <c r="C211" s="5"/>
+      <c r="A211" s="6"/>
+      <c r="B211" s="7"/>
+      <c r="C211" s="8"/>
     </row>
     <row r="212">
-      <c r="A212" s="4"/>
-      <c r="B212" s="5"/>
-      <c r="C212" s="5"/>
+      <c r="A212" s="6"/>
+      <c r="B212" s="7"/>
+      <c r="C212" s="8"/>
     </row>
     <row r="213">
-      <c r="A213" s="4"/>
-      <c r="B213" s="5"/>
-      <c r="C213" s="5"/>
+      <c r="A213" s="6"/>
+      <c r="B213" s="7"/>
+      <c r="C213" s="8"/>
     </row>
     <row r="214">
-      <c r="A214" s="4"/>
-      <c r="B214" s="5"/>
-      <c r="C214" s="5"/>
+      <c r="A214" s="6"/>
+      <c r="B214" s="7"/>
+      <c r="C214" s="8"/>
     </row>
     <row r="215">
-      <c r="A215" s="4"/>
-      <c r="B215" s="5"/>
-      <c r="C215" s="5"/>
+      <c r="A215" s="6"/>
+      <c r="B215" s="7"/>
+      <c r="C215" s="8"/>
     </row>
     <row r="216">
-      <c r="A216" s="4"/>
-      <c r="B216" s="5"/>
-      <c r="C216" s="5"/>
+      <c r="A216" s="6"/>
+      <c r="B216" s="7"/>
+      <c r="C216" s="8"/>
     </row>
     <row r="217">
-      <c r="A217" s="4"/>
-      <c r="B217" s="5"/>
-      <c r="C217" s="5"/>
+      <c r="A217" s="6"/>
+      <c r="B217" s="7"/>
+      <c r="C217" s="8"/>
     </row>
     <row r="218">
-      <c r="A218" s="4"/>
-      <c r="B218" s="5"/>
-      <c r="C218" s="5"/>
+      <c r="A218" s="6"/>
+      <c r="B218" s="7"/>
+      <c r="C218" s="8"/>
     </row>
     <row r="219">
-      <c r="A219" s="4"/>
-      <c r="B219" s="5"/>
-      <c r="C219" s="5"/>
+      <c r="A219" s="6"/>
+      <c r="B219" s="7"/>
+      <c r="C219" s="8"/>
     </row>
     <row r="220">
-      <c r="A220" s="4"/>
-      <c r="B220" s="5"/>
-      <c r="C220" s="5"/>
+      <c r="A220" s="6"/>
+      <c r="B220" s="7"/>
+      <c r="C220" s="8"/>
     </row>
     <row r="221">
-      <c r="A221" s="4"/>
-      <c r="B221" s="5"/>
-      <c r="C221" s="5"/>
+      <c r="A221" s="6"/>
+      <c r="B221" s="7"/>
+      <c r="C221" s="8"/>
     </row>
     <row r="222">
-      <c r="A222" s="4"/>
-      <c r="B222" s="5"/>
-      <c r="C222" s="5"/>
+      <c r="A222" s="6"/>
+      <c r="B222" s="7"/>
+      <c r="C222" s="8"/>
     </row>
     <row r="223">
-      <c r="A223" s="4"/>
-      <c r="B223" s="5"/>
-      <c r="C223" s="5"/>
+      <c r="A223" s="6"/>
+      <c r="B223" s="7"/>
+      <c r="C223" s="8"/>
     </row>
     <row r="224">
-      <c r="A224" s="4"/>
-      <c r="B224" s="5"/>
-      <c r="C224" s="5"/>
+      <c r="A224" s="6"/>
+      <c r="B224" s="7"/>
+      <c r="C224" s="8"/>
     </row>
     <row r="225">
-      <c r="A225" s="4"/>
-      <c r="B225" s="5"/>
-      <c r="C225" s="5"/>
+      <c r="A225" s="6"/>
+      <c r="B225" s="7"/>
+      <c r="C225" s="8"/>
     </row>
     <row r="226">
-      <c r="A226" s="4"/>
-      <c r="B226" s="5"/>
-      <c r="C226" s="5"/>
+      <c r="A226" s="6"/>
+      <c r="B226" s="7"/>
+      <c r="C226" s="8"/>
     </row>
     <row r="227">
-      <c r="A227" s="4"/>
-      <c r="B227" s="5"/>
-      <c r="C227" s="5"/>
+      <c r="A227" s="6"/>
+      <c r="B227" s="7"/>
+      <c r="C227" s="8"/>
     </row>
     <row r="228">
-      <c r="A228" s="4"/>
-      <c r="B228" s="5"/>
-      <c r="C228" s="5"/>
+      <c r="A228" s="6"/>
+      <c r="B228" s="7"/>
+      <c r="C228" s="8"/>
     </row>
     <row r="229">
-      <c r="A229" s="4"/>
-      <c r="B229" s="5"/>
-      <c r="C229" s="5"/>
+      <c r="A229" s="6"/>
+      <c r="B229" s="7"/>
+      <c r="C229" s="8"/>
     </row>
     <row r="230">
-      <c r="A230" s="4"/>
-      <c r="B230" s="5"/>
-      <c r="C230" s="5"/>
+      <c r="A230" s="6"/>
+      <c r="B230" s="7"/>
+      <c r="C230" s="8"/>
     </row>
     <row r="231">
-      <c r="A231" s="4"/>
-      <c r="B231" s="5"/>
-      <c r="C231" s="5"/>
+      <c r="A231" s="6"/>
+      <c r="B231" s="7"/>
+      <c r="C231" s="8"/>
     </row>
     <row r="232">
-      <c r="A232" s="4"/>
-      <c r="B232" s="5"/>
-      <c r="C232" s="5"/>
+      <c r="A232" s="6"/>
+      <c r="B232" s="7"/>
+      <c r="C232" s="8"/>
     </row>
     <row r="233">
-      <c r="A233" s="4"/>
-      <c r="B233" s="5"/>
-      <c r="C233" s="5"/>
+      <c r="A233" s="6"/>
+      <c r="B233" s="7"/>
+      <c r="C233" s="8"/>
     </row>
     <row r="234">
-      <c r="A234" s="4"/>
-      <c r="B234" s="5"/>
-      <c r="C234" s="5"/>
+      <c r="A234" s="6"/>
+      <c r="B234" s="7"/>
+      <c r="C234" s="8"/>
     </row>
     <row r="235">
-      <c r="A235" s="4"/>
-      <c r="B235" s="5"/>
-      <c r="C235" s="5"/>
+      <c r="A235" s="6"/>
+      <c r="B235" s="7"/>
+      <c r="C235" s="8"/>
     </row>
     <row r="236">
-      <c r="A236" s="4"/>
-      <c r="B236" s="5"/>
-      <c r="C236" s="5"/>
+      <c r="A236" s="6"/>
+      <c r="B236" s="7"/>
+      <c r="C236" s="8"/>
     </row>
     <row r="237">
-      <c r="A237" s="4"/>
-      <c r="B237" s="5"/>
-      <c r="C237" s="5"/>
+      <c r="A237" s="6"/>
+      <c r="B237" s="7"/>
+      <c r="C237" s="8"/>
     </row>
     <row r="238">
-      <c r="A238" s="4"/>
-      <c r="B238" s="5"/>
-      <c r="C238" s="5"/>
+      <c r="A238" s="6"/>
+      <c r="B238" s="7"/>
+      <c r="C238" s="8"/>
     </row>
     <row r="239">
-      <c r="A239" s="4"/>
-      <c r="B239" s="5"/>
-      <c r="C239" s="5"/>
+      <c r="A239" s="6"/>
+      <c r="B239" s="7"/>
+      <c r="C239" s="8"/>
     </row>
     <row r="240">
-      <c r="A240" s="4"/>
-      <c r="B240" s="5"/>
-      <c r="C240" s="5"/>
+      <c r="A240" s="6"/>
+      <c r="B240" s="7"/>
+      <c r="C240" s="8"/>
     </row>
     <row r="241">
-      <c r="A241" s="4"/>
-      <c r="B241" s="5"/>
-      <c r="C241" s="5"/>
+      <c r="A241" s="6"/>
+      <c r="B241" s="7"/>
+      <c r="C241" s="8"/>
     </row>
     <row r="242">
-      <c r="A242" s="4"/>
-      <c r="B242" s="5"/>
-      <c r="C242" s="5"/>
+      <c r="A242" s="6"/>
+      <c r="B242" s="7"/>
+      <c r="C242" s="8"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="6"/>
+      <c r="B243" s="7"/>
+      <c r="C243" s="8"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="6"/>
+      <c r="B244" s="7"/>
+      <c r="C244" s="8"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="6"/>
+      <c r="B245" s="7"/>
+      <c r="C245" s="8"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="6"/>
+      <c r="B246" s="7"/>
+      <c r="C246" s="8"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="6"/>
+      <c r="B247" s="7"/>
+      <c r="C247" s="8"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="6"/>
+      <c r="B248" s="7"/>
+      <c r="C248" s="8"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="6"/>
+      <c r="B249" s="7"/>
+      <c r="C249" s="8"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="6"/>
+      <c r="B250" s="7"/>
+      <c r="C250" s="8"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="6"/>
+      <c r="B251" s="7"/>
+      <c r="C251" s="8"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="6"/>
+      <c r="B252" s="7"/>
+      <c r="C252" s="8"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="6"/>
+      <c r="B253" s="7"/>
+      <c r="C253" s="8"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="6"/>
+      <c r="B254" s="7"/>
+      <c r="C254" s="8"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="6"/>
+      <c r="B255" s="7"/>
+      <c r="C255" s="8"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="6"/>
+      <c r="B256" s="7"/>
+      <c r="C256" s="8"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="6"/>
+      <c r="B257" s="7"/>
+      <c r="C257" s="8"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="6"/>
+      <c r="B258" s="7"/>
+      <c r="C258" s="8"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="6"/>
+      <c r="B259" s="7"/>
+      <c r="C259" s="8"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="6"/>
+      <c r="B260" s="7"/>
+      <c r="C260" s="8"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="6"/>
+      <c r="B261" s="7"/>
+      <c r="C261" s="8"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="6"/>
+      <c r="B262" s="7"/>
+      <c r="C262" s="8"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="6"/>
+      <c r="B263" s="7"/>
+      <c r="C263" s="8"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="6"/>
+      <c r="B264" s="7"/>
+      <c r="C264" s="8"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="6"/>
+      <c r="B265" s="7"/>
+      <c r="C265" s="8"/>
     </row>
   </sheetData>
 </worksheet>
@@ -3480,546 +4164,663 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="26" t="str">
+      <c r="A1" s="23" t="str">
         <v>OptionId</v>
       </c>
-      <c r="B1" s="26" t="str">
+      <c r="B1" s="23" t="str">
         <v>Text</v>
       </c>
-      <c r="C1" s="26" t="str">
+      <c r="C1" s="23" t="str">
         <v>NextDialogueId</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="26" t="str">
+      <c r="A2" s="23" t="str">
         <v>和Dialogue表里面的Opetions对应</v>
       </c>
-      <c r="B2" s="26" t="str">
+      <c r="B2" s="23" t="str">
         <v>选项文字内容</v>
       </c>
-      <c r="C2" s="26" t="str">
+      <c r="C2" s="23" t="str">
         <v>要触发的对话ID
 0表示会话结束</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="30">
+      <c r="A3" s="2">
         <v>11</v>
       </c>
-      <c r="B3" s="30" t="str">
+      <c r="B3" s="2" t="str">
         <v>我可以在哪些地方获取食材？</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="2">
         <v>111</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="30">
+      <c r="A4" s="2">
         <v>12</v>
       </c>
-      <c r="B4" s="30" t="str">
+      <c r="B4" s="2" t="str">
         <v>烹饪的流程是怎样的？</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="2">
         <v>112</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="30">
+      <c r="A5" s="2">
         <v>10</v>
       </c>
-      <c r="B5" s="30" t="str">
+      <c r="B5" s="2" t="str">
         <v>没什么要问的了</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="2">
         <v>113</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3">
+    <row customHeight="true" ht="19" r="6">
+      <c r="A6" s="2">
+        <v>191</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <v>进入厨房</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row customHeight="true" ht="19" r="7">
+      <c r="A7" s="2">
+        <v>192</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <v>返回地图</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="18">
         <v>211</v>
       </c>
-      <c r="B6" s="40" t="str">
+      <c r="B8" s="37" t="str">
         <v>阿斯摩太是怎样的恶魔？</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C8" s="18">
         <v>211</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3">
+    <row r="9">
+      <c r="A9" s="18">
         <v>212</v>
       </c>
-      <c r="B7" s="40" t="str">
+      <c r="B9" s="37" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C9" s="18">
         <v>212</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="8">
-      <c r="A8" s="3">
+    <row customHeight="true" ht="19" r="10">
+      <c r="A10" s="18">
         <v>221</v>
       </c>
-      <c r="B8" s="40" t="str">
+      <c r="B10" s="37" t="str">
         <v>阿斯摩太是怎样的恶魔？</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C10" s="18">
         <v>221</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3">
+    <row r="11">
+      <c r="A11" s="18">
         <v>222</v>
       </c>
-      <c r="B9" s="40" t="str">
+      <c r="B11" s="37" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C11" s="18">
         <v>222</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3">
+    <row r="12">
+      <c r="A12" s="18">
         <v>223</v>
       </c>
-      <c r="B10" s="40" t="str">
+      <c r="B12" s="37" t="str">
         <v>你能给我哪些获取食材的建议？</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C12" s="18">
         <v>223</v>
       </c>
     </row>
-    <row customHeight="true" ht="46" r="11">
-      <c r="A11" s="3">
+    <row customHeight="true" ht="46" r="13">
+      <c r="A13" s="18">
         <v>231</v>
       </c>
-      <c r="B11" s="40" t="str">
+      <c r="B13" s="37" t="str">
         <v>阿斯摩太是怎样的恶魔？</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C13" s="18">
         <v>231</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3">
+    <row r="14">
+      <c r="A14" s="18">
         <v>232</v>
       </c>
-      <c r="B12" s="40" t="str">
+      <c r="B14" s="37" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C14" s="18">
         <v>232</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3">
+    <row r="15">
+      <c r="A15" s="18">
         <v>234</v>
       </c>
-      <c r="B13" s="40" t="str">
+      <c r="B15" s="37" t="str">
         <v>喀戎河畔的渡河人告诉我你这里有能帮助我获得食材的道具。</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C15" s="18">
         <v>234</v>
       </c>
     </row>
-    <row customHeight="true" ht="33" r="14">
-      <c r="A14" s="28">
+    <row customHeight="true" ht="33" r="16">
+      <c r="A16" s="13">
         <v>311</v>
       </c>
-      <c r="B14" s="41" t="str">
+      <c r="B16" s="39" t="str">
         <v>摩洛克是怎样的恶魔？</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C16" s="13">
         <v>311</v>
       </c>
     </row>
-    <row customHeight="true" ht="33" r="15">
-      <c r="A15" s="28">
+    <row customHeight="true" ht="33" r="17">
+      <c r="A17" s="13">
         <v>312</v>
       </c>
-      <c r="B15" s="41" t="str">
+      <c r="B17" s="39" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C17" s="13">
         <v>312</v>
       </c>
     </row>
-    <row customHeight="true" ht="33" r="16">
-      <c r="A16" s="28">
+    <row customHeight="true" ht="33" r="18">
+      <c r="A18" s="13">
         <v>321</v>
       </c>
-      <c r="B16" s="41" t="str">
+      <c r="B18" s="39" t="str">
         <v>摩洛克是怎样的恶魔？</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C18" s="13">
         <v>321</v>
       </c>
     </row>
-    <row customHeight="true" ht="33" r="17">
-      <c r="A17" s="28">
+    <row customHeight="true" ht="33" r="19">
+      <c r="A19" s="13">
         <v>322</v>
       </c>
-      <c r="B17" s="41" t="str">
+      <c r="B19" s="39" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C19" s="13">
         <v>322</v>
       </c>
     </row>
-    <row customHeight="true" ht="33" r="18">
-      <c r="A18" s="28">
+    <row customHeight="true" ht="33" r="20">
+      <c r="A20" s="13">
         <v>323</v>
       </c>
-      <c r="B18" s="41" t="str">
+      <c r="B20" s="39" t="str">
         <v>你能给我哪些获取食材的建议？</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C20" s="13">
         <v>323</v>
       </c>
     </row>
-    <row customHeight="true" ht="33" r="19">
-      <c r="A19" s="28">
+    <row customHeight="true" ht="33" r="21">
+      <c r="A21" s="13">
         <v>331</v>
       </c>
-      <c r="B19" s="41" t="str">
+      <c r="B21" s="39" t="str">
         <v>摩洛克是怎样的恶魔？</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C21" s="13">
         <v>331</v>
       </c>
     </row>
-    <row customHeight="true" ht="33" r="20">
-      <c r="A20" s="28">
+    <row customHeight="true" ht="33" r="22">
+      <c r="A22" s="13">
         <v>332</v>
       </c>
-      <c r="B20" s="41" t="str">
+      <c r="B22" s="39" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C22" s="13">
         <v>332</v>
       </c>
     </row>
-    <row customHeight="true" ht="33" r="21">
-      <c r="A21" s="48">
+    <row customHeight="true" ht="33" r="23">
+      <c r="A23" s="46">
         <v>334</v>
       </c>
-      <c r="B21" s="41" t="str">
+      <c r="B23" s="39" t="str">
         <v>塔尔塔洛斯的守卫告诉我你会有帮助我获得食材的道具。</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C23" s="46">
         <v>334</v>
       </c>
     </row>
-    <row customHeight="true" ht="33" r="22">
-      <c r="A22" s="42">
+    <row customHeight="true" ht="33" r="24">
+      <c r="A24" s="44">
         <v>411</v>
       </c>
-      <c r="B22" s="20" t="str">
+      <c r="B24" s="22" t="str">
         <v>利维坦是怎样的恶魔</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C24" s="44">
         <v>411</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="42">
+    <row r="25">
+      <c r="A25" s="44">
         <v>412</v>
       </c>
-      <c r="B23" s="20" t="str">
+      <c r="B25" s="22" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C25" s="44">
         <v>412</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="24">
-      <c r="A24" s="42">
+    <row customHeight="true" ht="19" r="26">
+      <c r="A26" s="44">
         <v>421</v>
       </c>
-      <c r="B24" s="20" t="str">
+      <c r="B26" s="22" t="str">
         <v>利维坦是怎样的恶魔</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C26" s="44">
         <v>421</v>
       </c>
     </row>
-    <row customHeight="true" ht="39" r="25">
-      <c r="A25" s="42">
+    <row customHeight="true" ht="39" r="27">
+      <c r="A27" s="44">
         <v>422</v>
       </c>
-      <c r="B25" s="20" t="str">
+      <c r="B27" s="22" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C27" s="44">
         <v>422</v>
       </c>
     </row>
-    <row customHeight="true" ht="35" r="26">
-      <c r="A26" s="42">
+    <row customHeight="true" ht="35" r="28">
+      <c r="A28" s="44">
         <v>423</v>
       </c>
-      <c r="B26" s="20" t="str">
+      <c r="B28" s="22" t="str">
         <v>你能给我哪些获取食材的建议？</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C28" s="44">
         <v>423</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="8">
+    <row r="29">
+      <c r="A29" s="28">
         <v>511</v>
       </c>
-      <c r="B27" s="33" t="str">
+      <c r="B29" s="38" t="str">
         <v>巴力是怎样的恶魔？</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C29" s="28">
         <v>511</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="34">
+    <row r="30">
+      <c r="A30" s="27">
         <v>512</v>
       </c>
-      <c r="B28" s="33" t="str">
+      <c r="B30" s="38" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C30" s="27">
         <v>512</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="29">
-      <c r="A29" s="8">
+    <row customHeight="true" ht="19" r="31">
+      <c r="A31" s="28">
         <v>521</v>
       </c>
-      <c r="B29" s="33" t="str">
+      <c r="B31" s="38" t="str">
         <v>巴力是怎样的恶魔？</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C31" s="28">
         <v>521</v>
       </c>
     </row>
-    <row customHeight="true" ht="30" r="30">
-      <c r="A30" s="34">
+    <row customHeight="true" ht="30" r="32">
+      <c r="A32" s="27">
         <v>522</v>
       </c>
-      <c r="B30" s="33" t="str">
+      <c r="B32" s="38" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C32" s="27">
         <v>522</v>
       </c>
     </row>
-    <row customHeight="true" ht="34" r="31">
-      <c r="A31" s="34">
+    <row customHeight="true" ht="34" r="33">
+      <c r="A33" s="27">
         <v>523</v>
       </c>
-      <c r="B31" s="33" t="str">
+      <c r="B33" s="38" t="str">
         <v>你能给我哪些获取食材的建议？</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C33" s="27">
         <v>523</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="32">
-      <c r="A32" s="8">
+    <row customHeight="true" ht="19" r="34">
+      <c r="A34" s="28">
         <v>531</v>
       </c>
-      <c r="B32" s="33" t="str">
+      <c r="B34" s="38" t="str">
         <v>巴力是怎样的恶魔？</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C34" s="28">
         <v>531</v>
       </c>
     </row>
-    <row customHeight="true" ht="34" r="33">
-      <c r="A33" s="34">
+    <row customHeight="true" ht="34" r="35">
+      <c r="A35" s="27">
         <v>532</v>
       </c>
-      <c r="B33" s="33" t="str">
+      <c r="B35" s="38" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C33" s="34">
+      <c r="C35" s="27">
         <v>532</v>
       </c>
     </row>
-    <row customHeight="true" ht="44" r="34">
-      <c r="A34" s="34">
+    <row customHeight="true" ht="44" r="36">
+      <c r="A36" s="27">
         <v>534</v>
       </c>
-      <c r="B34" s="33" t="str">
+      <c r="B36" s="38" t="str">
         <v>冥府侧殿的侍女告诉我你这里有能帮助我获得食材的道具。</v>
       </c>
-      <c r="C34" s="34">
+      <c r="C36" s="27">
         <v>534</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="36">
-        <v>61</v>
-      </c>
-      <c r="B35" s="35" t="str">
+    <row r="37">
+      <c r="A37" s="47">
+        <v>611</v>
+      </c>
+      <c r="B37" s="45" t="str">
         <v>贝尔芬格是怎样的恶魔？</v>
       </c>
-      <c r="C35" s="36">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="13">
-        <v>62</v>
-      </c>
-      <c r="B36" s="35" t="str">
+      <c r="C37" s="47">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="15">
+        <v>612</v>
+      </c>
+      <c r="B38" s="45" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C36" s="36">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="36">
-        <v>63</v>
-      </c>
-      <c r="B37" s="35" t="str">
+      <c r="C38" s="15">
+        <v>612</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="39">
+      <c r="A39" s="47">
+        <v>621</v>
+      </c>
+      <c r="B39" s="45" t="str">
+        <v>贝尔芬格是怎样的恶魔？</v>
+      </c>
+      <c r="C39" s="47">
+        <v>621</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="40">
+      <c r="A40" s="15">
+        <v>622</v>
+      </c>
+      <c r="B40" s="45" t="str">
+        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
+      </c>
+      <c r="C40" s="15">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="47">
+        <v>623</v>
+      </c>
+      <c r="B41" s="45" t="str">
         <v>你能给我哪些获取食材的建议？</v>
       </c>
-      <c r="C37" s="36">
-        <v>39</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="19" r="38">
-      <c r="A38" s="13"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="36"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="32">
-        <v>71</v>
-      </c>
-      <c r="B39" s="43" t="str">
+      <c r="C41" s="47">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="33">
+        <v>711</v>
+      </c>
+      <c r="B42" s="36" t="str">
         <v>玛门是怎样的恶魔？</v>
       </c>
-      <c r="C39" s="11">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="11">
-        <v>72</v>
-      </c>
-      <c r="B40" s="43" t="str">
+      <c r="C42" s="33">
+        <v>711</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="40" r="43">
+      <c r="A43" s="35">
+        <v>712</v>
+      </c>
+      <c r="B43" s="36" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C40" s="11">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="32">
-        <v>73</v>
-      </c>
-      <c r="B41" s="43" t="str">
+      <c r="C43" s="35">
+        <v>712</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="44">
+      <c r="A44" s="33">
+        <v>721</v>
+      </c>
+      <c r="B44" s="36" t="str">
+        <v>玛门是怎样的恶魔？</v>
+      </c>
+      <c r="C44" s="33">
+        <v>721</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="45">
+      <c r="A45" s="35">
+        <v>722</v>
+      </c>
+      <c r="B45" s="36" t="str">
+        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
+      </c>
+      <c r="C45" s="35">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="33">
+        <v>723</v>
+      </c>
+      <c r="B46" s="36" t="str">
         <v>你能给我哪些获取食材的建议？</v>
       </c>
-      <c r="C41" s="11">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="11">
-        <v>74</v>
-      </c>
-      <c r="B42" s="43" t="str">
+      <c r="C46" s="33">
+        <v>723</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="47">
+      <c r="A47" s="33">
+        <v>731</v>
+      </c>
+      <c r="B47" s="36" t="str">
+        <v>玛门是怎样的恶魔？</v>
+      </c>
+      <c r="C47" s="33">
+        <v>731</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="48">
+      <c r="A48" s="35">
+        <v>732</v>
+      </c>
+      <c r="B48" s="36" t="str">
+        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
+      </c>
+      <c r="C48" s="35">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="35">
+        <v>734</v>
+      </c>
+      <c r="B49" s="36" t="str">
         <v>亡灵饮水地的神女告诉我你这里有能帮助我获得食材的道具。</v>
       </c>
-      <c r="C42" s="11">
-        <v>48</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="19" r="43">
-      <c r="A43" s="32"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="11"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="37">
-        <v>81</v>
-      </c>
-      <c r="B44" s="38" t="str">
+      <c r="C49" s="35">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="42">
+        <v>811</v>
+      </c>
+      <c r="B50" s="43" t="str">
         <v>撒旦是怎样的恶魔？</v>
       </c>
-      <c r="C44" s="39">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="37">
-        <v>82</v>
-      </c>
-      <c r="B45" s="38" t="str">
+      <c r="C50" s="42">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="42">
+        <v>812</v>
+      </c>
+      <c r="B51" s="43" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C45" s="39">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="37">
-        <v>83</v>
-      </c>
-      <c r="B46" s="38" t="str">
+      <c r="C51" s="42">
+        <v>812</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="52">
+      <c r="A52" s="42">
+        <v>821</v>
+      </c>
+      <c r="B52" s="43" t="str">
+        <v>撒旦是怎样的恶魔？</v>
+      </c>
+      <c r="C52" s="42">
+        <v>821</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="53">
+      <c r="A53" s="42">
+        <v>822</v>
+      </c>
+      <c r="B53" s="43" t="str">
+        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
+      </c>
+      <c r="C53" s="42">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="42">
+        <v>823</v>
+      </c>
+      <c r="B54" s="43" t="str">
         <v>你能给我哪些获取食材的建议？</v>
       </c>
-      <c r="C46" s="39">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="39">
-        <v>84</v>
-      </c>
-      <c r="B47" s="38" t="str">
+      <c r="C54" s="42">
+        <v>823</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="55">
+      <c r="A55" s="42">
+        <v>831</v>
+      </c>
+      <c r="B55" s="43" t="str">
+        <v>撒旦是怎样的恶魔？</v>
+      </c>
+      <c r="C55" s="42">
+        <v>831</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="56">
+      <c r="A56" s="42">
+        <v>832</v>
+      </c>
+      <c r="B56" s="43" t="str">
+        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
+      </c>
+      <c r="C56" s="42">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="50">
+        <v>834</v>
+      </c>
+      <c r="B57" s="43" t="str">
         <v>极乐之野的守卫告诉我你这里有能帮助我获得食材的道具。</v>
       </c>
-      <c r="C47" s="39">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="39"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="39"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="47">
-        <v>91</v>
-      </c>
-      <c r="B49" s="46" t="str">
+      <c r="C57" s="50">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="49">
+        <v>921</v>
+      </c>
+      <c r="B58" s="48" t="str">
         <v>跟她走</v>
       </c>
-      <c r="C49" s="46"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="46">
-        <v>92</v>
-      </c>
-      <c r="B50" s="46" t="str">
+      <c r="C58" s="48">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="48">
+        <v>922</v>
+      </c>
+      <c r="B59" s="48" t="str">
         <v>不跟她走</v>
       </c>
-      <c r="C50" s="46"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="44">
+      <c r="C59" s="48"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="40">
         <v>999</v>
       </c>
-      <c r="B52" s="45" t="str">
+      <c r="B61" s="41" t="str">
         <v>结束对话</v>
       </c>
-      <c r="C52" s="45">
+      <c r="C61" s="41">
         <v>0</v>
       </c>
     </row>

--- a/真的taptap demo/Assets/Excel/database.xlsx
+++ b/真的taptap demo/Assets/Excel/database.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Dialogue" sheetId="2" r:id="rId5"/>
     <sheet name="Options" sheetId="3" r:id="rId6"/>
+    <sheet name="CharacterEvent" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcMode="auto"/>
   <extLst>
@@ -59,6 +60,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -66,7 +68,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -84,6 +85,18 @@
     <fill>
       <patternFill patternType="gray125">
         <fgColor/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDDDEF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDDDEF"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -119,19 +132,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFBBFBC"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBFBC"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBFBC"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFAF1D1"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFDDDEF"/>
+        <fgColor rgb="FFD5F6F2"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFDDDEF"/>
+        <fgColor rgb="FFD5F6F2"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5F6F2"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5F6F2"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5F6F2"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -167,6 +216,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9F5D6"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1EAFF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1EAFF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF258"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF258"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFED4A4"/>
         <bgColor/>
       </patternFill>
@@ -191,84 +270,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF258"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF258"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBBFBC"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBBFBC"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBBFBC"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE1EAFF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE1EAFF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9F5D6"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD5F6F2"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD5F6F2"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD5F6F2"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD5F6F2"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD5F6F2"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD9F5D6"/>
         <bgColor/>
       </patternFill>
@@ -287,18 +288,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAD82F7"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAD82F7"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFAD355"/>
         <bgColor/>
       </patternFill>
@@ -311,7 +300,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFED4A4"/>
+        <fgColor rgb="FFECE2FE"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -323,13 +312,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFDDDEF"/>
+        <fgColor rgb="FFFED4A4"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFECE2FE"/>
+        <fgColor rgb="FFFDDDEF"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -348,6 +337,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFAD355"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAD82F7"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAD82F7"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -724,112 +725,112 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="5" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="6" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="7" fontId="4" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="8" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="6" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="9" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="10" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="11" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="7" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="12" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="13" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="8" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="9" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="10" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="11" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="12" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="13" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="14" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="14" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="15" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="16" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="16" fontId="4" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="17" fontId="4" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="18" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="17" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="19" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="24" fillId="20" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="25" fillId="21" fontId="4" numFmtId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="26" fillId="22" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="18" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="27" fillId="23" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="28" fillId="24" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="29" fillId="25" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="30" fillId="26" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="31" fillId="27" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="32" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="33" fillId="28" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="34" fillId="29" fontId="4" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="35" fillId="30" fontId="4" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="36" fillId="31" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="24" fillId="19" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="25" fillId="20" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="26" fillId="21" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="27" fillId="22" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="28" fillId="23" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="29" fillId="24" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="30" fillId="25" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="31" fillId="26" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="32" fillId="27" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="33" fillId="28" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="34" fillId="29" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="35" fillId="30" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="36" fillId="31" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="37" fillId="32" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="37" fillId="32" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="38" fillId="33" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="38" fillId="33" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="39" fillId="34" fontId="2" numFmtId="0" xfId="0">
@@ -838,34 +839,34 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="40" fillId="35" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="41" fillId="36" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="41" fillId="36" fontId="4" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="42" fillId="37" fontId="4" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="43" fillId="38" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="42" fillId="37" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="43" fillId="38" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="44" fillId="39" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="45" fillId="40" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="45" fillId="40" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="46" fillId="41" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="47" fillId="42" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="47" fillId="42" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="48" fillId="43" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="48" fillId="43" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="49" fillId="44" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="50" fillId="45" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="50" fillId="45" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1197,25 +1198,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="str">
+      <c r="A1" s="9" t="str">
         <v>DialogueId</v>
       </c>
-      <c r="B1" s="23" t="str">
+      <c r="B1" s="32" t="str">
         <v>Text</v>
       </c>
-      <c r="C1" s="23" t="str">
+      <c r="C1" s="32" t="str">
         <v>Comment</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="str">
+      <c r="A2" s="30" t="str">
         <v>编号，触发时候调用</v>
       </c>
-      <c r="B2" s="25" t="str">
+      <c r="B2" s="31" t="str">
         <v>整段对话。一行speaker，一行text。speaker不要冒号，speaker相当于一个ID来控制显示哪张立绘特殊speaker
 Null ：（表示没有立绘）Narrator:（表示全屏显示旁白）Options（表示触发选项，后面跟选项编号，用 “|”分隔）</v>
       </c>
-      <c r="C2" s="25" t="str">
+      <c r="C2" s="31" t="str">
         <v>备注。可以写触发地点，代码不读取，只是为了方便排查
 编号排查：
 1xx-开场剧情及冥府主殿相关
@@ -1230,10 +1231,10 @@
       </c>
     </row>
     <row customHeight="true" ht="425" r="3">
-      <c r="A3" s="29">
+      <c r="A3" s="28">
         <v>100</v>
       </c>
-      <c r="B3" s="30" t="str">
+      <c r="B3" s="29" t="str">
         <v>Narrator
 沉湎……
 Narrator
@@ -1261,16 +1262,16 @@
 Null 
 眼前的苍蝇怪物和这座城堡都令你分外熟悉。这分明是你独立开发的个人游戏中设计出的场景和角色。你掉进了自己制作的游戏里！</v>
       </c>
-      <c r="C3" s="30" t="str">
+      <c r="C3" s="29" t="str">
         <v>开场剧情
 Null 处配的是哥特宫殿那张图</v>
       </c>
     </row>
     <row customHeight="true" ht="350" r="4">
-      <c r="A4" s="29">
+      <c r="A4" s="28">
         <v>110</v>
       </c>
-      <c r="B4" s="30" t="str">
+      <c r="B4" s="29" t="str">
         <v>别西卜
 你好，戴着白色厨师帽的女孩。我想你就是来应聘地狱主厨的候选人了。
 主角7
@@ -1296,15 +1297,15 @@
 Options 
 11|12|10</v>
       </c>
-      <c r="C4" s="30" t="str">
+      <c r="C4" s="29" t="str">
         <v>冥府主殿</v>
       </c>
     </row>
     <row customHeight="true" ht="120" r="5">
-      <c r="A5" s="29">
+      <c r="A5" s="28">
         <v>111</v>
       </c>
-      <c r="B5" s="30" t="str">
+      <c r="B5" s="29" t="str">
         <v>别西卜
 万魔殿的每个地点都在等待着你的探索。
 别西卜
@@ -1314,15 +1315,15 @@
 Options
 11|12|10</v>
       </c>
-      <c r="C5" s="30" t="str">
+      <c r="C5" s="29" t="str">
         <v>冥府主殿</v>
       </c>
     </row>
     <row customHeight="true" ht="163" r="6">
-      <c r="A6" s="29">
+      <c r="A6" s="28">
         <v>112</v>
       </c>
-      <c r="B6" s="30" t="str">
+      <c r="B6" s="29" t="str">
         <v>别西卜
 每道菜有一份标准主食和一份标准辅食。
 别西卜
@@ -1334,15 +1335,15 @@
 Options
 11|12|10</v>
       </c>
-      <c r="C6" s="30" t="str">
+      <c r="C6" s="29" t="str">
         <v>冥府主殿</v>
       </c>
     </row>
     <row customHeight="true" ht="106" r="7">
-      <c r="A7" s="29">
+      <c r="A7" s="28">
         <v>113</v>
       </c>
-      <c r="B7" s="30" t="str">
+      <c r="B7" s="29" t="str">
         <v>别西卜
 第一道菜是无花果香煎龙肝。
 主角6
@@ -1350,15 +1351,15 @@
 主角7
 早知道将新手教程做得更清晰一些了……！</v>
       </c>
-      <c r="C7" s="30" t="str">
+      <c r="C7" s="29" t="str">
         <v>冥府主殿</v>
       </c>
     </row>
     <row customHeight="true" ht="106" r="8">
-      <c r="A8" s="29">
+      <c r="A8" s="28">
         <v>102</v>
       </c>
-      <c r="B8" s="30" t="str">
+      <c r="B8" s="29" t="str">
         <v>别西卜
 第二道菜是藏红花蟾蜍浓汤。
 主角6
@@ -1366,17 +1367,17 @@
 主角7
 蟾蜍在花园里找找？藏红花什么的，还是在原野上比较多吧。</v>
       </c>
-      <c r="C8" s="30" t="str">
+      <c r="C8" s="29" t="str">
         <v>第一道菜评分通过后显示
 对话结束后跳转大地图</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="5"/>
     </row>
     <row customHeight="true" ht="106" r="9">
-      <c r="A9" s="29">
+      <c r="A9" s="28">
         <v>103</v>
       </c>
-      <c r="B9" s="30" t="str">
+      <c r="B9" s="29" t="str">
         <v>别西卜
 第三道菜是香槟鱼子酱酿鱼。
 主角6
@@ -1384,16 +1385,16 @@
 主角7
 香槟酒什么的或许能在宫殿找到。</v>
       </c>
-      <c r="C9" s="30" t="str">
+      <c r="C9" s="29" t="str">
         <v>第二道菜评分通过后显示
 对话结束后跳转大地图</v>
       </c>
     </row>
     <row customHeight="true" ht="106" r="10">
-      <c r="A10" s="29">
+      <c r="A10" s="28">
         <v>104</v>
       </c>
-      <c r="B10" s="30" t="str">
+      <c r="B10" s="29" t="str">
         <v>别西卜
 第四道菜是炭烤摩洛克牛排。
 主角6
@@ -1401,16 +1402,16 @@
 主角7
 烤牛排的配菜在花园里应该是常见的。</v>
       </c>
-      <c r="C10" s="30" t="str">
+      <c r="C10" s="29" t="str">
         <v>第三道菜评分通过后显示
 对话结束后跳转大地图</v>
       </c>
     </row>
     <row customHeight="true" ht="106" r="11">
-      <c r="A11" s="29">
+      <c r="A11" s="28">
         <v>105</v>
       </c>
-      <c r="B11" s="30" t="str">
+      <c r="B11" s="29" t="str">
         <v>别西卜
 第五道菜是烤贝尔芬格奶酪。
 主角6
@@ -1418,16 +1419,16 @@
 主角7
 奶酪的话，或许会和蜂蜜一类的菜品更搭。</v>
       </c>
-      <c r="C11" s="30" t="str">
+      <c r="C11" s="29" t="str">
         <v>第四道菜评分通过后显示
 对话结束后跳转大地图</v>
       </c>
     </row>
     <row customHeight="true" ht="106" r="12">
-      <c r="A12" s="29">
+      <c r="A12" s="28">
         <v>106</v>
       </c>
-      <c r="B12" s="30" t="str">
+      <c r="B12" s="29" t="str">
         <v>别西卜
 第六道菜是撒旦石榴布丁。
 主角6
@@ -1435,16 +1436,16 @@
 主角7
 唔，石榴似乎是在塔尔塔洛斯。</v>
       </c>
-      <c r="C12" s="30" t="str">
+      <c r="C12" s="29" t="str">
         <v>第五道菜评分通过后显示
 对话结束后跳转大地图</v>
       </c>
     </row>
     <row customHeight="true" ht="106" r="13">
-      <c r="A13" s="29">
+      <c r="A13" s="28">
         <v>107</v>
       </c>
-      <c r="B13" s="30" t="str">
+      <c r="B13" s="29" t="str">
         <v>别西卜
 第七道菜是玛门的眼泪。
 主角6
@@ -1453,30 +1454,16 @@
 这道菜应该是酒，或许寻找一些香料能够调配出美妙的味道。
 </v>
       </c>
-      <c r="C13" s="30" t="str">
+      <c r="C13" s="29" t="str">
         <v>第六道菜评分通过后显示
 对话结束后跳转对话920</v>
       </c>
     </row>
-    <row customHeight="true" ht="58" r="14">
-      <c r="A14" s="29">
-        <v>190</v>
-      </c>
-      <c r="B14" s="30" t="str">
-        <v>别西卜
-请确定已经收集好了需要的食材。
-Options
-191|192</v>
-      </c>
-      <c r="C14" s="30" t="str">
-        <v>选项191-跳转烹饪界面</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="212" r="15">
-      <c r="A15" s="14">
+    <row customHeight="true" ht="212" r="14">
+      <c r="A14" s="23">
         <v>210</v>
       </c>
-      <c r="B15" s="15" t="str">
+      <c r="B14" s="22" t="str">
         <v>Null 
 到处都是火焰、火焰、火焰。
 Null
@@ -1492,18 +1479,18 @@
 Options 
 211|212|999</v>
       </c>
-      <c r="C15" s="15" t="str">
+      <c r="C14" s="22" t="str">
         <v>塔尔塔洛斯
 出现满足条件：
 对应轮次：2；3；4；5；6；7
 （第三轮次正常会出现这句，但如果同时满足第四轮次+触发过对话423，此处就会改为对话230。下述编号为x10的对话均同理）</v>
       </c>
     </row>
-    <row customHeight="true" ht="214" r="16">
-      <c r="A16" s="14">
+    <row customHeight="true" ht="214" r="15">
+      <c r="A15" s="23">
         <v>220</v>
       </c>
-      <c r="B16" s="15" t="str">
+      <c r="B15" s="22" t="str">
         <v>Null 
 到处都是火焰、火焰、火焰。
 Null
@@ -1519,17 +1506,17 @@
 Options 
 221|222|223|999</v>
       </c>
-      <c r="C16" s="15" t="str">
+      <c r="C15" s="22" t="str">
         <v>塔尔塔洛斯
 出现满足条件：
 对应轮次：1</v>
       </c>
     </row>
-    <row customHeight="true" ht="211" r="17">
-      <c r="A17" s="14">
+    <row customHeight="true" ht="211" r="16">
+      <c r="A16" s="23">
         <v>230</v>
       </c>
-      <c r="B17" s="15" t="str">
+      <c r="B16" s="22" t="str">
         <v>Null
 到处都是火焰、火焰、火焰。
 Null
@@ -1545,18 +1532,18 @@
 Options 
 231|232|234|999</v>
       </c>
-      <c r="C17" s="15" t="str">
+      <c r="C16" s="22" t="str">
         <v>塔尔塔洛斯
 出现满足条件：
 对应轮次：3
 触发过对话：423</v>
       </c>
     </row>
-    <row customHeight="true" ht="175" r="18">
-      <c r="A18" s="14">
+    <row customHeight="true" ht="175" r="17">
+      <c r="A17" s="23">
         <v>211</v>
       </c>
-      <c r="B18" s="15" t="str">
+      <c r="B17" s="22" t="str">
         <v>大饼
 阿斯摩太是代表着色欲与婚姻破裂的恶魔之王，有三个脑袋，分别是人头、牛头和羊头。
 大饼
@@ -1570,15 +1557,15 @@
 Options 
 211|212|999</v>
       </c>
-      <c r="C18" s="15" t="str">
+      <c r="C17" s="22" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
-    <row customHeight="true" ht="134" r="19">
-      <c r="A19" s="14">
+    <row customHeight="true" ht="134" r="18">
+      <c r="A18" s="23">
         <v>212</v>
       </c>
-      <c r="B19" s="15" t="str">
+      <c r="B18" s="22" t="str">
         <v>大饼
 万魔殿里常年生长着一些可作平替的食材和肉类。当走投无路之际，你可以尝试用这些食材做出低配版的菜品。
 大饼
@@ -1588,15 +1575,15 @@
 Options 
 211|212|999</v>
       </c>
-      <c r="C19" s="15" t="str">
+      <c r="C18" s="22" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
-    <row customHeight="true" ht="177" r="20">
-      <c r="A20" s="14">
+    <row customHeight="true" ht="177" r="19">
+      <c r="A19" s="23">
         <v>221</v>
       </c>
-      <c r="B20" s="15" t="str">
+      <c r="B19" s="22" t="str">
         <v>大饼
 阿斯摩太是代表着色欲与婚姻破裂的恶魔之王，有三个脑袋，分别是人头、牛头和羊头。
 大饼
@@ -1610,15 +1597,15 @@
 Options 
 221|222|223|999</v>
       </c>
-      <c r="C20" s="15" t="str">
+      <c r="C19" s="22" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
-    <row customHeight="true" ht="137" r="21">
-      <c r="A21" s="14">
+    <row customHeight="true" ht="137" r="20">
+      <c r="A20" s="23">
         <v>222</v>
       </c>
-      <c r="B21" s="15" t="str">
+      <c r="B20" s="22" t="str">
         <v>大饼
 万魔殿里常年生长着一些可作平替的食材和肉类。当走投无路之际，你可以尝试用这些食材做出低配版的菜品。
 大饼
@@ -1628,15 +1615,15 @@
 Options 
 221|222|223|999</v>
       </c>
-      <c r="C21" s="15" t="str">
+      <c r="C20" s="22" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
-    <row customHeight="true" ht="106" r="22">
-      <c r="A22" s="14">
+    <row customHeight="true" ht="106" r="21">
+      <c r="A21" s="23">
         <v>223</v>
       </c>
-      <c r="B22" s="15" t="str">
+      <c r="B21" s="22" t="str">
         <v>大饼
 想要获得刻尔柏的龙肝，你需要特殊的工具。
 大饼
@@ -1644,15 +1631,15 @@
 大饼
 另外，在每个地点多多探索，也许会发现可能用到的东西。</v>
       </c>
-      <c r="C22" s="15" t="str">
+      <c r="C21" s="22" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
-    <row customHeight="true" ht="186" r="23">
-      <c r="A23" s="14">
+    <row customHeight="true" ht="186" r="22">
+      <c r="A22" s="23">
         <v>231</v>
       </c>
-      <c r="B23" s="15" t="str">
+      <c r="B22" s="22" t="str">
         <v>大饼
 阿斯摩太是代表着色欲与婚姻破裂的恶魔之王，有三个脑袋，分别是人头、牛头和羊头。
 大饼
@@ -1666,15 +1653,15 @@
 Options 
 231|232|234|999</v>
       </c>
-      <c r="C23" s="15" t="str">
+      <c r="C22" s="22" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
-    <row customHeight="true" ht="133" r="24">
-      <c r="A24" s="14">
+    <row customHeight="true" ht="133" r="23">
+      <c r="A23" s="23">
         <v>232</v>
       </c>
-      <c r="B24" s="15" t="str">
+      <c r="B23" s="22" t="str">
         <v>大饼
 万魔殿里常年生长着一些可作平替的食材和肉类。当走投无路之际，你可以尝试用这些食材做出低配版的菜品。
 大饼
@@ -1684,28 +1671,28 @@
 Options 
 231|232|234|999</v>
       </c>
-      <c r="C24" s="15" t="str">
+      <c r="C23" s="22" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
-    <row customHeight="true" ht="71" r="25">
-      <c r="A25" s="14">
+    <row customHeight="true" ht="71" r="24">
+      <c r="A24" s="23">
         <v>234</v>
       </c>
-      <c r="B25" s="15" t="str">
+      <c r="B24" s="22" t="str">
         <v>大饼
 我的混沌三叉戟可以帮上你的忙。</v>
       </c>
-      <c r="C25" s="15" t="str">
+      <c r="C24" s="22" t="str">
         <v>塔尔塔洛斯
 玩家道具栏中会出现混沌三叉戟道具</v>
       </c>
     </row>
-    <row customHeight="true" ht="246" r="26">
-      <c r="A26" s="14">
+    <row customHeight="true" ht="246" r="25">
+      <c r="A25" s="23">
         <v>2991</v>
       </c>
-      <c r="B26" s="15" t="str">
+      <c r="B25" s="22" t="str">
         <v>阿斯摩太
 我闻到了浓郁的人肉香气……如此新鲜、柔嫩、美味。
 阿斯摩太
@@ -1721,31 +1708,31 @@
 阿斯摩太
 我被困于炼狱中已经太久，自然无法违抗别西卜大人的命令。但是如何得到你所需要的食材，并不取决于我，而取决于你作为厨师的手法。</v>
       </c>
-      <c r="C26" s="15" t="str">
+      <c r="C25" s="22" t="str">
         <v>塔尔塔洛斯
 出现条件：
 对应轮次：1</v>
       </c>
     </row>
-    <row customHeight="true" ht="71" r="27">
-      <c r="A27" s="14">
+    <row customHeight="true" ht="71" r="26">
+      <c r="A26" s="23">
         <v>2992</v>
       </c>
-      <c r="B27" s="15" t="str">
+      <c r="B26" s="22" t="str">
         <v>阿斯摩太
 ......</v>
       </c>
-      <c r="C27" s="15" t="str">
+      <c r="C26" s="22" t="str">
         <v>塔尔塔洛斯
 出现条件：
 对应轮次：2；3；4；5；6；7</v>
       </c>
     </row>
-    <row customHeight="true" ht="187" r="28">
-      <c r="A28" s="1">
+    <row customHeight="true" ht="187" r="27">
+      <c r="A27" s="6">
         <v>310</v>
       </c>
-      <c r="B28" s="2" t="str">
+      <c r="B27" s="7" t="str">
         <v>Null 
 你来到一个藏红花遍布的平原。
 Null
@@ -1759,18 +1746,18 @@
 Options 
 311|312|999</v>
       </c>
-      <c r="C28" s="2" t="str">
+      <c r="C27" s="7" t="str">
         <v>极乐之野
 出现条件：
 对应轮次：1；2；3；5；6；7
 </v>
       </c>
     </row>
-    <row customHeight="true" ht="198" r="29">
-      <c r="A29" s="1">
+    <row customHeight="true" ht="198" r="28">
+      <c r="A28" s="6">
         <v>320</v>
       </c>
-      <c r="B29" s="2" t="str">
+      <c r="B28" s="7" t="str">
         <v>Null 
 你来到一个藏红花遍布的平原。
 Null
@@ -1784,18 +1771,18 @@
 Options 
 321|322|323|999</v>
       </c>
-      <c r="C29" s="2" t="str">
+      <c r="C28" s="7" t="str">
         <v>极乐之野
 出现条件：
 对应轮次：4
 </v>
       </c>
     </row>
-    <row customHeight="true" ht="195" r="30">
-      <c r="A30" s="1">
+    <row customHeight="true" ht="195" r="29">
+      <c r="A29" s="6">
         <v>330</v>
       </c>
-      <c r="B30" s="2" t="str">
+      <c r="B29" s="7" t="str">
         <v>Null 
 你来到一个藏红花遍布的平原。
 Null
@@ -1809,18 +1796,18 @@
 Options 
 331|332|334|999</v>
       </c>
-      <c r="C30" s="2" t="str">
+      <c r="C29" s="7" t="str">
         <v>极乐之野
 出现条件：
 对应轮次：1
 触发过对话：223</v>
       </c>
     </row>
-    <row customHeight="true" ht="207" r="31">
-      <c r="A31" s="1">
+    <row customHeight="true" ht="207" r="30">
+      <c r="A30" s="6">
         <v>311</v>
       </c>
-      <c r="B31" s="2" t="str">
+      <c r="B30" s="7" t="str">
         <v>三叶虫
 摩洛克是一位嗜血好战的恶魔，常以半人半牛的形态出没。
 三叶虫
@@ -1834,15 +1821,15 @@
 Options 
 311|312|999</v>
       </c>
-      <c r="C31" s="2" t="str">
+      <c r="C30" s="7" t="str">
         <v>极乐之野</v>
       </c>
     </row>
-    <row customHeight="true" ht="99" r="32">
-      <c r="A32" s="1">
+    <row customHeight="true" ht="99" r="31">
+      <c r="A31" s="6">
         <v>312</v>
       </c>
-      <c r="B32" s="2" t="str">
+      <c r="B31" s="7" t="str">
         <v>三叶虫
 不要相信你的大脑。相信你的手、足、眼、口、鼻。亲眼所见，亦非真实。
 三叶虫
@@ -1850,15 +1837,15 @@
 Options 
 311|312|999</v>
       </c>
-      <c r="C32" s="2" t="str">
+      <c r="C31" s="7" t="str">
         <v>极乐之野</v>
       </c>
     </row>
-    <row customHeight="true" ht="217" r="33">
-      <c r="A33" s="1">
+    <row customHeight="true" ht="217" r="32">
+      <c r="A32" s="6">
         <v>321</v>
       </c>
-      <c r="B33" s="2" t="str">
+      <c r="B32" s="7" t="str">
         <v>三叶虫
 摩洛克是一位嗜血好战的恶魔，常以半人半牛的形态出没。
 三叶虫
@@ -1872,15 +1859,15 @@
 Options 
 321|322|323|999</v>
       </c>
-      <c r="C33" s="2" t="str">
+      <c r="C32" s="7" t="str">
         <v>极乐之野</v>
       </c>
     </row>
-    <row customHeight="true" ht="90" r="34">
-      <c r="A34" s="1">
+    <row customHeight="true" ht="90" r="33">
+      <c r="A33" s="6">
         <v>322</v>
       </c>
-      <c r="B34" s="2" t="str">
+      <c r="B33" s="7" t="str">
         <v>三叶虫
 不要相信你的大脑。相信你的手、足、眼、口、鼻。亲眼所见，亦非真实。
 三叶虫
@@ -1888,15 +1875,15 @@
 Options 
 321|322|323|999</v>
       </c>
-      <c r="C34" s="2" t="str">
+      <c r="C33" s="7" t="str">
         <v>极乐之野</v>
       </c>
     </row>
-    <row customHeight="true" ht="114" r="35">
-      <c r="A35" s="1">
+    <row customHeight="true" ht="114" r="34">
+      <c r="A34" s="6">
         <v>323</v>
       </c>
-      <c r="B35" s="2" t="str">
+      <c r="B34" s="7" t="str">
         <v>三叶虫
 摩洛克虽然被禁锢在方寸之地，但力量依然不可小觑。
 三叶虫
@@ -1904,15 +1891,15 @@
 三叶虫
 去遗忘之地寻找一个名叫蓝七的混沌亡灵，她将帮助你使摩洛克陷入沉睡。</v>
       </c>
-      <c r="C35" s="2" t="str">
+      <c r="C34" s="7" t="str">
         <v>极乐之野</v>
       </c>
     </row>
-    <row customHeight="true" ht="200" r="36">
-      <c r="A36" s="1">
+    <row customHeight="true" ht="200" r="35">
+      <c r="A35" s="6">
         <v>331</v>
       </c>
-      <c r="B36" s="2" t="str">
+      <c r="B35" s="7" t="str">
         <v>三叶虫
 摩洛克是一位嗜血好战的恶魔，常以半人半牛的形态出没。
 三叶虫
@@ -1926,15 +1913,15 @@
 Options 
 331|332|334|999</v>
       </c>
-      <c r="C36" s="2" t="str">
+      <c r="C35" s="7" t="str">
         <v>极乐之野</v>
       </c>
     </row>
-    <row customHeight="true" ht="91" r="37">
-      <c r="A37" s="1">
+    <row customHeight="true" ht="91" r="36">
+      <c r="A36" s="6">
         <v>332</v>
       </c>
-      <c r="B37" s="2" t="str">
+      <c r="B36" s="7" t="str">
         <v>三叶虫
 不要相信你的大脑。相信你的手、足、眼、口、鼻。亲眼所见，亦非真实。
 三叶虫
@@ -1942,28 +1929,28 @@
 Options 
 331|332|334|999</v>
       </c>
-      <c r="C37" s="2" t="str">
+      <c r="C36" s="7" t="str">
         <v>极乐之野</v>
       </c>
     </row>
-    <row customHeight="true" ht="52" r="38">
-      <c r="A38" s="1">
+    <row customHeight="true" ht="52" r="37">
+      <c r="A37" s="6">
         <v>334</v>
       </c>
-      <c r="B38" s="2" t="str">
+      <c r="B37" s="7" t="str">
         <v>三叶虫
 这是我的地狱弯刀，几乎可以砍下世界上所有生物的脖颈。</v>
       </c>
-      <c r="C38" s="2" t="str">
+      <c r="C37" s="7" t="str">
         <v>极乐之野
 玩家道具栏里会获取道具地狱弯刀</v>
       </c>
     </row>
-    <row customHeight="true" ht="197" r="39">
-      <c r="A39" s="1">
+    <row customHeight="true" ht="197" r="38">
+      <c r="A38" s="6">
         <v>3991</v>
       </c>
-      <c r="B39" s="2" t="str">
+      <c r="B38" s="7" t="str">
         <v>Null 
 摩洛克被关在一处画满蓝色符文的阵法里，无形的光芒笼罩着他。他的牛头发出低沉的吼叫，胸口的熔炉燃烧着腾腾火焰。
 主角1
@@ -1977,29 +1964,29 @@
 Null
 他重新吼叫起来，完全忽视了站在外面的人类。</v>
       </c>
-      <c r="C39" s="2" t="str">
+      <c r="C38" s="7" t="str">
         <v>极乐之野
 出现轮次：1；2；3；4</v>
       </c>
     </row>
-    <row customHeight="true" ht="56" r="40">
-      <c r="A40" s="1">
+    <row customHeight="true" ht="56" r="39">
+      <c r="A39" s="6">
         <v>3992</v>
       </c>
-      <c r="B40" s="2" t="str">
+      <c r="B39" s="7" t="str">
         <v>摩洛克
 ......</v>
       </c>
-      <c r="C40" s="2" t="str">
+      <c r="C39" s="7" t="str">
         <v>极乐之野
 出现轮次：5；6；7</v>
       </c>
     </row>
-    <row customHeight="true" ht="316" r="41">
-      <c r="A41" s="12">
+    <row customHeight="true" ht="316" r="40">
+      <c r="A40" s="1">
         <v>410</v>
       </c>
-      <c r="B41" s="13" t="str">
+      <c r="B40" s="2" t="str">
         <v>Null 
 冥府的河流呈现深不可测的黑色。
 Null
@@ -2021,17 +2008,17 @@
 Options 
 411|412|999</v>
       </c>
-      <c r="C41" s="13" t="str">
+      <c r="C40" s="2" t="str">
         <v>喀戎之河
 出现条件：
 对应轮次：1；2；4；5；6；7</v>
       </c>
     </row>
-    <row customHeight="true" ht="326" r="42">
-      <c r="A42" s="12">
+    <row customHeight="true" ht="326" r="41">
+      <c r="A41" s="1">
         <v>420</v>
       </c>
-      <c r="B42" s="13" t="str">
+      <c r="B41" s="2" t="str">
         <v>Null 
 冥府的河流呈现深不可测的黑色。
 Null
@@ -2053,17 +2040,17 @@
 Options 
 421|422|423|999</v>
       </c>
-      <c r="C42" s="13" t="str">
+      <c r="C41" s="2" t="str">
         <v>喀戎之河
 出现条件：
 对应轮次：3</v>
       </c>
     </row>
-    <row customHeight="true" ht="176" r="43">
-      <c r="A43" s="12">
+    <row customHeight="true" ht="176" r="42">
+      <c r="A42" s="1">
         <v>411</v>
       </c>
-      <c r="B43" s="13" t="str">
+      <c r="B42" s="2" t="str">
         <v>因诺
 利维坦是原始混沌的化身，是海洋的统治者。
 因诺
@@ -2077,15 +2064,15 @@
 Options 
 411|412|999</v>
       </c>
-      <c r="C43" s="13" t="str">
+      <c r="C42" s="2" t="str">
         <v>喀戎之河</v>
       </c>
     </row>
-    <row customHeight="true" ht="93" r="44">
-      <c r="A44" s="12">
+    <row customHeight="true" ht="93" r="43">
+      <c r="A43" s="1">
         <v>412</v>
       </c>
-      <c r="B44" s="13" t="str">
+      <c r="B43" s="2" t="str">
         <v>因诺
 跟她们不一样，我很喜欢你对我的塑造。你是个善良的人，不该承受这些。
 因诺
@@ -2094,15 +2081,15 @@
 411|412|999
 </v>
       </c>
-      <c r="C44" s="13" t="str">
+      <c r="C43" s="2" t="str">
         <v>喀戎之河</v>
       </c>
     </row>
-    <row customHeight="true" ht="171" r="45">
-      <c r="A45" s="12">
+    <row customHeight="true" ht="171" r="44">
+      <c r="A44" s="1">
         <v>421</v>
       </c>
-      <c r="B45" s="13" t="str">
+      <c r="B44" s="2" t="str">
         <v>因诺
 利维坦是原始混沌的化身，是海洋的统治者。
 因诺
@@ -2116,15 +2103,15 @@
 Options 
 421|422|423|999</v>
       </c>
-      <c r="C45" s="13" t="str">
+      <c r="C44" s="2" t="str">
         <v>喀戎之河</v>
       </c>
     </row>
-    <row customHeight="true" ht="94" r="46">
-      <c r="A46" s="12">
+    <row customHeight="true" ht="94" r="45">
+      <c r="A45" s="1">
         <v>422</v>
       </c>
-      <c r="B46" s="13" t="str">
+      <c r="B45" s="2" t="str">
         <v>因诺
 跟她们不一样，我很喜欢你对我的塑造。你是个善良的人，不该承受这些。
 因诺
@@ -2132,30 +2119,30 @@
 Options 
 421|422|423|999</v>
       </c>
-      <c r="C46" s="13" t="str">
+      <c r="C45" s="2" t="str">
         <v>喀戎之河</v>
       </c>
     </row>
-    <row customHeight="true" ht="87" r="47">
-      <c r="A47" s="12">
+    <row customHeight="true" ht="87" r="46">
+      <c r="A46" s="1">
         <v>423</v>
       </c>
-      <c r="B47" s="13" t="str">
+      <c r="B46" s="2" t="str">
         <v>因诺
 与利维坦的简单性格相对照的，是他坚硬无比的皮肤。
 因诺
 别西卜大人需要的食材必须特殊的工具才能获得，你需要去塔尔塔洛斯寻找那位地狱守卫，取得她的帮助。
 </v>
       </c>
-      <c r="C47" s="13" t="str">
+      <c r="C46" s="2" t="str">
         <v>喀戎之河</v>
       </c>
     </row>
-    <row customHeight="true" ht="295" r="48">
-      <c r="A48" s="12">
+    <row customHeight="true" ht="295" r="47">
+      <c r="A47" s="1">
         <v>4991</v>
       </c>
-      <c r="B48" s="13" t="str">
+      <c r="B47" s="2" t="str">
         <v>Null 
 一只巨大的鲸鱼出现在你面前。它的表面没有眼睛，身体上覆盖着厚厚的青苔。它不安的背鳍轻轻晃动着，黏稠厚重的河水慢慢浮现波纹。
 利维坦
@@ -2177,31 +2164,31 @@
 主角12
 虽然利维坦的个性温和，但毕竟是恶魔，他并没有比别人犯的罪恶更少。</v>
       </c>
-      <c r="C48" s="13" t="str">
+      <c r="C47" s="2" t="str">
         <v>喀戎之河
 出现条件：
 对应轮次：1；2；3</v>
       </c>
     </row>
-    <row customHeight="true" ht="85" r="49">
-      <c r="A49" s="12">
+    <row customHeight="true" ht="85" r="48">
+      <c r="A48" s="1">
         <v>4992</v>
       </c>
-      <c r="B49" s="13" t="str">
+      <c r="B48" s="2" t="str">
         <v>利维坦
 ......</v>
       </c>
-      <c r="C49" s="13" t="str">
+      <c r="C48" s="2" t="str">
         <v>喀戎之河
 出现条件：
 对应轮次：4；5；6；7</v>
       </c>
     </row>
-    <row customHeight="true" ht="349" r="50">
-      <c r="A50" s="32">
+    <row customHeight="true" ht="349" r="49">
+      <c r="A49" s="19">
         <v>510</v>
       </c>
-      <c r="B50" s="33" t="str">
+      <c r="B49" s="17" t="str">
         <v>Null 
 这里生长着大片水仙。这种冥河之花象征着死亡、自恋与重生——纳西索斯化作美丽的金光柔和地包裹着这个地方。
 Null
@@ -2227,17 +2214,17 @@
 Options 
 511|512|999</v>
       </c>
-      <c r="C50" s="34" t="str">
+      <c r="C49" s="18" t="str">
         <v>水仙花园
 出现条件：
 对应轮次：1；3；4；5；6；7</v>
       </c>
     </row>
-    <row customHeight="true" ht="369" r="51">
-      <c r="A51" s="32">
+    <row customHeight="true" ht="369" r="50">
+      <c r="A50" s="19">
         <v>520</v>
       </c>
-      <c r="B51" s="33" t="str">
+      <c r="B50" s="17" t="str">
         <v>Null 
 这里生长着大片水仙。这种冥河之花象征着死亡、自恋与重生——纳西索斯化作美丽的金光柔和地包裹着这个地方。
 Null
@@ -2263,17 +2250,17 @@
 Options 
 521|522|523|999</v>
       </c>
-      <c r="C51" s="34" t="str">
+      <c r="C50" s="18" t="str">
         <v>水仙花园
 出现条件：
 对应轮次：2</v>
       </c>
     </row>
-    <row customHeight="true" ht="365" r="52">
-      <c r="A52" s="32">
+    <row customHeight="true" ht="365" r="51">
+      <c r="A51" s="19">
         <v>530</v>
       </c>
-      <c r="B52" s="33" t="str">
+      <c r="B51" s="17" t="str">
         <v>Null 
 这里生长着大片水仙。这种冥河之花象征着死亡、自恋与重生——纳西索斯化作美丽的金光柔和地包裹着这个地方。
 Null
@@ -2299,18 +2286,18 @@
 Options 
 531|532|534|999</v>
       </c>
-      <c r="C52" s="34" t="str">
+      <c r="C51" s="18" t="str">
         <v>水仙花园
 出现条件：
 对应轮次：7
 触发过对话：823</v>
       </c>
     </row>
-    <row customHeight="true" ht="194" r="53">
-      <c r="A53" s="32">
+    <row customHeight="true" ht="194" r="52">
+      <c r="A52" s="19">
         <v>511</v>
       </c>
-      <c r="B53" s="33" t="str">
+      <c r="B52" s="17" t="str">
         <v>摸摸
 远在万魔殿建造之前，巴力曾经是古迦南普遍崇拜的风暴和丰饶之神。
 摸摸
@@ -2324,15 +2311,15 @@
 Options 
 511|512|999</v>
       </c>
-      <c r="C53" s="35" t="str">
+      <c r="C52" s="20" t="str">
         <v>水仙花园</v>
       </c>
     </row>
-    <row customHeight="true" ht="106" r="54">
-      <c r="A54" s="32">
+    <row customHeight="true" ht="106" r="53">
+      <c r="A53" s="19">
         <v>512</v>
       </c>
-      <c r="B54" s="33" t="str">
+      <c r="B53" s="17" t="str">
         <v>摸摸
 为什么要把我设计成全黑的角色我恨你你知道我有多讨厌黑色吗你根本不懂你才是这个游戏里最大的bug！！！
 摸摸
@@ -2340,15 +2327,15 @@
 Options 
 511|512|999</v>
       </c>
-      <c r="C54" s="35" t="str">
+      <c r="C53" s="20" t="str">
         <v>水仙花园</v>
       </c>
     </row>
-    <row customHeight="true" ht="195" r="55">
-      <c r="A55" s="32">
+    <row customHeight="true" ht="195" r="54">
+      <c r="A54" s="19">
         <v>521</v>
       </c>
-      <c r="B55" s="33" t="str">
+      <c r="B54" s="17" t="str">
         <v>摸摸
 远在万魔殿建造之前，巴力曾经是古迦南普遍崇拜的风暴和丰饶之神。
 摸摸
@@ -2362,15 +2349,15 @@
 Options 
 521|522|523|999</v>
       </c>
-      <c r="C55" s="35" t="str">
+      <c r="C54" s="20" t="str">
         <v>水仙花园</v>
       </c>
     </row>
-    <row customHeight="true" ht="107" r="56">
-      <c r="A56" s="32">
+    <row customHeight="true" ht="107" r="55">
+      <c r="A55" s="19">
         <v>522</v>
       </c>
-      <c r="B56" s="33" t="str">
+      <c r="B55" s="17" t="str">
         <v>摸摸
 为什么要把我设计成全黑的角色我恨你你知道我有多讨厌黑色吗你根本不懂你才是这个游戏里最大的bug！！！
 摸摸
@@ -2378,28 +2365,28 @@
 Options 
 521|522|523|999</v>
       </c>
-      <c r="C56" s="35" t="str">
+      <c r="C55" s="20" t="str">
         <v>水仙花园</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="32">
+    <row r="56">
+      <c r="A56" s="19">
         <v>523</v>
       </c>
-      <c r="B57" s="33" t="str">
+      <c r="B56" s="17" t="str">
         <v>摸摸
 在巴力处获取的食材需要特殊的容器才能储存，你可以在喀戎河畔找到你所需要的物品。</v>
       </c>
-      <c r="C57" s="36" t="str">
+      <c r="C56" s="21" t="str">
         <v>水仙花园
 然后可以在河流出点击拾取地上的物品</v>
       </c>
     </row>
-    <row customHeight="true" ht="198" r="58">
-      <c r="A58" s="32">
+    <row customHeight="true" ht="198" r="57">
+      <c r="A57" s="19">
         <v>531</v>
       </c>
-      <c r="B58" s="33" t="str">
+      <c r="B57" s="17" t="str">
         <v>摸摸
 远在万魔殿建造之前，巴力曾经是古迦南普遍崇拜的风暴和丰饶之神。
 摸摸
@@ -2413,15 +2400,15 @@
 Options 
 531|532|534|999</v>
       </c>
-      <c r="C58" s="35" t="str">
+      <c r="C57" s="20" t="str">
         <v>水仙花园</v>
       </c>
     </row>
-    <row customHeight="true" ht="101" r="59">
-      <c r="A59" s="32">
+    <row customHeight="true" ht="101" r="58">
+      <c r="A58" s="19">
         <v>532</v>
       </c>
-      <c r="B59" s="33" t="str">
+      <c r="B58" s="17" t="str">
         <v>摸摸
 为什么要把我设计成全黑的角色我恨你你知道我有多讨厌黑色吗你根本不懂你才是这个游戏里最大的bug！！！
 摸摸
@@ -2429,28 +2416,28 @@
 Options 
 531|532|534|999</v>
       </c>
-      <c r="C59" s="35" t="str">
+      <c r="C58" s="20" t="str">
         <v>水仙花园</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="32">
+    <row r="59">
+      <c r="A59" s="19">
         <v>534</v>
       </c>
-      <c r="B60" s="33" t="str">
+      <c r="B59" s="17" t="str">
         <v>摸摸
 噢……你指的是这把金十字镐。用这个对付玛门再合适不过。</v>
       </c>
-      <c r="C60" s="35" t="str">
+      <c r="C59" s="20" t="str">
         <v>水仙花园
 玩家物品栏增加金十字镐</v>
       </c>
     </row>
-    <row customHeight="true" ht="316" r="61">
-      <c r="A61" s="32">
+    <row customHeight="true" ht="316" r="60">
+      <c r="A60" s="19">
         <v>5991</v>
       </c>
-      <c r="B61" s="33" t="str">
+      <c r="B60" s="17" t="str">
         <v>巴力
 你好，戴着白色厨师帽的女孩。
 主角2
@@ -2472,31 +2459,31 @@
 巴力
 至于他所想取的食材……这些伤口对地狱的恶魔不算什么。动手吧，戴厨师帽的女孩。</v>
       </c>
-      <c r="C61" s="35" t="str">
+      <c r="C60" s="20" t="str">
         <v>水仙花园
 出现条件：
 对应轮次：1；2</v>
       </c>
     </row>
-    <row customHeight="true" ht="76" r="62">
-      <c r="A62" s="32">
+    <row customHeight="true" ht="76" r="61">
+      <c r="A61" s="19">
         <v>5992</v>
       </c>
-      <c r="B62" s="33" t="str">
+      <c r="B61" s="17" t="str">
         <v>巴力
 ......</v>
       </c>
-      <c r="C62" s="34" t="str">
+      <c r="C61" s="18" t="str">
         <v>水仙花园
 出现条件：
 对应轮次：3；4；5；6；7</v>
       </c>
     </row>
-    <row customHeight="true" ht="306" r="63">
-      <c r="A63" s="26">
+    <row customHeight="true" ht="306" r="62">
+      <c r="A62" s="13">
         <v>610</v>
       </c>
-      <c r="B63" s="27" t="str">
+      <c r="B62" s="14" t="str">
         <v>Null 
 如牛奶般甘美的泉水在灰暗的密林里流淌。
 Null
@@ -2518,17 +2505,17 @@
 Options 
 611|612|999</v>
       </c>
-      <c r="C63" s="28" t="str">
+      <c r="C62" s="15" t="str">
         <v>亡灵饮水地
 出现条件：
 对应轮次：1；2；3；4；6；7</v>
       </c>
     </row>
-    <row customHeight="true" ht="306" r="64">
-      <c r="A64" s="26">
+    <row customHeight="true" ht="306" r="63">
+      <c r="A63" s="13">
         <v>620</v>
       </c>
-      <c r="B64" s="27" t="str">
+      <c r="B63" s="14" t="str">
         <v>Null 
 如牛奶般甘美的泉水在灰暗的密林里流淌。
 Null
@@ -2550,17 +2537,17 @@
 Options 
 621|622|623|999</v>
       </c>
-      <c r="C64" s="28" t="str">
+      <c r="C63" s="15" t="str">
         <v>亡灵饮水地
 出现条件：
 对应轮次：5</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="26">
+    <row r="64">
+      <c r="A64" s="13">
         <v>611</v>
       </c>
-      <c r="B65" s="27" t="str">
+      <c r="B64" s="14" t="str">
         <v>牙牙乐
 她被认作是怠惰的化身，通过财富、懒惰和发明来诱惑人类。
 牙牙乐
@@ -2576,15 +2563,15 @@
 Options 
 611|612|999</v>
       </c>
-      <c r="C65" s="28" t="str">
+      <c r="C64" s="15" t="str">
         <v>亡灵饮水地</v>
       </c>
     </row>
-    <row customHeight="true" ht="92" r="66">
-      <c r="A66" s="26">
+    <row customHeight="true" ht="92" r="65">
+      <c r="A65" s="13">
         <v>612</v>
       </c>
-      <c r="B66" s="27" t="str">
+      <c r="B65" s="14" t="str">
         <v>牙牙乐
 亲爱的，实际上，我们都知道你是谁……
 牙牙乐
@@ -2592,15 +2579,15 @@
 Options 
 611|612|999</v>
       </c>
-      <c r="C66" s="28" t="str">
+      <c r="C65" s="15" t="str">
         <v>亡灵饮水地</v>
       </c>
     </row>
-    <row customHeight="true" ht="195" r="67">
-      <c r="A67" s="26">
+    <row customHeight="true" ht="195" r="66">
+      <c r="A66" s="13">
         <v>621</v>
       </c>
-      <c r="B67" s="27" t="str">
+      <c r="B66" s="14" t="str">
         <v>牙牙乐
 她被认作是怠惰的化身，通过财富、懒惰和发明来诱惑人类。
 牙牙乐
@@ -2616,15 +2603,15 @@
 Options 
 621|622|623|999</v>
       </c>
-      <c r="C67" s="28" t="str">
+      <c r="C66" s="15" t="str">
         <v>亡灵饮水地</v>
       </c>
     </row>
-    <row customHeight="true" ht="95" r="68">
-      <c r="A68" s="26">
+    <row customHeight="true" ht="95" r="67">
+      <c r="A67" s="13">
         <v>622</v>
       </c>
-      <c r="B68" s="27" t="str">
+      <c r="B67" s="14" t="str">
         <v>牙牙乐
 亲爱的，实际上，我们都知道你是谁……
 牙牙乐
@@ -2632,29 +2619,29 @@
 Options 
 621|622|623|999</v>
       </c>
-      <c r="C68" s="28" t="str">
+      <c r="C67" s="15" t="str">
         <v>亡灵饮水地</v>
       </c>
     </row>
-    <row customHeight="true" ht="76" r="69">
-      <c r="A69" s="26">
+    <row customHeight="true" ht="76" r="68">
+      <c r="A68" s="13">
         <v>623</v>
       </c>
-      <c r="B69" s="27" t="str">
+      <c r="B68" s="14" t="str">
         <v>牙牙乐
 没有人知道这次的祭品究竟是不是人类的排泄物。
 牙牙乐
 以防万一，我想你可以去冥府侧殿的侍女处找到合适的容器来盛装。</v>
       </c>
-      <c r="C69" s="28" t="str">
+      <c r="C68" s="15" t="str">
         <v>亡灵饮水地</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="26">
+    <row r="69">
+      <c r="A69" s="13">
         <v>6991</v>
       </c>
-      <c r="B70" s="27" t="str">
+      <c r="B69" s="14" t="str">
         <v>贝尔芬格
 ……
 主角1
@@ -2672,31 +2659,31 @@
 主角12
 看来我自己去获取祭品就好。</v>
       </c>
-      <c r="C70" s="28" t="str">
+      <c r="C69" s="15" t="str">
         <v>亡灵饮水地
 出现条件：
 对应轮次：1；2；3；4；5</v>
       </c>
     </row>
-    <row customHeight="true" ht="78" r="71">
-      <c r="A71" s="26">
+    <row customHeight="true" ht="78" r="70">
+      <c r="A70" s="13">
         <v>6992</v>
       </c>
-      <c r="B71" s="27" t="str">
+      <c r="B70" s="14" t="str">
         <v>贝尔芬格
 ......</v>
       </c>
-      <c r="C71" s="28" t="str">
+      <c r="C70" s="15" t="str">
         <v>亡灵饮水地
 出现条件：
 对应轮次：6；7</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="16">
+    <row r="71">
+      <c r="A71" s="24">
         <v>710</v>
       </c>
-      <c r="B72" s="31" t="str">
+      <c r="B71" s="27" t="str">
         <v>Null 
 某位魔王用金子打造了这座殿堂：从天花板、吊灯到桌椅、碗碟甚至侍女的面纱，都散发着黄金令人迷醉的香气。
 Null
@@ -2715,17 +2702,17 @@
 711|712|999
 </v>
       </c>
-      <c r="C72" s="18" t="str">
+      <c r="C71" s="26" t="str">
         <v>冥府侧殿
 出现条件：
 对应轮次：1；2；3；4；5；6</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="16">
+    <row r="72">
+      <c r="A72" s="24">
         <v>720</v>
       </c>
-      <c r="B73" s="31" t="str">
+      <c r="B72" s="27" t="str">
         <v>Null 
 某位魔王用金子打造了这座殿堂：从天花板、吊灯到桌椅、碗碟甚至侍女的面纱，都散发着黄金令人迷醉的香气。
 Null
@@ -2743,17 +2730,17 @@
 Options 
 721|722|723|999</v>
       </c>
-      <c r="C73" s="18" t="str">
+      <c r="C72" s="26" t="str">
         <v>冥府侧殿
 出现条件：
 对应轮次：7</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="16">
+    <row r="73">
+      <c r="A73" s="24">
         <v>730</v>
       </c>
-      <c r="B74" s="31" t="str">
+      <c r="B73" s="27" t="str">
         <v>Null 
 某位魔王用金子打造了这座殿堂：从天花板、吊灯到桌椅、碗碟甚至侍女的面纱，都散发着黄金令人迷醉的香气。
 Null
@@ -2771,18 +2758,18 @@
 Options 
 731|732|734|999</v>
       </c>
-      <c r="C74" s="18" t="str">
+      <c r="C73" s="26" t="str">
         <v>冥府侧殿
 出现条件：
 对应轮次：5
 触发过对话：623</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="16">
+    <row r="74">
+      <c r="A74" s="24">
         <v>711</v>
       </c>
-      <c r="B75" s="31" t="str">
+      <c r="B74" s="27" t="str">
         <v>小葵
 即使在天堂时，他的眼睛也总是向下凝视着天堂黄金铺就的地板。
 小葵
@@ -2794,15 +2781,15 @@
 Options 
 711|712|999</v>
       </c>
-      <c r="C75" s="18" t="str">
+      <c r="C74" s="26" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="16">
+    <row r="75">
+      <c r="A75" s="24">
         <v>712</v>
       </c>
-      <c r="B76" s="17" t="str">
+      <c r="B75" s="25" t="str">
         <v>小葵
 你有没有发现……这个地方开始出现故障了？
 小葵
@@ -2810,15 +2797,15 @@
 Options 
 711|712|999</v>
       </c>
-      <c r="C76" s="18" t="str">
+      <c r="C75" s="26" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
-    <row customHeight="true" ht="160" r="77">
-      <c r="A77" s="16">
+    <row customHeight="true" ht="160" r="76">
+      <c r="A76" s="24">
         <v>721</v>
       </c>
-      <c r="B77" s="31" t="str">
+      <c r="B76" s="27" t="str">
         <v>小小葵
 即使在天堂时，他的眼睛也总是向下凝视着天堂黄金铺就的地板。
 小葵
@@ -2830,15 +2817,15 @@
 Options 
 721|722|723|999</v>
       </c>
-      <c r="C77" s="18" t="str">
+      <c r="C76" s="26" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
-    <row customHeight="true" ht="85" r="78">
-      <c r="A78" s="16">
+    <row customHeight="true" ht="85" r="77">
+      <c r="A77" s="24">
         <v>722</v>
       </c>
-      <c r="B78" s="17" t="str">
+      <c r="B77" s="25" t="str">
         <v>小葵
 你有没有发现……这个地方开始出现故障了？
 小葵
@@ -2846,29 +2833,29 @@
 Options 
 721|722|723|999</v>
       </c>
-      <c r="C78" s="18" t="str">
+      <c r="C77" s="26" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="16">
+    <row r="78">
+      <c r="A78" s="24">
         <v>723</v>
       </c>
-      <c r="B79" s="31" t="str">
+      <c r="B78" s="27" t="str">
         <v>小葵
 此刻他正在沉睡。即使在睡梦中，玛门也要与黄金同眠。
 小葵
 我想你需要去找水仙花园的冥府园丁，借助某个工具才能将他从黄金堆里找出。</v>
       </c>
-      <c r="C79" s="18" t="str">
+      <c r="C78" s="26" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
-    <row customHeight="true" ht="161" r="80">
-      <c r="A80" s="16">
+    <row customHeight="true" ht="161" r="79">
+      <c r="A79" s="24">
         <v>731</v>
       </c>
-      <c r="B80" s="31" t="str">
+      <c r="B79" s="27" t="str">
         <v>小葵
 即使在天堂时，他的眼睛也总是向下凝视着天堂黄金铺就的地板。
 小葵
@@ -2880,15 +2867,15 @@
 Options 
 731|732|734|999</v>
       </c>
-      <c r="C80" s="18" t="str">
+      <c r="C79" s="26" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
-    <row customHeight="true" ht="95" r="81">
-      <c r="A81" s="16">
+    <row customHeight="true" ht="95" r="80">
+      <c r="A80" s="24">
         <v>732</v>
       </c>
-      <c r="B81" s="17" t="str">
+      <c r="B80" s="25" t="str">
         <v>小葵
 你有没有发现……这个地方开始出现故障了？
 小葵
@@ -2896,28 +2883,28 @@
 Options 
 731|732|734|999</v>
       </c>
-      <c r="C81" s="18" t="str">
+      <c r="C80" s="26" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="16">
+    <row r="81">
+      <c r="A81" s="24">
         <v>734</v>
       </c>
-      <c r="B82" s="17" t="str">
+      <c r="B81" s="25" t="str">
         <v>小葵
 啊！我想你需要的是这个狮鹫夜壶。</v>
       </c>
-      <c r="C82" s="18" t="str">
+      <c r="C81" s="26" t="str">
         <v>冥府侧殿
 玩家道具栏新增狮鹫夜壶</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="16">
+    <row r="82">
+      <c r="A82" s="24">
         <v>7991</v>
       </c>
-      <c r="B83" s="17" t="str">
+      <c r="B82" s="25" t="str">
         <v>玛门
 没有一个瞬间，不会成为地狱的进口。没有一个瞬间，不会成为天堂的流水。
 玛门
@@ -2929,17 +2916,17 @@
 主角3
 人设还真是始终如一地不ooc呢……</v>
       </c>
-      <c r="C83" s="18" t="str">
+      <c r="C82" s="26" t="str">
         <v>冥府侧殿
 出现条件：
 对应轮次：1；2；3；4；5；6；7</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="19">
+    <row r="83">
+      <c r="A83" s="33">
         <v>810</v>
       </c>
-      <c r="B84" s="20" t="str">
+      <c r="B83" s="34" t="str">
         <v>Null 
 宇宙诞生时遗留的最后一处混沌之地，现在只能看到漫天沙砾。
 Null
@@ -2961,17 +2948,17 @@
 Options 
 811|812|999</v>
       </c>
-      <c r="C84" s="21" t="str">
+      <c r="C83" s="35" t="str">
         <v>混沌之地
 出现条件
 对应轮次：1；2；3；4；5；7</v>
       </c>
     </row>
-    <row customHeight="true" ht="315" r="85">
-      <c r="A85" s="19">
+    <row customHeight="true" ht="315" r="84">
+      <c r="A84" s="33">
         <v>820</v>
       </c>
-      <c r="B85" s="20" t="str">
+      <c r="B84" s="34" t="str">
         <v>Null 
 宇宙诞生时遗留的最后一处混沌之地，现在只能看到漫天沙砾。
 Null
@@ -2993,17 +2980,17 @@
 Options 
 821|822|823|999</v>
       </c>
-      <c r="C85" s="21" t="str">
+      <c r="C84" s="35" t="str">
         <v>混沌之地
 出现条件
 对应轮次：6</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="19">
+    <row r="85">
+      <c r="A85" s="33">
         <v>830</v>
       </c>
-      <c r="B86" s="20" t="str">
+      <c r="B85" s="34" t="str">
         <v>Null 
 宇宙诞生时遗留的最后一处混沌之地，现在只能看到漫天沙砾。
 Null
@@ -3025,18 +3012,18 @@
 Options 
 831|832|834|999</v>
       </c>
-      <c r="C86" s="21" t="str">
+      <c r="C85" s="35" t="str">
         <v>混沌之地
 出现条件
 对应轮次：4
 触发过对话：323</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="19">
+    <row r="86">
+      <c r="A86" s="33">
         <v>811</v>
       </c>
-      <c r="B87" s="20" t="str">
+      <c r="B86" s="34" t="str">
         <v>蓝七
 直至今日，撒旦依然在凡间享有远超于其他恶魔的名声。人类用她的名讳代指恶魔，将其描述为或阴险邪恶的象征。
 蓝七
@@ -3048,15 +3035,15 @@
 Options 
 811|812|999</v>
       </c>
-      <c r="C87" s="21" t="str">
+      <c r="C86" s="35" t="str">
         <v>混沌之地</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="19">
+    <row r="87">
+      <c r="A87" s="33">
         <v>812</v>
       </c>
-      <c r="B88" s="20" t="str">
+      <c r="B87" s="34" t="str">
         <v>蓝七
 这里并不是你所想象的那样！唯一的方法是&amp;%￥#@！*%￥……&amp;*？%￥#
 蓝七
@@ -3064,15 +3051,15 @@
 Options 
 811|812|999</v>
       </c>
-      <c r="C88" s="21" t="str">
+      <c r="C87" s="35" t="str">
         <v>混沌之地</v>
       </c>
     </row>
-    <row customHeight="true" ht="186" r="89">
-      <c r="A89" s="19">
+    <row customHeight="true" ht="186" r="88">
+      <c r="A88" s="33">
         <v>821</v>
       </c>
-      <c r="B89" s="20" t="str">
+      <c r="B88" s="34" t="str">
         <v>蓝七
 直至今日，撒旦依然在凡间享有远超于其他恶魔的名声。人类用她的名讳代指恶魔，将其描述为或阴险邪恶的象征。
 蓝七
@@ -3084,15 +3071,15 @@
 Options 
 821|822|823|999</v>
       </c>
-      <c r="C89" s="21" t="str">
+      <c r="C88" s="35" t="str">
         <v>混沌之地</v>
       </c>
     </row>
-    <row customHeight="true" ht="96" r="90">
-      <c r="A90" s="19">
+    <row customHeight="true" ht="96" r="89">
+      <c r="A89" s="33">
         <v>822</v>
       </c>
-      <c r="B90" s="20" t="str">
+      <c r="B89" s="34" t="str">
         <v>蓝七
 这里并不是你所想象的那样！唯一的方法是&amp;%￥#@！*%￥……&amp;*？%￥#
 蓝七
@@ -3100,28 +3087,28 @@
 Options 
 821|822|823|999</v>
       </c>
-      <c r="C90" s="21" t="str">
+      <c r="C89" s="35" t="str">
         <v>混沌之地</v>
       </c>
     </row>
-    <row customHeight="true" ht="54" r="91">
-      <c r="A91" s="19">
+    <row customHeight="true" ht="54" r="90">
+      <c r="A90" s="33">
         <v>823</v>
       </c>
-      <c r="B91" s="20" t="str">
+      <c r="B90" s="34" t="str">
         <v>蓝七
 从撒旦身上获取的食材需要特殊的容器才能储存，你可以在亡灵饮水地找到你所需要的物品。</v>
       </c>
-      <c r="C91" s="22" t="str">
+      <c r="C90" s="36" t="str">
         <v>混沌之地
-亡灵饮水地出现乌洛波洛斯之盘可以拾取</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="185" r="92">
-      <c r="A92" s="19">
+乌洛波洛斯之盘自行拾取</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="185" r="91">
+      <c r="A91" s="33">
         <v>831</v>
       </c>
-      <c r="B92" s="20" t="str">
+      <c r="B91" s="34" t="str">
         <v>蓝七
 直至今日，撒旦依然在凡间享有远超于其他恶魔的名声。人类用她的名讳代指恶魔，将其描述为或阴险邪恶的象征。
 蓝七
@@ -3133,15 +3120,15 @@
 Options 
 831|832|834|999</v>
       </c>
-      <c r="C92" s="21" t="str">
+      <c r="C91" s="35" t="str">
         <v>混沌之地</v>
       </c>
     </row>
-    <row customHeight="true" ht="105" r="93">
-      <c r="A93" s="19">
+    <row customHeight="true" ht="105" r="92">
+      <c r="A92" s="33">
         <v>832</v>
       </c>
-      <c r="B93" s="20" t="str">
+      <c r="B92" s="34" t="str">
         <v>蓝七
 这里并不是你所想象的那样！唯一的方法是&amp;%￥#@！*%￥……&amp;*？%￥#
 蓝七
@@ -3149,28 +3136,28 @@
 Options 
 831|832|834|999</v>
       </c>
-      <c r="C93" s="21" t="str">
+      <c r="C92" s="35" t="str">
         <v>混沌之地</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="19">
+    <row r="93">
+      <c r="A93" s="33">
         <v>834</v>
       </c>
-      <c r="B94" s="20" t="str">
+      <c r="B93" s="34" t="str">
         <v>蓝七
 啊！我想你需要厄洛斯之香。即使是再强大的恶魔，它也能使其陷入沉睡。</v>
       </c>
-      <c r="C94" s="21" t="str">
+      <c r="C93" s="35" t="str">
         <v>混沌之地
 玩家道具栏增加厄洛斯之香</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="19">
+    <row r="94">
+      <c r="A94" s="33">
         <v>8991</v>
       </c>
-      <c r="B95" s="20" t="str">
+      <c r="B94" s="34" t="str">
         <v>撒旦
 我一直在看着你，女孩。
 撒旦
@@ -3184,43 +3171,43 @@
 撒旦
 既然别西卜想要，我就不为难你了。不必怜惜我，我不会感到疼痛……</v>
       </c>
-      <c r="C95" s="21" t="str">
+      <c r="C94" s="35" t="str">
         <v>混沌之地
 出现条件
 对应轮次：1；2；3；4；5；6</v>
       </c>
     </row>
-    <row customHeight="true" ht="68" r="96">
-      <c r="A96" s="19">
+    <row customHeight="true" ht="68" r="95">
+      <c r="A95" s="33">
         <v>8992</v>
       </c>
-      <c r="B96" s="20" t="str">
+      <c r="B95" s="34" t="str">
         <v>撒旦
 ......</v>
       </c>
-      <c r="C96" s="21" t="str">
+      <c r="C95" s="35" t="str">
         <v>混沌之地
 出现条件
 对应轮次：7</v>
       </c>
     </row>
-    <row customHeight="true" ht="81" r="97">
-      <c r="A97" s="5">
+    <row customHeight="true" ht="81" r="96">
+      <c r="A96" s="10">
         <v>910</v>
       </c>
-      <c r="B97" s="3" t="str">
+      <c r="B96" s="11" t="str">
         <v>Narrator
 你做出了连恶魔都难以下咽的食物……
 Narrator
 别西卜非常恼怒，将你投喂给了利维坦</v>
       </c>
-      <c r="C97" s="4"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="5">
+      <c r="C96" s="12"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="10">
         <v>920</v>
       </c>
-      <c r="B98" s="3" t="str">
+      <c r="B97" s="11" t="str">
         <v>因诺
 不知道现在告诉你这些会不会太晚了……
 因诺
@@ -3232,17 +3219,17 @@
 Options 
 921|922</v>
       </c>
-      <c r="C98" s="9" t="str">
+      <c r="C97" s="16" t="str">
         <v>第六道菜结束后（别西卜发布任务后）弹出的对话
 选项921-进入逃离失败结局部分
 选项922-进入第七轮次的白日地图</v>
       </c>
     </row>
-    <row customHeight="true" ht="735" r="99">
-      <c r="A99" s="5">
+    <row customHeight="true" ht="735" r="98">
+      <c r="A98" s="10">
         <v>930</v>
       </c>
-      <c r="B99" s="3" t="str">
+      <c r="B98" s="11" t="str">
         <v>Narrator
 你以为你成功了吗？
 Narrator
@@ -3294,17 +3281,17 @@
 Null
 亲爱的，我们游戏主界面见。</v>
       </c>
-      <c r="C99" s="4" t="str">
+      <c r="C98" s="12" t="str">
         <v>真结局文本内容
 做完第七道菜并且评分通过后触发
 </v>
       </c>
     </row>
-    <row customHeight="true" ht="148" r="100">
-      <c r="A100" s="5">
+    <row customHeight="true" ht="148" r="99">
+      <c r="A99" s="10">
         <v>921</v>
       </c>
-      <c r="B100" s="3" t="str">
+      <c r="B99" s="11" t="str">
         <v>Narrator
 多么天真可爱、盲目轻信的小女孩……
 Narrator
@@ -3316,832 +3303,832 @@
 Narrator
 在更高的维度，我们始终掌控着你的命运……</v>
       </c>
-      <c r="C100" s="4"/>
+      <c r="C99" s="12"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="9"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="5"/>
     </row>
     <row r="101">
-      <c r="A101" s="10"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="8"/>
+      <c r="A101" s="3"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="5"/>
     </row>
     <row r="102">
-      <c r="A102" s="6"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="8"/>
+      <c r="A102" s="3"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="5"/>
     </row>
     <row r="103">
-      <c r="A103" s="6"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="8"/>
+      <c r="A103" s="3"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="5"/>
     </row>
     <row r="104">
-      <c r="A104" s="6"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="8"/>
+      <c r="A104" s="3"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="5"/>
     </row>
     <row r="105">
-      <c r="A105" s="6"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="8"/>
+      <c r="A105" s="3"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="5"/>
     </row>
     <row r="106">
-      <c r="A106" s="6"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="8"/>
+      <c r="A106" s="3"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="5"/>
     </row>
     <row r="107">
-      <c r="A107" s="6"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="8"/>
+      <c r="A107" s="3"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="5"/>
     </row>
     <row r="108">
-      <c r="A108" s="6"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="8"/>
+      <c r="A108" s="3"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="5"/>
     </row>
     <row r="109">
-      <c r="A109" s="6"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="8"/>
+      <c r="A109" s="3"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="5"/>
     </row>
     <row r="110">
-      <c r="A110" s="6"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="8"/>
+      <c r="A110" s="3"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="5"/>
     </row>
     <row r="111">
-      <c r="A111" s="6"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="8"/>
+      <c r="A111" s="3"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="5"/>
     </row>
     <row r="112">
-      <c r="A112" s="6"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="8"/>
+      <c r="A112" s="3"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="5"/>
     </row>
     <row r="113">
-      <c r="A113" s="6"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="8"/>
+      <c r="A113" s="3"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="5"/>
     </row>
     <row r="114">
-      <c r="A114" s="6"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="8"/>
+      <c r="A114" s="3"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="5"/>
     </row>
     <row r="115">
-      <c r="A115" s="6"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="8"/>
+      <c r="A115" s="3"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="5"/>
     </row>
     <row r="116">
-      <c r="A116" s="6"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="8"/>
+      <c r="A116" s="3"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="5"/>
     </row>
     <row r="117">
-      <c r="A117" s="6"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="8"/>
+      <c r="A117" s="3"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="5"/>
     </row>
     <row r="118">
-      <c r="A118" s="6"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="8"/>
+      <c r="A118" s="3"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="5"/>
     </row>
     <row r="119">
-      <c r="A119" s="6"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="8"/>
+      <c r="A119" s="3"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="5"/>
     </row>
     <row r="120">
-      <c r="A120" s="6"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="8"/>
+      <c r="A120" s="3"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="5"/>
     </row>
     <row r="121">
-      <c r="A121" s="6"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="8"/>
+      <c r="A121" s="3"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="5"/>
     </row>
     <row r="122">
-      <c r="A122" s="6"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="8"/>
+      <c r="A122" s="3"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="5"/>
     </row>
     <row r="123">
-      <c r="A123" s="6"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="8"/>
+      <c r="A123" s="3"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="5"/>
     </row>
     <row r="124">
-      <c r="A124" s="6"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="8"/>
+      <c r="A124" s="3"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="5"/>
     </row>
     <row r="125">
-      <c r="A125" s="6"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="8"/>
+      <c r="A125" s="3"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="5"/>
     </row>
     <row r="126">
-      <c r="A126" s="6"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="8"/>
+      <c r="A126" s="3"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="5"/>
     </row>
     <row r="127">
-      <c r="A127" s="6"/>
-      <c r="B127" s="7"/>
-      <c r="C127" s="8"/>
+      <c r="A127" s="3"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="5"/>
     </row>
     <row r="128">
-      <c r="A128" s="6"/>
-      <c r="B128" s="7"/>
-      <c r="C128" s="8"/>
+      <c r="A128" s="3"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="5"/>
     </row>
     <row r="129">
-      <c r="A129" s="6"/>
-      <c r="B129" s="7"/>
-      <c r="C129" s="8"/>
+      <c r="A129" s="3"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="5"/>
     </row>
     <row r="130">
-      <c r="A130" s="6"/>
-      <c r="B130" s="7"/>
-      <c r="C130" s="8"/>
+      <c r="A130" s="3"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="5"/>
     </row>
     <row r="131">
-      <c r="A131" s="6"/>
-      <c r="B131" s="7"/>
-      <c r="C131" s="8"/>
+      <c r="A131" s="3"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="5"/>
     </row>
     <row r="132">
-      <c r="A132" s="6"/>
-      <c r="B132" s="7"/>
-      <c r="C132" s="8"/>
+      <c r="A132" s="3"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="5"/>
     </row>
     <row r="133">
-      <c r="A133" s="6"/>
-      <c r="B133" s="7"/>
-      <c r="C133" s="8"/>
+      <c r="A133" s="3"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="5"/>
     </row>
     <row r="134">
-      <c r="A134" s="6"/>
-      <c r="B134" s="7"/>
-      <c r="C134" s="8"/>
+      <c r="A134" s="3"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="5"/>
     </row>
     <row r="135">
-      <c r="A135" s="6"/>
-      <c r="B135" s="7"/>
-      <c r="C135" s="8"/>
+      <c r="A135" s="3"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="5"/>
     </row>
     <row r="136">
-      <c r="A136" s="6"/>
-      <c r="B136" s="7"/>
-      <c r="C136" s="8"/>
+      <c r="A136" s="3"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="5"/>
     </row>
     <row r="137">
-      <c r="A137" s="6"/>
-      <c r="B137" s="7"/>
-      <c r="C137" s="8"/>
+      <c r="A137" s="3"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="5"/>
     </row>
     <row r="138">
-      <c r="A138" s="6"/>
-      <c r="B138" s="7"/>
-      <c r="C138" s="8"/>
+      <c r="A138" s="3"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="5"/>
     </row>
     <row r="139">
-      <c r="A139" s="6"/>
-      <c r="B139" s="7"/>
-      <c r="C139" s="8"/>
+      <c r="A139" s="3"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="5"/>
     </row>
     <row r="140">
-      <c r="A140" s="6"/>
-      <c r="B140" s="7"/>
-      <c r="C140" s="8"/>
+      <c r="A140" s="3"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="5"/>
     </row>
     <row r="141">
-      <c r="A141" s="6"/>
-      <c r="B141" s="7"/>
-      <c r="C141" s="8"/>
+      <c r="A141" s="3"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="5"/>
     </row>
     <row r="142">
-      <c r="A142" s="6"/>
-      <c r="B142" s="7"/>
-      <c r="C142" s="8"/>
+      <c r="A142" s="3"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="5"/>
     </row>
     <row r="143">
-      <c r="A143" s="6"/>
-      <c r="B143" s="7"/>
-      <c r="C143" s="8"/>
+      <c r="A143" s="3"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="5"/>
     </row>
     <row r="144">
-      <c r="A144" s="6"/>
-      <c r="B144" s="7"/>
-      <c r="C144" s="8"/>
+      <c r="A144" s="3"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="5"/>
     </row>
     <row r="145">
-      <c r="A145" s="6"/>
-      <c r="B145" s="7"/>
-      <c r="C145" s="8"/>
+      <c r="A145" s="3"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="5"/>
     </row>
     <row r="146">
-      <c r="A146" s="6"/>
-      <c r="B146" s="7"/>
-      <c r="C146" s="8"/>
+      <c r="A146" s="3"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="5"/>
     </row>
     <row r="147">
-      <c r="A147" s="6"/>
-      <c r="B147" s="7"/>
-      <c r="C147" s="8"/>
+      <c r="A147" s="3"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="5"/>
     </row>
     <row r="148">
-      <c r="A148" s="6"/>
-      <c r="B148" s="7"/>
-      <c r="C148" s="8"/>
+      <c r="A148" s="3"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="5"/>
     </row>
     <row r="149">
-      <c r="A149" s="6"/>
-      <c r="B149" s="7"/>
-      <c r="C149" s="8"/>
+      <c r="A149" s="3"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="5"/>
     </row>
     <row r="150">
-      <c r="A150" s="6"/>
-      <c r="B150" s="7"/>
-      <c r="C150" s="8"/>
+      <c r="A150" s="3"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="5"/>
     </row>
     <row r="151">
-      <c r="A151" s="6"/>
-      <c r="B151" s="7"/>
-      <c r="C151" s="8"/>
+      <c r="A151" s="3"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="5"/>
     </row>
     <row r="152">
-      <c r="A152" s="6"/>
-      <c r="B152" s="7"/>
-      <c r="C152" s="8"/>
+      <c r="A152" s="3"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="5"/>
     </row>
     <row r="153">
-      <c r="A153" s="6"/>
-      <c r="B153" s="7"/>
-      <c r="C153" s="8"/>
+      <c r="A153" s="3"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="5"/>
     </row>
     <row r="154">
-      <c r="A154" s="6"/>
-      <c r="B154" s="7"/>
-      <c r="C154" s="8"/>
+      <c r="A154" s="3"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="5"/>
     </row>
     <row r="155">
-      <c r="A155" s="6"/>
-      <c r="B155" s="7"/>
-      <c r="C155" s="8"/>
+      <c r="A155" s="3"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="5"/>
     </row>
     <row r="156">
-      <c r="A156" s="6"/>
-      <c r="B156" s="7"/>
-      <c r="C156" s="8"/>
+      <c r="A156" s="3"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="5"/>
     </row>
     <row r="157">
-      <c r="A157" s="6"/>
-      <c r="B157" s="7"/>
-      <c r="C157" s="8"/>
+      <c r="A157" s="3"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="5"/>
     </row>
     <row r="158">
-      <c r="A158" s="6"/>
-      <c r="B158" s="7"/>
-      <c r="C158" s="8"/>
+      <c r="A158" s="3"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="5"/>
     </row>
     <row r="159">
-      <c r="A159" s="6"/>
-      <c r="B159" s="7"/>
-      <c r="C159" s="8"/>
+      <c r="A159" s="3"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="5"/>
     </row>
     <row r="160">
-      <c r="A160" s="6"/>
-      <c r="B160" s="7"/>
-      <c r="C160" s="8"/>
+      <c r="A160" s="3"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="5"/>
     </row>
     <row r="161">
-      <c r="A161" s="6"/>
-      <c r="B161" s="7"/>
-      <c r="C161" s="8"/>
+      <c r="A161" s="3"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="5"/>
     </row>
     <row r="162">
-      <c r="A162" s="6"/>
-      <c r="B162" s="7"/>
-      <c r="C162" s="8"/>
+      <c r="A162" s="3"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="5"/>
     </row>
     <row r="163">
-      <c r="A163" s="6"/>
-      <c r="B163" s="7"/>
-      <c r="C163" s="8"/>
+      <c r="A163" s="3"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="5"/>
     </row>
     <row r="164">
-      <c r="A164" s="6"/>
-      <c r="B164" s="7"/>
-      <c r="C164" s="8"/>
+      <c r="A164" s="3"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="5"/>
     </row>
     <row r="165">
-      <c r="A165" s="6"/>
-      <c r="B165" s="7"/>
-      <c r="C165" s="8"/>
+      <c r="A165" s="3"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="5"/>
     </row>
     <row r="166">
-      <c r="A166" s="6"/>
-      <c r="B166" s="7"/>
-      <c r="C166" s="8"/>
+      <c r="A166" s="3"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="5"/>
     </row>
     <row r="167">
-      <c r="A167" s="6"/>
-      <c r="B167" s="7"/>
-      <c r="C167" s="8"/>
+      <c r="A167" s="3"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="5"/>
     </row>
     <row r="168">
-      <c r="A168" s="6"/>
-      <c r="B168" s="7"/>
-      <c r="C168" s="8"/>
+      <c r="A168" s="3"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="5"/>
     </row>
     <row r="169">
-      <c r="A169" s="6"/>
-      <c r="B169" s="7"/>
-      <c r="C169" s="8"/>
+      <c r="A169" s="3"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="5"/>
     </row>
     <row r="170">
-      <c r="A170" s="6"/>
-      <c r="B170" s="7"/>
-      <c r="C170" s="8"/>
+      <c r="A170" s="3"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="5"/>
     </row>
     <row r="171">
-      <c r="A171" s="6"/>
-      <c r="B171" s="7"/>
-      <c r="C171" s="8"/>
+      <c r="A171" s="3"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="5"/>
     </row>
     <row r="172">
-      <c r="A172" s="6"/>
-      <c r="B172" s="7"/>
-      <c r="C172" s="8"/>
+      <c r="A172" s="3"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="5"/>
     </row>
     <row r="173">
-      <c r="A173" s="6"/>
-      <c r="B173" s="7"/>
-      <c r="C173" s="8"/>
+      <c r="A173" s="3"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="5"/>
     </row>
     <row r="174">
-      <c r="A174" s="6"/>
-      <c r="B174" s="7"/>
-      <c r="C174" s="8"/>
+      <c r="A174" s="3"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="5"/>
     </row>
     <row r="175">
-      <c r="A175" s="6"/>
-      <c r="B175" s="7"/>
-      <c r="C175" s="8"/>
+      <c r="A175" s="3"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="5"/>
     </row>
     <row r="176">
-      <c r="A176" s="6"/>
-      <c r="B176" s="7"/>
-      <c r="C176" s="8"/>
+      <c r="A176" s="3"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="5"/>
     </row>
     <row r="177">
-      <c r="A177" s="6"/>
-      <c r="B177" s="7"/>
-      <c r="C177" s="8"/>
+      <c r="A177" s="3"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="5"/>
     </row>
     <row r="178">
-      <c r="A178" s="6"/>
-      <c r="B178" s="7"/>
-      <c r="C178" s="8"/>
+      <c r="A178" s="3"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="5"/>
     </row>
     <row r="179">
-      <c r="A179" s="6"/>
-      <c r="B179" s="7"/>
-      <c r="C179" s="8"/>
+      <c r="A179" s="3"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="5"/>
     </row>
     <row r="180">
-      <c r="A180" s="6"/>
-      <c r="B180" s="7"/>
-      <c r="C180" s="8"/>
+      <c r="A180" s="3"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="5"/>
     </row>
     <row r="181">
-      <c r="A181" s="6"/>
-      <c r="B181" s="7"/>
-      <c r="C181" s="8"/>
+      <c r="A181" s="3"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="5"/>
     </row>
     <row r="182">
-      <c r="A182" s="6"/>
-      <c r="B182" s="7"/>
-      <c r="C182" s="8"/>
+      <c r="A182" s="3"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="5"/>
     </row>
     <row r="183">
-      <c r="A183" s="6"/>
-      <c r="B183" s="7"/>
-      <c r="C183" s="8"/>
+      <c r="A183" s="3"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="5"/>
     </row>
     <row r="184">
-      <c r="A184" s="6"/>
-      <c r="B184" s="7"/>
-      <c r="C184" s="8"/>
+      <c r="A184" s="3"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="5"/>
     </row>
     <row r="185">
-      <c r="A185" s="6"/>
-      <c r="B185" s="7"/>
-      <c r="C185" s="8"/>
+      <c r="A185" s="3"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="5"/>
     </row>
     <row r="186">
-      <c r="A186" s="6"/>
-      <c r="B186" s="7"/>
-      <c r="C186" s="8"/>
+      <c r="A186" s="3"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="5"/>
     </row>
     <row r="187">
-      <c r="A187" s="6"/>
-      <c r="B187" s="7"/>
-      <c r="C187" s="8"/>
+      <c r="A187" s="3"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="5"/>
     </row>
     <row r="188">
-      <c r="A188" s="6"/>
-      <c r="B188" s="7"/>
-      <c r="C188" s="8"/>
+      <c r="A188" s="3"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="5"/>
     </row>
     <row r="189">
-      <c r="A189" s="6"/>
-      <c r="B189" s="7"/>
-      <c r="C189" s="8"/>
+      <c r="A189" s="3"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="5"/>
     </row>
     <row r="190">
-      <c r="A190" s="6"/>
-      <c r="B190" s="7"/>
-      <c r="C190" s="8"/>
+      <c r="A190" s="3"/>
+      <c r="B190" s="4"/>
+      <c r="C190" s="5"/>
     </row>
     <row r="191">
-      <c r="A191" s="6"/>
-      <c r="B191" s="7"/>
-      <c r="C191" s="8"/>
+      <c r="A191" s="3"/>
+      <c r="B191" s="4"/>
+      <c r="C191" s="5"/>
     </row>
     <row r="192">
-      <c r="A192" s="6"/>
-      <c r="B192" s="7"/>
-      <c r="C192" s="8"/>
+      <c r="A192" s="3"/>
+      <c r="B192" s="4"/>
+      <c r="C192" s="5"/>
     </row>
     <row r="193">
-      <c r="A193" s="6"/>
-      <c r="B193" s="7"/>
-      <c r="C193" s="8"/>
+      <c r="A193" s="3"/>
+      <c r="B193" s="4"/>
+      <c r="C193" s="5"/>
     </row>
     <row r="194">
-      <c r="A194" s="6"/>
-      <c r="B194" s="7"/>
-      <c r="C194" s="8"/>
+      <c r="A194" s="3"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="5"/>
     </row>
     <row r="195">
-      <c r="A195" s="6"/>
-      <c r="B195" s="7"/>
-      <c r="C195" s="8"/>
+      <c r="A195" s="3"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="5"/>
     </row>
     <row r="196">
-      <c r="A196" s="6"/>
-      <c r="B196" s="7"/>
-      <c r="C196" s="8"/>
+      <c r="A196" s="3"/>
+      <c r="B196" s="4"/>
+      <c r="C196" s="5"/>
     </row>
     <row r="197">
-      <c r="A197" s="6"/>
-      <c r="B197" s="7"/>
-      <c r="C197" s="8"/>
+      <c r="A197" s="3"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="5"/>
     </row>
     <row r="198">
-      <c r="A198" s="6"/>
-      <c r="B198" s="7"/>
-      <c r="C198" s="8"/>
+      <c r="A198" s="3"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="5"/>
     </row>
     <row r="199">
-      <c r="A199" s="6"/>
-      <c r="B199" s="7"/>
-      <c r="C199" s="8"/>
+      <c r="A199" s="3"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="5"/>
     </row>
     <row r="200">
-      <c r="A200" s="6"/>
-      <c r="B200" s="7"/>
-      <c r="C200" s="8"/>
+      <c r="A200" s="3"/>
+      <c r="B200" s="4"/>
+      <c r="C200" s="5"/>
     </row>
     <row r="201">
-      <c r="A201" s="6"/>
-      <c r="B201" s="7"/>
-      <c r="C201" s="8"/>
+      <c r="A201" s="3"/>
+      <c r="B201" s="4"/>
+      <c r="C201" s="5"/>
     </row>
     <row r="202">
-      <c r="A202" s="6"/>
-      <c r="B202" s="7"/>
-      <c r="C202" s="8"/>
+      <c r="A202" s="3"/>
+      <c r="B202" s="4"/>
+      <c r="C202" s="5"/>
     </row>
     <row r="203">
-      <c r="A203" s="6"/>
-      <c r="B203" s="7"/>
-      <c r="C203" s="8"/>
+      <c r="A203" s="3"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="5"/>
     </row>
     <row r="204">
-      <c r="A204" s="6"/>
-      <c r="B204" s="7"/>
-      <c r="C204" s="8"/>
+      <c r="A204" s="3"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="5"/>
     </row>
     <row r="205">
-      <c r="A205" s="6"/>
-      <c r="B205" s="7"/>
-      <c r="C205" s="8"/>
+      <c r="A205" s="3"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="5"/>
     </row>
     <row r="206">
-      <c r="A206" s="6"/>
-      <c r="B206" s="7"/>
-      <c r="C206" s="8"/>
+      <c r="A206" s="3"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="5"/>
     </row>
     <row r="207">
-      <c r="A207" s="6"/>
-      <c r="B207" s="7"/>
-      <c r="C207" s="8"/>
+      <c r="A207" s="3"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="5"/>
     </row>
     <row r="208">
-      <c r="A208" s="6"/>
-      <c r="B208" s="7"/>
-      <c r="C208" s="8"/>
+      <c r="A208" s="3"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="5"/>
     </row>
     <row r="209">
-      <c r="A209" s="6"/>
-      <c r="B209" s="7"/>
-      <c r="C209" s="8"/>
+      <c r="A209" s="3"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="5"/>
     </row>
     <row r="210">
-      <c r="A210" s="6"/>
-      <c r="B210" s="7"/>
-      <c r="C210" s="8"/>
+      <c r="A210" s="3"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="5"/>
     </row>
     <row r="211">
-      <c r="A211" s="6"/>
-      <c r="B211" s="7"/>
-      <c r="C211" s="8"/>
+      <c r="A211" s="3"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="5"/>
     </row>
     <row r="212">
-      <c r="A212" s="6"/>
-      <c r="B212" s="7"/>
-      <c r="C212" s="8"/>
+      <c r="A212" s="3"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="5"/>
     </row>
     <row r="213">
-      <c r="A213" s="6"/>
-      <c r="B213" s="7"/>
-      <c r="C213" s="8"/>
+      <c r="A213" s="3"/>
+      <c r="B213" s="4"/>
+      <c r="C213" s="5"/>
     </row>
     <row r="214">
-      <c r="A214" s="6"/>
-      <c r="B214" s="7"/>
-      <c r="C214" s="8"/>
+      <c r="A214" s="3"/>
+      <c r="B214" s="4"/>
+      <c r="C214" s="5"/>
     </row>
     <row r="215">
-      <c r="A215" s="6"/>
-      <c r="B215" s="7"/>
-      <c r="C215" s="8"/>
+      <c r="A215" s="3"/>
+      <c r="B215" s="4"/>
+      <c r="C215" s="5"/>
     </row>
     <row r="216">
-      <c r="A216" s="6"/>
-      <c r="B216" s="7"/>
-      <c r="C216" s="8"/>
+      <c r="A216" s="3"/>
+      <c r="B216" s="4"/>
+      <c r="C216" s="5"/>
     </row>
     <row r="217">
-      <c r="A217" s="6"/>
-      <c r="B217" s="7"/>
-      <c r="C217" s="8"/>
+      <c r="A217" s="3"/>
+      <c r="B217" s="4"/>
+      <c r="C217" s="5"/>
     </row>
     <row r="218">
-      <c r="A218" s="6"/>
-      <c r="B218" s="7"/>
-      <c r="C218" s="8"/>
+      <c r="A218" s="3"/>
+      <c r="B218" s="4"/>
+      <c r="C218" s="5"/>
     </row>
     <row r="219">
-      <c r="A219" s="6"/>
-      <c r="B219" s="7"/>
-      <c r="C219" s="8"/>
+      <c r="A219" s="3"/>
+      <c r="B219" s="4"/>
+      <c r="C219" s="5"/>
     </row>
     <row r="220">
-      <c r="A220" s="6"/>
-      <c r="B220" s="7"/>
-      <c r="C220" s="8"/>
+      <c r="A220" s="3"/>
+      <c r="B220" s="4"/>
+      <c r="C220" s="5"/>
     </row>
     <row r="221">
-      <c r="A221" s="6"/>
-      <c r="B221" s="7"/>
-      <c r="C221" s="8"/>
+      <c r="A221" s="3"/>
+      <c r="B221" s="4"/>
+      <c r="C221" s="5"/>
     </row>
     <row r="222">
-      <c r="A222" s="6"/>
-      <c r="B222" s="7"/>
-      <c r="C222" s="8"/>
+      <c r="A222" s="3"/>
+      <c r="B222" s="4"/>
+      <c r="C222" s="5"/>
     </row>
     <row r="223">
-      <c r="A223" s="6"/>
-      <c r="B223" s="7"/>
-      <c r="C223" s="8"/>
+      <c r="A223" s="3"/>
+      <c r="B223" s="4"/>
+      <c r="C223" s="5"/>
     </row>
     <row r="224">
-      <c r="A224" s="6"/>
-      <c r="B224" s="7"/>
-      <c r="C224" s="8"/>
+      <c r="A224" s="3"/>
+      <c r="B224" s="4"/>
+      <c r="C224" s="5"/>
     </row>
     <row r="225">
-      <c r="A225" s="6"/>
-      <c r="B225" s="7"/>
-      <c r="C225" s="8"/>
+      <c r="A225" s="3"/>
+      <c r="B225" s="4"/>
+      <c r="C225" s="5"/>
     </row>
     <row r="226">
-      <c r="A226" s="6"/>
-      <c r="B226" s="7"/>
-      <c r="C226" s="8"/>
+      <c r="A226" s="3"/>
+      <c r="B226" s="4"/>
+      <c r="C226" s="5"/>
     </row>
     <row r="227">
-      <c r="A227" s="6"/>
-      <c r="B227" s="7"/>
-      <c r="C227" s="8"/>
+      <c r="A227" s="3"/>
+      <c r="B227" s="4"/>
+      <c r="C227" s="5"/>
     </row>
     <row r="228">
-      <c r="A228" s="6"/>
-      <c r="B228" s="7"/>
-      <c r="C228" s="8"/>
+      <c r="A228" s="3"/>
+      <c r="B228" s="4"/>
+      <c r="C228" s="5"/>
     </row>
     <row r="229">
-      <c r="A229" s="6"/>
-      <c r="B229" s="7"/>
-      <c r="C229" s="8"/>
+      <c r="A229" s="3"/>
+      <c r="B229" s="4"/>
+      <c r="C229" s="5"/>
     </row>
     <row r="230">
-      <c r="A230" s="6"/>
-      <c r="B230" s="7"/>
-      <c r="C230" s="8"/>
+      <c r="A230" s="3"/>
+      <c r="B230" s="4"/>
+      <c r="C230" s="5"/>
     </row>
     <row r="231">
-      <c r="A231" s="6"/>
-      <c r="B231" s="7"/>
-      <c r="C231" s="8"/>
+      <c r="A231" s="3"/>
+      <c r="B231" s="4"/>
+      <c r="C231" s="5"/>
     </row>
     <row r="232">
-      <c r="A232" s="6"/>
-      <c r="B232" s="7"/>
-      <c r="C232" s="8"/>
+      <c r="A232" s="3"/>
+      <c r="B232" s="4"/>
+      <c r="C232" s="5"/>
     </row>
     <row r="233">
-      <c r="A233" s="6"/>
-      <c r="B233" s="7"/>
-      <c r="C233" s="8"/>
+      <c r="A233" s="3"/>
+      <c r="B233" s="4"/>
+      <c r="C233" s="5"/>
     </row>
     <row r="234">
-      <c r="A234" s="6"/>
-      <c r="B234" s="7"/>
-      <c r="C234" s="8"/>
+      <c r="A234" s="3"/>
+      <c r="B234" s="4"/>
+      <c r="C234" s="5"/>
     </row>
     <row r="235">
-      <c r="A235" s="6"/>
-      <c r="B235" s="7"/>
-      <c r="C235" s="8"/>
+      <c r="A235" s="3"/>
+      <c r="B235" s="4"/>
+      <c r="C235" s="5"/>
     </row>
     <row r="236">
-      <c r="A236" s="6"/>
-      <c r="B236" s="7"/>
-      <c r="C236" s="8"/>
+      <c r="A236" s="3"/>
+      <c r="B236" s="4"/>
+      <c r="C236" s="5"/>
     </row>
     <row r="237">
-      <c r="A237" s="6"/>
-      <c r="B237" s="7"/>
-      <c r="C237" s="8"/>
+      <c r="A237" s="3"/>
+      <c r="B237" s="4"/>
+      <c r="C237" s="5"/>
     </row>
     <row r="238">
-      <c r="A238" s="6"/>
-      <c r="B238" s="7"/>
-      <c r="C238" s="8"/>
+      <c r="A238" s="3"/>
+      <c r="B238" s="4"/>
+      <c r="C238" s="5"/>
     </row>
     <row r="239">
-      <c r="A239" s="6"/>
-      <c r="B239" s="7"/>
-      <c r="C239" s="8"/>
+      <c r="A239" s="3"/>
+      <c r="B239" s="4"/>
+      <c r="C239" s="5"/>
     </row>
     <row r="240">
-      <c r="A240" s="6"/>
-      <c r="B240" s="7"/>
-      <c r="C240" s="8"/>
+      <c r="A240" s="3"/>
+      <c r="B240" s="4"/>
+      <c r="C240" s="5"/>
     </row>
     <row r="241">
-      <c r="A241" s="6"/>
-      <c r="B241" s="7"/>
-      <c r="C241" s="8"/>
+      <c r="A241" s="3"/>
+      <c r="B241" s="4"/>
+      <c r="C241" s="5"/>
     </row>
     <row r="242">
-      <c r="A242" s="6"/>
-      <c r="B242" s="7"/>
-      <c r="C242" s="8"/>
+      <c r="A242" s="3"/>
+      <c r="B242" s="4"/>
+      <c r="C242" s="5"/>
     </row>
     <row r="243">
-      <c r="A243" s="6"/>
-      <c r="B243" s="7"/>
-      <c r="C243" s="8"/>
+      <c r="A243" s="3"/>
+      <c r="B243" s="4"/>
+      <c r="C243" s="5"/>
     </row>
     <row r="244">
-      <c r="A244" s="6"/>
-      <c r="B244" s="7"/>
-      <c r="C244" s="8"/>
+      <c r="A244" s="3"/>
+      <c r="B244" s="4"/>
+      <c r="C244" s="5"/>
     </row>
     <row r="245">
-      <c r="A245" s="6"/>
-      <c r="B245" s="7"/>
-      <c r="C245" s="8"/>
+      <c r="A245" s="3"/>
+      <c r="B245" s="4"/>
+      <c r="C245" s="5"/>
     </row>
     <row r="246">
-      <c r="A246" s="6"/>
-      <c r="B246" s="7"/>
-      <c r="C246" s="8"/>
+      <c r="A246" s="3"/>
+      <c r="B246" s="4"/>
+      <c r="C246" s="5"/>
     </row>
     <row r="247">
-      <c r="A247" s="6"/>
-      <c r="B247" s="7"/>
-      <c r="C247" s="8"/>
+      <c r="A247" s="3"/>
+      <c r="B247" s="4"/>
+      <c r="C247" s="5"/>
     </row>
     <row r="248">
-      <c r="A248" s="6"/>
-      <c r="B248" s="7"/>
-      <c r="C248" s="8"/>
+      <c r="A248" s="3"/>
+      <c r="B248" s="4"/>
+      <c r="C248" s="5"/>
     </row>
     <row r="249">
-      <c r="A249" s="6"/>
-      <c r="B249" s="7"/>
-      <c r="C249" s="8"/>
+      <c r="A249" s="3"/>
+      <c r="B249" s="4"/>
+      <c r="C249" s="5"/>
     </row>
     <row r="250">
-      <c r="A250" s="6"/>
-      <c r="B250" s="7"/>
-      <c r="C250" s="8"/>
+      <c r="A250" s="3"/>
+      <c r="B250" s="4"/>
+      <c r="C250" s="5"/>
     </row>
     <row r="251">
-      <c r="A251" s="6"/>
-      <c r="B251" s="7"/>
-      <c r="C251" s="8"/>
+      <c r="A251" s="3"/>
+      <c r="B251" s="4"/>
+      <c r="C251" s="5"/>
     </row>
     <row r="252">
-      <c r="A252" s="6"/>
-      <c r="B252" s="7"/>
-      <c r="C252" s="8"/>
+      <c r="A252" s="3"/>
+      <c r="B252" s="4"/>
+      <c r="C252" s="5"/>
     </row>
     <row r="253">
-      <c r="A253" s="6"/>
-      <c r="B253" s="7"/>
-      <c r="C253" s="8"/>
+      <c r="A253" s="3"/>
+      <c r="B253" s="4"/>
+      <c r="C253" s="5"/>
     </row>
     <row r="254">
-      <c r="A254" s="6"/>
-      <c r="B254" s="7"/>
-      <c r="C254" s="8"/>
+      <c r="A254" s="3"/>
+      <c r="B254" s="4"/>
+      <c r="C254" s="5"/>
     </row>
     <row r="255">
-      <c r="A255" s="6"/>
-      <c r="B255" s="7"/>
-      <c r="C255" s="8"/>
+      <c r="A255" s="3"/>
+      <c r="B255" s="4"/>
+      <c r="C255" s="5"/>
     </row>
     <row r="256">
-      <c r="A256" s="6"/>
-      <c r="B256" s="7"/>
-      <c r="C256" s="8"/>
+      <c r="A256" s="3"/>
+      <c r="B256" s="4"/>
+      <c r="C256" s="5"/>
     </row>
     <row r="257">
-      <c r="A257" s="6"/>
-      <c r="B257" s="7"/>
-      <c r="C257" s="8"/>
+      <c r="A257" s="3"/>
+      <c r="B257" s="4"/>
+      <c r="C257" s="5"/>
     </row>
     <row r="258">
-      <c r="A258" s="6"/>
-      <c r="B258" s="7"/>
-      <c r="C258" s="8"/>
+      <c r="A258" s="3"/>
+      <c r="B258" s="4"/>
+      <c r="C258" s="5"/>
     </row>
     <row r="259">
-      <c r="A259" s="6"/>
-      <c r="B259" s="7"/>
-      <c r="C259" s="8"/>
+      <c r="A259" s="3"/>
+      <c r="B259" s="4"/>
+      <c r="C259" s="5"/>
     </row>
     <row r="260">
-      <c r="A260" s="6"/>
-      <c r="B260" s="7"/>
-      <c r="C260" s="8"/>
+      <c r="A260" s="3"/>
+      <c r="B260" s="4"/>
+      <c r="C260" s="5"/>
     </row>
     <row r="261">
-      <c r="A261" s="6"/>
-      <c r="B261" s="7"/>
-      <c r="C261" s="8"/>
+      <c r="A261" s="3"/>
+      <c r="B261" s="4"/>
+      <c r="C261" s="5"/>
     </row>
     <row r="262">
-      <c r="A262" s="6"/>
-      <c r="B262" s="7"/>
-      <c r="C262" s="8"/>
+      <c r="A262" s="3"/>
+      <c r="B262" s="4"/>
+      <c r="C262" s="5"/>
     </row>
     <row r="263">
-      <c r="A263" s="6"/>
-      <c r="B263" s="7"/>
-      <c r="C263" s="8"/>
+      <c r="A263" s="3"/>
+      <c r="B263" s="4"/>
+      <c r="C263" s="5"/>
     </row>
     <row r="264">
-      <c r="A264" s="6"/>
-      <c r="B264" s="7"/>
-      <c r="C264" s="8"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="6"/>
-      <c r="B265" s="7"/>
-      <c r="C265" s="8"/>
+      <c r="A264" s="3"/>
+      <c r="B264" s="4"/>
+      <c r="C264" s="5"/>
     </row>
   </sheetData>
 </worksheet>
@@ -4164,664 +4151,1056 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="23" t="str">
+      <c r="A1" s="32" t="str">
         <v>OptionId</v>
       </c>
-      <c r="B1" s="23" t="str">
+      <c r="B1" s="32" t="str">
         <v>Text</v>
       </c>
-      <c r="C1" s="23" t="str">
+      <c r="C1" s="32" t="str">
         <v>NextDialogueId</v>
       </c>
+      <c r="D1" s="5" t="str">
+        <v>GetItemId</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="23" t="str">
+      <c r="A2" s="32" t="str">
         <v>和Dialogue表里面的Opetions对应</v>
       </c>
-      <c r="B2" s="23" t="str">
+      <c r="B2" s="32" t="str">
         <v>选项文字内容</v>
       </c>
-      <c r="C2" s="23" t="str">
+      <c r="C2" s="32" t="str">
         <v>要触发的对话ID
 0表示会话结束</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="7">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="7" t="str">
         <v>我可以在哪些地方获取食材？</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="7">
         <v>111</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="7">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="7" t="str">
         <v>烹饪的流程是怎样的？</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="7">
         <v>112</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="7">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="7" t="str">
         <v>没什么要问的了</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="7">
         <v>113</v>
       </c>
     </row>
-    <row customHeight="true" ht="19" r="6">
-      <c r="A6" s="2">
-        <v>191</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <v>进入厨房</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row customHeight="true" ht="19" r="7">
-      <c r="A7" s="2">
-        <v>192</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <v>返回地图</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="18">
+    <row r="6">
+      <c r="A6" s="26">
         <v>211</v>
+      </c>
+      <c r="B6" s="37" t="str">
+        <v>阿斯摩太是怎样的恶魔？</v>
+      </c>
+      <c r="C6" s="26">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="26">
+        <v>212</v>
+      </c>
+      <c r="B7" s="37" t="str">
+        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
+      </c>
+      <c r="C7" s="26">
+        <v>212</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="19" r="8">
+      <c r="A8" s="26">
+        <v>221</v>
       </c>
       <c r="B8" s="37" t="str">
         <v>阿斯摩太是怎样的恶魔？</v>
       </c>
-      <c r="C8" s="18">
-        <v>211</v>
+      <c r="C8" s="26">
+        <v>221</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="18">
-        <v>212</v>
+      <c r="A9" s="26">
+        <v>222</v>
       </c>
       <c r="B9" s="37" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C9" s="18">
-        <v>212</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="19" r="10">
-      <c r="A10" s="18">
-        <v>221</v>
+      <c r="C9" s="26">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="26">
+        <v>223</v>
       </c>
       <c r="B10" s="37" t="str">
+        <v>你能给我哪些获取食材的建议？</v>
+      </c>
+      <c r="C10" s="26">
+        <v>223</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="46" r="11">
+      <c r="A11" s="26">
+        <v>231</v>
+      </c>
+      <c r="B11" s="37" t="str">
         <v>阿斯摩太是怎样的恶魔？</v>
       </c>
-      <c r="C10" s="18">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="18">
-        <v>222</v>
-      </c>
-      <c r="B11" s="37" t="str">
+      <c r="C11" s="26">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="26">
+        <v>232</v>
+      </c>
+      <c r="B12" s="37" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C11" s="18">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="18">
-        <v>223</v>
-      </c>
-      <c r="B12" s="37" t="str">
-        <v>你能给我哪些获取食材的建议？</v>
-      </c>
-      <c r="C12" s="18">
-        <v>223</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="46" r="13">
-      <c r="A13" s="18">
-        <v>231</v>
+      <c r="C12" s="26">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="26">
+        <v>234</v>
       </c>
       <c r="B13" s="37" t="str">
-        <v>阿斯摩太是怎样的恶魔？</v>
-      </c>
-      <c r="C13" s="18">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="18">
-        <v>232</v>
-      </c>
-      <c r="B14" s="37" t="str">
+        <v>喀戎河畔的渡河人告诉我你这里有能帮助我获得食材的道具。</v>
+      </c>
+      <c r="C13" s="26">
+        <v>234</v>
+      </c>
+      <c r="D13" s="5" t="str">
+        <v>混沌三叉戟</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="14">
+      <c r="A14" s="2">
+        <v>311</v>
+      </c>
+      <c r="B14" s="39" t="str">
+        <v>摩洛克是怎样的恶魔？</v>
+      </c>
+      <c r="C14" s="2">
+        <v>311</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="15">
+      <c r="A15" s="2">
+        <v>312</v>
+      </c>
+      <c r="B15" s="39" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C14" s="18">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="18">
-        <v>234</v>
-      </c>
-      <c r="B15" s="37" t="str">
-        <v>喀戎河畔的渡河人告诉我你这里有能帮助我获得食材的道具。</v>
-      </c>
-      <c r="C15" s="18">
-        <v>234</v>
+      <c r="C15" s="2">
+        <v>312</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="16">
-      <c r="A16" s="13">
-        <v>311</v>
+      <c r="A16" s="2">
+        <v>321</v>
       </c>
       <c r="B16" s="39" t="str">
         <v>摩洛克是怎样的恶魔？</v>
       </c>
-      <c r="C16" s="13">
-        <v>311</v>
+      <c r="C16" s="2">
+        <v>321</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="17">
-      <c r="A17" s="13">
-        <v>312</v>
+      <c r="A17" s="2">
+        <v>322</v>
       </c>
       <c r="B17" s="39" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C17" s="13">
-        <v>312</v>
+      <c r="C17" s="2">
+        <v>322</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="18">
-      <c r="A18" s="13">
-        <v>321</v>
+      <c r="A18" s="2">
+        <v>323</v>
       </c>
       <c r="B18" s="39" t="str">
+        <v>你能给我哪些获取食材的建议？</v>
+      </c>
+      <c r="C18" s="2">
+        <v>323</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="19">
+      <c r="A19" s="2">
+        <v>331</v>
+      </c>
+      <c r="B19" s="39" t="str">
         <v>摩洛克是怎样的恶魔？</v>
       </c>
-      <c r="C18" s="13">
-        <v>321</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="33" r="19">
-      <c r="A19" s="13">
-        <v>322</v>
-      </c>
-      <c r="B19" s="39" t="str">
+      <c r="C19" s="2">
+        <v>331</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="20">
+      <c r="A20" s="2">
+        <v>332</v>
+      </c>
+      <c r="B20" s="39" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C19" s="13">
-        <v>322</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="33" r="20">
-      <c r="A20" s="13">
-        <v>323</v>
-      </c>
-      <c r="B20" s="39" t="str">
+      <c r="C20" s="2">
+        <v>332</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="21">
+      <c r="A21" s="45">
+        <v>334</v>
+      </c>
+      <c r="B21" s="39" t="str">
+        <v>塔尔塔洛斯的守卫告诉我你会有帮助我获得食材的道具。</v>
+      </c>
+      <c r="C21" s="45">
+        <v>334</v>
+      </c>
+      <c r="D21" s="5" t="str">
+        <v>地狱弯刀</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="22">
+      <c r="A22" s="44">
+        <v>411</v>
+      </c>
+      <c r="B22" s="36" t="str">
+        <v>利维坦是怎样的恶魔</v>
+      </c>
+      <c r="C22" s="44">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="44">
+        <v>412</v>
+      </c>
+      <c r="B23" s="36" t="str">
+        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
+      </c>
+      <c r="C23" s="44">
+        <v>412</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="19" r="24">
+      <c r="A24" s="44">
+        <v>421</v>
+      </c>
+      <c r="B24" s="36" t="str">
+        <v>利维坦是怎样的恶魔</v>
+      </c>
+      <c r="C24" s="44">
+        <v>421</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="39" r="25">
+      <c r="A25" s="44">
+        <v>422</v>
+      </c>
+      <c r="B25" s="36" t="str">
+        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
+      </c>
+      <c r="C25" s="44">
+        <v>422</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="35" r="26">
+      <c r="A26" s="44">
+        <v>423</v>
+      </c>
+      <c r="B26" s="36" t="str">
         <v>你能给我哪些获取食材的建议？</v>
       </c>
-      <c r="C20" s="13">
-        <v>323</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="33" r="21">
-      <c r="A21" s="13">
-        <v>331</v>
-      </c>
-      <c r="B21" s="39" t="str">
-        <v>摩洛克是怎样的恶魔？</v>
-      </c>
-      <c r="C21" s="13">
-        <v>331</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="33" r="22">
-      <c r="A22" s="13">
-        <v>332</v>
-      </c>
-      <c r="B22" s="39" t="str">
+      <c r="C26" s="44">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="15">
+        <v>511</v>
+      </c>
+      <c r="B27" s="38" t="str">
+        <v>巴力是怎样的恶魔？</v>
+      </c>
+      <c r="C27" s="15">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="14">
+        <v>512</v>
+      </c>
+      <c r="B28" s="38" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C22" s="13">
-        <v>332</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="33" r="23">
-      <c r="A23" s="46">
-        <v>334</v>
-      </c>
-      <c r="B23" s="39" t="str">
-        <v>塔尔塔洛斯的守卫告诉我你会有帮助我获得食材的道具。</v>
-      </c>
-      <c r="C23" s="46">
-        <v>334</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="33" r="24">
-      <c r="A24" s="44">
-        <v>411</v>
-      </c>
-      <c r="B24" s="22" t="str">
-        <v>利维坦是怎样的恶魔</v>
-      </c>
-      <c r="C24" s="44">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="44">
-        <v>412</v>
-      </c>
-      <c r="B25" s="22" t="str">
-        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
-      </c>
-      <c r="C25" s="44">
-        <v>412</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="19" r="26">
-      <c r="A26" s="44">
-        <v>421</v>
-      </c>
-      <c r="B26" s="22" t="str">
-        <v>利维坦是怎样的恶魔</v>
-      </c>
-      <c r="C26" s="44">
-        <v>421</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="39" r="27">
-      <c r="A27" s="44">
-        <v>422</v>
-      </c>
-      <c r="B27" s="22" t="str">
-        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
-      </c>
-      <c r="C27" s="44">
-        <v>422</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="35" r="28">
-      <c r="A28" s="44">
-        <v>423</v>
-      </c>
-      <c r="B28" s="22" t="str">
-        <v>你能给我哪些获取食材的建议？</v>
-      </c>
-      <c r="C28" s="44">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="28">
-        <v>511</v>
+      <c r="C28" s="14">
+        <v>512</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="19" r="29">
+      <c r="A29" s="15">
+        <v>521</v>
       </c>
       <c r="B29" s="38" t="str">
         <v>巴力是怎样的恶魔？</v>
       </c>
-      <c r="C29" s="28">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="27">
-        <v>512</v>
+      <c r="C29" s="15">
+        <v>521</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="30" r="30">
+      <c r="A30" s="14">
+        <v>522</v>
       </c>
       <c r="B30" s="38" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C30" s="27">
-        <v>512</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="19" r="31">
-      <c r="A31" s="28">
-        <v>521</v>
+      <c r="C30" s="14">
+        <v>522</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="34" r="31">
+      <c r="A31" s="14">
+        <v>523</v>
       </c>
       <c r="B31" s="38" t="str">
+        <v>你能给我哪些获取食材的建议？</v>
+      </c>
+      <c r="C31" s="14">
+        <v>523</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="19" r="32">
+      <c r="A32" s="15">
+        <v>531</v>
+      </c>
+      <c r="B32" s="38" t="str">
         <v>巴力是怎样的恶魔？</v>
       </c>
-      <c r="C31" s="28">
-        <v>521</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="30" r="32">
-      <c r="A32" s="27">
-        <v>522</v>
-      </c>
-      <c r="B32" s="38" t="str">
+      <c r="C32" s="15">
+        <v>531</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="34" r="33">
+      <c r="A33" s="14">
+        <v>532</v>
+      </c>
+      <c r="B33" s="38" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C32" s="27">
-        <v>522</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="34" r="33">
-      <c r="A33" s="27">
-        <v>523</v>
-      </c>
-      <c r="B33" s="38" t="str">
+      <c r="C33" s="14">
+        <v>532</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="44" r="34">
+      <c r="A34" s="14">
+        <v>534</v>
+      </c>
+      <c r="B34" s="38" t="str">
+        <v>冥府侧殿的侍女告诉我你这里有能帮助我获得食材的道具。</v>
+      </c>
+      <c r="C34" s="14">
+        <v>534</v>
+      </c>
+      <c r="D34" s="5" t="str">
+        <v>金十字镐</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="43">
+        <v>611</v>
+      </c>
+      <c r="B35" s="42" t="str">
+        <v>贝尔芬格是怎样的恶魔？</v>
+      </c>
+      <c r="C35" s="43">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="22">
+        <v>612</v>
+      </c>
+      <c r="B36" s="42" t="str">
+        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
+      </c>
+      <c r="C36" s="22">
+        <v>612</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="37">
+      <c r="A37" s="43">
+        <v>621</v>
+      </c>
+      <c r="B37" s="42" t="str">
+        <v>贝尔芬格是怎样的恶魔？</v>
+      </c>
+      <c r="C37" s="43">
+        <v>621</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="38">
+      <c r="A38" s="22">
+        <v>622</v>
+      </c>
+      <c r="B38" s="42" t="str">
+        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
+      </c>
+      <c r="C38" s="22">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="43">
+        <v>623</v>
+      </c>
+      <c r="B39" s="42" t="str">
         <v>你能给我哪些获取食材的建议？</v>
       </c>
-      <c r="C33" s="27">
-        <v>523</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="19" r="34">
-      <c r="A34" s="28">
-        <v>531</v>
-      </c>
-      <c r="B34" s="38" t="str">
-        <v>巴力是怎样的恶魔？</v>
-      </c>
-      <c r="C34" s="28">
-        <v>531</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="34" r="35">
-      <c r="A35" s="27">
-        <v>532</v>
-      </c>
-      <c r="B35" s="38" t="str">
+      <c r="C39" s="43">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="17">
+        <v>711</v>
+      </c>
+      <c r="B40" s="21" t="str">
+        <v>玛门是怎样的恶魔？</v>
+      </c>
+      <c r="C40" s="17">
+        <v>711</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="40" r="41">
+      <c r="A41" s="20">
+        <v>712</v>
+      </c>
+      <c r="B41" s="21" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C35" s="27">
-        <v>532</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="44" r="36">
-      <c r="A36" s="27">
-        <v>534</v>
-      </c>
-      <c r="B36" s="38" t="str">
-        <v>冥府侧殿的侍女告诉我你这里有能帮助我获得食材的道具。</v>
-      </c>
-      <c r="C36" s="27">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="47">
-        <v>611</v>
-      </c>
-      <c r="B37" s="45" t="str">
-        <v>贝尔芬格是怎样的恶魔？</v>
-      </c>
-      <c r="C37" s="47">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="15">
-        <v>612</v>
-      </c>
-      <c r="B38" s="45" t="str">
+      <c r="C41" s="20">
+        <v>712</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="42">
+      <c r="A42" s="17">
+        <v>721</v>
+      </c>
+      <c r="B42" s="21" t="str">
+        <v>玛门是怎样的恶魔？</v>
+      </c>
+      <c r="C42" s="17">
+        <v>721</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="43">
+      <c r="A43" s="20">
+        <v>722</v>
+      </c>
+      <c r="B43" s="21" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C38" s="15">
-        <v>612</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="33" r="39">
-      <c r="A39" s="47">
-        <v>621</v>
-      </c>
-      <c r="B39" s="45" t="str">
-        <v>贝尔芬格是怎样的恶魔？</v>
-      </c>
-      <c r="C39" s="47">
-        <v>621</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="33" r="40">
-      <c r="A40" s="15">
-        <v>622</v>
-      </c>
-      <c r="B40" s="45" t="str">
+      <c r="C43" s="20">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="17">
+        <v>723</v>
+      </c>
+      <c r="B44" s="21" t="str">
+        <v>你能给我哪些获取食材的建议？</v>
+      </c>
+      <c r="C44" s="17">
+        <v>723</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="45">
+      <c r="A45" s="17">
+        <v>731</v>
+      </c>
+      <c r="B45" s="21" t="str">
+        <v>玛门是怎样的恶魔？</v>
+      </c>
+      <c r="C45" s="17">
+        <v>731</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="46">
+      <c r="A46" s="20">
+        <v>732</v>
+      </c>
+      <c r="B46" s="21" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C40" s="15">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="47">
+      <c r="C46" s="20">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="20">
+        <v>734</v>
+      </c>
+      <c r="B47" s="21" t="str">
+        <v>亡灵饮水地的神女告诉我你这里有能帮助我获得食材的道具。</v>
+      </c>
+      <c r="C47" s="20">
+        <v>734</v>
+      </c>
+      <c r="D47" s="5" t="str">
+        <v>狮鹫夜壶</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="40">
+        <v>811</v>
+      </c>
+      <c r="B48" s="41" t="str">
+        <v>撒旦是怎样的恶魔？</v>
+      </c>
+      <c r="C48" s="40">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="40">
+        <v>812</v>
+      </c>
+      <c r="B49" s="41" t="str">
+        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
+      </c>
+      <c r="C49" s="40">
+        <v>812</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="50">
+      <c r="A50" s="40">
+        <v>821</v>
+      </c>
+      <c r="B50" s="41" t="str">
+        <v>撒旦是怎样的恶魔？</v>
+      </c>
+      <c r="C50" s="40">
+        <v>821</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="51">
+      <c r="A51" s="40">
+        <v>822</v>
+      </c>
+      <c r="B51" s="41" t="str">
+        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
+      </c>
+      <c r="C51" s="40">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="40">
+        <v>823</v>
+      </c>
+      <c r="B52" s="41" t="str">
+        <v>你能给我哪些获取食材的建议？</v>
+      </c>
+      <c r="C52" s="40">
+        <v>823</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="53">
+      <c r="A53" s="40">
+        <v>831</v>
+      </c>
+      <c r="B53" s="41" t="str">
+        <v>撒旦是怎样的恶魔？</v>
+      </c>
+      <c r="C53" s="40">
+        <v>831</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="54">
+      <c r="A54" s="40">
+        <v>832</v>
+      </c>
+      <c r="B54" s="41" t="str">
+        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
+      </c>
+      <c r="C54" s="40">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="48">
+        <v>834</v>
+      </c>
+      <c r="B55" s="41" t="str">
+        <v>极乐之野的守卫告诉我你这里有能帮助我获得食材的道具。</v>
+      </c>
+      <c r="C55" s="48">
+        <v>834</v>
+      </c>
+      <c r="D55" s="5" t="str">
+        <v>厄洛斯之香</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="46">
+        <v>921</v>
+      </c>
+      <c r="B56" s="47" t="str">
+        <v>跟她走</v>
+      </c>
+      <c r="C56" s="47">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="47">
+        <v>922</v>
+      </c>
+      <c r="B57" s="47" t="str">
+        <v>不跟她走</v>
+      </c>
+      <c r="C57" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="49">
+        <v>999</v>
+      </c>
+      <c r="B59" s="50" t="str">
+        <v>结束对话</v>
+      </c>
+      <c r="C59" s="50">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <sheetPr>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="true" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="16"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="32" t="str">
+        <v>
+</v>
+      </c>
+      <c r="B1" s="32" t="str">
+        <v>
+特殊对话的轮次</v>
+      </c>
+      <c r="C1" s="32" t="str">
+        <v>特殊DialogueID</v>
+      </c>
+      <c r="D1" s="32" t="str">
+        <v>普通DialogueID</v>
+      </c>
+      <c r="E1" s="32" t="str">
+        <v>条件轮次</v>
+      </c>
+      <c r="F1" s="32" t="str">
+        <v>条件需要触发的DialogueId</v>
+      </c>
+      <c r="G1" s="32" t="str">
+        <v>条件达成后的DialogueId</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="33" r="2">
+      <c r="A2" s="32" t="str">
+        <v>说明</v>
+      </c>
+      <c r="B2" s="32" t="str">
+        <v>string.
+用 “|”分割</v>
+      </c>
+      <c r="C2" s="32" t="str">
+        <v>int
+在特殊轮次触发</v>
+      </c>
+      <c r="D2" s="32" t="str">
+        <v>int
+在非特殊轮次触发</v>
+      </c>
+      <c r="E2" s="32" t="str">
+        <v>int
+</v>
+      </c>
+      <c r="F2" s="32" t="str">
+        <v>int</v>
+      </c>
+      <c r="G2" s="32" t="str">
+        <v>int</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="32" t="str">
+        <v>阿斯摩太</v>
+      </c>
+      <c r="B3" s="32">
+        <v>1</v>
+      </c>
+      <c r="C3" s="32">
+        <v>2991</v>
+      </c>
+      <c r="D3" s="32">
+        <v>2992</v>
+      </c>
+      <c r="E3" s="32">
+        <v>0</v>
+      </c>
+      <c r="F3" s="32">
+        <v>0</v>
+      </c>
+      <c r="G3" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="32" t="str">
+        <v>摩洛克</v>
+      </c>
+      <c r="B4" s="32" t="str">
+        <v>5|6|7</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3992</v>
+      </c>
+      <c r="D4" s="32">
+        <v>3991</v>
+      </c>
+      <c r="E4" s="32">
+        <v>0</v>
+      </c>
+      <c r="F4" s="32">
+        <v>0</v>
+      </c>
+      <c r="G4" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="32" t="str">
+        <v>利维坦</v>
+      </c>
+      <c r="B5" s="32" t="str">
+        <v>1|2|3</v>
+      </c>
+      <c r="C5" s="32">
+        <v>4991</v>
+      </c>
+      <c r="D5" s="32">
+        <v>4992</v>
+      </c>
+      <c r="E5" s="32">
+        <v>0</v>
+      </c>
+      <c r="F5" s="32">
+        <v>0</v>
+      </c>
+      <c r="G5" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="32" t="str">
+        <v>巴力</v>
+      </c>
+      <c r="B6" s="32" t="str">
+        <v>1|2</v>
+      </c>
+      <c r="C6" s="32">
+        <v>5991</v>
+      </c>
+      <c r="D6" s="32">
+        <v>5992</v>
+      </c>
+      <c r="E6" s="32">
+        <v>0</v>
+      </c>
+      <c r="F6" s="32">
+        <v>0</v>
+      </c>
+      <c r="G6" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="32" t="str">
+        <v>贝尔芬格</v>
+      </c>
+      <c r="B7" s="32" t="str">
+        <v>6|7</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6992</v>
+      </c>
+      <c r="D7" s="32">
+        <v>6991</v>
+      </c>
+      <c r="E7" s="32">
+        <v>0</v>
+      </c>
+      <c r="F7" s="32">
+        <v>0</v>
+      </c>
+      <c r="G7" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="32" t="str">
+        <v>玛门</v>
+      </c>
+      <c r="B8" s="32">
+        <v>0</v>
+      </c>
+      <c r="C8" s="32">
+        <v>0</v>
+      </c>
+      <c r="D8" s="32">
+        <v>7991</v>
+      </c>
+      <c r="E8" s="32">
+        <v>0</v>
+      </c>
+      <c r="F8" s="32">
+        <v>0</v>
+      </c>
+      <c r="G8" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="32" t="str">
+        <v>撒旦</v>
+      </c>
+      <c r="B9" s="32">
+        <v>7</v>
+      </c>
+      <c r="C9" s="32">
+        <v>8992</v>
+      </c>
+      <c r="D9" s="32">
+        <v>8991</v>
+      </c>
+      <c r="E9" s="32">
+        <v>0</v>
+      </c>
+      <c r="F9" s="32">
+        <v>0</v>
+      </c>
+      <c r="G9" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="32" t="str">
+        <v>大饼</v>
+      </c>
+      <c r="B10" s="32">
+        <v>1</v>
+      </c>
+      <c r="C10" s="32">
+        <v>220</v>
+      </c>
+      <c r="D10" s="32">
+        <v>210</v>
+      </c>
+      <c r="E10" s="32">
+        <v>3</v>
+      </c>
+      <c r="F10" s="32">
+        <v>423</v>
+      </c>
+      <c r="G10" s="32">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="32" t="str">
+        <v>三叶虫</v>
+      </c>
+      <c r="B11" s="32">
+        <v>4</v>
+      </c>
+      <c r="C11" s="32">
+        <v>320</v>
+      </c>
+      <c r="D11" s="32">
+        <v>310</v>
+      </c>
+      <c r="E11" s="32">
+        <v>1</v>
+      </c>
+      <c r="F11" s="32">
+        <v>223</v>
+      </c>
+      <c r="G11" s="32">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="32" t="str">
+        <v>因诺</v>
+      </c>
+      <c r="B12" s="32">
+        <v>3</v>
+      </c>
+      <c r="C12" s="32">
+        <v>420</v>
+      </c>
+      <c r="D12" s="32">
+        <v>410</v>
+      </c>
+      <c r="E12" s="32">
+        <v>0</v>
+      </c>
+      <c r="F12" s="32">
+        <v>0</v>
+      </c>
+      <c r="G12" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="32" t="str">
+        <v>摸摸</v>
+      </c>
+      <c r="B13" s="32">
+        <v>2</v>
+      </c>
+      <c r="C13" s="32">
+        <v>520</v>
+      </c>
+      <c r="D13" s="32">
+        <v>510</v>
+      </c>
+      <c r="E13" s="32">
+        <v>7</v>
+      </c>
+      <c r="F13" s="32">
+        <v>723</v>
+      </c>
+      <c r="G13" s="32">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="32" t="str">
+        <v>牙牙乐</v>
+      </c>
+      <c r="B14" s="32">
+        <v>5</v>
+      </c>
+      <c r="C14" s="32">
+        <v>620</v>
+      </c>
+      <c r="D14" s="32">
+        <v>610</v>
+      </c>
+      <c r="E14" s="32">
+        <v>0</v>
+      </c>
+      <c r="F14" s="32">
+        <v>0</v>
+      </c>
+      <c r="G14" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="32" t="str">
+        <v>小葵</v>
+      </c>
+      <c r="B15" s="32">
+        <v>7</v>
+      </c>
+      <c r="C15" s="32">
+        <v>720</v>
+      </c>
+      <c r="D15" s="32">
+        <v>710</v>
+      </c>
+      <c r="E15" s="32">
+        <v>5</v>
+      </c>
+      <c r="F15" s="32">
         <v>623</v>
       </c>
-      <c r="B41" s="45" t="str">
-        <v>你能给我哪些获取食材的建议？</v>
-      </c>
-      <c r="C41" s="47">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="33">
-        <v>711</v>
-      </c>
-      <c r="B42" s="36" t="str">
-        <v>玛门是怎样的恶魔？</v>
-      </c>
-      <c r="C42" s="33">
-        <v>711</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="40" r="43">
-      <c r="A43" s="35">
-        <v>712</v>
-      </c>
-      <c r="B43" s="36" t="str">
-        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
-      </c>
-      <c r="C43" s="35">
-        <v>712</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="33" r="44">
-      <c r="A44" s="33">
-        <v>721</v>
-      </c>
-      <c r="B44" s="36" t="str">
-        <v>玛门是怎样的恶魔？</v>
-      </c>
-      <c r="C44" s="33">
-        <v>721</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="33" r="45">
-      <c r="A45" s="35">
-        <v>722</v>
-      </c>
-      <c r="B45" s="36" t="str">
-        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
-      </c>
-      <c r="C45" s="35">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="33">
-        <v>723</v>
-      </c>
-      <c r="B46" s="36" t="str">
-        <v>你能给我哪些获取食材的建议？</v>
-      </c>
-      <c r="C46" s="33">
-        <v>723</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="33" r="47">
-      <c r="A47" s="33">
-        <v>731</v>
-      </c>
-      <c r="B47" s="36" t="str">
-        <v>玛门是怎样的恶魔？</v>
-      </c>
-      <c r="C47" s="33">
-        <v>731</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="33" r="48">
-      <c r="A48" s="35">
-        <v>732</v>
-      </c>
-      <c r="B48" s="36" t="str">
-        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
-      </c>
-      <c r="C48" s="35">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="35">
-        <v>734</v>
-      </c>
-      <c r="B49" s="36" t="str">
-        <v>亡灵饮水地的神女告诉我你这里有能帮助我获得食材的道具。</v>
-      </c>
-      <c r="C49" s="35">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="42">
-        <v>811</v>
-      </c>
-      <c r="B50" s="43" t="str">
-        <v>撒旦是怎样的恶魔？</v>
-      </c>
-      <c r="C50" s="42">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="42">
-        <v>812</v>
-      </c>
-      <c r="B51" s="43" t="str">
-        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
-      </c>
-      <c r="C51" s="42">
-        <v>812</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="33" r="52">
-      <c r="A52" s="42">
-        <v>821</v>
-      </c>
-      <c r="B52" s="43" t="str">
-        <v>撒旦是怎样的恶魔？</v>
-      </c>
-      <c r="C52" s="42">
-        <v>821</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="33" r="53">
-      <c r="A53" s="42">
-        <v>822</v>
-      </c>
-      <c r="B53" s="43" t="str">
-        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
-      </c>
-      <c r="C53" s="42">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="42">
-        <v>823</v>
-      </c>
-      <c r="B54" s="43" t="str">
-        <v>你能给我哪些获取食材的建议？</v>
-      </c>
-      <c r="C54" s="42">
-        <v>823</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="33" r="55">
-      <c r="A55" s="42">
-        <v>831</v>
-      </c>
-      <c r="B55" s="43" t="str">
-        <v>撒旦是怎样的恶魔？</v>
-      </c>
-      <c r="C55" s="42">
-        <v>831</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="33" r="56">
-      <c r="A56" s="42">
-        <v>832</v>
-      </c>
-      <c r="B56" s="43" t="str">
-        <v>关于这场晚宴，你还能告诉我哪些事情？</v>
-      </c>
-      <c r="C56" s="42">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="50">
-        <v>834</v>
-      </c>
-      <c r="B57" s="43" t="str">
-        <v>极乐之野的守卫告诉我你这里有能帮助我获得食材的道具。</v>
-      </c>
-      <c r="C57" s="50">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="49">
-        <v>921</v>
-      </c>
-      <c r="B58" s="48" t="str">
-        <v>跟她走</v>
-      </c>
-      <c r="C58" s="48">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="48">
-        <v>922</v>
-      </c>
-      <c r="B59" s="48" t="str">
-        <v>不跟她走</v>
-      </c>
-      <c r="C59" s="48"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="40">
-        <v>999</v>
-      </c>
-      <c r="B61" s="41" t="str">
-        <v>结束对话</v>
-      </c>
-      <c r="C61" s="41">
-        <v>0</v>
+      <c r="G15" s="32">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="32" t="str">
+        <v>蓝七</v>
+      </c>
+      <c r="B16" s="32">
+        <v>6</v>
+      </c>
+      <c r="C16" s="32">
+        <v>820</v>
+      </c>
+      <c r="D16" s="32">
+        <v>810</v>
+      </c>
+      <c r="E16" s="32">
+        <v>4</v>
+      </c>
+      <c r="F16" s="32">
+        <v>323</v>
+      </c>
+      <c r="G16" s="32">
+        <v>830</v>
       </c>
     </row>
   </sheetData>

--- a/真的taptap demo/Assets/Excel/database.xlsx
+++ b/真的taptap demo/Assets/Excel/database.xlsx
@@ -60,7 +60,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -68,6 +67,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -85,6 +85,66 @@
     <fill>
       <patternFill patternType="gray125">
         <fgColor/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1EAFF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1EAFF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBFBC"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBFBC"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBFBC"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5F6F2"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5F6F2"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5F6F2"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5F6F2"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5F6F2"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -132,55 +192,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFBBFBC"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBBFBC"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBBFBC"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFAF1D1"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD5F6F2"/>
+        <fgColor rgb="FFFED4A4"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD5F6F2"/>
+        <fgColor rgb="FFFED4A4"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD5F6F2"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD5F6F2"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD5F6F2"/>
+        <fgColor rgb="FFFED4A4"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -193,6 +223,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFECE2FE"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFED4A4"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -222,18 +258,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE1EAFF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE1EAFF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFF258"/>
         <bgColor/>
       </patternFill>
@@ -246,43 +270,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFED4A4"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFED4A4"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFED4A4"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFED4A4"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9F5D6"/>
+        <fgColor rgb="FFFDDDEF"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFBBFBC"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDDDEF"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -307,6 +301,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFECE2FE"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9F5D6"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -725,77 +725,77 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="6" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="7" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="8" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="5" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="9" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="10" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="11" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="12" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="13" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="6" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="14" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="7" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="15" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="8" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="16" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="17" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="18" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="9" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="19" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="24" fillId="20" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="25" fillId="21" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="10" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="26" fillId="22" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="11" fontId="4" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="12" fontId="4" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="13" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="14" fontId="4" numFmtId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="15" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="16" fontId="4" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="17" fontId="4" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="18" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="19" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="24" fillId="20" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="25" fillId="21" fontId="4" numFmtId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="26" fillId="22" fontId="4" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="27" fillId="23" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
@@ -803,50 +803,50 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="28" fillId="24" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="29" fillId="25" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="29" fillId="25" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="30" fillId="26" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="31" fillId="27" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="31" fillId="27" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="32" fillId="28" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="33" fillId="29" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="32" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="34" fillId="30" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="35" fillId="31" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="33" fillId="28" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="34" fillId="29" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="36" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="35" fillId="30" fontId="4" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="36" fillId="31" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="37" fillId="32" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="37" fillId="32" fontId="4" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="38" fillId="33" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="38" fillId="33" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="39" fillId="34" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="40" fillId="35" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="40" fillId="35" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="41" fillId="36" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="41" fillId="36" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="42" fillId="37" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="42" fillId="37" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="43" fillId="38" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="43" fillId="38" fontId="4" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="44" fillId="39" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
@@ -857,17 +857,17 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="46" fillId="41" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="47" fillId="42" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="47" fillId="42" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="48" fillId="43" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="48" fillId="43" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="49" fillId="44" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="49" fillId="44" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="50" fillId="45" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="50" fillId="45" fontId="4" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1198,25 +1198,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="str">
+      <c r="A1" s="19" t="str">
         <v>DialogueId</v>
       </c>
-      <c r="B1" s="32" t="str">
+      <c r="B1" s="36" t="str">
         <v>Text</v>
       </c>
-      <c r="C1" s="32" t="str">
+      <c r="C1" s="36" t="str">
         <v>Comment</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="30" t="str">
+      <c r="A2" s="34" t="str">
         <v>编号，触发时候调用</v>
       </c>
-      <c r="B2" s="31" t="str">
+      <c r="B2" s="35" t="str">
         <v>整段对话。一行speaker，一行text。speaker不要冒号，speaker相当于一个ID来控制显示哪张立绘特殊speaker
 Null ：（表示没有立绘）Narrator:（表示全屏显示旁白）Options（表示触发选项，后面跟选项编号，用 “|”分隔）</v>
       </c>
-      <c r="C2" s="31" t="str">
+      <c r="C2" s="35" t="str">
         <v>备注。可以写触发地点，代码不读取，只是为了方便排查
 编号排查：
 1xx-开场剧情及冥府主殿相关
@@ -1231,10 +1231,10 @@
       </c>
     </row>
     <row customHeight="true" ht="425" r="3">
-      <c r="A3" s="28">
+      <c r="A3" s="1">
         <v>100</v>
       </c>
-      <c r="B3" s="29" t="str">
+      <c r="B3" s="2" t="str">
         <v>Narrator
 沉湎……
 Narrator
@@ -1262,16 +1262,16 @@
 Null 
 眼前的苍蝇怪物和这座城堡都令你分外熟悉。这分明是你独立开发的个人游戏中设计出的场景和角色。你掉进了自己制作的游戏里！</v>
       </c>
-      <c r="C3" s="29" t="str">
+      <c r="C3" s="2" t="str">
         <v>开场剧情
 Null 处配的是哥特宫殿那张图</v>
       </c>
     </row>
     <row customHeight="true" ht="350" r="4">
-      <c r="A4" s="28">
+      <c r="A4" s="1">
         <v>110</v>
       </c>
-      <c r="B4" s="29" t="str">
+      <c r="B4" s="2" t="str">
         <v>别西卜
 你好，戴着白色厨师帽的女孩。我想你就是来应聘地狱主厨的候选人了。
 主角7
@@ -1297,15 +1297,15 @@
 Options 
 11|12|10</v>
       </c>
-      <c r="C4" s="29" t="str">
+      <c r="C4" s="2" t="str">
         <v>冥府主殿</v>
       </c>
     </row>
     <row customHeight="true" ht="120" r="5">
-      <c r="A5" s="28">
+      <c r="A5" s="1">
         <v>111</v>
       </c>
-      <c r="B5" s="29" t="str">
+      <c r="B5" s="2" t="str">
         <v>别西卜
 万魔殿的每个地点都在等待着你的探索。
 别西卜
@@ -1315,15 +1315,15 @@
 Options
 11|12|10</v>
       </c>
-      <c r="C5" s="29" t="str">
+      <c r="C5" s="2" t="str">
         <v>冥府主殿</v>
       </c>
     </row>
     <row customHeight="true" ht="163" r="6">
-      <c r="A6" s="28">
+      <c r="A6" s="1">
         <v>112</v>
       </c>
-      <c r="B6" s="29" t="str">
+      <c r="B6" s="2" t="str">
         <v>别西卜
 每道菜有一份标准主食和一份标准辅食。
 别西卜
@@ -1335,15 +1335,15 @@
 Options
 11|12|10</v>
       </c>
-      <c r="C6" s="29" t="str">
+      <c r="C6" s="2" t="str">
         <v>冥府主殿</v>
       </c>
     </row>
     <row customHeight="true" ht="106" r="7">
-      <c r="A7" s="28">
+      <c r="A7" s="1">
         <v>113</v>
       </c>
-      <c r="B7" s="29" t="str">
+      <c r="B7" s="2" t="str">
         <v>别西卜
 第一道菜是无花果香煎龙肝。
 主角6
@@ -1351,15 +1351,15 @@
 主角7
 早知道将新手教程做得更清晰一些了……！</v>
       </c>
-      <c r="C7" s="29" t="str">
+      <c r="C7" s="2" t="str">
         <v>冥府主殿</v>
       </c>
     </row>
     <row customHeight="true" ht="106" r="8">
-      <c r="A8" s="28">
+      <c r="A8" s="1">
         <v>102</v>
       </c>
-      <c r="B8" s="29" t="str">
+      <c r="B8" s="2" t="str">
         <v>别西卜
 第二道菜是藏红花蟾蜍浓汤。
 主角6
@@ -1367,17 +1367,17 @@
 主角7
 蟾蜍在花园里找找？藏红花什么的，还是在原野上比较多吧。</v>
       </c>
-      <c r="C8" s="29" t="str">
+      <c r="C8" s="2" t="str">
         <v>第一道菜评分通过后显示
 对话结束后跳转大地图</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="8"/>
     </row>
     <row customHeight="true" ht="106" r="9">
-      <c r="A9" s="28">
+      <c r="A9" s="1">
         <v>103</v>
       </c>
-      <c r="B9" s="29" t="str">
+      <c r="B9" s="2" t="str">
         <v>别西卜
 第三道菜是香槟鱼子酱酿鱼。
 主角6
@@ -1385,16 +1385,16 @@
 主角7
 香槟酒什么的或许能在宫殿找到。</v>
       </c>
-      <c r="C9" s="29" t="str">
+      <c r="C9" s="2" t="str">
         <v>第二道菜评分通过后显示
 对话结束后跳转大地图</v>
       </c>
     </row>
     <row customHeight="true" ht="106" r="10">
-      <c r="A10" s="28">
+      <c r="A10" s="1">
         <v>104</v>
       </c>
-      <c r="B10" s="29" t="str">
+      <c r="B10" s="2" t="str">
         <v>别西卜
 第四道菜是炭烤摩洛克牛排。
 主角6
@@ -1402,16 +1402,16 @@
 主角7
 烤牛排的配菜在花园里应该是常见的。</v>
       </c>
-      <c r="C10" s="29" t="str">
+      <c r="C10" s="2" t="str">
         <v>第三道菜评分通过后显示
 对话结束后跳转大地图</v>
       </c>
     </row>
     <row customHeight="true" ht="106" r="11">
-      <c r="A11" s="28">
+      <c r="A11" s="1">
         <v>105</v>
       </c>
-      <c r="B11" s="29" t="str">
+      <c r="B11" s="2" t="str">
         <v>别西卜
 第五道菜是烤贝尔芬格奶酪。
 主角6
@@ -1419,16 +1419,16 @@
 主角7
 奶酪的话，或许会和蜂蜜一类的菜品更搭。</v>
       </c>
-      <c r="C11" s="29" t="str">
+      <c r="C11" s="2" t="str">
         <v>第四道菜评分通过后显示
 对话结束后跳转大地图</v>
       </c>
     </row>
     <row customHeight="true" ht="106" r="12">
-      <c r="A12" s="28">
+      <c r="A12" s="1">
         <v>106</v>
       </c>
-      <c r="B12" s="29" t="str">
+      <c r="B12" s="2" t="str">
         <v>别西卜
 第六道菜是撒旦石榴布丁。
 主角6
@@ -1436,16 +1436,16 @@
 主角7
 唔，石榴似乎是在塔尔塔洛斯。</v>
       </c>
-      <c r="C12" s="29" t="str">
+      <c r="C12" s="2" t="str">
         <v>第五道菜评分通过后显示
 对话结束后跳转大地图</v>
       </c>
     </row>
     <row customHeight="true" ht="106" r="13">
-      <c r="A13" s="28">
+      <c r="A13" s="1">
         <v>107</v>
       </c>
-      <c r="B13" s="29" t="str">
+      <c r="B13" s="2" t="str">
         <v>别西卜
 第七道菜是玛门的眼泪。
 主角6
@@ -1454,16 +1454,16 @@
 这道菜应该是酒，或许寻找一些香料能够调配出美妙的味道。
 </v>
       </c>
-      <c r="C13" s="29" t="str">
+      <c r="C13" s="2" t="str">
         <v>第六道菜评分通过后显示
 对话结束后跳转对话920</v>
       </c>
     </row>
     <row customHeight="true" ht="212" r="14">
-      <c r="A14" s="23">
+      <c r="A14" s="28">
         <v>210</v>
       </c>
-      <c r="B14" s="22" t="str">
+      <c r="B14" s="27" t="str">
         <v>Null 
 到处都是火焰、火焰、火焰。
 Null
@@ -1479,7 +1479,7 @@
 Options 
 211|212|999</v>
       </c>
-      <c r="C14" s="22" t="str">
+      <c r="C14" s="27" t="str">
         <v>塔尔塔洛斯
 出现满足条件：
 对应轮次：2；3；4；5；6；7
@@ -1487,10 +1487,10 @@
       </c>
     </row>
     <row customHeight="true" ht="214" r="15">
-      <c r="A15" s="23">
+      <c r="A15" s="28">
         <v>220</v>
       </c>
-      <c r="B15" s="22" t="str">
+      <c r="B15" s="27" t="str">
         <v>Null 
 到处都是火焰、火焰、火焰。
 Null
@@ -1506,17 +1506,17 @@
 Options 
 221|222|223|999</v>
       </c>
-      <c r="C15" s="22" t="str">
+      <c r="C15" s="27" t="str">
         <v>塔尔塔洛斯
 出现满足条件：
 对应轮次：1</v>
       </c>
     </row>
     <row customHeight="true" ht="211" r="16">
-      <c r="A16" s="23">
+      <c r="A16" s="28">
         <v>230</v>
       </c>
-      <c r="B16" s="22" t="str">
+      <c r="B16" s="27" t="str">
         <v>Null
 到处都是火焰、火焰、火焰。
 Null
@@ -1532,7 +1532,7 @@
 Options 
 231|232|234|999</v>
       </c>
-      <c r="C16" s="22" t="str">
+      <c r="C16" s="27" t="str">
         <v>塔尔塔洛斯
 出现满足条件：
 对应轮次：3
@@ -1540,10 +1540,10 @@
       </c>
     </row>
     <row customHeight="true" ht="175" r="17">
-      <c r="A17" s="23">
+      <c r="A17" s="28">
         <v>211</v>
       </c>
-      <c r="B17" s="22" t="str">
+      <c r="B17" s="27" t="str">
         <v>大饼
 阿斯摩太是代表着色欲与婚姻破裂的恶魔之王，有三个脑袋，分别是人头、牛头和羊头。
 大饼
@@ -1557,15 +1557,15 @@
 Options 
 211|212|999</v>
       </c>
-      <c r="C17" s="22" t="str">
+      <c r="C17" s="27" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
     <row customHeight="true" ht="134" r="18">
-      <c r="A18" s="23">
+      <c r="A18" s="28">
         <v>212</v>
       </c>
-      <c r="B18" s="22" t="str">
+      <c r="B18" s="27" t="str">
         <v>大饼
 万魔殿里常年生长着一些可作平替的食材和肉类。当走投无路之际，你可以尝试用这些食材做出低配版的菜品。
 大饼
@@ -1575,15 +1575,15 @@
 Options 
 211|212|999</v>
       </c>
-      <c r="C18" s="22" t="str">
+      <c r="C18" s="27" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
     <row customHeight="true" ht="177" r="19">
-      <c r="A19" s="23">
+      <c r="A19" s="28">
         <v>221</v>
       </c>
-      <c r="B19" s="22" t="str">
+      <c r="B19" s="27" t="str">
         <v>大饼
 阿斯摩太是代表着色欲与婚姻破裂的恶魔之王，有三个脑袋，分别是人头、牛头和羊头。
 大饼
@@ -1597,15 +1597,15 @@
 Options 
 221|222|223|999</v>
       </c>
-      <c r="C19" s="22" t="str">
+      <c r="C19" s="27" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
     <row customHeight="true" ht="137" r="20">
-      <c r="A20" s="23">
+      <c r="A20" s="28">
         <v>222</v>
       </c>
-      <c r="B20" s="22" t="str">
+      <c r="B20" s="27" t="str">
         <v>大饼
 万魔殿里常年生长着一些可作平替的食材和肉类。当走投无路之际，你可以尝试用这些食材做出低配版的菜品。
 大饼
@@ -1615,15 +1615,15 @@
 Options 
 221|222|223|999</v>
       </c>
-      <c r="C20" s="22" t="str">
+      <c r="C20" s="27" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
     <row customHeight="true" ht="106" r="21">
-      <c r="A21" s="23">
+      <c r="A21" s="28">
         <v>223</v>
       </c>
-      <c r="B21" s="22" t="str">
+      <c r="B21" s="27" t="str">
         <v>大饼
 想要获得刻尔柏的龙肝，你需要特殊的工具。
 大饼
@@ -1631,15 +1631,15 @@
 大饼
 另外，在每个地点多多探索，也许会发现可能用到的东西。</v>
       </c>
-      <c r="C21" s="22" t="str">
+      <c r="C21" s="27" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
     <row customHeight="true" ht="186" r="22">
-      <c r="A22" s="23">
+      <c r="A22" s="28">
         <v>231</v>
       </c>
-      <c r="B22" s="22" t="str">
+      <c r="B22" s="27" t="str">
         <v>大饼
 阿斯摩太是代表着色欲与婚姻破裂的恶魔之王，有三个脑袋，分别是人头、牛头和羊头。
 大饼
@@ -1653,15 +1653,15 @@
 Options 
 231|232|234|999</v>
       </c>
-      <c r="C22" s="22" t="str">
+      <c r="C22" s="27" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
     <row customHeight="true" ht="133" r="23">
-      <c r="A23" s="23">
+      <c r="A23" s="28">
         <v>232</v>
       </c>
-      <c r="B23" s="22" t="str">
+      <c r="B23" s="27" t="str">
         <v>大饼
 万魔殿里常年生长着一些可作平替的食材和肉类。当走投无路之际，你可以尝试用这些食材做出低配版的菜品。
 大饼
@@ -1671,28 +1671,28 @@
 Options 
 231|232|234|999</v>
       </c>
-      <c r="C23" s="22" t="str">
+      <c r="C23" s="27" t="str">
         <v>塔尔塔洛斯</v>
       </c>
     </row>
     <row customHeight="true" ht="71" r="24">
-      <c r="A24" s="23">
+      <c r="A24" s="28">
         <v>234</v>
       </c>
-      <c r="B24" s="22" t="str">
+      <c r="B24" s="27" t="str">
         <v>大饼
 我的混沌三叉戟可以帮上你的忙。</v>
       </c>
-      <c r="C24" s="22" t="str">
+      <c r="C24" s="27" t="str">
         <v>塔尔塔洛斯
 玩家道具栏中会出现混沌三叉戟道具</v>
       </c>
     </row>
     <row customHeight="true" ht="246" r="25">
-      <c r="A25" s="23">
+      <c r="A25" s="28">
         <v>2991</v>
       </c>
-      <c r="B25" s="22" t="str">
+      <c r="B25" s="27" t="str">
         <v>阿斯摩太
 我闻到了浓郁的人肉香气……如此新鲜、柔嫩、美味。
 阿斯摩太
@@ -1708,31 +1708,31 @@
 阿斯摩太
 我被困于炼狱中已经太久，自然无法违抗别西卜大人的命令。但是如何得到你所需要的食材，并不取决于我，而取决于你作为厨师的手法。</v>
       </c>
-      <c r="C25" s="22" t="str">
+      <c r="C25" s="27" t="str">
         <v>塔尔塔洛斯
 出现条件：
 对应轮次：1</v>
       </c>
     </row>
     <row customHeight="true" ht="71" r="26">
-      <c r="A26" s="23">
+      <c r="A26" s="28">
         <v>2992</v>
       </c>
-      <c r="B26" s="22" t="str">
+      <c r="B26" s="27" t="str">
         <v>阿斯摩太
 ......</v>
       </c>
-      <c r="C26" s="22" t="str">
+      <c r="C26" s="27" t="str">
         <v>塔尔塔洛斯
 出现条件：
 对应轮次：2；3；4；5；6；7</v>
       </c>
     </row>
     <row customHeight="true" ht="187" r="27">
-      <c r="A27" s="6">
+      <c r="A27" s="16">
         <v>310</v>
       </c>
-      <c r="B27" s="7" t="str">
+      <c r="B27" s="17" t="str">
         <v>Null 
 你来到一个藏红花遍布的平原。
 Null
@@ -1744,9 +1744,9 @@
 三叶虫
 我想我知道你是谁。
 Options 
-311|312|999</v>
-      </c>
-      <c r="C27" s="7" t="str">
+311|312|334|999</v>
+      </c>
+      <c r="C27" s="17" t="str">
         <v>极乐之野
 出现条件：
 对应轮次：1；2；3；5；6；7
@@ -1754,10 +1754,10 @@
       </c>
     </row>
     <row customHeight="true" ht="198" r="28">
-      <c r="A28" s="6">
+      <c r="A28" s="16">
         <v>320</v>
       </c>
-      <c r="B28" s="7" t="str">
+      <c r="B28" s="17" t="str">
         <v>Null 
 你来到一个藏红花遍布的平原。
 Null
@@ -1771,7 +1771,7 @@
 Options 
 321|322|323|999</v>
       </c>
-      <c r="C28" s="7" t="str">
+      <c r="C28" s="17" t="str">
         <v>极乐之野
 出现条件：
 对应轮次：4
@@ -1779,10 +1779,10 @@
       </c>
     </row>
     <row customHeight="true" ht="195" r="29">
-      <c r="A29" s="6">
+      <c r="A29" s="16">
         <v>330</v>
       </c>
-      <c r="B29" s="7" t="str">
+      <c r="B29" s="17" t="str">
         <v>Null 
 你来到一个藏红花遍布的平原。
 Null
@@ -1796,7 +1796,7 @@
 Options 
 331|332|334|999</v>
       </c>
-      <c r="C29" s="7" t="str">
+      <c r="C29" s="17" t="str">
         <v>极乐之野
 出现条件：
 对应轮次：1
@@ -1804,10 +1804,10 @@
       </c>
     </row>
     <row customHeight="true" ht="207" r="30">
-      <c r="A30" s="6">
+      <c r="A30" s="16">
         <v>311</v>
       </c>
-      <c r="B30" s="7" t="str">
+      <c r="B30" s="17" t="str">
         <v>三叶虫
 摩洛克是一位嗜血好战的恶魔，常以半人半牛的形态出没。
 三叶虫
@@ -1821,15 +1821,15 @@
 Options 
 311|312|999</v>
       </c>
-      <c r="C30" s="7" t="str">
+      <c r="C30" s="17" t="str">
         <v>极乐之野</v>
       </c>
     </row>
     <row customHeight="true" ht="99" r="31">
-      <c r="A31" s="6">
+      <c r="A31" s="16">
         <v>312</v>
       </c>
-      <c r="B31" s="7" t="str">
+      <c r="B31" s="17" t="str">
         <v>三叶虫
 不要相信你的大脑。相信你的手、足、眼、口、鼻。亲眼所见，亦非真实。
 三叶虫
@@ -1837,15 +1837,15 @@
 Options 
 311|312|999</v>
       </c>
-      <c r="C31" s="7" t="str">
+      <c r="C31" s="17" t="str">
         <v>极乐之野</v>
       </c>
     </row>
     <row customHeight="true" ht="217" r="32">
-      <c r="A32" s="6">
+      <c r="A32" s="16">
         <v>321</v>
       </c>
-      <c r="B32" s="7" t="str">
+      <c r="B32" s="17" t="str">
         <v>三叶虫
 摩洛克是一位嗜血好战的恶魔，常以半人半牛的形态出没。
 三叶虫
@@ -1859,15 +1859,15 @@
 Options 
 321|322|323|999</v>
       </c>
-      <c r="C32" s="7" t="str">
+      <c r="C32" s="17" t="str">
         <v>极乐之野</v>
       </c>
     </row>
     <row customHeight="true" ht="90" r="33">
-      <c r="A33" s="6">
+      <c r="A33" s="16">
         <v>322</v>
       </c>
-      <c r="B33" s="7" t="str">
+      <c r="B33" s="17" t="str">
         <v>三叶虫
 不要相信你的大脑。相信你的手、足、眼、口、鼻。亲眼所见，亦非真实。
 三叶虫
@@ -1875,15 +1875,15 @@
 Options 
 321|322|323|999</v>
       </c>
-      <c r="C33" s="7" t="str">
+      <c r="C33" s="17" t="str">
         <v>极乐之野</v>
       </c>
     </row>
     <row customHeight="true" ht="114" r="34">
-      <c r="A34" s="6">
+      <c r="A34" s="16">
         <v>323</v>
       </c>
-      <c r="B34" s="7" t="str">
+      <c r="B34" s="17" t="str">
         <v>三叶虫
 摩洛克虽然被禁锢在方寸之地，但力量依然不可小觑。
 三叶虫
@@ -1891,15 +1891,15 @@
 三叶虫
 去遗忘之地寻找一个名叫蓝七的混沌亡灵，她将帮助你使摩洛克陷入沉睡。</v>
       </c>
-      <c r="C34" s="7" t="str">
+      <c r="C34" s="17" t="str">
         <v>极乐之野</v>
       </c>
     </row>
     <row customHeight="true" ht="200" r="35">
-      <c r="A35" s="6">
+      <c r="A35" s="16">
         <v>331</v>
       </c>
-      <c r="B35" s="7" t="str">
+      <c r="B35" s="17" t="str">
         <v>三叶虫
 摩洛克是一位嗜血好战的恶魔，常以半人半牛的形态出没。
 三叶虫
@@ -1913,15 +1913,15 @@
 Options 
 331|332|334|999</v>
       </c>
-      <c r="C35" s="7" t="str">
+      <c r="C35" s="17" t="str">
         <v>极乐之野</v>
       </c>
     </row>
     <row customHeight="true" ht="91" r="36">
-      <c r="A36" s="6">
+      <c r="A36" s="16">
         <v>332</v>
       </c>
-      <c r="B36" s="7" t="str">
+      <c r="B36" s="17" t="str">
         <v>三叶虫
 不要相信你的大脑。相信你的手、足、眼、口、鼻。亲眼所见，亦非真实。
 三叶虫
@@ -1929,28 +1929,28 @@
 Options 
 331|332|334|999</v>
       </c>
-      <c r="C36" s="7" t="str">
+      <c r="C36" s="17" t="str">
         <v>极乐之野</v>
       </c>
     </row>
     <row customHeight="true" ht="52" r="37">
-      <c r="A37" s="6">
+      <c r="A37" s="16">
         <v>334</v>
       </c>
-      <c r="B37" s="7" t="str">
+      <c r="B37" s="17" t="str">
         <v>三叶虫
 这是我的地狱弯刀，几乎可以砍下世界上所有生物的脖颈。</v>
       </c>
-      <c r="C37" s="7" t="str">
+      <c r="C37" s="17" t="str">
         <v>极乐之野
 玩家道具栏里会获取道具地狱弯刀</v>
       </c>
     </row>
     <row customHeight="true" ht="197" r="38">
-      <c r="A38" s="6">
+      <c r="A38" s="16">
         <v>3991</v>
       </c>
-      <c r="B38" s="7" t="str">
+      <c r="B38" s="17" t="str">
         <v>Null 
 摩洛克被关在一处画满蓝色符文的阵法里，无形的光芒笼罩着他。他的牛头发出低沉的吼叫，胸口的熔炉燃烧着腾腾火焰。
 主角1
@@ -1964,29 +1964,29 @@
 Null
 他重新吼叫起来，完全忽视了站在外面的人类。</v>
       </c>
-      <c r="C38" s="7" t="str">
+      <c r="C38" s="17" t="str">
         <v>极乐之野
 出现轮次：1；2；3；4</v>
       </c>
     </row>
     <row customHeight="true" ht="56" r="39">
-      <c r="A39" s="6">
+      <c r="A39" s="16">
         <v>3992</v>
       </c>
-      <c r="B39" s="7" t="str">
+      <c r="B39" s="17" t="str">
         <v>摩洛克
 ......</v>
       </c>
-      <c r="C39" s="7" t="str">
+      <c r="C39" s="17" t="str">
         <v>极乐之野
 出现轮次：5；6；7</v>
       </c>
     </row>
     <row customHeight="true" ht="316" r="40">
-      <c r="A40" s="1">
+      <c r="A40" s="15">
         <v>410</v>
       </c>
-      <c r="B40" s="2" t="str">
+      <c r="B40" s="14" t="str">
         <v>Null 
 冥府的河流呈现深不可测的黑色。
 Null
@@ -2008,17 +2008,17 @@
 Options 
 411|412|999</v>
       </c>
-      <c r="C40" s="2" t="str">
+      <c r="C40" s="14" t="str">
         <v>喀戎之河
 出现条件：
 对应轮次：1；2；4；5；6；7</v>
       </c>
     </row>
     <row customHeight="true" ht="326" r="41">
-      <c r="A41" s="1">
+      <c r="A41" s="15">
         <v>420</v>
       </c>
-      <c r="B41" s="2" t="str">
+      <c r="B41" s="14" t="str">
         <v>Null 
 冥府的河流呈现深不可测的黑色。
 Null
@@ -2040,17 +2040,17 @@
 Options 
 421|422|423|999</v>
       </c>
-      <c r="C41" s="2" t="str">
+      <c r="C41" s="14" t="str">
         <v>喀戎之河
 出现条件：
 对应轮次：3</v>
       </c>
     </row>
     <row customHeight="true" ht="176" r="42">
-      <c r="A42" s="1">
+      <c r="A42" s="15">
         <v>411</v>
       </c>
-      <c r="B42" s="2" t="str">
+      <c r="B42" s="14" t="str">
         <v>因诺
 利维坦是原始混沌的化身，是海洋的统治者。
 因诺
@@ -2064,15 +2064,15 @@
 Options 
 411|412|999</v>
       </c>
-      <c r="C42" s="2" t="str">
+      <c r="C42" s="14" t="str">
         <v>喀戎之河</v>
       </c>
     </row>
     <row customHeight="true" ht="93" r="43">
-      <c r="A43" s="1">
+      <c r="A43" s="15">
         <v>412</v>
       </c>
-      <c r="B43" s="2" t="str">
+      <c r="B43" s="14" t="str">
         <v>因诺
 跟她们不一样，我很喜欢你对我的塑造。你是个善良的人，不该承受这些。
 因诺
@@ -2081,15 +2081,15 @@
 411|412|999
 </v>
       </c>
-      <c r="C43" s="2" t="str">
+      <c r="C43" s="14" t="str">
         <v>喀戎之河</v>
       </c>
     </row>
     <row customHeight="true" ht="171" r="44">
-      <c r="A44" s="1">
+      <c r="A44" s="15">
         <v>421</v>
       </c>
-      <c r="B44" s="2" t="str">
+      <c r="B44" s="14" t="str">
         <v>因诺
 利维坦是原始混沌的化身，是海洋的统治者。
 因诺
@@ -2103,15 +2103,15 @@
 Options 
 421|422|423|999</v>
       </c>
-      <c r="C44" s="2" t="str">
+      <c r="C44" s="14" t="str">
         <v>喀戎之河</v>
       </c>
     </row>
     <row customHeight="true" ht="94" r="45">
-      <c r="A45" s="1">
+      <c r="A45" s="15">
         <v>422</v>
       </c>
-      <c r="B45" s="2" t="str">
+      <c r="B45" s="14" t="str">
         <v>因诺
 跟她们不一样，我很喜欢你对我的塑造。你是个善良的人，不该承受这些。
 因诺
@@ -2119,30 +2119,30 @@
 Options 
 421|422|423|999</v>
       </c>
-      <c r="C45" s="2" t="str">
+      <c r="C45" s="14" t="str">
         <v>喀戎之河</v>
       </c>
     </row>
     <row customHeight="true" ht="87" r="46">
-      <c r="A46" s="1">
+      <c r="A46" s="15">
         <v>423</v>
       </c>
-      <c r="B46" s="2" t="str">
+      <c r="B46" s="14" t="str">
         <v>因诺
 与利维坦的简单性格相对照的，是他坚硬无比的皮肤。
 因诺
 别西卜大人需要的食材必须特殊的工具才能获得，你需要去塔尔塔洛斯寻找那位地狱守卫，取得她的帮助。
 </v>
       </c>
-      <c r="C46" s="2" t="str">
+      <c r="C46" s="14" t="str">
         <v>喀戎之河</v>
       </c>
     </row>
     <row customHeight="true" ht="295" r="47">
-      <c r="A47" s="1">
+      <c r="A47" s="15">
         <v>4991</v>
       </c>
-      <c r="B47" s="2" t="str">
+      <c r="B47" s="14" t="str">
         <v>Null 
 一只巨大的鲸鱼出现在你面前。它的表面没有眼睛，身体上覆盖着厚厚的青苔。它不安的背鳍轻轻晃动着，黏稠厚重的河水慢慢浮现波纹。
 利维坦
@@ -2164,31 +2164,31 @@
 主角12
 虽然利维坦的个性温和，但毕竟是恶魔，他并没有比别人犯的罪恶更少。</v>
       </c>
-      <c r="C47" s="2" t="str">
+      <c r="C47" s="14" t="str">
         <v>喀戎之河
 出现条件：
 对应轮次：1；2；3</v>
       </c>
     </row>
     <row customHeight="true" ht="85" r="48">
-      <c r="A48" s="1">
+      <c r="A48" s="15">
         <v>4992</v>
       </c>
-      <c r="B48" s="2" t="str">
+      <c r="B48" s="14" t="str">
         <v>利维坦
 ......</v>
       </c>
-      <c r="C48" s="2" t="str">
+      <c r="C48" s="14" t="str">
         <v>喀戎之河
 出现条件：
 对应轮次：4；5；6；7</v>
       </c>
     </row>
     <row customHeight="true" ht="349" r="49">
-      <c r="A49" s="19">
+      <c r="A49" s="10">
         <v>510</v>
       </c>
-      <c r="B49" s="17" t="str">
+      <c r="B49" s="11" t="str">
         <v>Null 
 这里生长着大片水仙。这种冥河之花象征着死亡、自恋与重生——纳西索斯化作美丽的金光柔和地包裹着这个地方。
 Null
@@ -2214,17 +2214,17 @@
 Options 
 511|512|999</v>
       </c>
-      <c r="C49" s="18" t="str">
+      <c r="C49" s="12" t="str">
         <v>水仙花园
 出现条件：
 对应轮次：1；3；4；5；6；7</v>
       </c>
     </row>
     <row customHeight="true" ht="369" r="50">
-      <c r="A50" s="19">
+      <c r="A50" s="10">
         <v>520</v>
       </c>
-      <c r="B50" s="17" t="str">
+      <c r="B50" s="11" t="str">
         <v>Null 
 这里生长着大片水仙。这种冥河之花象征着死亡、自恋与重生——纳西索斯化作美丽的金光柔和地包裹着这个地方。
 Null
@@ -2250,17 +2250,17 @@
 Options 
 521|522|523|999</v>
       </c>
-      <c r="C50" s="18" t="str">
+      <c r="C50" s="12" t="str">
         <v>水仙花园
 出现条件：
 对应轮次：2</v>
       </c>
     </row>
     <row customHeight="true" ht="365" r="51">
-      <c r="A51" s="19">
+      <c r="A51" s="10">
         <v>530</v>
       </c>
-      <c r="B51" s="17" t="str">
+      <c r="B51" s="11" t="str">
         <v>Null 
 这里生长着大片水仙。这种冥河之花象征着死亡、自恋与重生——纳西索斯化作美丽的金光柔和地包裹着这个地方。
 Null
@@ -2286,7 +2286,7 @@
 Options 
 531|532|534|999</v>
       </c>
-      <c r="C51" s="18" t="str">
+      <c r="C51" s="12" t="str">
         <v>水仙花园
 出现条件：
 对应轮次：7
@@ -2294,10 +2294,10 @@
       </c>
     </row>
     <row customHeight="true" ht="194" r="52">
-      <c r="A52" s="19">
+      <c r="A52" s="10">
         <v>511</v>
       </c>
-      <c r="B52" s="17" t="str">
+      <c r="B52" s="11" t="str">
         <v>摸摸
 远在万魔殿建造之前，巴力曾经是古迦南普遍崇拜的风暴和丰饶之神。
 摸摸
@@ -2311,15 +2311,15 @@
 Options 
 511|512|999</v>
       </c>
-      <c r="C52" s="20" t="str">
+      <c r="C52" s="9" t="str">
         <v>水仙花园</v>
       </c>
     </row>
     <row customHeight="true" ht="106" r="53">
-      <c r="A53" s="19">
+      <c r="A53" s="10">
         <v>512</v>
       </c>
-      <c r="B53" s="17" t="str">
+      <c r="B53" s="11" t="str">
         <v>摸摸
 为什么要把我设计成全黑的角色我恨你你知道我有多讨厌黑色吗你根本不懂你才是这个游戏里最大的bug！！！
 摸摸
@@ -2327,15 +2327,15 @@
 Options 
 511|512|999</v>
       </c>
-      <c r="C53" s="20" t="str">
+      <c r="C53" s="9" t="str">
         <v>水仙花园</v>
       </c>
     </row>
     <row customHeight="true" ht="195" r="54">
-      <c r="A54" s="19">
+      <c r="A54" s="10">
         <v>521</v>
       </c>
-      <c r="B54" s="17" t="str">
+      <c r="B54" s="11" t="str">
         <v>摸摸
 远在万魔殿建造之前，巴力曾经是古迦南普遍崇拜的风暴和丰饶之神。
 摸摸
@@ -2349,15 +2349,15 @@
 Options 
 521|522|523|999</v>
       </c>
-      <c r="C54" s="20" t="str">
+      <c r="C54" s="9" t="str">
         <v>水仙花园</v>
       </c>
     </row>
     <row customHeight="true" ht="107" r="55">
-      <c r="A55" s="19">
+      <c r="A55" s="10">
         <v>522</v>
       </c>
-      <c r="B55" s="17" t="str">
+      <c r="B55" s="11" t="str">
         <v>摸摸
 为什么要把我设计成全黑的角色我恨你你知道我有多讨厌黑色吗你根本不懂你才是这个游戏里最大的bug！！！
 摸摸
@@ -2365,28 +2365,28 @@
 Options 
 521|522|523|999</v>
       </c>
-      <c r="C55" s="20" t="str">
+      <c r="C55" s="9" t="str">
         <v>水仙花园</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="19">
+      <c r="A56" s="10">
         <v>523</v>
       </c>
-      <c r="B56" s="17" t="str">
+      <c r="B56" s="11" t="str">
         <v>摸摸
 在巴力处获取的食材需要特殊的容器才能储存，你可以在喀戎河畔找到你所需要的物品。</v>
       </c>
-      <c r="C56" s="21" t="str">
+      <c r="C56" s="13" t="str">
         <v>水仙花园
 然后可以在河流出点击拾取地上的物品</v>
       </c>
     </row>
     <row customHeight="true" ht="198" r="57">
-      <c r="A57" s="19">
+      <c r="A57" s="10">
         <v>531</v>
       </c>
-      <c r="B57" s="17" t="str">
+      <c r="B57" s="11" t="str">
         <v>摸摸
 远在万魔殿建造之前，巴力曾经是古迦南普遍崇拜的风暴和丰饶之神。
 摸摸
@@ -2400,15 +2400,15 @@
 Options 
 531|532|534|999</v>
       </c>
-      <c r="C57" s="20" t="str">
+      <c r="C57" s="9" t="str">
         <v>水仙花园</v>
       </c>
     </row>
     <row customHeight="true" ht="101" r="58">
-      <c r="A58" s="19">
+      <c r="A58" s="10">
         <v>532</v>
       </c>
-      <c r="B58" s="17" t="str">
+      <c r="B58" s="11" t="str">
         <v>摸摸
 为什么要把我设计成全黑的角色我恨你你知道我有多讨厌黑色吗你根本不懂你才是这个游戏里最大的bug！！！
 摸摸
@@ -2416,28 +2416,28 @@
 Options 
 531|532|534|999</v>
       </c>
-      <c r="C58" s="20" t="str">
+      <c r="C58" s="9" t="str">
         <v>水仙花园</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="19">
+      <c r="A59" s="10">
         <v>534</v>
       </c>
-      <c r="B59" s="17" t="str">
+      <c r="B59" s="11" t="str">
         <v>摸摸
 噢……你指的是这把金十字镐。用这个对付玛门再合适不过。</v>
       </c>
-      <c r="C59" s="20" t="str">
+      <c r="C59" s="9" t="str">
         <v>水仙花园
 玩家物品栏增加金十字镐</v>
       </c>
     </row>
     <row customHeight="true" ht="316" r="60">
-      <c r="A60" s="19">
+      <c r="A60" s="10">
         <v>5991</v>
       </c>
-      <c r="B60" s="17" t="str">
+      <c r="B60" s="11" t="str">
         <v>巴力
 你好，戴着白色厨师帽的女孩。
 主角2
@@ -2459,31 +2459,31 @@
 巴力
 至于他所想取的食材……这些伤口对地狱的恶魔不算什么。动手吧，戴厨师帽的女孩。</v>
       </c>
-      <c r="C60" s="20" t="str">
+      <c r="C60" s="9" t="str">
         <v>水仙花园
 出现条件：
 对应轮次：1；2</v>
       </c>
     </row>
     <row customHeight="true" ht="76" r="61">
-      <c r="A61" s="19">
+      <c r="A61" s="10">
         <v>5992</v>
       </c>
-      <c r="B61" s="17" t="str">
+      <c r="B61" s="11" t="str">
         <v>巴力
 ......</v>
       </c>
-      <c r="C61" s="18" t="str">
+      <c r="C61" s="12" t="str">
         <v>水仙花园
 出现条件：
 对应轮次：3；4；5；6；7</v>
       </c>
     </row>
     <row customHeight="true" ht="306" r="62">
-      <c r="A62" s="13">
+      <c r="A62" s="3">
         <v>610</v>
       </c>
-      <c r="B62" s="14" t="str">
+      <c r="B62" s="4" t="str">
         <v>Null 
 如牛奶般甘美的泉水在灰暗的密林里流淌。
 Null
@@ -2505,17 +2505,17 @@
 Options 
 611|612|999</v>
       </c>
-      <c r="C62" s="15" t="str">
+      <c r="C62" s="5" t="str">
         <v>亡灵饮水地
 出现条件：
 对应轮次：1；2；3；4；6；7</v>
       </c>
     </row>
     <row customHeight="true" ht="306" r="63">
-      <c r="A63" s="13">
+      <c r="A63" s="3">
         <v>620</v>
       </c>
-      <c r="B63" s="14" t="str">
+      <c r="B63" s="4" t="str">
         <v>Null 
 如牛奶般甘美的泉水在灰暗的密林里流淌。
 Null
@@ -2537,17 +2537,17 @@
 Options 
 621|622|623|999</v>
       </c>
-      <c r="C63" s="15" t="str">
+      <c r="C63" s="5" t="str">
         <v>亡灵饮水地
 出现条件：
 对应轮次：5</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="13">
+      <c r="A64" s="3">
         <v>611</v>
       </c>
-      <c r="B64" s="14" t="str">
+      <c r="B64" s="4" t="str">
         <v>牙牙乐
 她被认作是怠惰的化身，通过财富、懒惰和发明来诱惑人类。
 牙牙乐
@@ -2563,15 +2563,15 @@
 Options 
 611|612|999</v>
       </c>
-      <c r="C64" s="15" t="str">
+      <c r="C64" s="5" t="str">
         <v>亡灵饮水地</v>
       </c>
     </row>
     <row customHeight="true" ht="92" r="65">
-      <c r="A65" s="13">
+      <c r="A65" s="3">
         <v>612</v>
       </c>
-      <c r="B65" s="14" t="str">
+      <c r="B65" s="4" t="str">
         <v>牙牙乐
 亲爱的，实际上，我们都知道你是谁……
 牙牙乐
@@ -2579,15 +2579,15 @@
 Options 
 611|612|999</v>
       </c>
-      <c r="C65" s="15" t="str">
+      <c r="C65" s="5" t="str">
         <v>亡灵饮水地</v>
       </c>
     </row>
     <row customHeight="true" ht="195" r="66">
-      <c r="A66" s="13">
+      <c r="A66" s="3">
         <v>621</v>
       </c>
-      <c r="B66" s="14" t="str">
+      <c r="B66" s="4" t="str">
         <v>牙牙乐
 她被认作是怠惰的化身，通过财富、懒惰和发明来诱惑人类。
 牙牙乐
@@ -2603,15 +2603,15 @@
 Options 
 621|622|623|999</v>
       </c>
-      <c r="C66" s="15" t="str">
+      <c r="C66" s="5" t="str">
         <v>亡灵饮水地</v>
       </c>
     </row>
     <row customHeight="true" ht="95" r="67">
-      <c r="A67" s="13">
+      <c r="A67" s="3">
         <v>622</v>
       </c>
-      <c r="B67" s="14" t="str">
+      <c r="B67" s="4" t="str">
         <v>牙牙乐
 亲爱的，实际上，我们都知道你是谁……
 牙牙乐
@@ -2619,29 +2619,29 @@
 Options 
 621|622|623|999</v>
       </c>
-      <c r="C67" s="15" t="str">
+      <c r="C67" s="5" t="str">
         <v>亡灵饮水地</v>
       </c>
     </row>
     <row customHeight="true" ht="76" r="68">
-      <c r="A68" s="13">
+      <c r="A68" s="3">
         <v>623</v>
       </c>
-      <c r="B68" s="14" t="str">
+      <c r="B68" s="4" t="str">
         <v>牙牙乐
 没有人知道这次的祭品究竟是不是人类的排泄物。
 牙牙乐
 以防万一，我想你可以去冥府侧殿的侍女处找到合适的容器来盛装。</v>
       </c>
-      <c r="C68" s="15" t="str">
+      <c r="C68" s="5" t="str">
         <v>亡灵饮水地</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="13">
+      <c r="A69" s="3">
         <v>6991</v>
       </c>
-      <c r="B69" s="14" t="str">
+      <c r="B69" s="4" t="str">
         <v>贝尔芬格
 ……
 主角1
@@ -2659,31 +2659,31 @@
 主角12
 看来我自己去获取祭品就好。</v>
       </c>
-      <c r="C69" s="15" t="str">
+      <c r="C69" s="5" t="str">
         <v>亡灵饮水地
 出现条件：
 对应轮次：1；2；3；4；5</v>
       </c>
     </row>
     <row customHeight="true" ht="78" r="70">
-      <c r="A70" s="13">
+      <c r="A70" s="3">
         <v>6992</v>
       </c>
-      <c r="B70" s="14" t="str">
+      <c r="B70" s="4" t="str">
         <v>贝尔芬格
 ......</v>
       </c>
-      <c r="C70" s="15" t="str">
+      <c r="C70" s="5" t="str">
         <v>亡灵饮水地
 出现条件：
 对应轮次：6；7</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="24">
+      <c r="A71" s="30">
         <v>710</v>
       </c>
-      <c r="B71" s="27" t="str">
+      <c r="B71" s="33" t="str">
         <v>Null 
 某位魔王用金子打造了这座殿堂：从天花板、吊灯到桌椅、碗碟甚至侍女的面纱，都散发着黄金令人迷醉的香气。
 Null
@@ -2702,17 +2702,17 @@
 711|712|999
 </v>
       </c>
-      <c r="C71" s="26" t="str">
+      <c r="C71" s="32" t="str">
         <v>冥府侧殿
 出现条件：
 对应轮次：1；2；3；4；5；6</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="24">
+      <c r="A72" s="30">
         <v>720</v>
       </c>
-      <c r="B72" s="27" t="str">
+      <c r="B72" s="33" t="str">
         <v>Null 
 某位魔王用金子打造了这座殿堂：从天花板、吊灯到桌椅、碗碟甚至侍女的面纱，都散发着黄金令人迷醉的香气。
 Null
@@ -2730,17 +2730,17 @@
 Options 
 721|722|723|999</v>
       </c>
-      <c r="C72" s="26" t="str">
+      <c r="C72" s="32" t="str">
         <v>冥府侧殿
 出现条件：
 对应轮次：7</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="24">
+      <c r="A73" s="30">
         <v>730</v>
       </c>
-      <c r="B73" s="27" t="str">
+      <c r="B73" s="33" t="str">
         <v>Null 
 某位魔王用金子打造了这座殿堂：从天花板、吊灯到桌椅、碗碟甚至侍女的面纱，都散发着黄金令人迷醉的香气。
 Null
@@ -2758,7 +2758,7 @@
 Options 
 731|732|734|999</v>
       </c>
-      <c r="C73" s="26" t="str">
+      <c r="C73" s="32" t="str">
         <v>冥府侧殿
 出现条件：
 对应轮次：5
@@ -2766,10 +2766,10 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="24">
+      <c r="A74" s="30">
         <v>711</v>
       </c>
-      <c r="B74" s="27" t="str">
+      <c r="B74" s="33" t="str">
         <v>小葵
 即使在天堂时，他的眼睛也总是向下凝视着天堂黄金铺就的地板。
 小葵
@@ -2781,15 +2781,15 @@
 Options 
 711|712|999</v>
       </c>
-      <c r="C74" s="26" t="str">
+      <c r="C74" s="32" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="24">
+      <c r="A75" s="30">
         <v>712</v>
       </c>
-      <c r="B75" s="25" t="str">
+      <c r="B75" s="31" t="str">
         <v>小葵
 你有没有发现……这个地方开始出现故障了？
 小葵
@@ -2797,15 +2797,15 @@
 Options 
 711|712|999</v>
       </c>
-      <c r="C75" s="26" t="str">
+      <c r="C75" s="32" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
     <row customHeight="true" ht="160" r="76">
-      <c r="A76" s="24">
+      <c r="A76" s="30">
         <v>721</v>
       </c>
-      <c r="B76" s="27" t="str">
+      <c r="B76" s="33" t="str">
         <v>小小葵
 即使在天堂时，他的眼睛也总是向下凝视着天堂黄金铺就的地板。
 小葵
@@ -2817,15 +2817,15 @@
 Options 
 721|722|723|999</v>
       </c>
-      <c r="C76" s="26" t="str">
+      <c r="C76" s="32" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
     <row customHeight="true" ht="85" r="77">
-      <c r="A77" s="24">
+      <c r="A77" s="30">
         <v>722</v>
       </c>
-      <c r="B77" s="25" t="str">
+      <c r="B77" s="31" t="str">
         <v>小葵
 你有没有发现……这个地方开始出现故障了？
 小葵
@@ -2833,29 +2833,29 @@
 Options 
 721|722|723|999</v>
       </c>
-      <c r="C77" s="26" t="str">
+      <c r="C77" s="32" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="24">
+      <c r="A78" s="30">
         <v>723</v>
       </c>
-      <c r="B78" s="27" t="str">
+      <c r="B78" s="33" t="str">
         <v>小葵
 此刻他正在沉睡。即使在睡梦中，玛门也要与黄金同眠。
 小葵
 我想你需要去找水仙花园的冥府园丁，借助某个工具才能将他从黄金堆里找出。</v>
       </c>
-      <c r="C78" s="26" t="str">
+      <c r="C78" s="32" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
     <row customHeight="true" ht="161" r="79">
-      <c r="A79" s="24">
+      <c r="A79" s="30">
         <v>731</v>
       </c>
-      <c r="B79" s="27" t="str">
+      <c r="B79" s="33" t="str">
         <v>小葵
 即使在天堂时，他的眼睛也总是向下凝视着天堂黄金铺就的地板。
 小葵
@@ -2867,15 +2867,15 @@
 Options 
 731|732|734|999</v>
       </c>
-      <c r="C79" s="26" t="str">
+      <c r="C79" s="32" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
     <row customHeight="true" ht="95" r="80">
-      <c r="A80" s="24">
+      <c r="A80" s="30">
         <v>732</v>
       </c>
-      <c r="B80" s="25" t="str">
+      <c r="B80" s="31" t="str">
         <v>小葵
 你有没有发现……这个地方开始出现故障了？
 小葵
@@ -2883,28 +2883,28 @@
 Options 
 731|732|734|999</v>
       </c>
-      <c r="C80" s="26" t="str">
+      <c r="C80" s="32" t="str">
         <v>冥府侧殿</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="24">
+      <c r="A81" s="30">
         <v>734</v>
       </c>
-      <c r="B81" s="25" t="str">
+      <c r="B81" s="31" t="str">
         <v>小葵
 啊！我想你需要的是这个狮鹫夜壶。</v>
       </c>
-      <c r="C81" s="26" t="str">
+      <c r="C81" s="32" t="str">
         <v>冥府侧殿
 玩家道具栏新增狮鹫夜壶</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="24">
+      <c r="A82" s="30">
         <v>7991</v>
       </c>
-      <c r="B82" s="25" t="str">
+      <c r="B82" s="31" t="str">
         <v>玛门
 没有一个瞬间，不会成为地狱的进口。没有一个瞬间，不会成为天堂的流水。
 玛门
@@ -2916,17 +2916,17 @@
 主角3
 人设还真是始终如一地不ooc呢……</v>
       </c>
-      <c r="C82" s="26" t="str">
+      <c r="C82" s="32" t="str">
         <v>冥府侧殿
 出现条件：
 对应轮次：1；2；3；4；5；6；7</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="33">
+      <c r="A83" s="25">
         <v>810</v>
       </c>
-      <c r="B83" s="34" t="str">
+      <c r="B83" s="26" t="str">
         <v>Null 
 宇宙诞生时遗留的最后一处混沌之地，现在只能看到漫天沙砾。
 Null
@@ -2948,17 +2948,17 @@
 Options 
 811|812|999</v>
       </c>
-      <c r="C83" s="35" t="str">
+      <c r="C83" s="24" t="str">
         <v>混沌之地
 出现条件
 对应轮次：1；2；3；4；5；7</v>
       </c>
     </row>
     <row customHeight="true" ht="315" r="84">
-      <c r="A84" s="33">
+      <c r="A84" s="25">
         <v>820</v>
       </c>
-      <c r="B84" s="34" t="str">
+      <c r="B84" s="26" t="str">
         <v>Null 
 宇宙诞生时遗留的最后一处混沌之地，现在只能看到漫天沙砾。
 Null
@@ -2980,17 +2980,17 @@
 Options 
 821|822|823|999</v>
       </c>
-      <c r="C84" s="35" t="str">
+      <c r="C84" s="24" t="str">
         <v>混沌之地
 出现条件
 对应轮次：6</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="33">
+      <c r="A85" s="25">
         <v>830</v>
       </c>
-      <c r="B85" s="34" t="str">
+      <c r="B85" s="26" t="str">
         <v>Null 
 宇宙诞生时遗留的最后一处混沌之地，现在只能看到漫天沙砾。
 Null
@@ -3012,7 +3012,7 @@
 Options 
 831|832|834|999</v>
       </c>
-      <c r="C85" s="35" t="str">
+      <c r="C85" s="24" t="str">
         <v>混沌之地
 出现条件
 对应轮次：4
@@ -3020,10 +3020,10 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="33">
+      <c r="A86" s="25">
         <v>811</v>
       </c>
-      <c r="B86" s="34" t="str">
+      <c r="B86" s="26" t="str">
         <v>蓝七
 直至今日，撒旦依然在凡间享有远超于其他恶魔的名声。人类用她的名讳代指恶魔，将其描述为或阴险邪恶的象征。
 蓝七
@@ -3035,15 +3035,15 @@
 Options 
 811|812|999</v>
       </c>
-      <c r="C86" s="35" t="str">
+      <c r="C86" s="24" t="str">
         <v>混沌之地</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="33">
+      <c r="A87" s="25">
         <v>812</v>
       </c>
-      <c r="B87" s="34" t="str">
+      <c r="B87" s="26" t="str">
         <v>蓝七
 这里并不是你所想象的那样！唯一的方法是&amp;%￥#@！*%￥……&amp;*？%￥#
 蓝七
@@ -3051,15 +3051,15 @@
 Options 
 811|812|999</v>
       </c>
-      <c r="C87" s="35" t="str">
+      <c r="C87" s="24" t="str">
         <v>混沌之地</v>
       </c>
     </row>
     <row customHeight="true" ht="186" r="88">
-      <c r="A88" s="33">
+      <c r="A88" s="25">
         <v>821</v>
       </c>
-      <c r="B88" s="34" t="str">
+      <c r="B88" s="26" t="str">
         <v>蓝七
 直至今日，撒旦依然在凡间享有远超于其他恶魔的名声。人类用她的名讳代指恶魔，将其描述为或阴险邪恶的象征。
 蓝七
@@ -3071,15 +3071,15 @@
 Options 
 821|822|823|999</v>
       </c>
-      <c r="C88" s="35" t="str">
+      <c r="C88" s="24" t="str">
         <v>混沌之地</v>
       </c>
     </row>
     <row customHeight="true" ht="96" r="89">
-      <c r="A89" s="33">
+      <c r="A89" s="25">
         <v>822</v>
       </c>
-      <c r="B89" s="34" t="str">
+      <c r="B89" s="26" t="str">
         <v>蓝七
 这里并不是你所想象的那样！唯一的方法是&amp;%￥#@！*%￥……&amp;*？%￥#
 蓝七
@@ -3087,28 +3087,28 @@
 Options 
 821|822|823|999</v>
       </c>
-      <c r="C89" s="35" t="str">
+      <c r="C89" s="24" t="str">
         <v>混沌之地</v>
       </c>
     </row>
     <row customHeight="true" ht="54" r="90">
-      <c r="A90" s="33">
+      <c r="A90" s="25">
         <v>823</v>
       </c>
-      <c r="B90" s="34" t="str">
+      <c r="B90" s="26" t="str">
         <v>蓝七
 从撒旦身上获取的食材需要特殊的容器才能储存，你可以在亡灵饮水地找到你所需要的物品。</v>
       </c>
-      <c r="C90" s="36" t="str">
+      <c r="C90" s="29" t="str">
         <v>混沌之地
 乌洛波洛斯之盘自行拾取</v>
       </c>
     </row>
     <row customHeight="true" ht="185" r="91">
-      <c r="A91" s="33">
+      <c r="A91" s="25">
         <v>831</v>
       </c>
-      <c r="B91" s="34" t="str">
+      <c r="B91" s="26" t="str">
         <v>蓝七
 直至今日，撒旦依然在凡间享有远超于其他恶魔的名声。人类用她的名讳代指恶魔，将其描述为或阴险邪恶的象征。
 蓝七
@@ -3120,15 +3120,15 @@
 Options 
 831|832|834|999</v>
       </c>
-      <c r="C91" s="35" t="str">
+      <c r="C91" s="24" t="str">
         <v>混沌之地</v>
       </c>
     </row>
     <row customHeight="true" ht="105" r="92">
-      <c r="A92" s="33">
+      <c r="A92" s="25">
         <v>832</v>
       </c>
-      <c r="B92" s="34" t="str">
+      <c r="B92" s="26" t="str">
         <v>蓝七
 这里并不是你所想象的那样！唯一的方法是&amp;%￥#@！*%￥……&amp;*？%￥#
 蓝七
@@ -3136,28 +3136,28 @@
 Options 
 831|832|834|999</v>
       </c>
-      <c r="C92" s="35" t="str">
+      <c r="C92" s="24" t="str">
         <v>混沌之地</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="33">
+      <c r="A93" s="25">
         <v>834</v>
       </c>
-      <c r="B93" s="34" t="str">
+      <c r="B93" s="26" t="str">
         <v>蓝七
 啊！我想你需要厄洛斯之香。即使是再强大的恶魔，它也能使其陷入沉睡。</v>
       </c>
-      <c r="C93" s="35" t="str">
+      <c r="C93" s="24" t="str">
         <v>混沌之地
 玩家道具栏增加厄洛斯之香</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="33">
+      <c r="A94" s="25">
         <v>8991</v>
       </c>
-      <c r="B94" s="34" t="str">
+      <c r="B94" s="26" t="str">
         <v>撒旦
 我一直在看着你，女孩。
 撒旦
@@ -3171,43 +3171,43 @@
 撒旦
 既然别西卜想要，我就不为难你了。不必怜惜我，我不会感到疼痛……</v>
       </c>
-      <c r="C94" s="35" t="str">
+      <c r="C94" s="24" t="str">
         <v>混沌之地
 出现条件
 对应轮次：1；2；3；4；5；6</v>
       </c>
     </row>
     <row customHeight="true" ht="68" r="95">
-      <c r="A95" s="33">
+      <c r="A95" s="25">
         <v>8992</v>
       </c>
-      <c r="B95" s="34" t="str">
+      <c r="B95" s="26" t="str">
         <v>撒旦
 ......</v>
       </c>
-      <c r="C95" s="35" t="str">
+      <c r="C95" s="24" t="str">
         <v>混沌之地
 出现条件
 对应轮次：7</v>
       </c>
     </row>
     <row customHeight="true" ht="81" r="96">
-      <c r="A96" s="10">
+      <c r="A96" s="20">
         <v>910</v>
       </c>
-      <c r="B96" s="11" t="str">
+      <c r="B96" s="21" t="str">
         <v>Narrator
 你做出了连恶魔都难以下咽的食物……
 Narrator
 别西卜非常恼怒，将你投喂给了利维坦</v>
       </c>
-      <c r="C96" s="12"/>
+      <c r="C96" s="22"/>
     </row>
     <row r="97">
-      <c r="A97" s="10">
+      <c r="A97" s="20">
         <v>920</v>
       </c>
-      <c r="B97" s="11" t="str">
+      <c r="B97" s="21" t="str">
         <v>因诺
 不知道现在告诉你这些会不会太晚了……
 因诺
@@ -3219,17 +3219,17 @@
 Options 
 921|922</v>
       </c>
-      <c r="C97" s="16" t="str">
+      <c r="C97" s="23" t="str">
         <v>第六道菜结束后（别西卜发布任务后）弹出的对话
 选项921-进入逃离失败结局部分
 选项922-进入第七轮次的白日地图</v>
       </c>
     </row>
     <row customHeight="true" ht="735" r="98">
-      <c r="A98" s="10">
+      <c r="A98" s="20">
         <v>930</v>
       </c>
-      <c r="B98" s="11" t="str">
+      <c r="B98" s="21" t="str">
         <v>Narrator
 你以为你成功了吗？
 Narrator
@@ -3281,17 +3281,17 @@
 Null
 亲爱的，我们游戏主界面见。</v>
       </c>
-      <c r="C98" s="12" t="str">
+      <c r="C98" s="22" t="str">
         <v>真结局文本内容
 做完第七道菜并且评分通过后触发
 </v>
       </c>
     </row>
     <row customHeight="true" ht="148" r="99">
-      <c r="A99" s="10">
+      <c r="A99" s="20">
         <v>921</v>
       </c>
-      <c r="B99" s="11" t="str">
+      <c r="B99" s="21" t="str">
         <v>Narrator
 多么天真可爱、盲目轻信的小女孩……
 Narrator
@@ -3303,832 +3303,832 @@
 Narrator
 在更高的维度，我们始终掌控着你的命运……</v>
       </c>
-      <c r="C99" s="12"/>
+      <c r="C99" s="22"/>
     </row>
     <row r="100">
-      <c r="A100" s="9"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="5"/>
+      <c r="A100" s="19"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="8"/>
     </row>
     <row r="101">
-      <c r="A101" s="3"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="5"/>
+      <c r="A101" s="6"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="8"/>
     </row>
     <row r="102">
-      <c r="A102" s="3"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="5"/>
+      <c r="A102" s="6"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="8"/>
     </row>
     <row r="103">
-      <c r="A103" s="3"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="5"/>
+      <c r="A103" s="6"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="8"/>
     </row>
     <row r="104">
-      <c r="A104" s="3"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="5"/>
+      <c r="A104" s="6"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="8"/>
     </row>
     <row r="105">
-      <c r="A105" s="3"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="5"/>
+      <c r="A105" s="6"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="8"/>
     </row>
     <row r="106">
-      <c r="A106" s="3"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="5"/>
+      <c r="A106" s="6"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="8"/>
     </row>
     <row r="107">
-      <c r="A107" s="3"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="5"/>
+      <c r="A107" s="6"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="8"/>
     </row>
     <row r="108">
-      <c r="A108" s="3"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="5"/>
+      <c r="A108" s="6"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="8"/>
     </row>
     <row r="109">
-      <c r="A109" s="3"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="5"/>
+      <c r="A109" s="6"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="8"/>
     </row>
     <row r="110">
-      <c r="A110" s="3"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="5"/>
+      <c r="A110" s="6"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="8"/>
     </row>
     <row r="111">
-      <c r="A111" s="3"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="5"/>
+      <c r="A111" s="6"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="8"/>
     </row>
     <row r="112">
-      <c r="A112" s="3"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="5"/>
+      <c r="A112" s="6"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="8"/>
     </row>
     <row r="113">
-      <c r="A113" s="3"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="5"/>
+      <c r="A113" s="6"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="8"/>
     </row>
     <row r="114">
-      <c r="A114" s="3"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="5"/>
+      <c r="A114" s="6"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="8"/>
     </row>
     <row r="115">
-      <c r="A115" s="3"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="5"/>
+      <c r="A115" s="6"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="8"/>
     </row>
     <row r="116">
-      <c r="A116" s="3"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="5"/>
+      <c r="A116" s="6"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="8"/>
     </row>
     <row r="117">
-      <c r="A117" s="3"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="5"/>
+      <c r="A117" s="6"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="8"/>
     </row>
     <row r="118">
-      <c r="A118" s="3"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="5"/>
+      <c r="A118" s="6"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="8"/>
     </row>
     <row r="119">
-      <c r="A119" s="3"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="5"/>
+      <c r="A119" s="6"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="8"/>
     </row>
     <row r="120">
-      <c r="A120" s="3"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="5"/>
+      <c r="A120" s="6"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="8"/>
     </row>
     <row r="121">
-      <c r="A121" s="3"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="5"/>
+      <c r="A121" s="6"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="8"/>
     </row>
     <row r="122">
-      <c r="A122" s="3"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="5"/>
+      <c r="A122" s="6"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="8"/>
     </row>
     <row r="123">
-      <c r="A123" s="3"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="5"/>
+      <c r="A123" s="6"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="8"/>
     </row>
     <row r="124">
-      <c r="A124" s="3"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="5"/>
+      <c r="A124" s="6"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="8"/>
     </row>
     <row r="125">
-      <c r="A125" s="3"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="5"/>
+      <c r="A125" s="6"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="8"/>
     </row>
     <row r="126">
-      <c r="A126" s="3"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="5"/>
+      <c r="A126" s="6"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="8"/>
     </row>
     <row r="127">
-      <c r="A127" s="3"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="5"/>
+      <c r="A127" s="6"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="8"/>
     </row>
     <row r="128">
-      <c r="A128" s="3"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="5"/>
+      <c r="A128" s="6"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="8"/>
     </row>
     <row r="129">
-      <c r="A129" s="3"/>
-      <c r="B129" s="4"/>
-      <c r="C129" s="5"/>
+      <c r="A129" s="6"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="8"/>
     </row>
     <row r="130">
-      <c r="A130" s="3"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="5"/>
+      <c r="A130" s="6"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="8"/>
     </row>
     <row r="131">
-      <c r="A131" s="3"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="5"/>
+      <c r="A131" s="6"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="8"/>
     </row>
     <row r="132">
-      <c r="A132" s="3"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="5"/>
+      <c r="A132" s="6"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="8"/>
     </row>
     <row r="133">
-      <c r="A133" s="3"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="5"/>
+      <c r="A133" s="6"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="8"/>
     </row>
     <row r="134">
-      <c r="A134" s="3"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="5"/>
+      <c r="A134" s="6"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="8"/>
     </row>
     <row r="135">
-      <c r="A135" s="3"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="5"/>
+      <c r="A135" s="6"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="8"/>
     </row>
     <row r="136">
-      <c r="A136" s="3"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="5"/>
+      <c r="A136" s="6"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="8"/>
     </row>
     <row r="137">
-      <c r="A137" s="3"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="5"/>
+      <c r="A137" s="6"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="8"/>
     </row>
     <row r="138">
-      <c r="A138" s="3"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="5"/>
+      <c r="A138" s="6"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="8"/>
     </row>
     <row r="139">
-      <c r="A139" s="3"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="5"/>
+      <c r="A139" s="6"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="8"/>
     </row>
     <row r="140">
-      <c r="A140" s="3"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="5"/>
+      <c r="A140" s="6"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="8"/>
     </row>
     <row r="141">
-      <c r="A141" s="3"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="5"/>
+      <c r="A141" s="6"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="8"/>
     </row>
     <row r="142">
-      <c r="A142" s="3"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="5"/>
+      <c r="A142" s="6"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="8"/>
     </row>
     <row r="143">
-      <c r="A143" s="3"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="5"/>
+      <c r="A143" s="6"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="8"/>
     </row>
     <row r="144">
-      <c r="A144" s="3"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="5"/>
+      <c r="A144" s="6"/>
+      <c r="B144" s="7"/>
+      <c r="C144" s="8"/>
     </row>
     <row r="145">
-      <c r="A145" s="3"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="5"/>
+      <c r="A145" s="6"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="8"/>
     </row>
     <row r="146">
-      <c r="A146" s="3"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="5"/>
+      <c r="A146" s="6"/>
+      <c r="B146" s="7"/>
+      <c r="C146" s="8"/>
     </row>
     <row r="147">
-      <c r="A147" s="3"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="5"/>
+      <c r="A147" s="6"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="8"/>
     </row>
     <row r="148">
-      <c r="A148" s="3"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="5"/>
+      <c r="A148" s="6"/>
+      <c r="B148" s="7"/>
+      <c r="C148" s="8"/>
     </row>
     <row r="149">
-      <c r="A149" s="3"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="5"/>
+      <c r="A149" s="6"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="8"/>
     </row>
     <row r="150">
-      <c r="A150" s="3"/>
-      <c r="B150" s="4"/>
-      <c r="C150" s="5"/>
+      <c r="A150" s="6"/>
+      <c r="B150" s="7"/>
+      <c r="C150" s="8"/>
     </row>
     <row r="151">
-      <c r="A151" s="3"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="5"/>
+      <c r="A151" s="6"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="8"/>
     </row>
     <row r="152">
-      <c r="A152" s="3"/>
-      <c r="B152" s="4"/>
-      <c r="C152" s="5"/>
+      <c r="A152" s="6"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="8"/>
     </row>
     <row r="153">
-      <c r="A153" s="3"/>
-      <c r="B153" s="4"/>
-      <c r="C153" s="5"/>
+      <c r="A153" s="6"/>
+      <c r="B153" s="7"/>
+      <c r="C153" s="8"/>
     </row>
     <row r="154">
-      <c r="A154" s="3"/>
-      <c r="B154" s="4"/>
-      <c r="C154" s="5"/>
+      <c r="A154" s="6"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="8"/>
     </row>
     <row r="155">
-      <c r="A155" s="3"/>
-      <c r="B155" s="4"/>
-      <c r="C155" s="5"/>
+      <c r="A155" s="6"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="8"/>
     </row>
     <row r="156">
-      <c r="A156" s="3"/>
-      <c r="B156" s="4"/>
-      <c r="C156" s="5"/>
+      <c r="A156" s="6"/>
+      <c r="B156" s="7"/>
+      <c r="C156" s="8"/>
     </row>
     <row r="157">
-      <c r="A157" s="3"/>
-      <c r="B157" s="4"/>
-      <c r="C157" s="5"/>
+      <c r="A157" s="6"/>
+      <c r="B157" s="7"/>
+      <c r="C157" s="8"/>
     </row>
     <row r="158">
-      <c r="A158" s="3"/>
-      <c r="B158" s="4"/>
-      <c r="C158" s="5"/>
+      <c r="A158" s="6"/>
+      <c r="B158" s="7"/>
+      <c r="C158" s="8"/>
     </row>
     <row r="159">
-      <c r="A159" s="3"/>
-      <c r="B159" s="4"/>
-      <c r="C159" s="5"/>
+      <c r="A159" s="6"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="8"/>
     </row>
     <row r="160">
-      <c r="A160" s="3"/>
-      <c r="B160" s="4"/>
-      <c r="C160" s="5"/>
+      <c r="A160" s="6"/>
+      <c r="B160" s="7"/>
+      <c r="C160" s="8"/>
     </row>
     <row r="161">
-      <c r="A161" s="3"/>
-      <c r="B161" s="4"/>
-      <c r="C161" s="5"/>
+      <c r="A161" s="6"/>
+      <c r="B161" s="7"/>
+      <c r="C161" s="8"/>
     </row>
     <row r="162">
-      <c r="A162" s="3"/>
-      <c r="B162" s="4"/>
-      <c r="C162" s="5"/>
+      <c r="A162" s="6"/>
+      <c r="B162" s="7"/>
+      <c r="C162" s="8"/>
     </row>
     <row r="163">
-      <c r="A163" s="3"/>
-      <c r="B163" s="4"/>
-      <c r="C163" s="5"/>
+      <c r="A163" s="6"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="8"/>
     </row>
     <row r="164">
-      <c r="A164" s="3"/>
-      <c r="B164" s="4"/>
-      <c r="C164" s="5"/>
+      <c r="A164" s="6"/>
+      <c r="B164" s="7"/>
+      <c r="C164" s="8"/>
     </row>
     <row r="165">
-      <c r="A165" s="3"/>
-      <c r="B165" s="4"/>
-      <c r="C165" s="5"/>
+      <c r="A165" s="6"/>
+      <c r="B165" s="7"/>
+      <c r="C165" s="8"/>
     </row>
     <row r="166">
-      <c r="A166" s="3"/>
-      <c r="B166" s="4"/>
-      <c r="C166" s="5"/>
+      <c r="A166" s="6"/>
+      <c r="B166" s="7"/>
+      <c r="C166" s="8"/>
     </row>
     <row r="167">
-      <c r="A167" s="3"/>
-      <c r="B167" s="4"/>
-      <c r="C167" s="5"/>
+      <c r="A167" s="6"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="8"/>
     </row>
     <row r="168">
-      <c r="A168" s="3"/>
-      <c r="B168" s="4"/>
-      <c r="C168" s="5"/>
+      <c r="A168" s="6"/>
+      <c r="B168" s="7"/>
+      <c r="C168" s="8"/>
     </row>
     <row r="169">
-      <c r="A169" s="3"/>
-      <c r="B169" s="4"/>
-      <c r="C169" s="5"/>
+      <c r="A169" s="6"/>
+      <c r="B169" s="7"/>
+      <c r="C169" s="8"/>
     </row>
     <row r="170">
-      <c r="A170" s="3"/>
-      <c r="B170" s="4"/>
-      <c r="C170" s="5"/>
+      <c r="A170" s="6"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="8"/>
     </row>
     <row r="171">
-      <c r="A171" s="3"/>
-      <c r="B171" s="4"/>
-      <c r="C171" s="5"/>
+      <c r="A171" s="6"/>
+      <c r="B171" s="7"/>
+      <c r="C171" s="8"/>
     </row>
     <row r="172">
-      <c r="A172" s="3"/>
-      <c r="B172" s="4"/>
-      <c r="C172" s="5"/>
+      <c r="A172" s="6"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="8"/>
     </row>
     <row r="173">
-      <c r="A173" s="3"/>
-      <c r="B173" s="4"/>
-      <c r="C173" s="5"/>
+      <c r="A173" s="6"/>
+      <c r="B173" s="7"/>
+      <c r="C173" s="8"/>
     </row>
     <row r="174">
-      <c r="A174" s="3"/>
-      <c r="B174" s="4"/>
-      <c r="C174" s="5"/>
+      <c r="A174" s="6"/>
+      <c r="B174" s="7"/>
+      <c r="C174" s="8"/>
     </row>
     <row r="175">
-      <c r="A175" s="3"/>
-      <c r="B175" s="4"/>
-      <c r="C175" s="5"/>
+      <c r="A175" s="6"/>
+      <c r="B175" s="7"/>
+      <c r="C175" s="8"/>
     </row>
     <row r="176">
-      <c r="A176" s="3"/>
-      <c r="B176" s="4"/>
-      <c r="C176" s="5"/>
+      <c r="A176" s="6"/>
+      <c r="B176" s="7"/>
+      <c r="C176" s="8"/>
     </row>
     <row r="177">
-      <c r="A177" s="3"/>
-      <c r="B177" s="4"/>
-      <c r="C177" s="5"/>
+      <c r="A177" s="6"/>
+      <c r="B177" s="7"/>
+      <c r="C177" s="8"/>
     </row>
     <row r="178">
-      <c r="A178" s="3"/>
-      <c r="B178" s="4"/>
-      <c r="C178" s="5"/>
+      <c r="A178" s="6"/>
+      <c r="B178" s="7"/>
+      <c r="C178" s="8"/>
     </row>
     <row r="179">
-      <c r="A179" s="3"/>
-      <c r="B179" s="4"/>
-      <c r="C179" s="5"/>
+      <c r="A179" s="6"/>
+      <c r="B179" s="7"/>
+      <c r="C179" s="8"/>
     </row>
     <row r="180">
-      <c r="A180" s="3"/>
-      <c r="B180" s="4"/>
-      <c r="C180" s="5"/>
+      <c r="A180" s="6"/>
+      <c r="B180" s="7"/>
+      <c r="C180" s="8"/>
     </row>
     <row r="181">
-      <c r="A181" s="3"/>
-      <c r="B181" s="4"/>
-      <c r="C181" s="5"/>
+      <c r="A181" s="6"/>
+      <c r="B181" s="7"/>
+      <c r="C181" s="8"/>
     </row>
     <row r="182">
-      <c r="A182" s="3"/>
-      <c r="B182" s="4"/>
-      <c r="C182" s="5"/>
+      <c r="A182" s="6"/>
+      <c r="B182" s="7"/>
+      <c r="C182" s="8"/>
     </row>
     <row r="183">
-      <c r="A183" s="3"/>
-      <c r="B183" s="4"/>
-      <c r="C183" s="5"/>
+      <c r="A183" s="6"/>
+      <c r="B183" s="7"/>
+      <c r="C183" s="8"/>
     </row>
     <row r="184">
-      <c r="A184" s="3"/>
-      <c r="B184" s="4"/>
-      <c r="C184" s="5"/>
+      <c r="A184" s="6"/>
+      <c r="B184" s="7"/>
+      <c r="C184" s="8"/>
     </row>
     <row r="185">
-      <c r="A185" s="3"/>
-      <c r="B185" s="4"/>
-      <c r="C185" s="5"/>
+      <c r="A185" s="6"/>
+      <c r="B185" s="7"/>
+      <c r="C185" s="8"/>
     </row>
     <row r="186">
-      <c r="A186" s="3"/>
-      <c r="B186" s="4"/>
-      <c r="C186" s="5"/>
+      <c r="A186" s="6"/>
+      <c r="B186" s="7"/>
+      <c r="C186" s="8"/>
     </row>
     <row r="187">
-      <c r="A187" s="3"/>
-      <c r="B187" s="4"/>
-      <c r="C187" s="5"/>
+      <c r="A187" s="6"/>
+      <c r="B187" s="7"/>
+      <c r="C187" s="8"/>
     </row>
     <row r="188">
-      <c r="A188" s="3"/>
-      <c r="B188" s="4"/>
-      <c r="C188" s="5"/>
+      <c r="A188" s="6"/>
+      <c r="B188" s="7"/>
+      <c r="C188" s="8"/>
     </row>
     <row r="189">
-      <c r="A189" s="3"/>
-      <c r="B189" s="4"/>
-      <c r="C189" s="5"/>
+      <c r="A189" s="6"/>
+      <c r="B189" s="7"/>
+      <c r="C189" s="8"/>
     </row>
     <row r="190">
-      <c r="A190" s="3"/>
-      <c r="B190" s="4"/>
-      <c r="C190" s="5"/>
+      <c r="A190" s="6"/>
+      <c r="B190" s="7"/>
+      <c r="C190" s="8"/>
     </row>
     <row r="191">
-      <c r="A191" s="3"/>
-      <c r="B191" s="4"/>
-      <c r="C191" s="5"/>
+      <c r="A191" s="6"/>
+      <c r="B191" s="7"/>
+      <c r="C191" s="8"/>
     </row>
     <row r="192">
-      <c r="A192" s="3"/>
-      <c r="B192" s="4"/>
-      <c r="C192" s="5"/>
+      <c r="A192" s="6"/>
+      <c r="B192" s="7"/>
+      <c r="C192" s="8"/>
     </row>
     <row r="193">
-      <c r="A193" s="3"/>
-      <c r="B193" s="4"/>
-      <c r="C193" s="5"/>
+      <c r="A193" s="6"/>
+      <c r="B193" s="7"/>
+      <c r="C193" s="8"/>
     </row>
     <row r="194">
-      <c r="A194" s="3"/>
-      <c r="B194" s="4"/>
-      <c r="C194" s="5"/>
+      <c r="A194" s="6"/>
+      <c r="B194" s="7"/>
+      <c r="C194" s="8"/>
     </row>
     <row r="195">
-      <c r="A195" s="3"/>
-      <c r="B195" s="4"/>
-      <c r="C195" s="5"/>
+      <c r="A195" s="6"/>
+      <c r="B195" s="7"/>
+      <c r="C195" s="8"/>
     </row>
     <row r="196">
-      <c r="A196" s="3"/>
-      <c r="B196" s="4"/>
-      <c r="C196" s="5"/>
+      <c r="A196" s="6"/>
+      <c r="B196" s="7"/>
+      <c r="C196" s="8"/>
     </row>
     <row r="197">
-      <c r="A197" s="3"/>
-      <c r="B197" s="4"/>
-      <c r="C197" s="5"/>
+      <c r="A197" s="6"/>
+      <c r="B197" s="7"/>
+      <c r="C197" s="8"/>
     </row>
     <row r="198">
-      <c r="A198" s="3"/>
-      <c r="B198" s="4"/>
-      <c r="C198" s="5"/>
+      <c r="A198" s="6"/>
+      <c r="B198" s="7"/>
+      <c r="C198" s="8"/>
     </row>
     <row r="199">
-      <c r="A199" s="3"/>
-      <c r="B199" s="4"/>
-      <c r="C199" s="5"/>
+      <c r="A199" s="6"/>
+      <c r="B199" s="7"/>
+      <c r="C199" s="8"/>
     </row>
     <row r="200">
-      <c r="A200" s="3"/>
-      <c r="B200" s="4"/>
-      <c r="C200" s="5"/>
+      <c r="A200" s="6"/>
+      <c r="B200" s="7"/>
+      <c r="C200" s="8"/>
     </row>
     <row r="201">
-      <c r="A201" s="3"/>
-      <c r="B201" s="4"/>
-      <c r="C201" s="5"/>
+      <c r="A201" s="6"/>
+      <c r="B201" s="7"/>
+      <c r="C201" s="8"/>
     </row>
     <row r="202">
-      <c r="A202" s="3"/>
-      <c r="B202" s="4"/>
-      <c r="C202" s="5"/>
+      <c r="A202" s="6"/>
+      <c r="B202" s="7"/>
+      <c r="C202" s="8"/>
     </row>
     <row r="203">
-      <c r="A203" s="3"/>
-      <c r="B203" s="4"/>
-      <c r="C203" s="5"/>
+      <c r="A203" s="6"/>
+      <c r="B203" s="7"/>
+      <c r="C203" s="8"/>
     </row>
     <row r="204">
-      <c r="A204" s="3"/>
-      <c r="B204" s="4"/>
-      <c r="C204" s="5"/>
+      <c r="A204" s="6"/>
+      <c r="B204" s="7"/>
+      <c r="C204" s="8"/>
     </row>
     <row r="205">
-      <c r="A205" s="3"/>
-      <c r="B205" s="4"/>
-      <c r="C205" s="5"/>
+      <c r="A205" s="6"/>
+      <c r="B205" s="7"/>
+      <c r="C205" s="8"/>
     </row>
     <row r="206">
-      <c r="A206" s="3"/>
-      <c r="B206" s="4"/>
-      <c r="C206" s="5"/>
+      <c r="A206" s="6"/>
+      <c r="B206" s="7"/>
+      <c r="C206" s="8"/>
     </row>
     <row r="207">
-      <c r="A207" s="3"/>
-      <c r="B207" s="4"/>
-      <c r="C207" s="5"/>
+      <c r="A207" s="6"/>
+      <c r="B207" s="7"/>
+      <c r="C207" s="8"/>
     </row>
     <row r="208">
-      <c r="A208" s="3"/>
-      <c r="B208" s="4"/>
-      <c r="C208" s="5"/>
+      <c r="A208" s="6"/>
+      <c r="B208" s="7"/>
+      <c r="C208" s="8"/>
     </row>
     <row r="209">
-      <c r="A209" s="3"/>
-      <c r="B209" s="4"/>
-      <c r="C209" s="5"/>
+      <c r="A209" s="6"/>
+      <c r="B209" s="7"/>
+      <c r="C209" s="8"/>
     </row>
     <row r="210">
-      <c r="A210" s="3"/>
-      <c r="B210" s="4"/>
-      <c r="C210" s="5"/>
+      <c r="A210" s="6"/>
+      <c r="B210" s="7"/>
+      <c r="C210" s="8"/>
     </row>
     <row r="211">
-      <c r="A211" s="3"/>
-      <c r="B211" s="4"/>
-      <c r="C211" s="5"/>
+      <c r="A211" s="6"/>
+      <c r="B211" s="7"/>
+      <c r="C211" s="8"/>
     </row>
     <row r="212">
-      <c r="A212" s="3"/>
-      <c r="B212" s="4"/>
-      <c r="C212" s="5"/>
+      <c r="A212" s="6"/>
+      <c r="B212" s="7"/>
+      <c r="C212" s="8"/>
     </row>
     <row r="213">
-      <c r="A213" s="3"/>
-      <c r="B213" s="4"/>
-      <c r="C213" s="5"/>
+      <c r="A213" s="6"/>
+      <c r="B213" s="7"/>
+      <c r="C213" s="8"/>
     </row>
     <row r="214">
-      <c r="A214" s="3"/>
-      <c r="B214" s="4"/>
-      <c r="C214" s="5"/>
+      <c r="A214" s="6"/>
+      <c r="B214" s="7"/>
+      <c r="C214" s="8"/>
     </row>
     <row r="215">
-      <c r="A215" s="3"/>
-      <c r="B215" s="4"/>
-      <c r="C215" s="5"/>
+      <c r="A215" s="6"/>
+      <c r="B215" s="7"/>
+      <c r="C215" s="8"/>
     </row>
     <row r="216">
-      <c r="A216" s="3"/>
-      <c r="B216" s="4"/>
-      <c r="C216" s="5"/>
+      <c r="A216" s="6"/>
+      <c r="B216" s="7"/>
+      <c r="C216" s="8"/>
     </row>
     <row r="217">
-      <c r="A217" s="3"/>
-      <c r="B217" s="4"/>
-      <c r="C217" s="5"/>
+      <c r="A217" s="6"/>
+      <c r="B217" s="7"/>
+      <c r="C217" s="8"/>
     </row>
     <row r="218">
-      <c r="A218" s="3"/>
-      <c r="B218" s="4"/>
-      <c r="C218" s="5"/>
+      <c r="A218" s="6"/>
+      <c r="B218" s="7"/>
+      <c r="C218" s="8"/>
     </row>
     <row r="219">
-      <c r="A219" s="3"/>
-      <c r="B219" s="4"/>
-      <c r="C219" s="5"/>
+      <c r="A219" s="6"/>
+      <c r="B219" s="7"/>
+      <c r="C219" s="8"/>
     </row>
     <row r="220">
-      <c r="A220" s="3"/>
-      <c r="B220" s="4"/>
-      <c r="C220" s="5"/>
+      <c r="A220" s="6"/>
+      <c r="B220" s="7"/>
+      <c r="C220" s="8"/>
     </row>
     <row r="221">
-      <c r="A221" s="3"/>
-      <c r="B221" s="4"/>
-      <c r="C221" s="5"/>
+      <c r="A221" s="6"/>
+      <c r="B221" s="7"/>
+      <c r="C221" s="8"/>
     </row>
     <row r="222">
-      <c r="A222" s="3"/>
-      <c r="B222" s="4"/>
-      <c r="C222" s="5"/>
+      <c r="A222" s="6"/>
+      <c r="B222" s="7"/>
+      <c r="C222" s="8"/>
     </row>
     <row r="223">
-      <c r="A223" s="3"/>
-      <c r="B223" s="4"/>
-      <c r="C223" s="5"/>
+      <c r="A223" s="6"/>
+      <c r="B223" s="7"/>
+      <c r="C223" s="8"/>
     </row>
     <row r="224">
-      <c r="A224" s="3"/>
-      <c r="B224" s="4"/>
-      <c r="C224" s="5"/>
+      <c r="A224" s="6"/>
+      <c r="B224" s="7"/>
+      <c r="C224" s="8"/>
     </row>
     <row r="225">
-      <c r="A225" s="3"/>
-      <c r="B225" s="4"/>
-      <c r="C225" s="5"/>
+      <c r="A225" s="6"/>
+      <c r="B225" s="7"/>
+      <c r="C225" s="8"/>
     </row>
     <row r="226">
-      <c r="A226" s="3"/>
-      <c r="B226" s="4"/>
-      <c r="C226" s="5"/>
+      <c r="A226" s="6"/>
+      <c r="B226" s="7"/>
+      <c r="C226" s="8"/>
     </row>
     <row r="227">
-      <c r="A227" s="3"/>
-      <c r="B227" s="4"/>
-      <c r="C227" s="5"/>
+      <c r="A227" s="6"/>
+      <c r="B227" s="7"/>
+      <c r="C227" s="8"/>
     </row>
     <row r="228">
-      <c r="A228" s="3"/>
-      <c r="B228" s="4"/>
-      <c r="C228" s="5"/>
+      <c r="A228" s="6"/>
+      <c r="B228" s="7"/>
+      <c r="C228" s="8"/>
     </row>
     <row r="229">
-      <c r="A229" s="3"/>
-      <c r="B229" s="4"/>
-      <c r="C229" s="5"/>
+      <c r="A229" s="6"/>
+      <c r="B229" s="7"/>
+      <c r="C229" s="8"/>
     </row>
     <row r="230">
-      <c r="A230" s="3"/>
-      <c r="B230" s="4"/>
-      <c r="C230" s="5"/>
+      <c r="A230" s="6"/>
+      <c r="B230" s="7"/>
+      <c r="C230" s="8"/>
     </row>
     <row r="231">
-      <c r="A231" s="3"/>
-      <c r="B231" s="4"/>
-      <c r="C231" s="5"/>
+      <c r="A231" s="6"/>
+      <c r="B231" s="7"/>
+      <c r="C231" s="8"/>
     </row>
     <row r="232">
-      <c r="A232" s="3"/>
-      <c r="B232" s="4"/>
-      <c r="C232" s="5"/>
+      <c r="A232" s="6"/>
+      <c r="B232" s="7"/>
+      <c r="C232" s="8"/>
     </row>
     <row r="233">
-      <c r="A233" s="3"/>
-      <c r="B233" s="4"/>
-      <c r="C233" s="5"/>
+      <c r="A233" s="6"/>
+      <c r="B233" s="7"/>
+      <c r="C233" s="8"/>
     </row>
     <row r="234">
-      <c r="A234" s="3"/>
-      <c r="B234" s="4"/>
-      <c r="C234" s="5"/>
+      <c r="A234" s="6"/>
+      <c r="B234" s="7"/>
+      <c r="C234" s="8"/>
     </row>
     <row r="235">
-      <c r="A235" s="3"/>
-      <c r="B235" s="4"/>
-      <c r="C235" s="5"/>
+      <c r="A235" s="6"/>
+      <c r="B235" s="7"/>
+      <c r="C235" s="8"/>
     </row>
     <row r="236">
-      <c r="A236" s="3"/>
-      <c r="B236" s="4"/>
-      <c r="C236" s="5"/>
+      <c r="A236" s="6"/>
+      <c r="B236" s="7"/>
+      <c r="C236" s="8"/>
     </row>
     <row r="237">
-      <c r="A237" s="3"/>
-      <c r="B237" s="4"/>
-      <c r="C237" s="5"/>
+      <c r="A237" s="6"/>
+      <c r="B237" s="7"/>
+      <c r="C237" s="8"/>
     </row>
     <row r="238">
-      <c r="A238" s="3"/>
-      <c r="B238" s="4"/>
-      <c r="C238" s="5"/>
+      <c r="A238" s="6"/>
+      <c r="B238" s="7"/>
+      <c r="C238" s="8"/>
     </row>
     <row r="239">
-      <c r="A239" s="3"/>
-      <c r="B239" s="4"/>
-      <c r="C239" s="5"/>
+      <c r="A239" s="6"/>
+      <c r="B239" s="7"/>
+      <c r="C239" s="8"/>
     </row>
     <row r="240">
-      <c r="A240" s="3"/>
-      <c r="B240" s="4"/>
-      <c r="C240" s="5"/>
+      <c r="A240" s="6"/>
+      <c r="B240" s="7"/>
+      <c r="C240" s="8"/>
     </row>
     <row r="241">
-      <c r="A241" s="3"/>
-      <c r="B241" s="4"/>
-      <c r="C241" s="5"/>
+      <c r="A241" s="6"/>
+      <c r="B241" s="7"/>
+      <c r="C241" s="8"/>
     </row>
     <row r="242">
-      <c r="A242" s="3"/>
-      <c r="B242" s="4"/>
-      <c r="C242" s="5"/>
+      <c r="A242" s="6"/>
+      <c r="B242" s="7"/>
+      <c r="C242" s="8"/>
     </row>
     <row r="243">
-      <c r="A243" s="3"/>
-      <c r="B243" s="4"/>
-      <c r="C243" s="5"/>
+      <c r="A243" s="6"/>
+      <c r="B243" s="7"/>
+      <c r="C243" s="8"/>
     </row>
     <row r="244">
-      <c r="A244" s="3"/>
-      <c r="B244" s="4"/>
-      <c r="C244" s="5"/>
+      <c r="A244" s="6"/>
+      <c r="B244" s="7"/>
+      <c r="C244" s="8"/>
     </row>
     <row r="245">
-      <c r="A245" s="3"/>
-      <c r="B245" s="4"/>
-      <c r="C245" s="5"/>
+      <c r="A245" s="6"/>
+      <c r="B245" s="7"/>
+      <c r="C245" s="8"/>
     </row>
     <row r="246">
-      <c r="A246" s="3"/>
-      <c r="B246" s="4"/>
-      <c r="C246" s="5"/>
+      <c r="A246" s="6"/>
+      <c r="B246" s="7"/>
+      <c r="C246" s="8"/>
     </row>
     <row r="247">
-      <c r="A247" s="3"/>
-      <c r="B247" s="4"/>
-      <c r="C247" s="5"/>
+      <c r="A247" s="6"/>
+      <c r="B247" s="7"/>
+      <c r="C247" s="8"/>
     </row>
     <row r="248">
-      <c r="A248" s="3"/>
-      <c r="B248" s="4"/>
-      <c r="C248" s="5"/>
+      <c r="A248" s="6"/>
+      <c r="B248" s="7"/>
+      <c r="C248" s="8"/>
     </row>
     <row r="249">
-      <c r="A249" s="3"/>
-      <c r="B249" s="4"/>
-      <c r="C249" s="5"/>
+      <c r="A249" s="6"/>
+      <c r="B249" s="7"/>
+      <c r="C249" s="8"/>
     </row>
     <row r="250">
-      <c r="A250" s="3"/>
-      <c r="B250" s="4"/>
-      <c r="C250" s="5"/>
+      <c r="A250" s="6"/>
+      <c r="B250" s="7"/>
+      <c r="C250" s="8"/>
     </row>
     <row r="251">
-      <c r="A251" s="3"/>
-      <c r="B251" s="4"/>
-      <c r="C251" s="5"/>
+      <c r="A251" s="6"/>
+      <c r="B251" s="7"/>
+      <c r="C251" s="8"/>
     </row>
     <row r="252">
-      <c r="A252" s="3"/>
-      <c r="B252" s="4"/>
-      <c r="C252" s="5"/>
+      <c r="A252" s="6"/>
+      <c r="B252" s="7"/>
+      <c r="C252" s="8"/>
     </row>
     <row r="253">
-      <c r="A253" s="3"/>
-      <c r="B253" s="4"/>
-      <c r="C253" s="5"/>
+      <c r="A253" s="6"/>
+      <c r="B253" s="7"/>
+      <c r="C253" s="8"/>
     </row>
     <row r="254">
-      <c r="A254" s="3"/>
-      <c r="B254" s="4"/>
-      <c r="C254" s="5"/>
+      <c r="A254" s="6"/>
+      <c r="B254" s="7"/>
+      <c r="C254" s="8"/>
     </row>
     <row r="255">
-      <c r="A255" s="3"/>
-      <c r="B255" s="4"/>
-      <c r="C255" s="5"/>
+      <c r="A255" s="6"/>
+      <c r="B255" s="7"/>
+      <c r="C255" s="8"/>
     </row>
     <row r="256">
-      <c r="A256" s="3"/>
-      <c r="B256" s="4"/>
-      <c r="C256" s="5"/>
+      <c r="A256" s="6"/>
+      <c r="B256" s="7"/>
+      <c r="C256" s="8"/>
     </row>
     <row r="257">
-      <c r="A257" s="3"/>
-      <c r="B257" s="4"/>
-      <c r="C257" s="5"/>
+      <c r="A257" s="6"/>
+      <c r="B257" s="7"/>
+      <c r="C257" s="8"/>
     </row>
     <row r="258">
-      <c r="A258" s="3"/>
-      <c r="B258" s="4"/>
-      <c r="C258" s="5"/>
+      <c r="A258" s="6"/>
+      <c r="B258" s="7"/>
+      <c r="C258" s="8"/>
     </row>
     <row r="259">
-      <c r="A259" s="3"/>
-      <c r="B259" s="4"/>
-      <c r="C259" s="5"/>
+      <c r="A259" s="6"/>
+      <c r="B259" s="7"/>
+      <c r="C259" s="8"/>
     </row>
     <row r="260">
-      <c r="A260" s="3"/>
-      <c r="B260" s="4"/>
-      <c r="C260" s="5"/>
+      <c r="A260" s="6"/>
+      <c r="B260" s="7"/>
+      <c r="C260" s="8"/>
     </row>
     <row r="261">
-      <c r="A261" s="3"/>
-      <c r="B261" s="4"/>
-      <c r="C261" s="5"/>
+      <c r="A261" s="6"/>
+      <c r="B261" s="7"/>
+      <c r="C261" s="8"/>
     </row>
     <row r="262">
-      <c r="A262" s="3"/>
-      <c r="B262" s="4"/>
-      <c r="C262" s="5"/>
+      <c r="A262" s="6"/>
+      <c r="B262" s="7"/>
+      <c r="C262" s="8"/>
     </row>
     <row r="263">
-      <c r="A263" s="3"/>
-      <c r="B263" s="4"/>
-      <c r="C263" s="5"/>
+      <c r="A263" s="6"/>
+      <c r="B263" s="7"/>
+      <c r="C263" s="8"/>
     </row>
     <row r="264">
-      <c r="A264" s="3"/>
-      <c r="B264" s="4"/>
-      <c r="C264" s="5"/>
+      <c r="A264" s="6"/>
+      <c r="B264" s="7"/>
+      <c r="C264" s="8"/>
     </row>
   </sheetData>
 </worksheet>
@@ -4151,229 +4151,229 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="32" t="str">
+      <c r="A1" s="36" t="str">
         <v>OptionId</v>
       </c>
-      <c r="B1" s="32" t="str">
+      <c r="B1" s="36" t="str">
         <v>Text</v>
       </c>
-      <c r="C1" s="32" t="str">
+      <c r="C1" s="36" t="str">
         <v>NextDialogueId</v>
       </c>
-      <c r="D1" s="5" t="str">
+      <c r="D1" s="8" t="str">
         <v>GetItemId</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="32" t="str">
+      <c r="A2" s="36" t="str">
         <v>和Dialogue表里面的Opetions对应</v>
       </c>
-      <c r="B2" s="32" t="str">
+      <c r="B2" s="36" t="str">
         <v>选项文字内容</v>
       </c>
-      <c r="C2" s="32" t="str">
+      <c r="C2" s="36" t="str">
         <v>要触发的对话ID
 0表示会话结束</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7">
+      <c r="A3" s="17">
         <v>11</v>
       </c>
-      <c r="B3" s="7" t="str">
+      <c r="B3" s="17" t="str">
         <v>我可以在哪些地方获取食材？</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="17">
         <v>111</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7">
+      <c r="A4" s="17">
         <v>12</v>
       </c>
-      <c r="B4" s="7" t="str">
+      <c r="B4" s="17" t="str">
         <v>烹饪的流程是怎样的？</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="17">
         <v>112</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7">
+      <c r="A5" s="17">
         <v>10</v>
       </c>
-      <c r="B5" s="7" t="str">
+      <c r="B5" s="17" t="str">
         <v>没什么要问的了</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="17">
         <v>113</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="26">
+      <c r="A6" s="32">
         <v>211</v>
       </c>
-      <c r="B6" s="37" t="str">
+      <c r="B6" s="43" t="str">
         <v>阿斯摩太是怎样的恶魔？</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="32">
         <v>211</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="26">
+      <c r="A7" s="32">
         <v>212</v>
       </c>
-      <c r="B7" s="37" t="str">
+      <c r="B7" s="43" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="32">
         <v>212</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="8">
-      <c r="A8" s="26">
+      <c r="A8" s="32">
         <v>221</v>
       </c>
-      <c r="B8" s="37" t="str">
+      <c r="B8" s="43" t="str">
         <v>阿斯摩太是怎样的恶魔？</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="32">
         <v>221</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="26">
+      <c r="A9" s="32">
         <v>222</v>
       </c>
-      <c r="B9" s="37" t="str">
+      <c r="B9" s="43" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="32">
         <v>222</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="26">
+      <c r="A10" s="32">
         <v>223</v>
       </c>
-      <c r="B10" s="37" t="str">
+      <c r="B10" s="43" t="str">
         <v>你能给我哪些获取食材的建议？</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="32">
         <v>223</v>
       </c>
     </row>
     <row customHeight="true" ht="46" r="11">
-      <c r="A11" s="26">
+      <c r="A11" s="32">
         <v>231</v>
       </c>
-      <c r="B11" s="37" t="str">
+      <c r="B11" s="43" t="str">
         <v>阿斯摩太是怎样的恶魔？</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="32">
         <v>231</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="26">
+      <c r="A12" s="32">
         <v>232</v>
       </c>
-      <c r="B12" s="37" t="str">
+      <c r="B12" s="43" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="32">
         <v>232</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="26">
+      <c r="A13" s="32">
         <v>234</v>
       </c>
-      <c r="B13" s="37" t="str">
+      <c r="B13" s="43" t="str">
         <v>喀戎河畔的渡河人告诉我你这里有能帮助我获得食材的道具。</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="32">
         <v>234</v>
       </c>
-      <c r="D13" s="5" t="str">
+      <c r="D13" s="8" t="str">
         <v>混沌三叉戟</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="14">
-      <c r="A14" s="2">
+      <c r="A14" s="14">
         <v>311</v>
       </c>
-      <c r="B14" s="39" t="str">
+      <c r="B14" s="37" t="str">
         <v>摩洛克是怎样的恶魔？</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="14">
         <v>311</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="14">
         <v>312</v>
       </c>
-      <c r="B15" s="39" t="str">
+      <c r="B15" s="37" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="14">
         <v>312</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="14">
         <v>321</v>
       </c>
-      <c r="B16" s="39" t="str">
+      <c r="B16" s="37" t="str">
         <v>摩洛克是怎样的恶魔？</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="14">
         <v>321</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="14">
         <v>322</v>
       </c>
-      <c r="B17" s="39" t="str">
+      <c r="B17" s="37" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="14">
         <v>322</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="14">
         <v>323</v>
       </c>
-      <c r="B18" s="39" t="str">
+      <c r="B18" s="37" t="str">
         <v>你能给我哪些获取食材的建议？</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="14">
         <v>323</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="14">
         <v>331</v>
       </c>
-      <c r="B19" s="39" t="str">
+      <c r="B19" s="37" t="str">
         <v>摩洛克是怎样的恶魔？</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="14">
         <v>331</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="14">
         <v>332</v>
       </c>
-      <c r="B20" s="39" t="str">
+      <c r="B20" s="37" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="14">
         <v>332</v>
       </c>
     </row>
@@ -4381,13 +4381,13 @@
       <c r="A21" s="45">
         <v>334</v>
       </c>
-      <c r="B21" s="39" t="str">
+      <c r="B21" s="37" t="str">
         <v>塔尔塔洛斯的守卫告诉我你会有帮助我获得食材的道具。</v>
       </c>
       <c r="C21" s="45">
         <v>334</v>
       </c>
-      <c r="D21" s="5" t="str">
+      <c r="D21" s="8" t="str">
         <v>地狱弯刀</v>
       </c>
     </row>
@@ -4395,7 +4395,7 @@
       <c r="A22" s="44">
         <v>411</v>
       </c>
-      <c r="B22" s="36" t="str">
+      <c r="B22" s="29" t="str">
         <v>利维坦是怎样的恶魔</v>
       </c>
       <c r="C22" s="44">
@@ -4406,7 +4406,7 @@
       <c r="A23" s="44">
         <v>412</v>
       </c>
-      <c r="B23" s="36" t="str">
+      <c r="B23" s="29" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
       <c r="C23" s="44">
@@ -4417,7 +4417,7 @@
       <c r="A24" s="44">
         <v>421</v>
       </c>
-      <c r="B24" s="36" t="str">
+      <c r="B24" s="29" t="str">
         <v>利维坦是怎样的恶魔</v>
       </c>
       <c r="C24" s="44">
@@ -4428,7 +4428,7 @@
       <c r="A25" s="44">
         <v>422</v>
       </c>
-      <c r="B25" s="36" t="str">
+      <c r="B25" s="29" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
       <c r="C25" s="44">
@@ -4439,7 +4439,7 @@
       <c r="A26" s="44">
         <v>423</v>
       </c>
-      <c r="B26" s="36" t="str">
+      <c r="B26" s="29" t="str">
         <v>你能给我哪些获取食材的建议？</v>
       </c>
       <c r="C26" s="44">
@@ -4447,316 +4447,316 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="15">
+      <c r="A27" s="5">
         <v>511</v>
       </c>
       <c r="B27" s="38" t="str">
         <v>巴力是怎样的恶魔？</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="5">
         <v>511</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="14">
+      <c r="A28" s="4">
         <v>512</v>
       </c>
       <c r="B28" s="38" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="4">
         <v>512</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="29">
-      <c r="A29" s="15">
+      <c r="A29" s="5">
         <v>521</v>
       </c>
       <c r="B29" s="38" t="str">
         <v>巴力是怎样的恶魔？</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="5">
         <v>521</v>
       </c>
     </row>
     <row customHeight="true" ht="30" r="30">
-      <c r="A30" s="14">
+      <c r="A30" s="4">
         <v>522</v>
       </c>
       <c r="B30" s="38" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="4">
         <v>522</v>
       </c>
     </row>
     <row customHeight="true" ht="34" r="31">
-      <c r="A31" s="14">
+      <c r="A31" s="4">
         <v>523</v>
       </c>
       <c r="B31" s="38" t="str">
         <v>你能给我哪些获取食材的建议？</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="4">
         <v>523</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="32">
-      <c r="A32" s="15">
+      <c r="A32" s="5">
         <v>531</v>
       </c>
       <c r="B32" s="38" t="str">
         <v>巴力是怎样的恶魔？</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="5">
         <v>531</v>
       </c>
     </row>
     <row customHeight="true" ht="34" r="33">
-      <c r="A33" s="14">
+      <c r="A33" s="4">
         <v>532</v>
       </c>
       <c r="B33" s="38" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="4">
         <v>532</v>
       </c>
     </row>
     <row customHeight="true" ht="44" r="34">
-      <c r="A34" s="14">
+      <c r="A34" s="4">
         <v>534</v>
       </c>
       <c r="B34" s="38" t="str">
         <v>冥府侧殿的侍女告诉我你这里有能帮助我获得食材的道具。</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="4">
         <v>534</v>
       </c>
-      <c r="D34" s="5" t="str">
+      <c r="D34" s="8" t="str">
         <v>金十字镐</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="43">
+      <c r="A35" s="42">
         <v>611</v>
       </c>
-      <c r="B35" s="42" t="str">
+      <c r="B35" s="41" t="str">
         <v>贝尔芬格是怎样的恶魔？</v>
       </c>
-      <c r="C35" s="43">
+      <c r="C35" s="42">
         <v>611</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="22">
+      <c r="A36" s="27">
         <v>612</v>
       </c>
-      <c r="B36" s="42" t="str">
+      <c r="B36" s="41" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C36" s="27">
         <v>612</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="37">
-      <c r="A37" s="43">
+      <c r="A37" s="42">
         <v>621</v>
       </c>
-      <c r="B37" s="42" t="str">
+      <c r="B37" s="41" t="str">
         <v>贝尔芬格是怎样的恶魔？</v>
       </c>
-      <c r="C37" s="43">
+      <c r="C37" s="42">
         <v>621</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="38">
-      <c r="A38" s="22">
+      <c r="A38" s="27">
         <v>622</v>
       </c>
-      <c r="B38" s="42" t="str">
+      <c r="B38" s="41" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C38" s="22">
+      <c r="C38" s="27">
         <v>622</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="43">
+      <c r="A39" s="42">
         <v>623</v>
       </c>
-      <c r="B39" s="42" t="str">
+      <c r="B39" s="41" t="str">
         <v>你能给我哪些获取食材的建议？</v>
       </c>
-      <c r="C39" s="43">
+      <c r="C39" s="42">
         <v>623</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="17">
+      <c r="A40" s="11">
         <v>711</v>
       </c>
-      <c r="B40" s="21" t="str">
+      <c r="B40" s="13" t="str">
         <v>玛门是怎样的恶魔？</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="11">
         <v>711</v>
       </c>
     </row>
     <row customHeight="true" ht="40" r="41">
-      <c r="A41" s="20">
+      <c r="A41" s="9">
         <v>712</v>
       </c>
-      <c r="B41" s="21" t="str">
+      <c r="B41" s="13" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="9">
         <v>712</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="42">
-      <c r="A42" s="17">
+      <c r="A42" s="11">
         <v>721</v>
       </c>
-      <c r="B42" s="21" t="str">
+      <c r="B42" s="13" t="str">
         <v>玛门是怎样的恶魔？</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="11">
         <v>721</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="43">
-      <c r="A43" s="20">
+      <c r="A43" s="9">
         <v>722</v>
       </c>
-      <c r="B43" s="21" t="str">
+      <c r="B43" s="13" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="9">
         <v>722</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="17">
+      <c r="A44" s="11">
         <v>723</v>
       </c>
-      <c r="B44" s="21" t="str">
+      <c r="B44" s="13" t="str">
         <v>你能给我哪些获取食材的建议？</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="11">
         <v>723</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="45">
-      <c r="A45" s="17">
+      <c r="A45" s="11">
         <v>731</v>
       </c>
-      <c r="B45" s="21" t="str">
+      <c r="B45" s="13" t="str">
         <v>玛门是怎样的恶魔？</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="11">
         <v>731</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="46">
-      <c r="A46" s="20">
+      <c r="A46" s="9">
         <v>732</v>
       </c>
-      <c r="B46" s="21" t="str">
+      <c r="B46" s="13" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="9">
         <v>732</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="20">
+      <c r="A47" s="9">
         <v>734</v>
       </c>
-      <c r="B47" s="21" t="str">
+      <c r="B47" s="13" t="str">
         <v>亡灵饮水地的神女告诉我你这里有能帮助我获得食材的道具。</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="9">
         <v>734</v>
       </c>
-      <c r="D47" s="5" t="str">
+      <c r="D47" s="8" t="str">
         <v>狮鹫夜壶</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="40">
+      <c r="A48" s="39">
         <v>811</v>
       </c>
-      <c r="B48" s="41" t="str">
+      <c r="B48" s="40" t="str">
         <v>撒旦是怎样的恶魔？</v>
       </c>
-      <c r="C48" s="40">
+      <c r="C48" s="39">
         <v>811</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="40">
+      <c r="A49" s="39">
         <v>812</v>
       </c>
-      <c r="B49" s="41" t="str">
+      <c r="B49" s="40" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C49" s="40">
+      <c r="C49" s="39">
         <v>812</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="50">
-      <c r="A50" s="40">
+      <c r="A50" s="39">
         <v>821</v>
       </c>
-      <c r="B50" s="41" t="str">
+      <c r="B50" s="40" t="str">
         <v>撒旦是怎样的恶魔？</v>
       </c>
-      <c r="C50" s="40">
+      <c r="C50" s="39">
         <v>821</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="51">
-      <c r="A51" s="40">
+      <c r="A51" s="39">
         <v>822</v>
       </c>
-      <c r="B51" s="41" t="str">
+      <c r="B51" s="40" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C51" s="40">
+      <c r="C51" s="39">
         <v>822</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="40">
+      <c r="A52" s="39">
         <v>823</v>
       </c>
-      <c r="B52" s="41" t="str">
+      <c r="B52" s="40" t="str">
         <v>你能给我哪些获取食材的建议？</v>
       </c>
-      <c r="C52" s="40">
+      <c r="C52" s="39">
         <v>823</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="53">
-      <c r="A53" s="40">
+      <c r="A53" s="39">
         <v>831</v>
       </c>
-      <c r="B53" s="41" t="str">
+      <c r="B53" s="40" t="str">
         <v>撒旦是怎样的恶魔？</v>
       </c>
-      <c r="C53" s="40">
+      <c r="C53" s="39">
         <v>831</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="54">
-      <c r="A54" s="40">
+      <c r="A54" s="39">
         <v>832</v>
       </c>
-      <c r="B54" s="41" t="str">
+      <c r="B54" s="40" t="str">
         <v>关于这场晚宴，你还能告诉我哪些事情？</v>
       </c>
-      <c r="C54" s="40">
+      <c r="C54" s="39">
         <v>832</v>
       </c>
     </row>
@@ -4764,13 +4764,13 @@
       <c r="A55" s="48">
         <v>834</v>
       </c>
-      <c r="B55" s="41" t="str">
+      <c r="B55" s="40" t="str">
         <v>极乐之野的守卫告诉我你这里有能帮助我获得食材的道具。</v>
       </c>
       <c r="C55" s="48">
         <v>834</v>
       </c>
-      <c r="D55" s="5" t="str">
+      <c r="D55" s="8" t="str">
         <v>厄洛斯之香</v>
       </c>
     </row>
@@ -4797,17 +4797,17 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
     </row>
     <row r="59">
-      <c r="A59" s="49">
+      <c r="A59" s="50">
         <v>999</v>
       </c>
-      <c r="B59" s="50" t="str">
+      <c r="B59" s="49" t="str">
         <v>结束对话</v>
       </c>
-      <c r="C59" s="50">
+      <c r="C59" s="49">
         <v>0</v>
       </c>
     </row>
@@ -4830,376 +4830,376 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="32" t="str">
+      <c r="A1" s="36" t="str">
         <v>
 </v>
       </c>
-      <c r="B1" s="32" t="str">
+      <c r="B1" s="36" t="str">
         <v>
 特殊对话的轮次</v>
       </c>
-      <c r="C1" s="32" t="str">
+      <c r="C1" s="36" t="str">
         <v>特殊DialogueID</v>
       </c>
-      <c r="D1" s="32" t="str">
+      <c r="D1" s="36" t="str">
         <v>普通DialogueID</v>
       </c>
-      <c r="E1" s="32" t="str">
+      <c r="E1" s="36" t="str">
         <v>条件轮次</v>
       </c>
-      <c r="F1" s="32" t="str">
+      <c r="F1" s="36" t="str">
         <v>条件需要触发的DialogueId</v>
       </c>
-      <c r="G1" s="32" t="str">
+      <c r="G1" s="36" t="str">
         <v>条件达成后的DialogueId</v>
       </c>
     </row>
     <row customHeight="true" ht="33" r="2">
-      <c r="A2" s="32" t="str">
+      <c r="A2" s="36" t="str">
         <v>说明</v>
       </c>
-      <c r="B2" s="32" t="str">
+      <c r="B2" s="36" t="str">
         <v>string.
 用 “|”分割</v>
       </c>
-      <c r="C2" s="32" t="str">
+      <c r="C2" s="36" t="str">
         <v>int
 在特殊轮次触发</v>
       </c>
-      <c r="D2" s="32" t="str">
+      <c r="D2" s="36" t="str">
         <v>int
 在非特殊轮次触发</v>
       </c>
-      <c r="E2" s="32" t="str">
+      <c r="E2" s="36" t="str">
         <v>int
 </v>
       </c>
-      <c r="F2" s="32" t="str">
+      <c r="F2" s="36" t="str">
         <v>int</v>
       </c>
-      <c r="G2" s="32" t="str">
+      <c r="G2" s="36" t="str">
         <v>int</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="32" t="str">
+      <c r="A3" s="36" t="str">
         <v>阿斯摩太</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="36">
         <v>1</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="36">
         <v>2991</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="36">
         <v>2992</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="36">
         <v>0</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="36">
         <v>0</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="32" t="str">
+      <c r="A4" s="36" t="str">
         <v>摩洛克</v>
       </c>
-      <c r="B4" s="32" t="str">
+      <c r="B4" s="36" t="str">
         <v>5|6|7</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="8">
         <v>3992</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="36">
         <v>3991</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="36">
         <v>0</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="36">
         <v>0</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="32" t="str">
+      <c r="A5" s="36" t="str">
         <v>利维坦</v>
       </c>
-      <c r="B5" s="32" t="str">
+      <c r="B5" s="36" t="str">
         <v>1|2|3</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="36">
         <v>4991</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="36">
         <v>4992</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="36">
         <v>0</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="36">
         <v>0</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="32" t="str">
+      <c r="A6" s="36" t="str">
         <v>巴力</v>
       </c>
-      <c r="B6" s="32" t="str">
+      <c r="B6" s="36" t="str">
         <v>1|2</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="36">
         <v>5991</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="36">
         <v>5992</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="36">
         <v>0</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="36">
         <v>0</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="32" t="str">
+      <c r="A7" s="36" t="str">
         <v>贝尔芬格</v>
       </c>
-      <c r="B7" s="32" t="str">
+      <c r="B7" s="36" t="str">
         <v>6|7</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="8">
         <v>6992</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="36">
         <v>6991</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="36">
         <v>0</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="36">
         <v>0</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="32" t="str">
+      <c r="A8" s="36" t="str">
         <v>玛门</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="36">
         <v>0</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="36">
         <v>0</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="36">
         <v>7991</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="36">
         <v>0</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="36">
         <v>0</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="32" t="str">
+      <c r="A9" s="36" t="str">
         <v>撒旦</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="36">
         <v>7</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="36">
         <v>8992</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="36">
         <v>8991</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="36">
         <v>0</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="36">
         <v>0</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="32" t="str">
+      <c r="A10" s="36" t="str">
         <v>大饼</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="36">
         <v>1</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="36">
         <v>220</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="36">
         <v>210</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="36">
         <v>3</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="36">
         <v>423</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="36">
         <v>230</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="32" t="str">
+      <c r="A11" s="36" t="str">
         <v>三叶虫</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="36">
         <v>4</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="36">
         <v>320</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="36">
         <v>310</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="36">
         <v>1</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="36">
         <v>223</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="36">
         <v>330</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="32" t="str">
+      <c r="A12" s="36" t="str">
         <v>因诺</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="36">
         <v>3</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="36">
         <v>420</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="36">
         <v>410</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="36">
         <v>0</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="36">
         <v>0</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="32" t="str">
+      <c r="A13" s="36" t="str">
         <v>摸摸</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="36">
         <v>2</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="36">
         <v>520</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="36">
         <v>510</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="36">
         <v>7</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="36">
         <v>723</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="36">
         <v>530</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="32" t="str">
+      <c r="A14" s="36" t="str">
         <v>牙牙乐</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="36">
         <v>5</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="36">
         <v>620</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="36">
         <v>610</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="36">
         <v>0</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="36">
         <v>0</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="32" t="str">
+      <c r="A15" s="36" t="str">
         <v>小葵</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="36">
         <v>7</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="36">
         <v>720</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="36">
         <v>710</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="36">
         <v>5</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="36">
         <v>623</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="36">
         <v>730</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="32" t="str">
+      <c r="A16" s="36" t="str">
         <v>蓝七</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="36">
         <v>6</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="36">
         <v>820</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="36">
         <v>810</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="36">
         <v>4</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="36">
         <v>323</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="36">
         <v>830</v>
       </c>
     </row>
